--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="359">
   <si>
     <t>Feature</t>
   </si>
@@ -824,6 +824,9 @@
     <t>key mapping: shift-UP</t>
   </si>
   <si>
+    <t>key mapping: ?</t>
+  </si>
+  <si>
     <t>key mapping (mac): option-BACKSPACE</t>
   </si>
   <si>
@@ -845,18 +848,12 @@
     <t>key mapping (linux, win): ctrl-shift-END</t>
   </si>
   <si>
-    <t>key mapping: END (mac: command-RIGHT)</t>
-  </si>
-  <si>
     <t>key mapping: TAB</t>
   </si>
   <si>
     <t>key mapping: ENTER</t>
   </si>
   <si>
-    <t>key mapping: HOME (mac: command-LEFT)</t>
-  </si>
-  <si>
     <t>key mapping (mac): command-UP</t>
   </si>
   <si>
@@ -872,6 +869,12 @@
     <t>key mapping (linux, win): ctrl-shift-HOME</t>
   </si>
   <si>
+    <t>key mapping (linux, win): shift-HOME</t>
+  </si>
+  <si>
+    <t>key mapping (mac): command-shift-LEFT</t>
+  </si>
+  <si>
     <t>key mapping: PASTE</t>
   </si>
   <si>
@@ -941,12 +944,6 @@
     <t>key mapping: PAGE_UP (mac: fn-UP)</t>
   </si>
   <si>
-    <t>key mapping: shift-END (mac: command-shift-RIGHT)</t>
-  </si>
-  <si>
-    <t>key mapping: shift-HOME (mac: command-shift-LEFT)</t>
-  </si>
-  <si>
     <t>key mapping (linux, win): ctrl-shift-TAB</t>
   </si>
   <si>
@@ -1014,6 +1011,90 @@
   </si>
   <si>
     <t>tailing bias at the end of the wrapped row</t>
+  </si>
+  <si>
+    <t>clamp to valid position</t>
+  </si>
+  <si>
+    <t>key mapping (linux, win): END</t>
+  </si>
+  <si>
+    <t>key mapping (mac): command-RIGHT</t>
+  </si>
+  <si>
+    <t>key mapping (mac): command-LEFT</t>
+  </si>
+  <si>
+    <t>key mapping (linux, win): HOME</t>
+  </si>
+  <si>
+    <t>key mapping (mac): command-shift-RIGHT</t>
+  </si>
+  <si>
+    <t>key mapping (linux, win): shift-END</t>
+  </si>
+  <si>
+    <t>wrapped mode: move to line start</t>
+  </si>
+  <si>
+    <t>unwrapped mode: move to paragraph start</t>
+  </si>
+  <si>
+    <t>wrapped mode: move to line end (same line, trailing)</t>
+  </si>
+  <si>
+    <t>unwrapped mode: move to paragraph end (same line, trailing)</t>
+  </si>
+  <si>
+    <t>wrapped mode: select to line end (same line, trailing)</t>
+  </si>
+  <si>
+    <t>unwrapped mode: select to paragraph end (same line, trailing)</t>
+  </si>
+  <si>
+    <t>wrapped mode: select to line start</t>
+  </si>
+  <si>
+    <t>unwrapped mode: select to paragraph start</t>
+  </si>
+  <si>
+    <t>unmapped</t>
+  </si>
+  <si>
+    <t>moves to paragraph start</t>
+  </si>
+  <si>
+    <t>moves to paragraph end</t>
+  </si>
+  <si>
+    <t>SELECT_TO_PARAGRAPH_START</t>
+  </si>
+  <si>
+    <t>SELECT_TO_PARAGRAPH_END</t>
+  </si>
+  <si>
+    <t>select to paragraph start</t>
+  </si>
+  <si>
+    <t>select to paragraph end</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>moves to document end</t>
+  </si>
+  <si>
+    <t>moves to document start</t>
+  </si>
+  <si>
+    <t>selects all</t>
+  </si>
+  <si>
+    <t>selects to document end</t>
+  </si>
+  <si>
+    <t>selects to document start</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1318,637 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1443,7 +2154,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +2216,7 @@
                   <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,7 +2649,7 @@
                   <c:v>0.38338658146964855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48991354466858789</c:v>
+                  <c:v>0.59854014598540151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,7 +2845,7 @@
                   <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,10 +3508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3765,19 +4476,19 @@
     </row>
     <row r="120" spans="2:4" s="38" customFormat="1">
       <c r="B120" s="39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D120" s="40"/>
     </row>
     <row r="121" spans="2:4" s="38" customFormat="1">
       <c r="B121" s="39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D121" s="40"/>
     </row>
@@ -3792,7 +4503,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3801,25 +4512,25 @@
     </row>
     <row r="124" spans="2:4" s="38" customFormat="1">
       <c r="B124" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="40"/>
+    </row>
+    <row r="125" spans="2:4" s="38" customFormat="1">
+      <c r="B125" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="40"/>
-    </row>
-    <row r="125" spans="2:4" s="38" customFormat="1">
-      <c r="B125" s="42" t="s">
-        <v>202</v>
-      </c>
       <c r="C125" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D125" s="40"/>
     </row>
     <row r="126" spans="2:4" s="38" customFormat="1">
       <c r="B126" s="42" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>14</v>
@@ -3828,7 +4539,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -3837,16 +4548,16 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D128" s="40"/>
     </row>
     <row r="129" spans="2:4" s="38" customFormat="1">
       <c r="B129" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>14</v>
@@ -3855,7 +4566,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -3864,25 +4575,25 @@
     </row>
     <row r="131" spans="2:4" s="38" customFormat="1">
       <c r="B131" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D131" s="40"/>
     </row>
     <row r="132" spans="2:4" s="38" customFormat="1">
-      <c r="B132" s="42" t="s">
-        <v>152</v>
+      <c r="B132" s="39" t="s">
+        <v>250</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D132" s="40"/>
     </row>
     <row r="133" spans="2:4" s="38" customFormat="1">
-      <c r="B133" s="39" t="s">
-        <v>76</v>
+      <c r="B133" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>14</v>
@@ -3891,7 +4602,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -3899,8 +4610,8 @@
       <c r="D134" s="40"/>
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
-      <c r="B135" s="42" t="s">
-        <v>173</v>
+      <c r="B135" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>14</v>
@@ -3909,16 +4620,16 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D136" s="40"/>
     </row>
     <row r="137" spans="2:4" s="38" customFormat="1">
       <c r="B137" s="42" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>14</v>
@@ -3927,7 +4638,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -3936,7 +4647,7 @@
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
       <c r="B139" s="39" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -3945,41 +4656,43 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D140" s="40"/>
     </row>
     <row r="141" spans="2:4" s="38" customFormat="1">
       <c r="B141" s="42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="40"/>
     </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="44" t="s">
-        <v>108</v>
+    <row r="142" spans="2:4" s="38" customFormat="1">
+      <c r="B142" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="44" t="s">
-        <v>109</v>
+      <c r="D142" s="40"/>
+    </row>
+    <row r="143" spans="2:4" s="38" customFormat="1">
+      <c r="B143" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
       </c>
+      <c r="D143" s="40"/>
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>14</v>
@@ -3987,8 +4700,8 @@
       <c r="D144" s="40"/>
     </row>
     <row r="145" spans="2:4" s="38" customFormat="1">
-      <c r="B145" s="39" t="s">
-        <v>268</v>
+      <c r="B145" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>14</v>
@@ -3997,7 +4710,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4005,17 +4718,17 @@
       <c r="D146" s="40"/>
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
-      <c r="B147" s="42" t="s">
-        <v>176</v>
+      <c r="B147" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D147" s="40"/>
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>2</v>
@@ -4023,44 +4736,42 @@
       <c r="D148" s="40"/>
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
-      <c r="B149" s="42" t="s">
-        <v>177</v>
+      <c r="B149" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D149" s="40"/>
     </row>
     <row r="150" spans="2:4" s="38" customFormat="1">
-      <c r="B150" s="39" t="s">
-        <v>310</v>
+      <c r="B150" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="40"/>
     </row>
-    <row r="151" spans="2:4" s="38" customFormat="1">
-      <c r="B151" s="39" t="s">
-        <v>311</v>
+    <row r="151" spans="2:4">
+      <c r="B151" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D151" s="40"/>
-    </row>
-    <row r="152" spans="2:4" s="38" customFormat="1">
-      <c r="B152" s="42" t="s">
-        <v>178</v>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D152" s="40"/>
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>14</v>
@@ -4069,43 +4780,43 @@
     </row>
     <row r="154" spans="2:4" s="38" customFormat="1">
       <c r="B154" s="39" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D154" s="40"/>
     </row>
     <row r="155" spans="2:4" s="38" customFormat="1">
-      <c r="B155" s="42" t="s">
-        <v>153</v>
+      <c r="B155" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D155" s="40"/>
     </row>
     <row r="156" spans="2:4" s="38" customFormat="1">
-      <c r="B156" s="39" t="s">
-        <v>76</v>
+      <c r="B156" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156" s="40"/>
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D157" s="40"/>
     </row>
     <row r="158" spans="2:4" s="38" customFormat="1">
       <c r="B158" s="42" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>14</v>
@@ -4114,7 +4825,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4123,7 +4834,7 @@
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
       <c r="B160" s="39" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>14</v>
@@ -4131,8 +4842,8 @@
       <c r="D160" s="40"/>
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
-      <c r="B161" s="42" t="s">
-        <v>155</v>
+      <c r="B161" s="39" t="s">
+        <v>310</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>14</v>
@@ -4140,8 +4851,8 @@
       <c r="D161" s="40"/>
     </row>
     <row r="162" spans="2:4" s="38" customFormat="1">
-      <c r="B162" s="39" t="s">
-        <v>328</v>
+      <c r="B162" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>14</v>
@@ -4150,7 +4861,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4159,43 +4870,43 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C164" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D164" s="40"/>
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
-      <c r="B165" s="42" t="s">
-        <v>156</v>
+      <c r="B165" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D165" s="40"/>
     </row>
     <row r="166" spans="2:4" s="38" customFormat="1">
-      <c r="B166" s="39" t="s">
-        <v>316</v>
+      <c r="B166" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D166" s="40"/>
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C167" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D167" s="40"/>
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4204,43 +4915,43 @@
     </row>
     <row r="169" spans="2:4" s="38" customFormat="1">
       <c r="B169" s="39" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="C169" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="40"/>
+    </row>
+    <row r="170" spans="2:4" s="38" customFormat="1">
+      <c r="B170" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="40"/>
-    </row>
-    <row r="170" spans="2:4" s="38" customFormat="1">
-      <c r="B170" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="C170" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D170" s="40"/>
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
-      <c r="B171" s="42" t="s">
-        <v>157</v>
+      <c r="B171" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D171" s="40"/>
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D172" s="40"/>
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
       <c r="B173" s="39" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4248,8 +4959,8 @@
       <c r="D173" s="40"/>
     </row>
     <row r="174" spans="2:4" s="38" customFormat="1">
-      <c r="B174" s="39" t="s">
-        <v>318</v>
+      <c r="B174" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>14</v>
@@ -4258,7 +4969,7 @@
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>14</v>
@@ -4267,43 +4978,43 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D176" s="40"/>
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
-      <c r="B177" s="42" t="s">
-        <v>159</v>
+      <c r="B177" s="39" t="s">
+        <v>328</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D177" s="40"/>
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
       <c r="B178" s="39" t="s">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D178" s="40"/>
     </row>
     <row r="179" spans="2:4" s="38" customFormat="1">
-      <c r="B179" s="39" t="s">
-        <v>272</v>
+      <c r="B179" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D179" s="40"/>
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>2</v>
@@ -4311,8 +5022,8 @@
       <c r="D180" s="40"/>
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
-      <c r="B181" s="42" t="s">
-        <v>158</v>
+      <c r="B181" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -4321,7 +5032,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>14</v>
@@ -4330,7 +5041,7 @@
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
       <c r="B183" s="39" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>14</v>
@@ -4339,7 +5050,7 @@
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
       <c r="B184" s="39" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -4348,34 +5059,34 @@
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
       <c r="B185" s="42" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="C186" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
-      <c r="B188" s="42" t="s">
-        <v>179</v>
+      <c r="B188" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>14</v>
@@ -4393,34 +5104,34 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C190" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
       <c r="B191" s="42" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C191" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D191" s="40"/>
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C192" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="40"/>
+    </row>
+    <row r="193" spans="2:4" s="38" customFormat="1">
+      <c r="B193" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="C192" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="40"/>
-    </row>
-    <row r="193" spans="2:4" s="38" customFormat="1">
-      <c r="B193" s="42" t="s">
-        <v>182</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>14</v>
@@ -4429,43 +5140,43 @@
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
       <c r="B194" s="39" t="s">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="C194" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D194" s="40"/>
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
-      <c r="B195" s="42" t="s">
-        <v>291</v>
+      <c r="B195" s="39" t="s">
+        <v>274</v>
       </c>
       <c r="C195" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
-      <c r="B196" s="39" t="s">
-        <v>76</v>
+      <c r="B196" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="C196" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D196" s="40"/>
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="C197" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
       <c r="B198" s="39" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>14</v>
@@ -4473,53 +5184,53 @@
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
-      <c r="B199" s="42" t="s">
-        <v>292</v>
+      <c r="B199" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="C199" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D199" s="40"/>
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="C200" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
-      <c r="B201" s="39" t="s">
-        <v>301</v>
+      <c r="B201" s="42" t="s">
+        <v>180</v>
       </c>
       <c r="C201" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D201" s="40"/>
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C202" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
-      <c r="B203" s="42" t="s">
-        <v>160</v>
+      <c r="B203" s="39" t="s">
+        <v>341</v>
       </c>
       <c r="C203" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D203" s="40"/>
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C204" s="40" t="s">
         <v>14</v>
@@ -4528,14 +5239,16 @@
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
       <c r="B205" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C205" s="40"/>
+        <v>333</v>
+      </c>
+      <c r="C205" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4544,16 +5257,16 @@
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
       <c r="B207" s="42" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C207" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D207" s="40"/>
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4561,62 +5274,62 @@
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
-      <c r="B209" s="42" t="s">
-        <v>162</v>
+      <c r="B209" s="39" t="s">
+        <v>339</v>
       </c>
       <c r="C209" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D209" s="40"/>
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
-      <c r="B211" s="42" t="s">
-        <v>163</v>
+      <c r="B211" s="39" t="s">
+        <v>334</v>
       </c>
       <c r="C211" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D211" s="40"/>
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="C212" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
-      <c r="B213" s="39" t="s">
-        <v>285</v>
+      <c r="B213" s="42" t="s">
+        <v>181</v>
       </c>
       <c r="C213" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D213" s="40"/>
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
-      <c r="B214" s="42" t="s">
-        <v>183</v>
+      <c r="B214" s="39" t="s">
+        <v>347</v>
       </c>
       <c r="C214" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
       <c r="B215" s="39" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>14</v>
@@ -4624,35 +5337,35 @@
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
-      <c r="B216" s="42" t="s">
-        <v>164</v>
+      <c r="B216" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="C216" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
-      <c r="B217" s="39" t="s">
-        <v>287</v>
+      <c r="B217" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="C217" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D217" s="40"/>
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="C218" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
       <c r="B219" s="39" t="s">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="C219" s="40" t="s">
         <v>14</v>
@@ -4660,8 +5373,8 @@
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
-      <c r="B220" s="42" t="s">
-        <v>165</v>
+      <c r="B220" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>2</v>
@@ -4669,26 +5382,26 @@
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
-      <c r="B221" s="39" t="s">
-        <v>251</v>
+      <c r="B221" s="42" t="s">
+        <v>292</v>
       </c>
       <c r="C221" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
-      <c r="B222" s="42" t="s">
-        <v>166</v>
+      <c r="B222" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C222" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
       <c r="B223" s="39" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C223" s="40" t="s">
         <v>14</v>
@@ -4697,16 +5410,16 @@
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
       <c r="B224" s="39" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C224" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D224" s="40"/>
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>2</v>
@@ -4715,25 +5428,25 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="42" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D226" s="40"/>
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C227" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D227" s="40"/>
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
       <c r="B228" s="39" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
       <c r="C228" s="40" t="s">
         <v>14</v>
@@ -4742,34 +5455,34 @@
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
       <c r="B229" s="39" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C229" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D229" s="40"/>
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="C230" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="40"/>
+    </row>
+    <row r="231" spans="2:4" s="38" customFormat="1">
+      <c r="B231" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C231" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D230" s="40"/>
-    </row>
-    <row r="231" spans="2:4" s="38" customFormat="1">
-      <c r="B231" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="C231" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D231" s="40"/>
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
-      <c r="B232" s="42" t="s">
-        <v>168</v>
+      <c r="B232" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>14</v>
@@ -4778,16 +5491,16 @@
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
       <c r="B233" s="39" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C233" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D233" s="40"/>
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
-      <c r="B234" s="42" t="s">
-        <v>169</v>
+      <c r="B234" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>14</v>
@@ -4796,7 +5509,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4805,25 +5518,25 @@
     </row>
     <row r="236" spans="2:4" s="38" customFormat="1">
       <c r="B236" s="42" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D236" s="40"/>
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C237" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D237" s="40"/>
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
       <c r="B238" s="39" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -4831,17 +5544,17 @@
       <c r="D238" s="40"/>
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
-      <c r="B239" s="39" t="s">
-        <v>320</v>
+      <c r="B239" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="C239" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D239" s="40"/>
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
       <c r="B240" s="39" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>14</v>
@@ -4849,8 +5562,8 @@
       <c r="D240" s="40"/>
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
-      <c r="B241" s="42" t="s">
-        <v>170</v>
+      <c r="B241" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -4858,17 +5571,17 @@
       <c r="D241" s="40"/>
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
-      <c r="B242" s="39" t="s">
-        <v>317</v>
+      <c r="B242" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D242" s="40"/>
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C243" s="40" t="s">
         <v>14</v>
@@ -4877,79 +5590,79 @@
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
       <c r="B244" s="39" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D244" s="40"/>
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="C245" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="40"/>
+    </row>
+    <row r="246" spans="2:4" s="38" customFormat="1">
+      <c r="B246" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C246" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D245" s="40"/>
-    </row>
-    <row r="246" spans="2:4" s="38" customFormat="1">
-      <c r="B246" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="C246" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D246" s="40"/>
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
-      <c r="B247" s="42" t="s">
-        <v>184</v>
+      <c r="B247" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D247" s="40"/>
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
       <c r="B248" s="39" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C248" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="40"/>
+    </row>
+    <row r="249" spans="2:4" s="38" customFormat="1">
+      <c r="B249" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C249" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D248" s="40"/>
-    </row>
-    <row r="249" spans="2:4" s="38" customFormat="1">
-      <c r="B249" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C249" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D249" s="40"/>
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
-      <c r="B250" s="42" t="s">
-        <v>185</v>
+      <c r="B250" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D250" s="40"/>
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
       <c r="B251" s="39" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D251" s="40"/>
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C252" s="40" t="s">
         <v>2</v>
@@ -4957,53 +5670,53 @@
       <c r="D252" s="40"/>
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
-      <c r="B253" s="42" t="s">
-        <v>186</v>
+      <c r="B253" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
-      <c r="B254" s="39" t="s">
-        <v>307</v>
+      <c r="B254" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D254" s="40"/>
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
-      <c r="B255" s="42" t="s">
-        <v>187</v>
+      <c r="B255" s="39" t="s">
+        <v>356</v>
       </c>
       <c r="C255" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D255" s="40"/>
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
       <c r="B256" s="39" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="C256" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D256" s="40"/>
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
       <c r="B257" s="42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C257" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D257" s="40"/>
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
       <c r="B258" s="39" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C258" s="40" t="s">
         <v>14</v>
@@ -5012,50 +5725,52 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C259" s="40"/>
+        <v>327</v>
+      </c>
+      <c r="C259" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D259" s="40"/>
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="39" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C260" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D260" s="40"/>
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
-      <c r="B261" s="42" t="s">
-        <v>204</v>
+      <c r="B261" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="C261" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D261" s="40"/>
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
       <c r="B262" s="42" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="C262" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D262" s="40"/>
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
       <c r="B263" s="39" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C263" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D263" s="40"/>
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C264" s="40" t="s">
         <v>14</v>
@@ -5063,8 +5778,8 @@
       <c r="D264" s="40"/>
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
-      <c r="B265" s="42" t="s">
-        <v>298</v>
+      <c r="B265" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>14</v>
@@ -5073,7 +5788,7 @@
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C266" s="40" t="s">
         <v>14</v>
@@ -5082,16 +5797,16 @@
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
       <c r="B267" s="39" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C267" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D267" s="40"/>
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
       <c r="B268" s="42" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C268" s="40" t="s">
         <v>14</v>
@@ -5100,7 +5815,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>14</v>
@@ -5109,38 +5824,52 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="C270" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="40"/>
+    </row>
+    <row r="271" spans="2:4" s="38" customFormat="1">
+      <c r="B271" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C271" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D270" s="40"/>
-    </row>
-    <row r="271" spans="2:4" s="38" customFormat="1">
-      <c r="B271" s="41"/>
-      <c r="C271" s="40"/>
       <c r="D271" s="40"/>
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
-      <c r="B272" s="41"/>
-      <c r="C272" s="40"/>
+      <c r="B272" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C272" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D272" s="40"/>
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
-      <c r="B273" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C273" s="40"/>
+      <c r="B273" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="C273" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D273" s="40"/>
     </row>
     <row r="274" spans="2:4" s="38" customFormat="1">
-      <c r="B274" s="41"/>
-      <c r="C274" s="40"/>
+      <c r="B274" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C274" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D274" s="40"/>
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
-      <c r="B275" s="41" t="s">
-        <v>90</v>
+      <c r="B275" s="39" t="s">
+        <v>321</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5148,13 +5877,17 @@
       <c r="D275" s="40"/>
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
-      <c r="B276" s="41"/>
-      <c r="C276" s="40"/>
+      <c r="B276" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C276" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D276" s="40"/>
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
-      <c r="B277" s="42" t="s">
-        <v>27</v>
+      <c r="B277" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5163,16 +5896,16 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="C278" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D278" s="40"/>
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
-      <c r="B279" s="43" t="s">
-        <v>324</v>
+      <c r="B279" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5180,17 +5913,17 @@
       <c r="D279" s="40"/>
     </row>
     <row r="280" spans="2:4" s="38" customFormat="1">
-      <c r="B280" s="39" t="s">
-        <v>61</v>
+      <c r="B280" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="C280" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D280" s="40"/>
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5198,59 +5931,71 @@
       <c r="D281" s="40"/>
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
-      <c r="B282" s="39"/>
-      <c r="C282" s="40"/>
+      <c r="B282" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C282" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D282" s="40"/>
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
       <c r="B283" s="39" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="C283" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D283" s="40"/>
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
-      <c r="B284" s="43" t="s">
-        <v>326</v>
+      <c r="B284" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C284" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D284" s="40"/>
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
-      <c r="B285" s="41"/>
-      <c r="C285" s="40"/>
+      <c r="B285" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C285" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D285" s="40"/>
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
-      <c r="B286" s="39" t="s">
-        <v>36</v>
+      <c r="B286" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="C286" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D286" s="40"/>
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
-      <c r="B287" s="43" t="s">
-        <v>86</v>
+      <c r="B287" s="39" t="s">
+        <v>357</v>
       </c>
       <c r="C287" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D287" s="40"/>
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
-      <c r="B288" s="39"/>
-      <c r="C288" s="40"/>
+      <c r="B288" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C288" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D288" s="40"/>
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5258,8 +6003,8 @@
       <c r="D289" s="40"/>
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
-      <c r="B290" s="43" t="s">
-        <v>327</v>
+      <c r="B290" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5267,127 +6012,143 @@
       <c r="D290" s="40"/>
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
-      <c r="B291" s="43" t="s">
-        <v>57</v>
+      <c r="B291" s="39" t="s">
+        <v>358</v>
       </c>
       <c r="C291" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D291" s="40"/>
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
-      <c r="B292" s="43" t="s">
-        <v>99</v>
+      <c r="B292" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="C292" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D292" s="40"/>
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
-      <c r="B293" s="41"/>
-      <c r="C293" s="40"/>
+      <c r="B293" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C293" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D293" s="40"/>
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
-      <c r="B294" s="39" t="s">
-        <v>40</v>
+      <c r="B294" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="C294" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D294" s="40"/>
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
-      <c r="B295" s="43" t="s">
-        <v>44</v>
+      <c r="B295" s="39" t="s">
+        <v>342</v>
       </c>
       <c r="C295" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D295" s="40"/>
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
-      <c r="B296" s="43" t="s">
-        <v>57</v>
+      <c r="B296" s="39" t="s">
+        <v>343</v>
       </c>
       <c r="C296" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D296" s="40"/>
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
-      <c r="B297" s="43" t="s">
-        <v>99</v>
+      <c r="B297" s="39" t="s">
+        <v>336</v>
       </c>
       <c r="C297" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D297" s="40"/>
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
-      <c r="B298" s="41"/>
-      <c r="C298" s="40"/>
+      <c r="B298" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C298" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D298" s="40"/>
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
-      <c r="B299" s="39" t="s">
-        <v>42</v>
+      <c r="B299" s="42" t="s">
+        <v>187</v>
       </c>
       <c r="C299" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D299" s="40"/>
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
-      <c r="B300" s="43" t="s">
-        <v>87</v>
+      <c r="B300" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="C300" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D300" s="40"/>
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
-      <c r="B301" s="41"/>
-      <c r="C301" s="40"/>
+      <c r="B301" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C301" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D301" s="40"/>
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="C302" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D302" s="40"/>
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
-      <c r="B303" s="39"/>
-      <c r="C303" s="40"/>
+      <c r="B303" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C303" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D303" s="40"/>
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="42" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="C304" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D304" s="40"/>
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
       <c r="B305" s="39" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="C305" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D305" s="40"/>
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
-      <c r="B306" s="43" t="s">
-        <v>88</v>
+      <c r="B306" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>14</v>
@@ -5395,45 +6156,53 @@
       <c r="D306" s="40"/>
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
-      <c r="B307" s="41"/>
-      <c r="C307" s="40"/>
+      <c r="B307" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="C307" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D307" s="40"/>
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
-      <c r="B308" s="39" t="s">
-        <v>38</v>
+      <c r="B308" s="42" t="s">
+        <v>350</v>
       </c>
       <c r="C308" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D308" s="40"/>
+    </row>
+    <row r="309" spans="2:4" s="38" customFormat="1">
+      <c r="B309" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C309" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D309" s="40"/>
+    </row>
+    <row r="310" spans="2:4" s="38" customFormat="1">
+      <c r="B310" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C310" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D308" s="40"/>
-    </row>
-    <row r="309" spans="2:4" s="38" customFormat="1">
-      <c r="B309" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C309" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D309" s="40"/>
-    </row>
-    <row r="310" spans="2:4" s="38" customFormat="1">
-      <c r="B310" s="41"/>
-      <c r="C310" s="40"/>
       <c r="D310" s="40"/>
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="C311" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D311" s="40"/>
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
-      <c r="B312" s="43" t="s">
-        <v>39</v>
+      <c r="B312" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="C312" s="40" t="s">
         <v>14</v>
@@ -5441,13 +6210,17 @@
       <c r="D312" s="40"/>
     </row>
     <row r="313" spans="2:4" s="38" customFormat="1">
-      <c r="B313" s="41"/>
-      <c r="C313" s="40"/>
+      <c r="B313" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C313" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D313" s="40"/>
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
       <c r="B314" s="39" t="s">
-        <v>43</v>
+        <v>327</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>14</v>
@@ -5455,8 +6228,8 @@
       <c r="D314" s="40"/>
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
-      <c r="B315" s="43" t="s">
-        <v>39</v>
+      <c r="B315" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>14</v>
@@ -5464,13 +6237,17 @@
       <c r="D315" s="40"/>
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
-      <c r="B316" s="39"/>
-      <c r="C316" s="40"/>
+      <c r="B316" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C316" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D316" s="40"/>
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
       <c r="B317" s="42" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>14</v>
@@ -5479,7 +6256,7 @@
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
       <c r="B318" s="39" t="s">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>14</v>
@@ -5488,16 +6265,16 @@
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
       <c r="B319" s="39" t="s">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="C319" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D319" s="40"/>
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
-      <c r="B320" s="39" t="s">
-        <v>67</v>
+      <c r="B320" s="42" t="s">
+        <v>296</v>
       </c>
       <c r="C320" s="40" t="s">
         <v>14</v>
@@ -5505,31 +6282,35 @@
       <c r="D320" s="40"/>
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
-      <c r="B321" s="39"/>
-      <c r="C321" s="40"/>
+      <c r="B321" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C321" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D321" s="40"/>
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
-      <c r="B322" s="42" t="s">
-        <v>47</v>
+      <c r="B322" s="39" t="s">
+        <v>298</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D322" s="40"/>
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
       <c r="B323" s="39" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D323" s="40"/>
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
-      <c r="B324" s="39" t="s">
-        <v>59</v>
+      <c r="B324" s="42" t="s">
+        <v>299</v>
       </c>
       <c r="C324" s="40" t="s">
         <v>14</v>
@@ -5537,31 +6318,35 @@
       <c r="D324" s="40"/>
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
-      <c r="B325" s="39"/>
-      <c r="C325" s="40"/>
+      <c r="B325" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C325" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D325" s="40"/>
     </row>
     <row r="326" spans="2:4" s="38" customFormat="1">
-      <c r="B326" s="42" t="s">
-        <v>144</v>
+      <c r="B326" s="39" t="s">
+        <v>300</v>
       </c>
       <c r="C326" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D326" s="40"/>
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="C327" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D327" s="40"/>
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
-      <c r="B328" s="39" t="s">
-        <v>146</v>
+      <c r="B328" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="C328" s="40" t="s">
         <v>14</v>
@@ -5569,107 +6354,144 @@
       <c r="D328" s="40"/>
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
-      <c r="B329" s="41"/>
-      <c r="C329" s="40"/>
+      <c r="B329" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C329" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D329" s="40"/>
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
-      <c r="B330" s="41"/>
-      <c r="C330" s="40"/>
+      <c r="B330" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C330" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D330" s="40"/>
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
-      <c r="B331" s="41"/>
-      <c r="C331" s="40"/>
+      <c r="B331" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C331" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D331" s="40"/>
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
-      <c r="B332" s="39"/>
+      <c r="B332" s="41"/>
       <c r="C332" s="40"/>
       <c r="D332" s="40"/>
     </row>
-    <row r="333" spans="2:4">
+    <row r="333" spans="2:4" s="38" customFormat="1">
+      <c r="B333" s="41"/>
       <c r="C333" s="40"/>
-    </row>
-    <row r="334" spans="2:4">
+      <c r="D333" s="40"/>
+    </row>
+    <row r="334" spans="2:4" s="38" customFormat="1">
       <c r="B334" s="37" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C334" s="40"/>
-    </row>
-    <row r="336" spans="2:4">
-      <c r="B336" s="35" t="s">
-        <v>45</v>
+      <c r="D334" s="40"/>
+    </row>
+    <row r="335" spans="2:4" s="38" customFormat="1">
+      <c r="B335" s="41"/>
+      <c r="C335" s="40"/>
+      <c r="D335" s="40"/>
+    </row>
+    <row r="336" spans="2:4" s="38" customFormat="1">
+      <c r="B336" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="C336" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" s="40"/>
+    </row>
+    <row r="337" spans="2:4" s="38" customFormat="1">
+      <c r="B337" s="41"/>
+      <c r="C337" s="40"/>
+      <c r="D337" s="40"/>
+    </row>
+    <row r="338" spans="2:4" s="38" customFormat="1">
+      <c r="B338" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C338" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D338" s="40"/>
+    </row>
+    <row r="339" spans="2:4" s="38" customFormat="1">
+      <c r="B339" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C339" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D339" s="40"/>
+    </row>
+    <row r="340" spans="2:4" s="38" customFormat="1">
+      <c r="B340" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C340" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" s="40"/>
+    </row>
+    <row r="341" spans="2:4" s="38" customFormat="1">
+      <c r="B341" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C341" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="B337" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C337" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4">
-      <c r="B338" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C338" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="B339" s="44"/>
-      <c r="C339" s="40"/>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="C340" s="40"/>
+      <c r="D341" s="40"/>
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
-      <c r="B342" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C342" s="40"/>
+      <c r="B342" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C342" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D342" s="40"/>
     </row>
     <row r="343" spans="2:4" s="38" customFormat="1">
-      <c r="B343" s="41"/>
+      <c r="B343" s="39"/>
       <c r="C343" s="40"/>
       <c r="D343" s="40"/>
     </row>
     <row r="344" spans="2:4" s="38" customFormat="1">
-      <c r="B344" s="41" t="s">
-        <v>100</v>
+      <c r="B344" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C344" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D344" s="40"/>
     </row>
     <row r="345" spans="2:4" s="38" customFormat="1">
-      <c r="B345" s="41" t="s">
-        <v>139</v>
+      <c r="B345" s="43" t="s">
+        <v>325</v>
       </c>
       <c r="C345" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D345" s="40"/>
     </row>
     <row r="346" spans="2:4" s="38" customFormat="1">
-      <c r="B346" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C346" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B346" s="41"/>
+      <c r="C346" s="40"/>
       <c r="D346" s="40"/>
     </row>
     <row r="347" spans="2:4" s="38" customFormat="1">
-      <c r="B347" s="41" t="s">
-        <v>140</v>
+      <c r="B347" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="C347" s="40" t="s">
         <v>14</v>
@@ -5677,8 +6499,8 @@
       <c r="D347" s="40"/>
     </row>
     <row r="348" spans="2:4" s="38" customFormat="1">
-      <c r="B348" s="41" t="s">
-        <v>141</v>
+      <c r="B348" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="C348" s="40" t="s">
         <v>14</v>
@@ -5686,31 +6508,31 @@
       <c r="D348" s="40"/>
     </row>
     <row r="349" spans="2:4" s="38" customFormat="1">
-      <c r="B349" s="41"/>
+      <c r="B349" s="39"/>
       <c r="C349" s="40"/>
       <c r="D349" s="40"/>
     </row>
     <row r="350" spans="2:4" s="38" customFormat="1">
-      <c r="B350" s="41" t="s">
-        <v>26</v>
+      <c r="B350" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="C350" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D350" s="40"/>
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
-      <c r="B351" s="39" t="s">
-        <v>107</v>
+      <c r="B351" s="43" t="s">
+        <v>326</v>
       </c>
       <c r="C351" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D351" s="40"/>
     </row>
     <row r="352" spans="2:4" s="38" customFormat="1">
-      <c r="B352" s="39" t="s">
-        <v>105</v>
+      <c r="B352" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C352" s="40" t="s">
         <v>14</v>
@@ -5718,8 +6540,8 @@
       <c r="D352" s="40"/>
     </row>
     <row r="353" spans="2:4" s="38" customFormat="1">
-      <c r="B353" s="39" t="s">
-        <v>106</v>
+      <c r="B353" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="C353" s="40" t="s">
         <v>14</v>
@@ -5727,13 +6549,13 @@
       <c r="D353" s="40"/>
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
-      <c r="B354" s="39"/>
+      <c r="B354" s="41"/>
       <c r="C354" s="40"/>
       <c r="D354" s="40"/>
     </row>
     <row r="355" spans="2:4" s="38" customFormat="1">
-      <c r="B355" s="41" t="s">
-        <v>51</v>
+      <c r="B355" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C355" s="40" t="s">
         <v>14</v>
@@ -5741,13 +6563,17 @@
       <c r="D355" s="40"/>
     </row>
     <row r="356" spans="2:4" s="38" customFormat="1">
-      <c r="B356" s="41"/>
-      <c r="C356" s="40"/>
+      <c r="B356" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C356" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D356" s="40"/>
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
-      <c r="B357" s="41" t="s">
-        <v>142</v>
+      <c r="B357" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C357" s="40" t="s">
         <v>14</v>
@@ -5755,8 +6581,12 @@
       <c r="D357" s="40"/>
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
-      <c r="B358" s="41"/>
-      <c r="C358" s="40"/>
+      <c r="B358" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C358" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D358" s="40"/>
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
@@ -5765,15 +6595,21 @@
       <c r="D359" s="40"/>
     </row>
     <row r="360" spans="2:4" s="38" customFormat="1">
-      <c r="B360" s="41"/>
-      <c r="C360" s="40"/>
+      <c r="B360" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C360" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D360" s="40"/>
     </row>
     <row r="361" spans="2:4" s="38" customFormat="1">
-      <c r="B361" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C361" s="40"/>
+      <c r="B361" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C361" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D361" s="40"/>
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
@@ -5782,8 +6618,8 @@
       <c r="D362" s="40"/>
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
-      <c r="B363" s="41" t="s">
-        <v>104</v>
+      <c r="B363" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="C363" s="40" t="s">
         <v>14</v>
@@ -5791,17 +6627,13 @@
       <c r="D363" s="40"/>
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
-      <c r="B364" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C364" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B364" s="39"/>
+      <c r="C364" s="40"/>
       <c r="D364" s="40"/>
     </row>
     <row r="365" spans="2:4" s="38" customFormat="1">
-      <c r="B365" s="41" t="s">
-        <v>103</v>
+      <c r="B365" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="C365" s="40" t="s">
         <v>14</v>
@@ -5809,17 +6641,17 @@
       <c r="D365" s="40"/>
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
-      <c r="B366" s="41" t="s">
-        <v>134</v>
+      <c r="B366" s="39" t="s">
+        <v>28</v>
       </c>
       <c r="C366" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D366" s="40"/>
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
-      <c r="B367" s="39" t="s">
-        <v>331</v>
+      <c r="B367" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>14</v>
@@ -5827,17 +6659,13 @@
       <c r="D367" s="40"/>
     </row>
     <row r="368" spans="2:4" s="38" customFormat="1">
-      <c r="B368" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C368" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B368" s="41"/>
+      <c r="C368" s="40"/>
       <c r="D368" s="40"/>
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
-      <c r="B369" s="41" t="s">
-        <v>135</v>
+      <c r="B369" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="C369" s="40" t="s">
         <v>14</v>
@@ -5845,8 +6673,8 @@
       <c r="D369" s="40"/>
     </row>
     <row r="370" spans="2:4" s="38" customFormat="1">
-      <c r="B370" s="41" t="s">
-        <v>136</v>
+      <c r="B370" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C370" s="40" t="s">
         <v>14</v>
@@ -5854,542 +6682,987 @@
       <c r="D370" s="40"/>
     </row>
     <row r="371" spans="2:4" s="38" customFormat="1">
-      <c r="B371" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C371" s="40" t="s">
+      <c r="B371" s="41"/>
+      <c r="C371" s="40"/>
+      <c r="D371" s="40"/>
+    </row>
+    <row r="372" spans="2:4" s="38" customFormat="1">
+      <c r="B372" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C372" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D371" s="40"/>
-    </row>
-    <row r="372" spans="2:4" s="38" customFormat="1">
-      <c r="B372" s="41"/>
-      <c r="C372" s="40"/>
       <c r="D372" s="40"/>
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
-      <c r="B373" s="41"/>
-      <c r="C373" s="40"/>
+      <c r="B373" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C373" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D373" s="40"/>
     </row>
     <row r="374" spans="2:4" s="38" customFormat="1">
-      <c r="B374" s="37" t="s">
-        <v>205</v>
-      </c>
+      <c r="B374" s="41"/>
       <c r="C374" s="40"/>
       <c r="D374" s="40"/>
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
-      <c r="B375" s="41"/>
-      <c r="C375" s="40"/>
+      <c r="B375" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C375" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D375" s="40"/>
     </row>
     <row r="376" spans="2:4" s="38" customFormat="1">
-      <c r="B376" s="41" t="s">
-        <v>206</v>
+      <c r="B376" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C376" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D376" s="40"/>
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
-      <c r="B377" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C377" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B377" s="39"/>
+      <c r="C377" s="40"/>
       <c r="D377" s="40"/>
     </row>
     <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="41" t="s">
-        <v>207</v>
+      <c r="B378" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="C378" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D378" s="40"/>
     </row>
     <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="41" t="s">
-        <v>208</v>
+      <c r="B379" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="C379" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D379" s="40"/>
     </row>
     <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="41" t="s">
-        <v>209</v>
+      <c r="B380" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C380" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D380" s="40"/>
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
-      <c r="B381" s="41" t="s">
-        <v>210</v>
+      <c r="B381" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C381" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
-      <c r="B382" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C382" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B382" s="39"/>
+      <c r="C382" s="40"/>
       <c r="D382" s="40"/>
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
-      <c r="B383" s="41" t="s">
-        <v>212</v>
+      <c r="B383" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C383" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D383" s="40"/>
     </row>
     <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="41" t="s">
-        <v>213</v>
+      <c r="B384" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="C384" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D384" s="40"/>
     </row>
     <row r="385" spans="2:4" s="38" customFormat="1">
-      <c r="B385" s="41" t="s">
-        <v>214</v>
+      <c r="B385" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="C385" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
-      <c r="B386" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C386" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B386" s="39"/>
+      <c r="C386" s="40"/>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
-      <c r="B387" s="41" t="s">
-        <v>216</v>
+      <c r="B387" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="C387" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D387" s="40"/>
     </row>
     <row r="388" spans="2:4" s="38" customFormat="1">
-      <c r="B388" s="41" t="s">
-        <v>217</v>
+      <c r="B388" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="C388" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D388" s="40"/>
     </row>
     <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="41" t="s">
-        <v>218</v>
+      <c r="B389" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="C389" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D389" s="40"/>
     </row>
     <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="C390" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B390" s="41"/>
+      <c r="C390" s="40"/>
       <c r="D390" s="40"/>
     </row>
     <row r="391" spans="2:4" s="38" customFormat="1">
-      <c r="B391" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="C391" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B391" s="41"/>
+      <c r="C391" s="40"/>
       <c r="D391" s="40"/>
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C392" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B392" s="41"/>
+      <c r="C392" s="40"/>
       <c r="D392" s="40"/>
     </row>
     <row r="393" spans="2:4" s="38" customFormat="1">
-      <c r="B393" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="C393" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B393" s="39"/>
+      <c r="C393" s="40"/>
       <c r="D393" s="40"/>
     </row>
-    <row r="394" spans="2:4" s="38" customFormat="1">
-      <c r="B394" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D394" s="40"/>
-    </row>
-    <row r="395" spans="2:4" s="38" customFormat="1">
-      <c r="B395" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C395" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D395" s="40"/>
-    </row>
-    <row r="396" spans="2:4" s="38" customFormat="1">
-      <c r="B396" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C396" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D396" s="40"/>
-    </row>
-    <row r="397" spans="2:4" s="38" customFormat="1">
-      <c r="B397" s="41" t="s">
-        <v>226</v>
+    <row r="394" spans="2:4">
+      <c r="C394" s="40"/>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C395" s="40"/>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="C397" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D397" s="40"/>
-    </row>
-    <row r="398" spans="2:4" s="38" customFormat="1">
-      <c r="B398" s="41" t="s">
-        <v>227</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4">
+      <c r="B398" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="C398" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D398" s="40"/>
-    </row>
-    <row r="399" spans="2:4" s="38" customFormat="1">
-      <c r="B399" s="41" t="s">
-        <v>228</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
+      <c r="B399" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C399" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D399" s="40"/>
-    </row>
-    <row r="400" spans="2:4" s="38" customFormat="1">
-      <c r="B400" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C400" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D400" s="40"/>
-    </row>
-    <row r="401" spans="2:4" s="38" customFormat="1">
-      <c r="B401" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C401" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D401" s="40"/>
-    </row>
-    <row r="402" spans="2:4" s="38" customFormat="1">
-      <c r="B402" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C402" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D402" s="40"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="B400" s="44"/>
+      <c r="C400" s="40"/>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="C401" s="40"/>
     </row>
     <row r="403" spans="2:4" s="38" customFormat="1">
-      <c r="B403" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B403" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C403" s="40"/>
       <c r="D403" s="40"/>
     </row>
     <row r="404" spans="2:4" s="38" customFormat="1">
-      <c r="B404" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C404" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B404" s="41"/>
+      <c r="C404" s="40"/>
       <c r="D404" s="40"/>
     </row>
     <row r="405" spans="2:4" s="38" customFormat="1">
       <c r="B405" s="41" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="C405" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D405" s="40"/>
     </row>
     <row r="406" spans="2:4" s="38" customFormat="1">
       <c r="B406" s="41" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="C406" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D406" s="40"/>
     </row>
     <row r="407" spans="2:4" s="38" customFormat="1">
       <c r="B407" s="41" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="C407" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D407" s="40"/>
     </row>
     <row r="408" spans="2:4" s="38" customFormat="1">
       <c r="B408" s="41" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="C408" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D408" s="40"/>
     </row>
     <row r="409" spans="2:4" s="38" customFormat="1">
       <c r="B409" s="41" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="C409" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D409" s="40"/>
     </row>
     <row r="410" spans="2:4" s="38" customFormat="1">
-      <c r="B410" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C410" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B410" s="41"/>
+      <c r="C410" s="40"/>
       <c r="D410" s="40"/>
     </row>
     <row r="411" spans="2:4" s="38" customFormat="1">
       <c r="B411" s="41" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="C411" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D411" s="40"/>
     </row>
     <row r="412" spans="2:4" s="38" customFormat="1">
-      <c r="B412" s="41" t="s">
-        <v>239</v>
+      <c r="B412" s="39" t="s">
+        <v>107</v>
       </c>
       <c r="C412" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D412" s="40"/>
     </row>
     <row r="413" spans="2:4" s="38" customFormat="1">
-      <c r="B413" s="41" t="s">
-        <v>240</v>
+      <c r="B413" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="C413" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D413" s="40"/>
     </row>
     <row r="414" spans="2:4" s="38" customFormat="1">
-      <c r="B414" s="41" t="s">
-        <v>241</v>
+      <c r="B414" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="C414" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D414" s="40"/>
     </row>
     <row r="415" spans="2:4" s="38" customFormat="1">
-      <c r="B415" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C415" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B415" s="39"/>
+      <c r="C415" s="40"/>
       <c r="D415" s="40"/>
     </row>
     <row r="416" spans="2:4" s="38" customFormat="1">
       <c r="B416" s="41" t="s">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D416" s="40"/>
     </row>
-    <row r="417" spans="1:4" s="38" customFormat="1">
-      <c r="B417" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="C417" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="417" spans="2:4" s="38" customFormat="1">
+      <c r="B417" s="41"/>
+      <c r="C417" s="40"/>
       <c r="D417" s="40"/>
     </row>
-    <row r="418" spans="1:4" s="38" customFormat="1">
+    <row r="418" spans="2:4" s="38" customFormat="1">
       <c r="B418" s="41" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="C418" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D418" s="40"/>
     </row>
-    <row r="419" spans="1:4" s="38" customFormat="1">
-      <c r="B419" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C419" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="419" spans="2:4" s="38" customFormat="1">
+      <c r="B419" s="41"/>
+      <c r="C419" s="40"/>
       <c r="D419" s="40"/>
     </row>
-    <row r="420" spans="1:4" s="38" customFormat="1">
-      <c r="B420" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="C420" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="420" spans="2:4" s="38" customFormat="1">
+      <c r="B420" s="41"/>
+      <c r="C420" s="40"/>
       <c r="D420" s="40"/>
     </row>
-    <row r="421" spans="1:4" s="38" customFormat="1">
-      <c r="B421" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C421" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="421" spans="2:4" s="38" customFormat="1">
+      <c r="B421" s="41"/>
+      <c r="C421" s="40"/>
       <c r="D421" s="40"/>
     </row>
-    <row r="422" spans="1:4" s="38" customFormat="1">
-      <c r="B422" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C422" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="422" spans="2:4" s="38" customFormat="1">
+      <c r="B422" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C422" s="40"/>
       <c r="D422" s="40"/>
     </row>
-    <row r="423" spans="1:4" s="38" customFormat="1">
+    <row r="423" spans="2:4" s="38" customFormat="1">
       <c r="B423" s="41"/>
       <c r="C423" s="40"/>
       <c r="D423" s="40"/>
     </row>
-    <row r="424" spans="1:4" s="38" customFormat="1">
-      <c r="B424" s="41"/>
-      <c r="C424" s="40"/>
+    <row r="424" spans="2:4" s="38" customFormat="1">
+      <c r="B424" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C424" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D424" s="40"/>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="37"/>
-      <c r="B425" s="45"/>
-      <c r="C425" s="45"/>
-      <c r="D425" s="37"/>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="37"/>
-      <c r="B426" s="46" t="s">
+    <row r="425" spans="2:4" s="38" customFormat="1">
+      <c r="B425" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="40"/>
+    </row>
+    <row r="426" spans="2:4" s="38" customFormat="1">
+      <c r="B426" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D426" s="40"/>
+    </row>
+    <row r="427" spans="2:4" s="38" customFormat="1">
+      <c r="B427" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D427" s="40"/>
+    </row>
+    <row r="428" spans="2:4" s="38" customFormat="1">
+      <c r="B428" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C428" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D428" s="40"/>
+    </row>
+    <row r="429" spans="2:4" s="38" customFormat="1">
+      <c r="B429" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C429" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D429" s="40"/>
+    </row>
+    <row r="430" spans="2:4" s="38" customFormat="1">
+      <c r="B430" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C430" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="40"/>
+    </row>
+    <row r="431" spans="2:4" s="38" customFormat="1">
+      <c r="B431" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C431" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431" s="40"/>
+    </row>
+    <row r="432" spans="2:4" s="38" customFormat="1">
+      <c r="B432" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C432" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="40"/>
+    </row>
+    <row r="433" spans="2:4" s="38" customFormat="1">
+      <c r="B433" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C433" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D433" s="40"/>
+    </row>
+    <row r="434" spans="2:4" s="38" customFormat="1">
+      <c r="B434" s="41"/>
+      <c r="C434" s="40"/>
+      <c r="D434" s="40"/>
+    </row>
+    <row r="435" spans="2:4" s="38" customFormat="1">
+      <c r="B435" s="41"/>
+      <c r="C435" s="40"/>
+      <c r="D435" s="40"/>
+    </row>
+    <row r="436" spans="2:4" s="38" customFormat="1">
+      <c r="B436" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C436" s="40"/>
+      <c r="D436" s="40"/>
+    </row>
+    <row r="437" spans="2:4" s="38" customFormat="1">
+      <c r="B437" s="41"/>
+      <c r="C437" s="40"/>
+      <c r="D437" s="40"/>
+    </row>
+    <row r="438" spans="2:4" s="38" customFormat="1">
+      <c r="B438" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C438" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D438" s="40"/>
+    </row>
+    <row r="439" spans="2:4" s="38" customFormat="1">
+      <c r="B439" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C439" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D439" s="40"/>
+    </row>
+    <row r="440" spans="2:4" s="38" customFormat="1">
+      <c r="B440" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C440" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D440" s="40"/>
+    </row>
+    <row r="441" spans="2:4" s="38" customFormat="1">
+      <c r="B441" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D441" s="40"/>
+    </row>
+    <row r="442" spans="2:4" s="38" customFormat="1">
+      <c r="B442" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D442" s="40"/>
+    </row>
+    <row r="443" spans="2:4" s="38" customFormat="1">
+      <c r="B443" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C443" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D443" s="40"/>
+    </row>
+    <row r="444" spans="2:4" s="38" customFormat="1">
+      <c r="B444" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C444" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D444" s="40"/>
+    </row>
+    <row r="445" spans="2:4" s="38" customFormat="1">
+      <c r="B445" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C445" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D445" s="40"/>
+    </row>
+    <row r="446" spans="2:4" s="38" customFormat="1">
+      <c r="B446" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C446" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D446" s="40"/>
+    </row>
+    <row r="447" spans="2:4" s="38" customFormat="1">
+      <c r="B447" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C447" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D447" s="40"/>
+    </row>
+    <row r="448" spans="2:4" s="38" customFormat="1">
+      <c r="B448" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C448" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D448" s="40"/>
+    </row>
+    <row r="449" spans="2:4" s="38" customFormat="1">
+      <c r="B449" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" s="40"/>
+    </row>
+    <row r="450" spans="2:4" s="38" customFormat="1">
+      <c r="B450" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D450" s="40"/>
+    </row>
+    <row r="451" spans="2:4" s="38" customFormat="1">
+      <c r="B451" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C451" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D451" s="40"/>
+    </row>
+    <row r="452" spans="2:4" s="38" customFormat="1">
+      <c r="B452" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C452" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D452" s="40"/>
+    </row>
+    <row r="453" spans="2:4" s="38" customFormat="1">
+      <c r="B453" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C453" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D453" s="40"/>
+    </row>
+    <row r="454" spans="2:4" s="38" customFormat="1">
+      <c r="B454" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C454" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D454" s="40"/>
+    </row>
+    <row r="455" spans="2:4" s="38" customFormat="1">
+      <c r="B455" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C455" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D455" s="40"/>
+    </row>
+    <row r="456" spans="2:4" s="38" customFormat="1">
+      <c r="B456" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C456" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D456" s="40"/>
+    </row>
+    <row r="457" spans="2:4" s="38" customFormat="1">
+      <c r="B457" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C457" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D457" s="40"/>
+    </row>
+    <row r="458" spans="2:4" s="38" customFormat="1">
+      <c r="B458" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C458" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D458" s="40"/>
+    </row>
+    <row r="459" spans="2:4" s="38" customFormat="1">
+      <c r="B459" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C459" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D459" s="40"/>
+    </row>
+    <row r="460" spans="2:4" s="38" customFormat="1">
+      <c r="B460" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C460" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D460" s="40"/>
+    </row>
+    <row r="461" spans="2:4" s="38" customFormat="1">
+      <c r="B461" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C461" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D461" s="40"/>
+    </row>
+    <row r="462" spans="2:4" s="38" customFormat="1">
+      <c r="B462" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C462" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D462" s="40"/>
+    </row>
+    <row r="463" spans="2:4" s="38" customFormat="1">
+      <c r="B463" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C463" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D463" s="40"/>
+    </row>
+    <row r="464" spans="2:4" s="38" customFormat="1">
+      <c r="B464" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C464" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D464" s="40"/>
+    </row>
+    <row r="465" spans="2:4" s="38" customFormat="1">
+      <c r="B465" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C465" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D465" s="40"/>
+    </row>
+    <row r="466" spans="2:4" s="38" customFormat="1">
+      <c r="B466" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C466" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D466" s="40"/>
+    </row>
+    <row r="467" spans="2:4" s="38" customFormat="1">
+      <c r="B467" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C467" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D467" s="40"/>
+    </row>
+    <row r="468" spans="2:4" s="38" customFormat="1">
+      <c r="B468" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C468" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D468" s="40"/>
+    </row>
+    <row r="469" spans="2:4" s="38" customFormat="1">
+      <c r="B469" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C469" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D469" s="40"/>
+    </row>
+    <row r="470" spans="2:4" s="38" customFormat="1">
+      <c r="B470" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C470" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" s="40"/>
+    </row>
+    <row r="471" spans="2:4" s="38" customFormat="1">
+      <c r="B471" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C471" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D471" s="40"/>
+    </row>
+    <row r="472" spans="2:4" s="38" customFormat="1">
+      <c r="B472" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C472" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" s="40"/>
+    </row>
+    <row r="473" spans="2:4" s="38" customFormat="1">
+      <c r="B473" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C473" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D473" s="40"/>
+    </row>
+    <row r="474" spans="2:4" s="38" customFormat="1">
+      <c r="B474" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C474" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D474" s="40"/>
+    </row>
+    <row r="475" spans="2:4" s="38" customFormat="1">
+      <c r="B475" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C475" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D475" s="40"/>
+    </row>
+    <row r="476" spans="2:4" s="38" customFormat="1">
+      <c r="B476" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C476" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476" s="40"/>
+    </row>
+    <row r="477" spans="2:4" s="38" customFormat="1">
+      <c r="B477" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C477" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D477" s="40"/>
+    </row>
+    <row r="478" spans="2:4" s="38" customFormat="1">
+      <c r="B478" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C478" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D478" s="40"/>
+    </row>
+    <row r="479" spans="2:4" s="38" customFormat="1">
+      <c r="B479" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C479" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D479" s="40"/>
+    </row>
+    <row r="480" spans="2:4" s="38" customFormat="1">
+      <c r="B480" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C480" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D480" s="40"/>
+    </row>
+    <row r="481" spans="1:4" s="38" customFormat="1">
+      <c r="B481" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C481" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D481" s="40"/>
+    </row>
+    <row r="482" spans="1:4" s="38" customFormat="1">
+      <c r="B482" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C482" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D482" s="40"/>
+    </row>
+    <row r="483" spans="1:4" s="38" customFormat="1">
+      <c r="B483" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C483" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D483" s="40"/>
+    </row>
+    <row r="484" spans="1:4" s="38" customFormat="1">
+      <c r="B484" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C484" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" s="40"/>
+    </row>
+    <row r="485" spans="1:4" s="38" customFormat="1">
+      <c r="B485" s="41"/>
+      <c r="C485" s="40"/>
+      <c r="D485" s="40"/>
+    </row>
+    <row r="486" spans="1:4" s="38" customFormat="1">
+      <c r="B486" s="41"/>
+      <c r="C486" s="40"/>
+      <c r="D486" s="40"/>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="37"/>
+      <c r="B487" s="45"/>
+      <c r="C487" s="45"/>
+      <c r="D487" s="37"/>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="37"/>
+      <c r="B488" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C426" s="38">
-        <f>COUNTIF(C5:C425,"y")</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="37"/>
-      <c r="B427" s="46" t="s">
+      <c r="C488" s="38">
+        <f>COUNTIF(C5:C487,"y")</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="37"/>
+      <c r="B489" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C427" s="38">
-        <f>COUNTIF(C5:C425,"n")</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="37"/>
-      <c r="B428" s="46" t="s">
+      <c r="C489" s="38">
+        <f>COUNTIF(C5:C487,"n")</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="37"/>
+      <c r="B490" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C428" s="40">
-        <f>COUNTIF(C5:C425,"TBD")</f>
+      <c r="C490" s="40">
+        <f>COUNTIF(C5:C487,"TBD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="37"/>
-      <c r="B429" s="46" t="s">
+    <row r="491" spans="1:4">
+      <c r="A491" s="37"/>
+      <c r="B491" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="35">
-        <f>SUM(C426:C428)</f>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="37"/>
-      <c r="B430" s="47"/>
-      <c r="C430" s="47" t="s">
+      <c r="C491" s="35">
+        <f>SUM(C488:C490)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="37"/>
+      <c r="B492" s="47"/>
+      <c r="C492" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D430" s="48">
-        <f>C426/(C427+C426 + C428)</f>
-        <v>0.48991354466858789</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="37"/>
-      <c r="B431" s="45"/>
-      <c r="C431" s="45"/>
-      <c r="D431" s="37"/>
+      <c r="D492" s="48">
+        <f>C488/(C489+C488 + C490)</f>
+        <v>0.59854014598540151</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="37"/>
+      <c r="B493" s="45"/>
+      <c r="C493" s="45"/>
+      <c r="D493" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C342:C65179 C336:C340 C1:C3 C6:C334">
-    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C403:C65241 C397:C401 C1:C3 C6:C395">
+    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6699,10 +7972,10 @@
         <v>45656</v>
       </c>
       <c r="B50" s="5">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="C50" s="5">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
@@ -6713,7 +7986,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="14">
         <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.48991354466858789</v>
+        <v>0.59854014598540151</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -6753,30 +8026,28 @@
       <c r="E53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="F53" s="15"/>
       <c r="G53" s="18">
         <f>MIN(G50)</f>
-        <v>0.48991354466858789</v>
+        <v>0.59854014598540151</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="19">
         <f>SUM(B54:D54)</f>
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="B54" s="20">
-        <f>Features!C426</f>
-        <v>170</v>
+        <f>Features!C488</f>
+        <v>246</v>
       </c>
       <c r="C54" s="21">
-        <f>Features!C427</f>
-        <v>177</v>
+        <f>Features!C489</f>
+        <v>165</v>
       </c>
       <c r="D54" s="22">
-        <f>Features!C428</f>
+        <f>Features!C490</f>
         <v>0</v>
       </c>
       <c r="E54" s="23">
@@ -6824,7 +8095,7 @@
       </c>
       <c r="B58" s="26">
         <f>(A50-A48)*A54/B54 +A48</f>
-        <v>45704.935294117648</v>
+        <v>45687.524390243903</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
   <si>
     <t>Feature</t>
   </si>
@@ -782,9 +782,6 @@
     <t>key mapping: CUT</t>
   </si>
   <si>
-    <t>key mapping: DELETE</t>
-  </si>
-  <si>
     <t>key mapping: DOWN</t>
   </si>
   <si>
@@ -1004,12 +1001,6 @@
     <t>uses phantom position</t>
   </si>
   <si>
-    <t>stops at last line</t>
-  </si>
-  <si>
-    <t>stops at first line</t>
-  </si>
-  <si>
     <t>tailing bias at the end of the wrapped row</t>
   </si>
   <si>
@@ -1095,6 +1086,24 @@
   </si>
   <si>
     <t>selects to document start</t>
+  </si>
+  <si>
+    <t>key mapping: DELETE (mac: fn-delete)</t>
+  </si>
+  <si>
+    <t>moves one row up</t>
+  </si>
+  <si>
+    <t>until document start</t>
+  </si>
+  <si>
+    <t>moves one row down</t>
+  </si>
+  <si>
+    <t>until last paragraph</t>
+  </si>
+  <si>
+    <t>selects one row down</t>
   </si>
 </sst>
 </file>
@@ -1318,385 +1327,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -2125,10 +1756,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2136,17 +1767,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$50</c:f>
+              <c:f>Progress!$B$48:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2154,7 +1788,10 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,10 +1824,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2198,17 +1835,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2216,7 +1856,10 @@
                   <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>165</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,10 +1892,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2260,17 +1903,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2278,6 +1924,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2311,10 +1960,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2322,17 +1971,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$54</c:f>
+              <c:f>Progress!$E$48:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2342,10 +1994,13 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2568,8 +2223,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38278994057493582"/>
-          <c:y val="2.5889454235910929E-2"/>
+          <c:x val="0.37852736438635709"/>
+          <c:y val="0.13936449433182554"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2620,10 +2275,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2631,17 +2286,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$50</c:f>
+              <c:f>Progress!$G$48:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2649,7 +2307,10 @@
                   <c:v>0.38338658146964855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59854014598540151</c:v>
+                  <c:v>0.63503649635036497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63503649635036497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2816,10 +2477,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2827,17 +2488,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$50</c:f>
+              <c:f>Progress!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2845,7 +2509,10 @@
                   <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>165</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,10 +2545,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$50</c:f>
+              <c:f>Progress!$A$48:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2889,17 +2556,20 @@
                   <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45656</c:v>
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$50</c:f>
+              <c:f>Progress!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2907,6 +2577,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3100,7 +2773,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3510,8 +3183,8 @@
   </sheetPr>
   <dimension ref="A1:D493"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C331" sqref="C331"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4476,7 +4149,7 @@
     </row>
     <row r="120" spans="2:4" s="38" customFormat="1">
       <c r="B120" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>2</v>
@@ -4485,7 +4158,7 @@
     </row>
     <row r="121" spans="2:4" s="38" customFormat="1">
       <c r="B121" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C121" s="40" t="s">
         <v>2</v>
@@ -4503,7 +4176,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -4539,7 +4212,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -4548,7 +4221,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -4566,7 +4239,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -4602,7 +4275,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -4620,7 +4293,7 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4638,7 +4311,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -4656,7 +4329,7 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>2</v>
@@ -4674,7 +4347,7 @@
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
@@ -4692,7 +4365,7 @@
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>14</v>
@@ -4710,7 +4383,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4728,7 +4401,7 @@
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>2</v>
@@ -4737,7 +4410,7 @@
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
       <c r="B149" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>2</v>
@@ -4780,7 +4453,7 @@
     </row>
     <row r="154" spans="2:4" s="38" customFormat="1">
       <c r="B154" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>2</v>
@@ -4789,7 +4462,7 @@
     </row>
     <row r="155" spans="2:4" s="38" customFormat="1">
       <c r="B155" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>2</v>
@@ -4807,7 +4480,7 @@
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>2</v>
@@ -4825,7 +4498,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4834,7 +4507,7 @@
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
       <c r="B160" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>14</v>
@@ -4843,7 +4516,7 @@
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
       <c r="B161" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>14</v>
@@ -4861,7 +4534,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4870,7 +4543,7 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>14</v>
@@ -4879,7 +4552,7 @@
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
       <c r="B165" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>14</v>
@@ -4897,7 +4570,7 @@
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
@@ -4915,7 +4588,7 @@
     </row>
     <row r="169" spans="2:4" s="38" customFormat="1">
       <c r="B169" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>2</v>
@@ -4933,7 +4606,7 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>14</v>
@@ -4951,7 +4624,7 @@
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
       <c r="B173" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4963,40 +4636,40 @@
         <v>155</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D174" s="40"/>
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D175" s="40"/>
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D176" s="40"/>
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D177" s="40"/>
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
       <c r="B178" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C178" s="40" t="s">
         <v>2</v>
@@ -5014,7 +4687,7 @@
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>2</v>
@@ -5023,7 +4696,7 @@
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -5032,7 +4705,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>14</v>
@@ -5050,7 +4723,7 @@
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
       <c r="B184" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -5068,7 +4741,7 @@
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -5077,7 +4750,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -5086,7 +4759,7 @@
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
       <c r="B188" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>14</v>
@@ -5104,7 +4777,7 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -5122,7 +4795,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -5140,7 +4813,7 @@
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
       <c r="B194" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -5149,7 +4822,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -5167,7 +4840,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -5185,7 +4858,7 @@
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
       <c r="B199" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -5194,7 +4867,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -5212,7 +4885,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -5221,7 +4894,7 @@
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
       <c r="B203" s="39" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -5239,7 +4912,7 @@
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
       <c r="B205" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -5248,7 +4921,7 @@
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -5266,7 +4939,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -5275,7 +4948,7 @@
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
       <c r="B209" s="39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -5293,7 +4966,7 @@
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
       <c r="B211" s="39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -5302,7 +4975,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -5320,7 +4993,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -5338,7 +5011,7 @@
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -5356,7 +5029,7 @@
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C218" s="40" t="s">
         <v>2</v>
@@ -5374,7 +5047,7 @@
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>2</v>
@@ -5383,7 +5056,7 @@
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
       <c r="B221" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>14</v>
@@ -5392,7 +5065,7 @@
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
       <c r="B222" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>14</v>
@@ -5410,7 +5083,7 @@
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
       <c r="B224" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C224" s="40" t="s">
         <v>2</v>
@@ -5419,7 +5092,7 @@
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>2</v>
@@ -5428,7 +5101,7 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>14</v>
@@ -5437,7 +5110,7 @@
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C227" s="40" t="s">
         <v>14</v>
@@ -5455,7 +5128,7 @@
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
       <c r="B229" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C229" s="40" t="s">
         <v>2</v>
@@ -5464,7 +5137,7 @@
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C230" s="40" t="s">
         <v>2</v>
@@ -5476,40 +5149,40 @@
         <v>160</v>
       </c>
       <c r="C231" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D231" s="40"/>
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
       <c r="B232" s="39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C232" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D232" s="40"/>
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
       <c r="B233" s="39" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C233" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D233" s="40"/>
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
       <c r="B234" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C234" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D234" s="40"/>
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -5527,7 +5200,7 @@
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>14</v>
@@ -5536,7 +5209,7 @@
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
       <c r="B238" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -5554,7 +5227,7 @@
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
       <c r="B240" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>14</v>
@@ -5563,7 +5236,7 @@
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
       <c r="B241" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -5581,7 +5254,7 @@
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C243" s="40" t="s">
         <v>14</v>
@@ -5590,7 +5263,7 @@
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
       <c r="B244" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C244" s="40" t="s">
         <v>2</v>
@@ -5599,7 +5272,7 @@
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>2</v>
@@ -5617,7 +5290,7 @@
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C247" s="40" t="s">
         <v>14</v>
@@ -5626,7 +5299,7 @@
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
       <c r="B248" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C248" s="40" t="s">
         <v>2</v>
@@ -5644,7 +5317,7 @@
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
       <c r="B250" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C250" s="40" t="s">
         <v>14</v>
@@ -5653,7 +5326,7 @@
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
       <c r="B251" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C251" s="40" t="s">
         <v>2</v>
@@ -5662,7 +5335,7 @@
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C252" s="40" t="s">
         <v>2</v>
@@ -5671,7 +5344,7 @@
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
       <c r="B253" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>2</v>
@@ -5689,7 +5362,7 @@
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5716,34 +5389,34 @@
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
       <c r="B258" s="39" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C258" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D258" s="40"/>
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C259" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D259" s="40"/>
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C260" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D260" s="40"/>
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5761,7 +5434,7 @@
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
       <c r="B263" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C263" s="40" t="s">
         <v>2</v>
@@ -5770,7 +5443,7 @@
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C264" s="40" t="s">
         <v>14</v>
@@ -5779,7 +5452,7 @@
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
       <c r="B265" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>14</v>
@@ -5797,7 +5470,7 @@
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
       <c r="B267" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C267" s="40" t="s">
         <v>2</v>
@@ -5815,7 +5488,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>14</v>
@@ -5824,7 +5497,7 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5842,7 +5515,7 @@
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
       <c r="B272" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>14</v>
@@ -5851,7 +5524,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5869,7 +5542,7 @@
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
       <c r="B275" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5878,7 +5551,7 @@
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
       <c r="B276" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5887,7 +5560,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5896,7 +5569,7 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C278" s="40" t="s">
         <v>14</v>
@@ -5905,7 +5578,7 @@
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
       <c r="B279" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5923,7 +5596,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5932,7 +5605,7 @@
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
       <c r="B282" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C282" s="40" t="s">
         <v>14</v>
@@ -5941,7 +5614,7 @@
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
       <c r="B283" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C283" s="40" t="s">
         <v>14</v>
@@ -5959,7 +5632,7 @@
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
       <c r="B285" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5977,7 +5650,7 @@
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
       <c r="B287" s="39" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5986,7 +5659,7 @@
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
       <c r="B288" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5995,7 +5668,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -6013,7 +5686,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -6022,7 +5695,7 @@
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
       <c r="B292" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -6031,7 +5704,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -6049,7 +5722,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -6058,7 +5731,7 @@
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
       <c r="B296" s="39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -6067,7 +5740,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -6076,7 +5749,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -6094,7 +5767,7 @@
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
       <c r="B300" s="39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -6103,7 +5776,7 @@
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
       <c r="B301" s="39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -6112,7 +5785,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -6121,7 +5794,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -6130,7 +5803,7 @@
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="42" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -6139,7 +5812,7 @@
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
       <c r="B305" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -6157,7 +5830,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -6166,7 +5839,7 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C308" s="40" t="s">
         <v>2</v>
@@ -6175,7 +5848,7 @@
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
       <c r="B309" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -6193,7 +5866,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -6205,40 +5878,40 @@
         <v>171</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D312" s="40"/>
     </row>
     <row r="313" spans="2:4" s="38" customFormat="1">
       <c r="B313" s="39" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C313" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D313" s="40"/>
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
       <c r="B314" s="39" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C314" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D314" s="40"/>
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C315" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D315" s="40"/>
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C316" s="40" t="s">
         <v>2</v>
@@ -6256,7 +5929,7 @@
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
       <c r="B318" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>14</v>
@@ -6265,7 +5938,7 @@
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
       <c r="B319" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="40" t="s">
         <v>2</v>
@@ -6274,7 +5947,7 @@
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C320" s="40" t="s">
         <v>14</v>
@@ -6283,7 +5956,7 @@
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>14</v>
@@ -6292,7 +5965,7 @@
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
       <c r="B322" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>2</v>
@@ -6301,7 +5974,7 @@
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
       <c r="B323" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C323" s="40" t="s">
         <v>2</v>
@@ -6310,7 +5983,7 @@
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
       <c r="B324" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C324" s="40" t="s">
         <v>14</v>
@@ -6319,7 +5992,7 @@
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C325" s="40" t="s">
         <v>14</v>
@@ -6328,7 +6001,7 @@
     </row>
     <row r="326" spans="2:4" s="38" customFormat="1">
       <c r="B326" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C326" s="40" t="s">
         <v>2</v>
@@ -6337,7 +6010,7 @@
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C327" s="40" t="s">
         <v>2</v>
@@ -6355,7 +6028,7 @@
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C329" s="40" t="s">
         <v>14</v>
@@ -6364,7 +6037,7 @@
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
       <c r="B330" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C330" s="40" t="s">
         <v>2</v>
@@ -6373,7 +6046,7 @@
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
       <c r="B331" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C331" s="40" t="s">
         <v>2</v>
@@ -6436,7 +6109,7 @@
     </row>
     <row r="340" spans="2:4" s="38" customFormat="1">
       <c r="B340" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C340" s="40" t="s">
         <v>2</v>
@@ -6454,7 +6127,7 @@
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
       <c r="B342" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C342" s="40" t="s">
         <v>2</v>
@@ -6477,7 +6150,7 @@
     </row>
     <row r="345" spans="2:4" s="38" customFormat="1">
       <c r="B345" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C345" s="40" t="s">
         <v>2</v>
@@ -6523,7 +6196,7 @@
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
       <c r="B351" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="40" t="s">
         <v>2</v>
@@ -7083,7 +6756,7 @@
     </row>
     <row r="428" spans="2:4" s="38" customFormat="1">
       <c r="B428" s="39" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C428" s="40" t="s">
         <v>2</v>
@@ -7092,7 +6765,7 @@
     </row>
     <row r="429" spans="2:4" s="38" customFormat="1">
       <c r="B429" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C429" s="40" t="s">
         <v>2</v>
@@ -7375,7 +7048,7 @@
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
       <c r="B462" s="41" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -7384,7 +7057,7 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C463" s="40" t="s">
         <v>2</v>
@@ -7555,7 +7228,7 @@
     </row>
     <row r="482" spans="1:4" s="38" customFormat="1">
       <c r="B482" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C482" s="40" t="s">
         <v>2</v>
@@ -7564,7 +7237,7 @@
     </row>
     <row r="483" spans="1:4" s="38" customFormat="1">
       <c r="B483" s="41" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C483" s="40" t="s">
         <v>2</v>
@@ -7603,7 +7276,7 @@
       </c>
       <c r="C488" s="38">
         <f>COUNTIF(C5:C487,"y")</f>
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7613,7 +7286,7 @@
       </c>
       <c r="C489" s="38">
         <f>COUNTIF(C5:C487,"n")</f>
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7644,7 +7317,7 @@
       </c>
       <c r="D492" s="48">
         <f>C488/(C489+C488 + C490)</f>
-        <v>0.59854014598540151</v>
+        <v>0.63503649635036497</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7656,13 +7329,13 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C403:C65241 C397:C401 C1:C3 C6:C395">
-    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7677,12 +7350,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT864"/>
+  <dimension ref="A1:IT865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7962,20 +7635,20 @@
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="14">
-        <f t="shared" ref="G49" si="0">B49/SUM(B49:E49)</f>
+        <f t="shared" ref="G49:G50" si="0">B49/SUM(B49:E49)</f>
         <v>0.38338658146964855</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="10">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="B50" s="5">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C50" s="5">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
@@ -7985,19 +7658,32 @@
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="14">
-        <f t="shared" ref="G50" si="1">B50/SUM(B50:E50)</f>
-        <v>0.59854014598540151</v>
+        <f t="shared" si="0"/>
+        <v>0.63503649635036497</v>
       </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="10"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="10">
+        <v>45658</v>
+      </c>
+      <c r="B51" s="5">
+        <v>261</v>
+      </c>
+      <c r="C51" s="5">
+        <v>150</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14">
+        <f t="shared" ref="G51" si="1">B51/SUM(B51:E51)</f>
+        <v>0.63503649635036497</v>
+      </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:10">
@@ -8011,77 +7697,77 @@
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="18">
-        <f>MIN(G50)</f>
-        <v>0.59854014598540151</v>
-      </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="19">
-        <f>SUM(B54:D54)</f>
+      <c r="F54" s="15"/>
+      <c r="G54" s="18">
+        <f>MIN(G51)</f>
+        <v>0.63503649635036497</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="19">
+        <f>SUM(B55:D55)</f>
         <v>411</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B55" s="20">
         <f>Features!C488</f>
-        <v>246</v>
-      </c>
-      <c r="C54" s="21">
+        <v>261</v>
+      </c>
+      <c r="C55" s="21">
         <f>Features!C489</f>
-        <v>165</v>
-      </c>
-      <c r="D54" s="22">
+        <v>150</v>
+      </c>
+      <c r="D55" s="22">
         <f>Features!C490</f>
         <v>0</v>
       </c>
-      <c r="E54" s="23">
-        <f>MIN(E50)</f>
+      <c r="E55" s="23">
+        <f>MIN(E51)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="14"/>
       <c r="H55" s="5"/>
-      <c r="J55" s="24"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="14"/>
       <c r="H56" s="5"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -8090,13 +7776,8 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="26">
-        <f>(A50-A48)*A54/B54 +A48</f>
-        <v>45687.524390243903</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -8105,8 +7786,13 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="26">
+        <f>(A51-A48)*A55/B55 +A48</f>
+        <v>45686.160919540227</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -8116,7 +7802,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -8136,7 +7822,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -8166,7 +7852,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -8196,7 +7882,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -8336,7 +8022,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5"/>
-      <c r="B82" s="3"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -8346,7 +8032,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -8526,7 +8212,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="5"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -8536,7 +8222,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -8566,7 +8252,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="5"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -8606,7 +8292,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -8616,7 +8302,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -8626,7 +8312,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -8636,7 +8322,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8646,7 +8332,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8666,7 +8352,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -8726,7 +8412,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="5"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -8826,7 +8512,7 @@
     </row>
     <row r="131" spans="1:254">
       <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="B131" s="4"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -8876,7 +8562,7 @@
     </row>
     <row r="136" spans="1:254">
       <c r="A136" s="5"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -8896,7 +8582,7 @@
     </row>
     <row r="138" spans="1:254">
       <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="B138" s="4"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -8935,274 +8621,274 @@
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:254">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
-      <c r="Z142" s="9"/>
-      <c r="AA142" s="9"/>
-      <c r="AB142" s="9"/>
-      <c r="AC142" s="9"/>
-      <c r="AD142" s="9"/>
-      <c r="AE142" s="9"/>
-      <c r="AF142" s="9"/>
-      <c r="AG142" s="9"/>
-      <c r="AH142" s="9"/>
-      <c r="AI142" s="9"/>
-      <c r="AJ142" s="9"/>
-      <c r="AK142" s="9"/>
-      <c r="AL142" s="9"/>
-      <c r="AM142" s="9"/>
-      <c r="AN142" s="9"/>
-      <c r="AO142" s="9"/>
-      <c r="AP142" s="9"/>
-      <c r="AQ142" s="9"/>
-      <c r="AR142" s="9"/>
-      <c r="AS142" s="9"/>
-      <c r="AT142" s="9"/>
-      <c r="AU142" s="9"/>
-      <c r="AV142" s="9"/>
-      <c r="AW142" s="9"/>
-      <c r="AX142" s="9"/>
-      <c r="AY142" s="9"/>
-      <c r="AZ142" s="9"/>
-      <c r="BA142" s="9"/>
-      <c r="BB142" s="9"/>
-      <c r="BC142" s="9"/>
-      <c r="BD142" s="9"/>
-      <c r="BE142" s="9"/>
-      <c r="BF142" s="9"/>
-      <c r="BG142" s="9"/>
-      <c r="BH142" s="9"/>
-      <c r="BI142" s="9"/>
-      <c r="BJ142" s="9"/>
-      <c r="BK142" s="9"/>
-      <c r="BL142" s="9"/>
-      <c r="BM142" s="9"/>
-      <c r="BN142" s="9"/>
-      <c r="BO142" s="9"/>
-      <c r="BP142" s="9"/>
-      <c r="BQ142" s="9"/>
-      <c r="BR142" s="9"/>
-      <c r="BS142" s="9"/>
-      <c r="BT142" s="9"/>
-      <c r="BU142" s="9"/>
-      <c r="BV142" s="9"/>
-      <c r="BW142" s="9"/>
-      <c r="BX142" s="9"/>
-      <c r="BY142" s="9"/>
-      <c r="BZ142" s="9"/>
-      <c r="CA142" s="9"/>
-      <c r="CB142" s="9"/>
-      <c r="CC142" s="9"/>
-      <c r="CD142" s="9"/>
-      <c r="CE142" s="9"/>
-      <c r="CF142" s="9"/>
-      <c r="CG142" s="9"/>
-      <c r="CH142" s="9"/>
-      <c r="CI142" s="9"/>
-      <c r="CJ142" s="9"/>
-      <c r="CK142" s="9"/>
-      <c r="CL142" s="9"/>
-      <c r="CM142" s="9"/>
-      <c r="CN142" s="9"/>
-      <c r="CO142" s="9"/>
-      <c r="CP142" s="9"/>
-      <c r="CQ142" s="9"/>
-      <c r="CR142" s="9"/>
-      <c r="CS142" s="9"/>
-      <c r="CT142" s="9"/>
-      <c r="CU142" s="9"/>
-      <c r="CV142" s="9"/>
-      <c r="CW142" s="9"/>
-      <c r="CX142" s="9"/>
-      <c r="CY142" s="9"/>
-      <c r="CZ142" s="9"/>
-      <c r="DA142" s="9"/>
-      <c r="DB142" s="9"/>
-      <c r="DC142" s="9"/>
-      <c r="DD142" s="9"/>
-      <c r="DE142" s="9"/>
-      <c r="DF142" s="9"/>
-      <c r="DG142" s="9"/>
-      <c r="DH142" s="9"/>
-      <c r="DI142" s="9"/>
-      <c r="DJ142" s="9"/>
-      <c r="DK142" s="9"/>
-      <c r="DL142" s="9"/>
-      <c r="DM142" s="9"/>
-      <c r="DN142" s="9"/>
-      <c r="DO142" s="9"/>
-      <c r="DP142" s="9"/>
-      <c r="DQ142" s="9"/>
-      <c r="DR142" s="9"/>
-      <c r="DS142" s="9"/>
-      <c r="DT142" s="9"/>
-      <c r="DU142" s="9"/>
-      <c r="DV142" s="9"/>
-      <c r="DW142" s="9"/>
-      <c r="DX142" s="9"/>
-      <c r="DY142" s="9"/>
-      <c r="DZ142" s="9"/>
-      <c r="EA142" s="9"/>
-      <c r="EB142" s="9"/>
-      <c r="EC142" s="9"/>
-      <c r="ED142" s="9"/>
-      <c r="EE142" s="9"/>
-      <c r="EF142" s="9"/>
-      <c r="EG142" s="9"/>
-      <c r="EH142" s="9"/>
-      <c r="EI142" s="9"/>
-      <c r="EJ142" s="9"/>
-      <c r="EK142" s="9"/>
-      <c r="EL142" s="9"/>
-      <c r="EM142" s="9"/>
-      <c r="EN142" s="9"/>
-      <c r="EO142" s="9"/>
-      <c r="EP142" s="9"/>
-      <c r="EQ142" s="9"/>
-      <c r="ER142" s="9"/>
-      <c r="ES142" s="9"/>
-      <c r="ET142" s="9"/>
-      <c r="EU142" s="9"/>
-      <c r="EV142" s="9"/>
-      <c r="EW142" s="9"/>
-      <c r="EX142" s="9"/>
-      <c r="EY142" s="9"/>
-      <c r="EZ142" s="9"/>
-      <c r="FA142" s="9"/>
-      <c r="FB142" s="9"/>
-      <c r="FC142" s="9"/>
-      <c r="FD142" s="9"/>
-      <c r="FE142" s="9"/>
-      <c r="FF142" s="9"/>
-      <c r="FG142" s="9"/>
-      <c r="FH142" s="9"/>
-      <c r="FI142" s="9"/>
-      <c r="FJ142" s="9"/>
-      <c r="FK142" s="9"/>
-      <c r="FL142" s="9"/>
-      <c r="FM142" s="9"/>
-      <c r="FN142" s="9"/>
-      <c r="FO142" s="9"/>
-      <c r="FP142" s="9"/>
-      <c r="FQ142" s="9"/>
-      <c r="FR142" s="9"/>
-      <c r="FS142" s="9"/>
-      <c r="FT142" s="9"/>
-      <c r="FU142" s="9"/>
-      <c r="FV142" s="9"/>
-      <c r="FW142" s="9"/>
-      <c r="FX142" s="9"/>
-      <c r="FY142" s="9"/>
-      <c r="FZ142" s="9"/>
-      <c r="GA142" s="9"/>
-      <c r="GB142" s="9"/>
-      <c r="GC142" s="9"/>
-      <c r="GD142" s="9"/>
-      <c r="GE142" s="9"/>
-      <c r="GF142" s="9"/>
-      <c r="GG142" s="9"/>
-      <c r="GH142" s="9"/>
-      <c r="GI142" s="9"/>
-      <c r="GJ142" s="9"/>
-      <c r="GK142" s="9"/>
-      <c r="GL142" s="9"/>
-      <c r="GM142" s="9"/>
-      <c r="GN142" s="9"/>
-      <c r="GO142" s="9"/>
-      <c r="GP142" s="9"/>
-      <c r="GQ142" s="9"/>
-      <c r="GR142" s="9"/>
-      <c r="GS142" s="9"/>
-      <c r="GT142" s="9"/>
-      <c r="GU142" s="9"/>
-      <c r="GV142" s="9"/>
-      <c r="GW142" s="9"/>
-      <c r="GX142" s="9"/>
-      <c r="GY142" s="9"/>
-      <c r="GZ142" s="9"/>
-      <c r="HA142" s="9"/>
-      <c r="HB142" s="9"/>
-      <c r="HC142" s="9"/>
-      <c r="HD142" s="9"/>
-      <c r="HE142" s="9"/>
-      <c r="HF142" s="9"/>
-      <c r="HG142" s="9"/>
-      <c r="HH142" s="9"/>
-      <c r="HI142" s="9"/>
-      <c r="HJ142" s="9"/>
-      <c r="HK142" s="9"/>
-      <c r="HL142" s="9"/>
-      <c r="HM142" s="9"/>
-      <c r="HN142" s="9"/>
-      <c r="HO142" s="9"/>
-      <c r="HP142" s="9"/>
-      <c r="HQ142" s="9"/>
-      <c r="HR142" s="9"/>
-      <c r="HS142" s="9"/>
-      <c r="HT142" s="9"/>
-      <c r="HU142" s="9"/>
-      <c r="HV142" s="9"/>
-      <c r="HW142" s="9"/>
-      <c r="HX142" s="9"/>
-      <c r="HY142" s="9"/>
-      <c r="HZ142" s="9"/>
-      <c r="IA142" s="9"/>
-      <c r="IB142" s="9"/>
-      <c r="IC142" s="9"/>
-      <c r="ID142" s="9"/>
-      <c r="IE142" s="9"/>
-      <c r="IF142" s="9"/>
-      <c r="IG142" s="9"/>
-      <c r="IH142" s="9"/>
-      <c r="II142" s="9"/>
-      <c r="IJ142" s="9"/>
-      <c r="IK142" s="9"/>
-      <c r="IL142" s="9"/>
-      <c r="IM142" s="9"/>
-      <c r="IN142" s="9"/>
-      <c r="IO142" s="9"/>
-      <c r="IP142" s="9"/>
-      <c r="IQ142" s="9"/>
-      <c r="IR142" s="9"/>
-      <c r="IS142" s="9"/>
-      <c r="IT142" s="9"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:254">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+      <c r="AB143" s="9"/>
+      <c r="AC143" s="9"/>
+      <c r="AD143" s="9"/>
+      <c r="AE143" s="9"/>
+      <c r="AF143" s="9"/>
+      <c r="AG143" s="9"/>
+      <c r="AH143" s="9"/>
+      <c r="AI143" s="9"/>
+      <c r="AJ143" s="9"/>
+      <c r="AK143" s="9"/>
+      <c r="AL143" s="9"/>
+      <c r="AM143" s="9"/>
+      <c r="AN143" s="9"/>
+      <c r="AO143" s="9"/>
+      <c r="AP143" s="9"/>
+      <c r="AQ143" s="9"/>
+      <c r="AR143" s="9"/>
+      <c r="AS143" s="9"/>
+      <c r="AT143" s="9"/>
+      <c r="AU143" s="9"/>
+      <c r="AV143" s="9"/>
+      <c r="AW143" s="9"/>
+      <c r="AX143" s="9"/>
+      <c r="AY143" s="9"/>
+      <c r="AZ143" s="9"/>
+      <c r="BA143" s="9"/>
+      <c r="BB143" s="9"/>
+      <c r="BC143" s="9"/>
+      <c r="BD143" s="9"/>
+      <c r="BE143" s="9"/>
+      <c r="BF143" s="9"/>
+      <c r="BG143" s="9"/>
+      <c r="BH143" s="9"/>
+      <c r="BI143" s="9"/>
+      <c r="BJ143" s="9"/>
+      <c r="BK143" s="9"/>
+      <c r="BL143" s="9"/>
+      <c r="BM143" s="9"/>
+      <c r="BN143" s="9"/>
+      <c r="BO143" s="9"/>
+      <c r="BP143" s="9"/>
+      <c r="BQ143" s="9"/>
+      <c r="BR143" s="9"/>
+      <c r="BS143" s="9"/>
+      <c r="BT143" s="9"/>
+      <c r="BU143" s="9"/>
+      <c r="BV143" s="9"/>
+      <c r="BW143" s="9"/>
+      <c r="BX143" s="9"/>
+      <c r="BY143" s="9"/>
+      <c r="BZ143" s="9"/>
+      <c r="CA143" s="9"/>
+      <c r="CB143" s="9"/>
+      <c r="CC143" s="9"/>
+      <c r="CD143" s="9"/>
+      <c r="CE143" s="9"/>
+      <c r="CF143" s="9"/>
+      <c r="CG143" s="9"/>
+      <c r="CH143" s="9"/>
+      <c r="CI143" s="9"/>
+      <c r="CJ143" s="9"/>
+      <c r="CK143" s="9"/>
+      <c r="CL143" s="9"/>
+      <c r="CM143" s="9"/>
+      <c r="CN143" s="9"/>
+      <c r="CO143" s="9"/>
+      <c r="CP143" s="9"/>
+      <c r="CQ143" s="9"/>
+      <c r="CR143" s="9"/>
+      <c r="CS143" s="9"/>
+      <c r="CT143" s="9"/>
+      <c r="CU143" s="9"/>
+      <c r="CV143" s="9"/>
+      <c r="CW143" s="9"/>
+      <c r="CX143" s="9"/>
+      <c r="CY143" s="9"/>
+      <c r="CZ143" s="9"/>
+      <c r="DA143" s="9"/>
+      <c r="DB143" s="9"/>
+      <c r="DC143" s="9"/>
+      <c r="DD143" s="9"/>
+      <c r="DE143" s="9"/>
+      <c r="DF143" s="9"/>
+      <c r="DG143" s="9"/>
+      <c r="DH143" s="9"/>
+      <c r="DI143" s="9"/>
+      <c r="DJ143" s="9"/>
+      <c r="DK143" s="9"/>
+      <c r="DL143" s="9"/>
+      <c r="DM143" s="9"/>
+      <c r="DN143" s="9"/>
+      <c r="DO143" s="9"/>
+      <c r="DP143" s="9"/>
+      <c r="DQ143" s="9"/>
+      <c r="DR143" s="9"/>
+      <c r="DS143" s="9"/>
+      <c r="DT143" s="9"/>
+      <c r="DU143" s="9"/>
+      <c r="DV143" s="9"/>
+      <c r="DW143" s="9"/>
+      <c r="DX143" s="9"/>
+      <c r="DY143" s="9"/>
+      <c r="DZ143" s="9"/>
+      <c r="EA143" s="9"/>
+      <c r="EB143" s="9"/>
+      <c r="EC143" s="9"/>
+      <c r="ED143" s="9"/>
+      <c r="EE143" s="9"/>
+      <c r="EF143" s="9"/>
+      <c r="EG143" s="9"/>
+      <c r="EH143" s="9"/>
+      <c r="EI143" s="9"/>
+      <c r="EJ143" s="9"/>
+      <c r="EK143" s="9"/>
+      <c r="EL143" s="9"/>
+      <c r="EM143" s="9"/>
+      <c r="EN143" s="9"/>
+      <c r="EO143" s="9"/>
+      <c r="EP143" s="9"/>
+      <c r="EQ143" s="9"/>
+      <c r="ER143" s="9"/>
+      <c r="ES143" s="9"/>
+      <c r="ET143" s="9"/>
+      <c r="EU143" s="9"/>
+      <c r="EV143" s="9"/>
+      <c r="EW143" s="9"/>
+      <c r="EX143" s="9"/>
+      <c r="EY143" s="9"/>
+      <c r="EZ143" s="9"/>
+      <c r="FA143" s="9"/>
+      <c r="FB143" s="9"/>
+      <c r="FC143" s="9"/>
+      <c r="FD143" s="9"/>
+      <c r="FE143" s="9"/>
+      <c r="FF143" s="9"/>
+      <c r="FG143" s="9"/>
+      <c r="FH143" s="9"/>
+      <c r="FI143" s="9"/>
+      <c r="FJ143" s="9"/>
+      <c r="FK143" s="9"/>
+      <c r="FL143" s="9"/>
+      <c r="FM143" s="9"/>
+      <c r="FN143" s="9"/>
+      <c r="FO143" s="9"/>
+      <c r="FP143" s="9"/>
+      <c r="FQ143" s="9"/>
+      <c r="FR143" s="9"/>
+      <c r="FS143" s="9"/>
+      <c r="FT143" s="9"/>
+      <c r="FU143" s="9"/>
+      <c r="FV143" s="9"/>
+      <c r="FW143" s="9"/>
+      <c r="FX143" s="9"/>
+      <c r="FY143" s="9"/>
+      <c r="FZ143" s="9"/>
+      <c r="GA143" s="9"/>
+      <c r="GB143" s="9"/>
+      <c r="GC143" s="9"/>
+      <c r="GD143" s="9"/>
+      <c r="GE143" s="9"/>
+      <c r="GF143" s="9"/>
+      <c r="GG143" s="9"/>
+      <c r="GH143" s="9"/>
+      <c r="GI143" s="9"/>
+      <c r="GJ143" s="9"/>
+      <c r="GK143" s="9"/>
+      <c r="GL143" s="9"/>
+      <c r="GM143" s="9"/>
+      <c r="GN143" s="9"/>
+      <c r="GO143" s="9"/>
+      <c r="GP143" s="9"/>
+      <c r="GQ143" s="9"/>
+      <c r="GR143" s="9"/>
+      <c r="GS143" s="9"/>
+      <c r="GT143" s="9"/>
+      <c r="GU143" s="9"/>
+      <c r="GV143" s="9"/>
+      <c r="GW143" s="9"/>
+      <c r="GX143" s="9"/>
+      <c r="GY143" s="9"/>
+      <c r="GZ143" s="9"/>
+      <c r="HA143" s="9"/>
+      <c r="HB143" s="9"/>
+      <c r="HC143" s="9"/>
+      <c r="HD143" s="9"/>
+      <c r="HE143" s="9"/>
+      <c r="HF143" s="9"/>
+      <c r="HG143" s="9"/>
+      <c r="HH143" s="9"/>
+      <c r="HI143" s="9"/>
+      <c r="HJ143" s="9"/>
+      <c r="HK143" s="9"/>
+      <c r="HL143" s="9"/>
+      <c r="HM143" s="9"/>
+      <c r="HN143" s="9"/>
+      <c r="HO143" s="9"/>
+      <c r="HP143" s="9"/>
+      <c r="HQ143" s="9"/>
+      <c r="HR143" s="9"/>
+      <c r="HS143" s="9"/>
+      <c r="HT143" s="9"/>
+      <c r="HU143" s="9"/>
+      <c r="HV143" s="9"/>
+      <c r="HW143" s="9"/>
+      <c r="HX143" s="9"/>
+      <c r="HY143" s="9"/>
+      <c r="HZ143" s="9"/>
+      <c r="IA143" s="9"/>
+      <c r="IB143" s="9"/>
+      <c r="IC143" s="9"/>
+      <c r="ID143" s="9"/>
+      <c r="IE143" s="9"/>
+      <c r="IF143" s="9"/>
+      <c r="IG143" s="9"/>
+      <c r="IH143" s="9"/>
+      <c r="II143" s="9"/>
+      <c r="IJ143" s="9"/>
+      <c r="IK143" s="9"/>
+      <c r="IL143" s="9"/>
+      <c r="IM143" s="9"/>
+      <c r="IN143" s="9"/>
+      <c r="IO143" s="9"/>
+      <c r="IP143" s="9"/>
+      <c r="IQ143" s="9"/>
+      <c r="IR143" s="9"/>
+      <c r="IS143" s="9"/>
+      <c r="IT143" s="9"/>
     </row>
     <row r="144" spans="1:254">
       <c r="A144" s="5"/>
-      <c r="B144" s="3"/>
+      <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -9212,7 +8898,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -9222,7 +8908,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="5"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -9232,7 +8918,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="B147" s="4"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -9292,7 +8978,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -9312,7 +8998,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -9322,7 +9008,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="5"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -9342,7 +9028,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="B158" s="4"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -9362,7 +9048,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="5"/>
-      <c r="B160" s="4"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -9382,7 +9068,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
+      <c r="B162" s="4"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -9402,7 +9088,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="5"/>
-      <c r="B164" s="4"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -9422,7 +9108,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
+      <c r="B166" s="4"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -9462,7 +9148,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="5"/>
-      <c r="B170" s="3"/>
+      <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -9472,7 +9158,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
+      <c r="B171" s="3"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -9482,7 +9168,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="5"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -9552,7 +9238,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -9562,7 +9248,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="5"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -9572,7 +9258,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -9592,7 +9278,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="5"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="6"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -9642,7 +9328,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
+      <c r="B188" s="4"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -9662,7 +9348,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="5"/>
-      <c r="B190" s="4"/>
+      <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -9722,7 +9408,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -9762,7 +9448,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
+      <c r="B200" s="6"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -9772,7 +9458,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="5"/>
-      <c r="B201" s="3"/>
+      <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -9782,7 +9468,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
+      <c r="B202" s="3"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -9792,7 +9478,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="5"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -9842,7 +9528,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -9852,7 +9538,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="5"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -9902,7 +9588,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="4"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -9962,7 +9648,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
+      <c r="B220" s="6"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -9972,7 +9658,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="5"/>
-      <c r="B221" s="3"/>
+      <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -9982,7 +9668,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
+      <c r="B222" s="3"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -9992,7 +9678,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="5"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -10002,7 +9688,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
+      <c r="B224" s="4"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -10012,7 +9698,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="5"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -10052,7 +9738,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
+      <c r="B229" s="4"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -10062,7 +9748,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="5"/>
-      <c r="B230" s="4"/>
+      <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -10072,7 +9758,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="5"/>
-      <c r="B231" s="8"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -10092,7 +9778,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="5"/>
-      <c r="B233" s="4"/>
+      <c r="B233" s="8"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -10132,7 +9818,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
+      <c r="B237" s="4"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -10142,7 +9828,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="5"/>
-      <c r="B238" s="4"/>
+      <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -10192,7 +9878,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
+      <c r="B243" s="4"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -10202,7 +9888,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="5"/>
-      <c r="B244" s="4"/>
+      <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -10212,7 +9898,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
+      <c r="B245" s="4"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -10222,7 +9908,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="5"/>
-      <c r="B246" s="4"/>
+      <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -10232,7 +9918,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="5"/>
-      <c r="B247" s="8"/>
+      <c r="B247" s="4"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -10282,7 +9968,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="5"/>
-      <c r="B252" s="4"/>
+      <c r="B252" s="8"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -10292,7 +9978,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="5"/>
-      <c r="B253" s="8"/>
+      <c r="B253" s="4"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -10302,7 +9988,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="5"/>
-      <c r="B254" s="28"/>
+      <c r="B254" s="8"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -10342,7 +10028,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="5"/>
-      <c r="B258" s="8"/>
+      <c r="B258" s="28"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -10382,7 +10068,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="5"/>
-      <c r="B262" s="28"/>
+      <c r="B262" s="8"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -10412,7 +10098,7 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="5"/>
-      <c r="B265" s="8"/>
+      <c r="B265" s="28"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -10422,7 +10108,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="5"/>
-      <c r="B266" s="28"/>
+      <c r="B266" s="8"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -10462,7 +10148,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="5"/>
-      <c r="B270" s="8"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -10472,7 +10158,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="5"/>
-      <c r="B271" s="28"/>
+      <c r="B271" s="8"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -10502,7 +10188,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="5"/>
-      <c r="B274" s="6"/>
+      <c r="B274" s="28"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -10512,7 +10198,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
+      <c r="B275" s="6"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -10532,7 +10218,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="5"/>
-      <c r="B277" s="4"/>
+      <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -10552,7 +10238,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
+      <c r="B279" s="4"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -10592,7 +10278,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="5"/>
-      <c r="B283" s="3"/>
+      <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -10602,7 +10288,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
+      <c r="B284" s="3"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -10682,7 +10368,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="5"/>
-      <c r="B292" s="3"/>
+      <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -10692,7 +10378,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
+      <c r="B293" s="3"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10702,7 +10388,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="5"/>
-      <c r="B294" s="4"/>
+      <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10732,7 +10418,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
+      <c r="B297" s="4"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -10792,7 +10478,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="5"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -10812,7 +10498,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="5"/>
-      <c r="B305" s="6"/>
+      <c r="B305" s="4"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -10822,7 +10508,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
+      <c r="B306" s="6"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -10832,7 +10518,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="5"/>
-      <c r="B307" s="3"/>
+      <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10842,7 +10528,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
+      <c r="B308" s="3"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10872,7 +10558,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="5"/>
-      <c r="B311" s="4"/>
+      <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -10922,7 +10608,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="5"/>
-      <c r="B316" s="8"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10972,7 +10658,7 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="5"/>
-      <c r="B321" s="6"/>
+      <c r="B321" s="8"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -11022,7 +10708,7 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="5"/>
-      <c r="B326" s="4"/>
+      <c r="B326" s="6"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -11032,7 +10718,7 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="5"/>
-      <c r="B327" s="6"/>
+      <c r="B327" s="4"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -11042,7 +10728,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="5"/>
-      <c r="B328" s="5"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -11052,7 +10738,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="5"/>
-      <c r="B329" s="3"/>
+      <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -11062,7 +10748,7 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
+      <c r="B330" s="3"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -11152,7 +10838,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="5"/>
-      <c r="B339" s="3"/>
+      <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11162,7 +10848,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="5"/>
-      <c r="B340" s="5"/>
+      <c r="B340" s="3"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -11172,7 +10858,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="5"/>
-      <c r="B341" s="6"/>
+      <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -11182,7 +10868,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="5"/>
-      <c r="B342" s="5"/>
+      <c r="B342" s="6"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -11222,7 +10908,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="5"/>
-      <c r="B346" s="3"/>
+      <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11232,7 +10918,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="5"/>
-      <c r="B347" s="5"/>
+      <c r="B347" s="3"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11242,7 +10928,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="5"/>
-      <c r="B348" s="4"/>
+      <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11272,7 +10958,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="5"/>
-      <c r="B351" s="6"/>
+      <c r="B351" s="4"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11282,7 +10968,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="5"/>
-      <c r="B352" s="4"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11302,7 +10988,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="5"/>
-      <c r="B354" s="6"/>
+      <c r="B354" s="4"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11312,7 +10998,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="5"/>
-      <c r="B355" s="4"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11322,7 +11008,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="5"/>
-      <c r="B356" s="6"/>
+      <c r="B356" s="4"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11332,7 +11018,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="5"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11362,7 +11048,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="5"/>
-      <c r="B360" s="5"/>
+      <c r="B360" s="4"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -11372,7 +11058,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="5"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -11382,7 +11068,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="5"/>
-      <c r="B362" s="6"/>
+      <c r="B362" s="7"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -11392,7 +11078,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="5"/>
-      <c r="B363" s="5"/>
+      <c r="B363" s="6"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -11402,7 +11088,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="5"/>
-      <c r="B364" s="4"/>
+      <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -11432,7 +11118,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="5"/>
-      <c r="B367" s="5"/>
+      <c r="B367" s="4"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -11462,7 +11148,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="5"/>
-      <c r="B370" s="4"/>
+      <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -11482,7 +11168,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="5"/>
-      <c r="B372" s="5"/>
+      <c r="B372" s="4"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -11492,7 +11178,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="5"/>
-      <c r="B373" s="3"/>
+      <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -11502,7 +11188,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="5"/>
-      <c r="B374" s="5"/>
+      <c r="B374" s="3"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -11562,7 +11248,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="5"/>
-      <c r="B380" s="3"/>
+      <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -11572,7 +11258,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="5"/>
-      <c r="B381" s="5"/>
+      <c r="B381" s="3"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -11602,7 +11288,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="5"/>
-      <c r="B384" s="4"/>
+      <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -11622,7 +11308,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="5"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="4"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -11632,7 +11318,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="5"/>
-      <c r="B387" s="6"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -11682,7 +11368,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="5"/>
-      <c r="B392" s="5"/>
+      <c r="B392" s="6"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -11692,7 +11378,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="5"/>
-      <c r="B393" s="3"/>
+      <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -11702,7 +11388,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="5"/>
-      <c r="B394" s="5"/>
+      <c r="B394" s="3"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -11712,7 +11398,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="5"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -11722,7 +11408,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="5"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="4"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -11742,7 +11428,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="5"/>
-      <c r="B398" s="4"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -11782,7 +11468,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="5"/>
-      <c r="B402" s="5"/>
+      <c r="B402" s="4"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -11792,7 +11478,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="5"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -11812,7 +11498,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="5"/>
-      <c r="B405" s="6"/>
+      <c r="B405" s="4"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -11822,7 +11508,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="5"/>
-      <c r="B406" s="5"/>
+      <c r="B406" s="6"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -11832,7 +11518,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="5"/>
-      <c r="B407" s="3"/>
+      <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -11842,7 +11528,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="5"/>
-      <c r="B408" s="5"/>
+      <c r="B408" s="3"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -11862,7 +11548,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="5"/>
-      <c r="B410" s="3"/>
+      <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -11872,7 +11558,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="5"/>
-      <c r="B411" s="5"/>
+      <c r="B411" s="3"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -11882,7 +11568,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="5"/>
-      <c r="B412" s="4"/>
+      <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -11902,7 +11588,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="5"/>
-      <c r="B414" s="5"/>
+      <c r="B414" s="4"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -11912,7 +11598,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="5"/>
-      <c r="B415" s="3"/>
+      <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -11922,7 +11608,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="5"/>
-      <c r="B416" s="5"/>
+      <c r="B416" s="3"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -11972,7 +11658,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="5"/>
-      <c r="B421" s="3"/>
+      <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -11982,7 +11668,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="5"/>
-      <c r="B422" s="5"/>
+      <c r="B422" s="3"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -12042,7 +11728,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="5"/>
-      <c r="B428" s="3"/>
+      <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -12052,7 +11738,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="5"/>
-      <c r="B429" s="5"/>
+      <c r="B429" s="3"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -12072,7 +11758,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="5"/>
-      <c r="B431" s="3"/>
+      <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -12082,7 +11768,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="5"/>
-      <c r="B432" s="5"/>
+      <c r="B432" s="3"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -12132,7 +11818,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="5"/>
-      <c r="B437" s="3"/>
+      <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -12142,7 +11828,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="5"/>
-      <c r="B438" s="5"/>
+      <c r="B438" s="3"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -12202,7 +11888,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="5"/>
-      <c r="B444" s="3"/>
+      <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -12212,7 +11898,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="5"/>
-      <c r="B445" s="5"/>
+      <c r="B445" s="3"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -12262,7 +11948,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="5"/>
-      <c r="B450" s="3"/>
+      <c r="B450" s="5"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -12272,7 +11958,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="5"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="3"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -12332,7 +12018,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="5"/>
-      <c r="B457" s="5"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -12342,7 +12028,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="5"/>
-      <c r="B458" s="3"/>
+      <c r="B458" s="5"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -12352,7 +12038,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="5"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="3"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -12381,8 +12067,8 @@
       <c r="H461" s="5"/>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="3"/>
-      <c r="B462" s="5"/>
+      <c r="A462" s="5"/>
+      <c r="B462" s="6"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -12391,7 +12077,7 @@
       <c r="H462" s="5"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="5"/>
+      <c r="A463" s="3"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
@@ -12432,7 +12118,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="5"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="5"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -12462,7 +12148,7 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" s="5"/>
-      <c r="B470" s="5"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -12472,7 +12158,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="5"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="5"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -12482,7 +12168,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="5"/>
-      <c r="B472" s="5"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -12492,21 +12178,21 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="5"/>
-      <c r="B473" s="29"/>
-      <c r="C473" s="14"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="5"/>
       <c r="G473" s="14"/>
       <c r="H473" s="5"/>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="5"/>
-      <c r="B474" s="5"/>
-      <c r="C474" s="5"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="14"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
-      <c r="F474" s="5"/>
+      <c r="F474" s="29"/>
       <c r="G474" s="14"/>
       <c r="H474" s="5"/>
     </row>
@@ -16410,6 +16096,16 @@
       <c r="G864" s="14"/>
       <c r="H864" s="5"/>
     </row>
+    <row r="865" spans="1:8">
+      <c r="A865" s="5"/>
+      <c r="B865" s="5"/>
+      <c r="C865" s="5"/>
+      <c r="D865" s="5"/>
+      <c r="E865" s="5"/>
+      <c r="F865" s="5"/>
+      <c r="G865" s="14"/>
+      <c r="H865" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="365">
   <si>
     <t>Feature</t>
   </si>
@@ -248,9 +248,6 @@
     <t>configurable format</t>
   </si>
   <si>
-    <t>sets phantom position</t>
-  </si>
-  <si>
     <t>View</t>
   </si>
   <si>
@@ -1104,6 +1101,18 @@
   </si>
   <si>
     <t>selects one row down</t>
+  </si>
+  <si>
+    <t>clear phantom position</t>
+  </si>
+  <si>
+    <t>moves the caret one page up</t>
+  </si>
+  <si>
+    <t>moves the caret one page down</t>
+  </si>
+  <si>
+    <t>extends selection one page down</t>
   </si>
 </sst>
 </file>
@@ -1327,259 +1336,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1770,7 +1527,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,7 +1548,7 @@
                   <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,7 +1595,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,7 +1616,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,7 +1663,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1731,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,7 +2046,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2067,7 @@
                   <c:v>0.63503649635036497</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63503649635036497</c:v>
+                  <c:v>0.70023980815347719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,7 +2248,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,7 +2269,7 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +2316,7 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45658</c:v>
+                  <c:v>45661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,10 +2938,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3198,7 +2955,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.4">
       <c r="B1" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="36"/>
     </row>
@@ -3233,7 +2990,7 @@
     </row>
     <row r="7" spans="1:4" s="38" customFormat="1">
       <c r="B7" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -3242,7 +2999,7 @@
     </row>
     <row r="8" spans="1:4" s="38" customFormat="1">
       <c r="B8" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -3251,7 +3008,7 @@
     </row>
     <row r="9" spans="1:4" s="38" customFormat="1">
       <c r="B9" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>2</v>
@@ -3260,7 +3017,7 @@
     </row>
     <row r="10" spans="1:4" s="38" customFormat="1">
       <c r="B10" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>14</v>
@@ -3279,7 +3036,7 @@
     </row>
     <row r="13" spans="1:4" s="38" customFormat="1">
       <c r="B13" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -3300,7 +3057,7 @@
     </row>
     <row r="16" spans="1:4" s="38" customFormat="1">
       <c r="B16" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -3328,7 +3085,7 @@
     </row>
     <row r="20" spans="2:4" s="38" customFormat="1">
       <c r="B20" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>2</v>
@@ -3342,7 +3099,7 @@
     </row>
     <row r="22" spans="2:4" s="38" customFormat="1">
       <c r="B22" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2</v>
@@ -3356,7 +3113,7 @@
     </row>
     <row r="24" spans="2:4" s="38" customFormat="1">
       <c r="B24" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>2</v>
@@ -3365,7 +3122,7 @@
     </row>
     <row r="25" spans="2:4" s="38" customFormat="1">
       <c r="B25" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2</v>
@@ -3383,7 +3140,7 @@
     </row>
     <row r="27" spans="2:4" s="38" customFormat="1">
       <c r="B27" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2</v>
@@ -3392,7 +3149,7 @@
     </row>
     <row r="28" spans="2:4" s="38" customFormat="1">
       <c r="B28" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>2</v>
@@ -3401,7 +3158,7 @@
     </row>
     <row r="29" spans="2:4" s="38" customFormat="1">
       <c r="B29" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>2</v>
@@ -3410,7 +3167,7 @@
     </row>
     <row r="30" spans="2:4" s="38" customFormat="1">
       <c r="B30" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>2</v>
@@ -3419,7 +3176,7 @@
     </row>
     <row r="31" spans="2:4" s="38" customFormat="1">
       <c r="B31" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>14</v>
@@ -3433,7 +3190,7 @@
     </row>
     <row r="33" spans="2:4" s="38" customFormat="1">
       <c r="B33" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2</v>
@@ -3442,7 +3199,7 @@
     </row>
     <row r="34" spans="2:4" s="38" customFormat="1">
       <c r="B34" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2</v>
@@ -3451,7 +3208,7 @@
     </row>
     <row r="35" spans="2:4" s="38" customFormat="1">
       <c r="B35" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2</v>
@@ -3460,7 +3217,7 @@
     </row>
     <row r="36" spans="2:4" s="38" customFormat="1">
       <c r="B36" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>2</v>
@@ -3478,7 +3235,7 @@
     </row>
     <row r="38" spans="2:4" s="38" customFormat="1">
       <c r="B38" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>14</v>
@@ -3510,7 +3267,7 @@
     </row>
     <row r="42" spans="2:4" s="38" customFormat="1">
       <c r="B42" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>14</v>
@@ -3519,7 +3276,7 @@
     </row>
     <row r="43" spans="2:4" s="38" customFormat="1">
       <c r="B43" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>14</v>
@@ -3528,7 +3285,7 @@
     </row>
     <row r="44" spans="2:4" s="38" customFormat="1">
       <c r="B44" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>14</v>
@@ -3587,7 +3344,7 @@
     </row>
     <row r="51" spans="2:4" s="38" customFormat="1">
       <c r="B51" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>14</v>
@@ -3610,7 +3367,7 @@
     </row>
     <row r="54" spans="2:4" s="38" customFormat="1">
       <c r="B54" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>2</v>
@@ -3655,7 +3412,7 @@
     </row>
     <row r="59" spans="2:4" s="38" customFormat="1">
       <c r="B59" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>2</v>
@@ -3673,7 +3430,7 @@
     </row>
     <row r="61" spans="2:4" s="38" customFormat="1">
       <c r="B61" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>14</v>
@@ -3770,7 +3527,7 @@
     </row>
     <row r="74" spans="2:4" s="38" customFormat="1">
       <c r="B74" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
@@ -3782,7 +3539,7 @@
     </row>
     <row r="76" spans="2:4" s="38" customFormat="1">
       <c r="B76" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>2</v>
@@ -3791,7 +3548,7 @@
     </row>
     <row r="77" spans="2:4" s="38" customFormat="1">
       <c r="B77" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>2</v>
@@ -3800,7 +3557,7 @@
     </row>
     <row r="78" spans="2:4" s="38" customFormat="1">
       <c r="B78" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>2</v>
@@ -3809,7 +3566,7 @@
     </row>
     <row r="79" spans="2:4" s="38" customFormat="1">
       <c r="B79" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>2</v>
@@ -3818,7 +3575,7 @@
     </row>
     <row r="80" spans="2:4" s="38" customFormat="1">
       <c r="B80" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>2</v>
@@ -3827,7 +3584,7 @@
     </row>
     <row r="81" spans="2:4" s="38" customFormat="1">
       <c r="B81" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>2</v>
@@ -3844,7 +3601,7 @@
     </row>
     <row r="83" spans="2:4" s="38" customFormat="1">
       <c r="B83" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>2</v>
@@ -3853,14 +3610,14 @@
     </row>
     <row r="84" spans="2:4" s="38" customFormat="1">
       <c r="B84" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>2</v>
@@ -3868,7 +3625,7 @@
     </row>
     <row r="86" spans="2:4" s="38" customFormat="1">
       <c r="B86" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>2</v>
@@ -3877,7 +3634,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>2</v>
@@ -3885,7 +3642,7 @@
     </row>
     <row r="88" spans="2:4" s="38" customFormat="1">
       <c r="B88" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>2</v>
@@ -3894,7 +3651,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>2</v>
@@ -3902,7 +3659,7 @@
     </row>
     <row r="90" spans="2:4" s="38" customFormat="1">
       <c r="B90" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>2</v>
@@ -3911,7 +3668,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>2</v>
@@ -3919,7 +3676,7 @@
     </row>
     <row r="92" spans="2:4" s="38" customFormat="1">
       <c r="B92" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>2</v>
@@ -3936,7 +3693,7 @@
     </row>
     <row r="94" spans="2:4" s="38" customFormat="1">
       <c r="B94" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>2</v>
@@ -3954,7 +3711,7 @@
     </row>
     <row r="96" spans="2:4" s="38" customFormat="1">
       <c r="B96" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>2</v>
@@ -3971,7 +3728,7 @@
     </row>
     <row r="98" spans="2:4" s="38" customFormat="1">
       <c r="B98" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>2</v>
@@ -3980,7 +3737,7 @@
     </row>
     <row r="99" spans="2:4" s="38" customFormat="1">
       <c r="B99" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>2</v>
@@ -3989,7 +3746,7 @@
     </row>
     <row r="100" spans="2:4" s="38" customFormat="1">
       <c r="B100" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" s="40" t="s">
         <v>2</v>
@@ -4007,7 +3764,7 @@
     </row>
     <row r="102" spans="2:4" s="38" customFormat="1">
       <c r="B102" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>2</v>
@@ -4016,7 +3773,7 @@
     </row>
     <row r="103" spans="2:4" s="38" customFormat="1">
       <c r="B103" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>2</v>
@@ -4025,7 +3782,7 @@
     </row>
     <row r="104" spans="2:4" s="38" customFormat="1">
       <c r="B104" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C104" s="40" t="s">
         <v>2</v>
@@ -4034,7 +3791,7 @@
     </row>
     <row r="105" spans="2:4" s="38" customFormat="1">
       <c r="B105" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>2</v>
@@ -4043,7 +3800,7 @@
     </row>
     <row r="106" spans="2:4" s="38" customFormat="1">
       <c r="B106" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>2</v>
@@ -4052,7 +3809,7 @@
     </row>
     <row r="107" spans="2:4" s="38" customFormat="1">
       <c r="B107" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C107" s="40" t="s">
         <v>2</v>
@@ -4061,7 +3818,7 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>2</v>
@@ -4069,7 +3826,7 @@
     </row>
     <row r="109" spans="2:4" s="38" customFormat="1">
       <c r="B109" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>2</v>
@@ -4078,7 +3835,7 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>2</v>
@@ -4086,7 +3843,7 @@
     </row>
     <row r="111" spans="2:4" s="38" customFormat="1">
       <c r="B111" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C111" s="40" t="s">
         <v>2</v>
@@ -4110,7 +3867,7 @@
     </row>
     <row r="115" spans="2:4" s="38" customFormat="1">
       <c r="B115" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" s="40"/>
       <c r="D115" s="40"/>
@@ -4122,7 +3879,7 @@
     </row>
     <row r="117" spans="2:4" s="38" customFormat="1">
       <c r="B117" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117" s="40" t="s">
         <v>14</v>
@@ -4131,7 +3888,7 @@
     </row>
     <row r="118" spans="2:4" s="38" customFormat="1">
       <c r="B118" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C118" s="40" t="s">
         <v>14</v>
@@ -4140,7 +3897,7 @@
     </row>
     <row r="119" spans="2:4" s="38" customFormat="1">
       <c r="B119" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>14</v>
@@ -4149,7 +3906,7 @@
     </row>
     <row r="120" spans="2:4" s="38" customFormat="1">
       <c r="B120" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>2</v>
@@ -4158,7 +3915,7 @@
     </row>
     <row r="121" spans="2:4" s="38" customFormat="1">
       <c r="B121" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C121" s="40" t="s">
         <v>2</v>
@@ -4167,7 +3924,7 @@
     </row>
     <row r="122" spans="2:4" s="38" customFormat="1">
       <c r="B122" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C122" s="40" t="s">
         <v>14</v>
@@ -4176,7 +3933,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -4185,7 +3942,7 @@
     </row>
     <row r="124" spans="2:4" s="38" customFormat="1">
       <c r="B124" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>2</v>
@@ -4194,7 +3951,7 @@
     </row>
     <row r="125" spans="2:4" s="38" customFormat="1">
       <c r="B125" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>2</v>
@@ -4203,7 +3960,7 @@
     </row>
     <row r="126" spans="2:4" s="38" customFormat="1">
       <c r="B126" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>14</v>
@@ -4212,7 +3969,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -4221,7 +3978,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -4230,7 +3987,7 @@
     </row>
     <row r="129" spans="2:4" s="38" customFormat="1">
       <c r="B129" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>14</v>
@@ -4239,7 +3996,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -4248,7 +4005,7 @@
     </row>
     <row r="131" spans="2:4" s="38" customFormat="1">
       <c r="B131" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C131" s="40" t="s">
         <v>2</v>
@@ -4257,7 +4014,7 @@
     </row>
     <row r="132" spans="2:4" s="38" customFormat="1">
       <c r="B132" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>2</v>
@@ -4266,7 +4023,7 @@
     </row>
     <row r="133" spans="2:4" s="38" customFormat="1">
       <c r="B133" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>14</v>
@@ -4275,7 +4032,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -4284,7 +4041,7 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>14</v>
@@ -4293,7 +4050,7 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4302,7 +4059,7 @@
     </row>
     <row r="137" spans="2:4" s="38" customFormat="1">
       <c r="B137" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>14</v>
@@ -4311,7 +4068,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -4320,7 +4077,7 @@
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
       <c r="B139" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -4329,7 +4086,7 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>2</v>
@@ -4338,7 +4095,7 @@
     </row>
     <row r="141" spans="2:4" s="38" customFormat="1">
       <c r="B141" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>14</v>
@@ -4347,7 +4104,7 @@
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
@@ -4356,7 +4113,7 @@
     </row>
     <row r="143" spans="2:4" s="38" customFormat="1">
       <c r="B143" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
@@ -4365,7 +4122,7 @@
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>14</v>
@@ -4374,7 +4131,7 @@
     </row>
     <row r="145" spans="2:4" s="38" customFormat="1">
       <c r="B145" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>14</v>
@@ -4383,7 +4140,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4392,7 +4149,7 @@
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
       <c r="B147" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>14</v>
@@ -4401,7 +4158,7 @@
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>2</v>
@@ -4410,7 +4167,7 @@
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
       <c r="B149" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>2</v>
@@ -4419,7 +4176,7 @@
     </row>
     <row r="150" spans="2:4" s="38" customFormat="1">
       <c r="B150" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>14</v>
@@ -4428,7 +4185,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>14</v>
@@ -4436,7 +4193,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>14</v>
@@ -4444,7 +4201,7 @@
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>14</v>
@@ -4453,7 +4210,7 @@
     </row>
     <row r="154" spans="2:4" s="38" customFormat="1">
       <c r="B154" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>2</v>
@@ -4462,7 +4219,7 @@
     </row>
     <row r="155" spans="2:4" s="38" customFormat="1">
       <c r="B155" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>2</v>
@@ -4471,7 +4228,7 @@
     </row>
     <row r="156" spans="2:4" s="38" customFormat="1">
       <c r="B156" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>2</v>
@@ -4480,7 +4237,7 @@
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>2</v>
@@ -4489,7 +4246,7 @@
     </row>
     <row r="158" spans="2:4" s="38" customFormat="1">
       <c r="B158" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>14</v>
@@ -4498,7 +4255,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4507,7 +4264,7 @@
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
       <c r="B160" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>14</v>
@@ -4516,7 +4273,7 @@
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
       <c r="B161" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>14</v>
@@ -4525,7 +4282,7 @@
     </row>
     <row r="162" spans="2:4" s="38" customFormat="1">
       <c r="B162" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>14</v>
@@ -4534,7 +4291,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4543,7 +4300,7 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>14</v>
@@ -4552,7 +4309,7 @@
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
       <c r="B165" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>14</v>
@@ -4561,7 +4318,7 @@
     </row>
     <row r="166" spans="2:4" s="38" customFormat="1">
       <c r="B166" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C166" s="40" t="s">
         <v>14</v>
@@ -4570,7 +4327,7 @@
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
@@ -4579,7 +4336,7 @@
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4588,7 +4345,7 @@
     </row>
     <row r="169" spans="2:4" s="38" customFormat="1">
       <c r="B169" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>2</v>
@@ -4597,7 +4354,7 @@
     </row>
     <row r="170" spans="2:4" s="38" customFormat="1">
       <c r="B170" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>14</v>
@@ -4606,7 +4363,7 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>14</v>
@@ -4615,7 +4372,7 @@
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C172" s="40" t="s">
         <v>14</v>
@@ -4624,7 +4381,7 @@
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
       <c r="B173" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4633,7 +4390,7 @@
     </row>
     <row r="174" spans="2:4" s="38" customFormat="1">
       <c r="B174" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>2</v>
@@ -4642,7 +4399,7 @@
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>2</v>
@@ -4651,7 +4408,7 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>2</v>
@@ -4660,7 +4417,7 @@
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>2</v>
@@ -4669,7 +4426,7 @@
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
       <c r="B178" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C178" s="40" t="s">
         <v>2</v>
@@ -4678,7 +4435,7 @@
     </row>
     <row r="179" spans="2:4" s="38" customFormat="1">
       <c r="B179" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C179" s="40" t="s">
         <v>2</v>
@@ -4687,7 +4444,7 @@
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>2</v>
@@ -4696,7 +4453,7 @@
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -4705,25 +4462,25 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
       <c r="B183" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
       <c r="B184" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -4732,7 +4489,7 @@
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
       <c r="B185" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>2</v>
@@ -4741,7 +4498,7 @@
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -4750,7 +4507,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -4759,25 +4516,25 @@
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
       <c r="B188" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="2:4" s="38" customFormat="1">
       <c r="B189" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4786,7 +4543,7 @@
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
       <c r="B191" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>2</v>
@@ -4795,7 +4552,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -4804,16 +4561,16 @@
     </row>
     <row r="193" spans="2:4" s="38" customFormat="1">
       <c r="B193" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C193" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
       <c r="B194" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -4822,7 +4579,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4831,7 +4588,7 @@
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
       <c r="B196" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4840,7 +4597,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -4849,16 +4606,16 @@
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
       <c r="B198" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C198" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
       <c r="B199" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -4867,7 +4624,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4876,7 +4633,7 @@
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
       <c r="B201" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4885,7 +4642,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4894,7 +4651,7 @@
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
       <c r="B203" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -4903,16 +4660,16 @@
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C204" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
       <c r="B205" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -4921,7 +4678,7 @@
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4930,7 +4687,7 @@
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
       <c r="B207" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C207" s="40" t="s">
         <v>2</v>
@@ -4939,7 +4696,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4948,7 +4705,7 @@
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
       <c r="B209" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -4957,16 +4714,16 @@
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
       <c r="B211" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -4975,7 +4732,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4984,7 +4741,7 @@
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
       <c r="B213" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4993,7 +4750,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -5002,16 +4759,16 @@
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
       <c r="B215" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -5020,7 +4777,7 @@
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
       <c r="B217" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C217" s="40" t="s">
         <v>2</v>
@@ -5029,7 +4786,7 @@
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C218" s="40" t="s">
         <v>2</v>
@@ -5038,16 +4795,16 @@
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
       <c r="B219" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C219" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>2</v>
@@ -5056,7 +4813,7 @@
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
       <c r="B221" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>14</v>
@@ -5065,7 +4822,7 @@
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
       <c r="B222" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>14</v>
@@ -5074,7 +4831,7 @@
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
       <c r="B223" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C223" s="40" t="s">
         <v>14</v>
@@ -5083,7 +4840,7 @@
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
       <c r="B224" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C224" s="40" t="s">
         <v>2</v>
@@ -5092,7 +4849,7 @@
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>2</v>
@@ -5101,7 +4858,7 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>14</v>
@@ -5110,7 +4867,7 @@
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C227" s="40" t="s">
         <v>14</v>
@@ -5119,7 +4876,7 @@
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
       <c r="B228" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C228" s="40" t="s">
         <v>14</v>
@@ -5128,7 +4885,7 @@
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
       <c r="B229" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C229" s="40" t="s">
         <v>2</v>
@@ -5137,7 +4894,7 @@
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C230" s="40" t="s">
         <v>2</v>
@@ -5146,7 +4903,7 @@
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
       <c r="B231" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -5155,7 +4912,7 @@
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
       <c r="B232" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>2</v>
@@ -5164,7 +4921,7 @@
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
       <c r="B233" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C233" s="40" t="s">
         <v>2</v>
@@ -5173,7 +4930,7 @@
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
       <c r="B234" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>2</v>
@@ -5182,7 +4939,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -5191,25 +4948,25 @@
     </row>
     <row r="236" spans="2:4" s="38" customFormat="1">
       <c r="B236" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D236" s="40"/>
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C237" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D237" s="40"/>
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
       <c r="B238" s="39" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -5217,26 +4974,26 @@
       <c r="D238" s="40"/>
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
-      <c r="B239" s="42" t="s">
-        <v>162</v>
+      <c r="B239" s="39" t="s">
+        <v>304</v>
       </c>
       <c r="C239" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D239" s="40"/>
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
-      <c r="B240" s="39" t="s">
-        <v>350</v>
+      <c r="B240" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="C240" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D240" s="40"/>
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
       <c r="B241" s="39" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -5244,71 +5001,71 @@
       <c r="D241" s="40"/>
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
-      <c r="B242" s="42" t="s">
-        <v>163</v>
+      <c r="B242" s="39" t="s">
+        <v>325</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D242" s="40"/>
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="C243" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D243" s="40"/>
+    </row>
+    <row r="244" spans="2:4" s="38" customFormat="1">
+      <c r="B244" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C244" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D243" s="40"/>
-    </row>
-    <row r="244" spans="2:4" s="38" customFormat="1">
-      <c r="B244" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="C244" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D244" s="40"/>
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="C245" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D245" s="40"/>
     </row>
     <row r="246" spans="2:4" s="38" customFormat="1">
-      <c r="B246" s="42" t="s">
-        <v>183</v>
+      <c r="B246" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="C246" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D246" s="40"/>
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="C247" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="40"/>
+    </row>
+    <row r="248" spans="2:4" s="38" customFormat="1">
+      <c r="B248" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C248" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D247" s="40"/>
-    </row>
-    <row r="248" spans="2:4" s="38" customFormat="1">
-      <c r="B248" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="C248" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D248" s="40"/>
     </row>
     <row r="249" spans="2:4" s="38" customFormat="1">
-      <c r="B249" s="42" t="s">
-        <v>164</v>
+      <c r="B249" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C249" s="40" t="s">
         <v>14</v>
@@ -5317,34 +5074,34 @@
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
       <c r="B250" s="39" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="C250" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="40"/>
+    </row>
+    <row r="251" spans="2:4" s="38" customFormat="1">
+      <c r="B251" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C251" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D250" s="40"/>
-    </row>
-    <row r="251" spans="2:4" s="38" customFormat="1">
-      <c r="B251" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="C251" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D251" s="40"/>
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="C252" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D252" s="40"/>
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
       <c r="B253" s="39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>2</v>
@@ -5352,8 +5109,8 @@
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
-      <c r="B254" s="42" t="s">
-        <v>165</v>
+      <c r="B254" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="C254" s="40" t="s">
         <v>2</v>
@@ -5362,7 +5119,7 @@
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5370,8 +5127,8 @@
       <c r="D255" s="40"/>
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
-      <c r="B256" s="39" t="s">
-        <v>251</v>
+      <c r="B256" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5379,8 +5136,8 @@
       <c r="D256" s="40"/>
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
-      <c r="B257" s="42" t="s">
-        <v>166</v>
+      <c r="B257" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C257" s="40" t="s">
         <v>2</v>
@@ -5398,7 +5155,7 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -5406,8 +5163,8 @@
       <c r="D259" s="40"/>
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
-      <c r="B260" s="39" t="s">
-        <v>326</v>
+      <c r="B260" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>2</v>
@@ -5416,7 +5173,7 @@
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5424,8 +5181,8 @@
       <c r="D261" s="40"/>
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
-      <c r="B262" s="42" t="s">
-        <v>167</v>
+      <c r="B262" s="39" t="s">
+        <v>359</v>
       </c>
       <c r="C262" s="40" t="s">
         <v>2</v>
@@ -5434,7 +5191,7 @@
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
       <c r="B263" s="39" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C263" s="40" t="s">
         <v>2</v>
@@ -5443,34 +5200,34 @@
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="C264" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D264" s="40"/>
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
-      <c r="B265" s="39" t="s">
-        <v>316</v>
+      <c r="B265" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="C265" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D265" s="40"/>
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="C266" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D266" s="40"/>
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
       <c r="B267" s="39" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C267" s="40" t="s">
         <v>2</v>
@@ -5478,26 +5235,26 @@
       <c r="D267" s="40"/>
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
-      <c r="B268" s="42" t="s">
-        <v>168</v>
+      <c r="B268" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="C268" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D268" s="40"/>
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C269" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D269" s="40"/>
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5506,43 +5263,43 @@
     </row>
     <row r="271" spans="2:4" s="38" customFormat="1">
       <c r="B271" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C271" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D271" s="40"/>
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
       <c r="B272" s="39" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C272" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D272" s="40"/>
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C273" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="40"/>
+    </row>
+    <row r="274" spans="2:4" s="38" customFormat="1">
+      <c r="B274" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="C273" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" s="40"/>
-    </row>
-    <row r="274" spans="2:4" s="38" customFormat="1">
-      <c r="B274" s="42" t="s">
-        <v>203</v>
-      </c>
       <c r="C274" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D274" s="40"/>
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
-      <c r="B275" s="39" t="s">
-        <v>320</v>
+      <c r="B275" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5551,7 +5308,7 @@
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
       <c r="B276" s="39" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5560,7 +5317,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5569,25 +5326,25 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C278" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="40"/>
+    </row>
+    <row r="279" spans="2:4" s="38" customFormat="1">
+      <c r="B279" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C279" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="40"/>
+    </row>
+    <row r="280" spans="2:4" s="38" customFormat="1">
+      <c r="B280" s="39" t="s">
         <v>319</v>
-      </c>
-      <c r="C278" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" s="40"/>
-    </row>
-    <row r="279" spans="2:4" s="38" customFormat="1">
-      <c r="B279" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C279" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="40"/>
-    </row>
-    <row r="280" spans="2:4" s="38" customFormat="1">
-      <c r="B280" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="C280" s="40" t="s">
         <v>2</v>
@@ -5596,7 +5353,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5608,31 +5365,31 @@
         <v>317</v>
       </c>
       <c r="C282" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D282" s="40"/>
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
       <c r="B283" s="39" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C283" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D283" s="40"/>
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
       <c r="B284" s="39" t="s">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="C284" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D284" s="40"/>
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
       <c r="B285" s="39" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5641,7 +5398,7 @@
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
       <c r="B286" s="42" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5650,7 +5407,7 @@
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
       <c r="B287" s="39" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5659,7 +5416,7 @@
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
       <c r="B288" s="39" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5668,7 +5425,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5676,8 +5433,8 @@
       <c r="D289" s="40"/>
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
-      <c r="B290" s="42" t="s">
-        <v>185</v>
+      <c r="B290" s="39" t="s">
+        <v>361</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5686,7 +5443,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -5694,8 +5451,8 @@
       <c r="D291" s="40"/>
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
-      <c r="B292" s="39" t="s">
-        <v>280</v>
+      <c r="B292" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -5704,7 +5461,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5712,8 +5469,8 @@
       <c r="D293" s="40"/>
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
-      <c r="B294" s="42" t="s">
-        <v>186</v>
+      <c r="B294" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>2</v>
@@ -5722,7 +5479,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -5730,8 +5487,8 @@
       <c r="D295" s="40"/>
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
-      <c r="B296" s="39" t="s">
-        <v>340</v>
+      <c r="B296" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -5740,7 +5497,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5749,7 +5506,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5757,8 +5514,8 @@
       <c r="D298" s="40"/>
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
-      <c r="B299" s="42" t="s">
-        <v>187</v>
+      <c r="B299" s="39" t="s">
+        <v>280</v>
       </c>
       <c r="C299" s="40" t="s">
         <v>2</v>
@@ -5766,8 +5523,8 @@
       <c r="D299" s="40"/>
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
-      <c r="B300" s="39" t="s">
-        <v>341</v>
+      <c r="B300" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -5776,7 +5533,7 @@
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
       <c r="B301" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -5785,7 +5542,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5794,7 +5551,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5802,8 +5559,8 @@
       <c r="D303" s="40"/>
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
-      <c r="B304" s="42" t="s">
-        <v>346</v>
+      <c r="B304" s="39" t="s">
+        <v>333</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -5811,8 +5568,8 @@
       <c r="D304" s="40"/>
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
-      <c r="B305" s="39" t="s">
-        <v>348</v>
+      <c r="B305" s="42" t="s">
+        <v>186</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -5821,16 +5578,16 @@
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
       <c r="B306" s="39" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="C306" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D306" s="40"/>
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5838,8 +5595,8 @@
       <c r="D307" s="40"/>
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
-      <c r="B308" s="42" t="s">
-        <v>347</v>
+      <c r="B308" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="C308" s="40" t="s">
         <v>2</v>
@@ -5848,7 +5605,7 @@
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
       <c r="B309" s="39" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -5856,17 +5613,17 @@
       <c r="D309" s="40"/>
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
-      <c r="B310" s="39" t="s">
-        <v>76</v>
+      <c r="B310" s="42" t="s">
+        <v>345</v>
       </c>
       <c r="C310" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D310" s="40"/>
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5874,17 +5631,17 @@
       <c r="D311" s="40"/>
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
-      <c r="B312" s="42" t="s">
-        <v>171</v>
+      <c r="B312" s="39" t="s">
+        <v>361</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D312" s="40"/>
     </row>
     <row r="313" spans="2:4" s="38" customFormat="1">
       <c r="B313" s="39" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="C313" s="40" t="s">
         <v>2</v>
@@ -5892,8 +5649,8 @@
       <c r="D313" s="40"/>
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
-      <c r="B314" s="39" t="s">
-        <v>358</v>
+      <c r="B314" s="42" t="s">
+        <v>346</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>2</v>
@@ -5902,7 +5659,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5911,34 +5668,34 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D316" s="40"/>
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
-      <c r="B317" s="42" t="s">
-        <v>204</v>
+      <c r="B317" s="39" t="s">
+        <v>285</v>
       </c>
       <c r="C317" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D317" s="40"/>
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
-      <c r="B318" s="39" t="s">
-        <v>350</v>
+      <c r="B318" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="C318" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D318" s="40"/>
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
       <c r="B319" s="39" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="C319" s="40" t="s">
         <v>2</v>
@@ -5946,26 +5703,26 @@
       <c r="D319" s="40"/>
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
-      <c r="B320" s="42" t="s">
-        <v>295</v>
+      <c r="B320" s="39" t="s">
+        <v>357</v>
       </c>
       <c r="C320" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D320" s="40"/>
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C321" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D321" s="40"/>
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
       <c r="B322" s="39" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>2</v>
@@ -5973,17 +5730,17 @@
       <c r="D322" s="40"/>
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
-      <c r="B323" s="39" t="s">
-        <v>296</v>
+      <c r="B323" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D323" s="40"/>
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
-      <c r="B324" s="42" t="s">
-        <v>298</v>
+      <c r="B324" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C324" s="40" t="s">
         <v>14</v>
@@ -5992,142 +5749,146 @@
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="C325" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D325" s="40"/>
+    </row>
+    <row r="326" spans="2:4" s="38" customFormat="1">
+      <c r="B326" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C326" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D325" s="40"/>
-    </row>
-    <row r="326" spans="2:4" s="38" customFormat="1">
-      <c r="B326" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="C326" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D326" s="40"/>
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="C327" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D327" s="40"/>
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
-      <c r="B328" s="42" t="s">
-        <v>172</v>
+      <c r="B328" s="39" t="s">
+        <v>296</v>
       </c>
       <c r="C328" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D328" s="40"/>
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="C329" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329" s="40"/>
+    </row>
+    <row r="330" spans="2:4" s="38" customFormat="1">
+      <c r="B330" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C330" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D329" s="40"/>
-    </row>
-    <row r="330" spans="2:4" s="38" customFormat="1">
-      <c r="B330" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="C330" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D330" s="40"/>
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
       <c r="B331" s="39" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="C331" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D331" s="40"/>
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
-      <c r="B332" s="41"/>
-      <c r="C332" s="40"/>
+      <c r="B332" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="C332" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D332" s="40"/>
     </row>
     <row r="333" spans="2:4" s="38" customFormat="1">
-      <c r="B333" s="41"/>
-      <c r="C333" s="40"/>
+      <c r="B333" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C333" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D333" s="40"/>
     </row>
     <row r="334" spans="2:4" s="38" customFormat="1">
-      <c r="B334" s="37" t="s">
+      <c r="B334" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" s="40"/>
+    </row>
+    <row r="335" spans="2:4" s="38" customFormat="1">
+      <c r="B335" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C335" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="40"/>
+    </row>
+    <row r="336" spans="2:4" s="38" customFormat="1">
+      <c r="B336" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C336" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" s="40"/>
+    </row>
+    <row r="337" spans="2:4" s="38" customFormat="1">
+      <c r="B337" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C337" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D337" s="40"/>
+    </row>
+    <row r="338" spans="2:4" s="38" customFormat="1">
+      <c r="B338" s="41"/>
+      <c r="C338" s="40"/>
+      <c r="D338" s="40"/>
+    </row>
+    <row r="339" spans="2:4" s="38" customFormat="1">
+      <c r="B339" s="41"/>
+      <c r="C339" s="40"/>
+      <c r="D339" s="40"/>
+    </row>
+    <row r="340" spans="2:4" s="38" customFormat="1">
+      <c r="B340" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C334" s="40"/>
-      <c r="D334" s="40"/>
-    </row>
-    <row r="335" spans="2:4" s="38" customFormat="1">
-      <c r="B335" s="41"/>
-      <c r="C335" s="40"/>
-      <c r="D335" s="40"/>
-    </row>
-    <row r="336" spans="2:4" s="38" customFormat="1">
-      <c r="B336" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C336" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D336" s="40"/>
-    </row>
-    <row r="337" spans="2:4" s="38" customFormat="1">
-      <c r="B337" s="41"/>
-      <c r="C337" s="40"/>
-      <c r="D337" s="40"/>
-    </row>
-    <row r="338" spans="2:4" s="38" customFormat="1">
-      <c r="B338" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C338" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D338" s="40"/>
-    </row>
-    <row r="339" spans="2:4" s="38" customFormat="1">
-      <c r="B339" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C339" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D339" s="40"/>
-    </row>
-    <row r="340" spans="2:4" s="38" customFormat="1">
-      <c r="B340" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="C340" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="C340" s="40"/>
       <c r="D340" s="40"/>
     </row>
     <row r="341" spans="2:4" s="38" customFormat="1">
-      <c r="B341" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C341" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B341" s="41"/>
+      <c r="C341" s="40"/>
       <c r="D341" s="40"/>
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
-      <c r="B342" s="39" t="s">
-        <v>323</v>
+      <c r="B342" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="C342" s="40" t="s">
         <v>2</v>
@@ -6135,13 +5896,13 @@
       <c r="D342" s="40"/>
     </row>
     <row r="343" spans="2:4" s="38" customFormat="1">
-      <c r="B343" s="39"/>
+      <c r="B343" s="41"/>
       <c r="C343" s="40"/>
       <c r="D343" s="40"/>
     </row>
     <row r="344" spans="2:4" s="38" customFormat="1">
-      <c r="B344" s="39" t="s">
-        <v>29</v>
+      <c r="B344" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="C344" s="40" t="s">
         <v>2</v>
@@ -6149,8 +5910,8 @@
       <c r="D344" s="40"/>
     </row>
     <row r="345" spans="2:4" s="38" customFormat="1">
-      <c r="B345" s="43" t="s">
-        <v>324</v>
+      <c r="B345" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C345" s="40" t="s">
         <v>2</v>
@@ -6158,13 +5919,17 @@
       <c r="D345" s="40"/>
     </row>
     <row r="346" spans="2:4" s="38" customFormat="1">
-      <c r="B346" s="41"/>
-      <c r="C346" s="40"/>
+      <c r="B346" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C346" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D346" s="40"/>
     </row>
     <row r="347" spans="2:4" s="38" customFormat="1">
       <c r="B347" s="39" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C347" s="40" t="s">
         <v>14</v>
@@ -6172,11 +5937,11 @@
       <c r="D347" s="40"/>
     </row>
     <row r="348" spans="2:4" s="38" customFormat="1">
-      <c r="B348" s="43" t="s">
-        <v>86</v>
+      <c r="B348" s="39" t="s">
+        <v>322</v>
       </c>
       <c r="C348" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D348" s="40"/>
     </row>
@@ -6187,7 +5952,7 @@
     </row>
     <row r="350" spans="2:4" s="38" customFormat="1">
       <c r="B350" s="39" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C350" s="40" t="s">
         <v>2</v>
@@ -6196,7 +5961,7 @@
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
       <c r="B351" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C351" s="40" t="s">
         <v>2</v>
@@ -6204,17 +5969,13 @@
       <c r="D351" s="40"/>
     </row>
     <row r="352" spans="2:4" s="38" customFormat="1">
-      <c r="B352" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C352" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B352" s="41"/>
+      <c r="C352" s="40"/>
       <c r="D352" s="40"/>
     </row>
     <row r="353" spans="2:4" s="38" customFormat="1">
-      <c r="B353" s="43" t="s">
-        <v>99</v>
+      <c r="B353" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="C353" s="40" t="s">
         <v>14</v>
@@ -6222,40 +5983,40 @@
       <c r="D353" s="40"/>
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
-      <c r="B354" s="41"/>
-      <c r="C354" s="40"/>
+      <c r="B354" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C354" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D354" s="40"/>
     </row>
     <row r="355" spans="2:4" s="38" customFormat="1">
-      <c r="B355" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C355" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B355" s="39"/>
+      <c r="C355" s="40"/>
       <c r="D355" s="40"/>
     </row>
     <row r="356" spans="2:4" s="38" customFormat="1">
-      <c r="B356" s="43" t="s">
-        <v>44</v>
+      <c r="B356" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="C356" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D356" s="40"/>
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
       <c r="B357" s="43" t="s">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="C357" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D357" s="40"/>
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
       <c r="B358" s="43" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C358" s="40" t="s">
         <v>14</v>
@@ -6263,22 +6024,22 @@
       <c r="D358" s="40"/>
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
-      <c r="B359" s="41"/>
-      <c r="C359" s="40"/>
+      <c r="B359" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C359" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D359" s="40"/>
     </row>
     <row r="360" spans="2:4" s="38" customFormat="1">
-      <c r="B360" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C360" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B360" s="41"/>
+      <c r="C360" s="40"/>
       <c r="D360" s="40"/>
     </row>
     <row r="361" spans="2:4" s="38" customFormat="1">
-      <c r="B361" s="43" t="s">
-        <v>87</v>
+      <c r="B361" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="C361" s="40" t="s">
         <v>14</v>
@@ -6286,13 +6047,17 @@
       <c r="D361" s="40"/>
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
-      <c r="B362" s="41"/>
-      <c r="C362" s="40"/>
+      <c r="B362" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C362" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D362" s="40"/>
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
-      <c r="B363" s="39" t="s">
-        <v>46</v>
+      <c r="B363" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C363" s="40" t="s">
         <v>14</v>
@@ -6300,22 +6065,22 @@
       <c r="D363" s="40"/>
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
-      <c r="B364" s="39"/>
-      <c r="C364" s="40"/>
+      <c r="B364" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C364" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D364" s="40"/>
     </row>
     <row r="365" spans="2:4" s="38" customFormat="1">
-      <c r="B365" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C365" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B365" s="41"/>
+      <c r="C365" s="40"/>
       <c r="D365" s="40"/>
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
       <c r="B366" s="39" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C366" s="40" t="s">
         <v>14</v>
@@ -6324,7 +6089,7 @@
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
       <c r="B367" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>14</v>
@@ -6338,7 +6103,7 @@
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
       <c r="B369" s="39" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C369" s="40" t="s">
         <v>14</v>
@@ -6346,22 +6111,22 @@
       <c r="D369" s="40"/>
     </row>
     <row r="370" spans="2:4" s="38" customFormat="1">
-      <c r="B370" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C370" s="40" t="s">
+      <c r="B370" s="39"/>
+      <c r="C370" s="40"/>
+      <c r="D370" s="40"/>
+    </row>
+    <row r="371" spans="2:4" s="38" customFormat="1">
+      <c r="B371" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C371" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D370" s="40"/>
-    </row>
-    <row r="371" spans="2:4" s="38" customFormat="1">
-      <c r="B371" s="41"/>
-      <c r="C371" s="40"/>
       <c r="D371" s="40"/>
     </row>
     <row r="372" spans="2:4" s="38" customFormat="1">
       <c r="B372" s="39" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C372" s="40" t="s">
         <v>14</v>
@@ -6370,7 +6135,7 @@
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
       <c r="B373" s="43" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C373" s="40" t="s">
         <v>14</v>
@@ -6384,7 +6149,7 @@
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
       <c r="B375" s="39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C375" s="40" t="s">
         <v>14</v>
@@ -6401,13 +6166,13 @@
       <c r="D376" s="40"/>
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
-      <c r="B377" s="39"/>
+      <c r="B377" s="41"/>
       <c r="C377" s="40"/>
       <c r="D377" s="40"/>
     </row>
     <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="42" t="s">
-        <v>65</v>
+      <c r="B378" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="C378" s="40" t="s">
         <v>14</v>
@@ -6415,8 +6180,8 @@
       <c r="D378" s="40"/>
     </row>
     <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="39" t="s">
-        <v>66</v>
+      <c r="B379" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="C379" s="40" t="s">
         <v>14</v>
@@ -6424,17 +6189,13 @@
       <c r="D379" s="40"/>
     </row>
     <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C380" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B380" s="41"/>
+      <c r="C380" s="40"/>
       <c r="D380" s="40"/>
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
       <c r="B381" s="39" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C381" s="40" t="s">
         <v>14</v>
@@ -6442,22 +6203,22 @@
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
-      <c r="B382" s="39"/>
-      <c r="C382" s="40"/>
+      <c r="B382" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C382" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D382" s="40"/>
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
-      <c r="B383" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C383" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B383" s="39"/>
+      <c r="C383" s="40"/>
       <c r="D383" s="40"/>
     </row>
     <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="39" t="s">
-        <v>58</v>
+      <c r="B384" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="C384" s="40" t="s">
         <v>14</v>
@@ -6466,7 +6227,7 @@
     </row>
     <row r="385" spans="2:4" s="38" customFormat="1">
       <c r="B385" s="39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C385" s="40" t="s">
         <v>14</v>
@@ -6474,13 +6235,17 @@
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
-      <c r="B386" s="39"/>
-      <c r="C386" s="40"/>
+      <c r="B386" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C386" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
-      <c r="B387" s="42" t="s">
-        <v>144</v>
+      <c r="B387" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C387" s="40" t="s">
         <v>14</v>
@@ -6488,17 +6253,13 @@
       <c r="D387" s="40"/>
     </row>
     <row r="388" spans="2:4" s="38" customFormat="1">
-      <c r="B388" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C388" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B388" s="39"/>
+      <c r="C388" s="40"/>
       <c r="D388" s="40"/>
     </row>
     <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="39" t="s">
-        <v>146</v>
+      <c r="B389" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C389" s="40" t="s">
         <v>14</v>
@@ -6506,120 +6267,120 @@
       <c r="D389" s="40"/>
     </row>
     <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="41"/>
-      <c r="C390" s="40"/>
+      <c r="B390" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D390" s="40"/>
     </row>
     <row r="391" spans="2:4" s="38" customFormat="1">
-      <c r="B391" s="41"/>
-      <c r="C391" s="40"/>
+      <c r="B391" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C391" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D391" s="40"/>
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="41"/>
+      <c r="B392" s="39"/>
       <c r="C392" s="40"/>
       <c r="D392" s="40"/>
     </row>
     <row r="393" spans="2:4" s="38" customFormat="1">
-      <c r="B393" s="39"/>
-      <c r="C393" s="40"/>
+      <c r="B393" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C393" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D393" s="40"/>
     </row>
-    <row r="394" spans="2:4">
-      <c r="C394" s="40"/>
-    </row>
-    <row r="395" spans="2:4">
-      <c r="B395" s="37" t="s">
+    <row r="394" spans="2:4" s="38" customFormat="1">
+      <c r="B394" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C394" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" s="40"/>
+    </row>
+    <row r="395" spans="2:4" s="38" customFormat="1">
+      <c r="B395" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C395" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="40"/>
+    </row>
+    <row r="396" spans="2:4" s="38" customFormat="1">
+      <c r="B396" s="41"/>
+      <c r="C396" s="40"/>
+      <c r="D396" s="40"/>
+    </row>
+    <row r="397" spans="2:4" s="38" customFormat="1">
+      <c r="B397" s="41"/>
+      <c r="C397" s="40"/>
+      <c r="D397" s="40"/>
+    </row>
+    <row r="398" spans="2:4" s="38" customFormat="1">
+      <c r="B398" s="41"/>
+      <c r="C398" s="40"/>
+      <c r="D398" s="40"/>
+    </row>
+    <row r="399" spans="2:4" s="38" customFormat="1">
+      <c r="B399" s="39"/>
+      <c r="C399" s="40"/>
+      <c r="D399" s="40"/>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="C400" s="40"/>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C395" s="40"/>
-    </row>
-    <row r="397" spans="2:4">
-      <c r="B397" s="35" t="s">
+      <c r="C401" s="40"/>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="B403" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C397" s="40" t="s">
+      <c r="C403" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="2:4">
-      <c r="B398" s="44" t="s">
+    <row r="404" spans="2:4">
+      <c r="B404" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C398" s="40" t="s">
+      <c r="C404" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:4">
-      <c r="B399" s="44" t="s">
+    <row r="405" spans="2:4">
+      <c r="B405" s="44" t="s">
         <v>70</v>
-      </c>
-      <c r="C399" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4">
-      <c r="B400" s="44"/>
-      <c r="C400" s="40"/>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="C401" s="40"/>
-    </row>
-    <row r="403" spans="2:4" s="38" customFormat="1">
-      <c r="B403" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C403" s="40"/>
-      <c r="D403" s="40"/>
-    </row>
-    <row r="404" spans="2:4" s="38" customFormat="1">
-      <c r="B404" s="41"/>
-      <c r="C404" s="40"/>
-      <c r="D404" s="40"/>
-    </row>
-    <row r="405" spans="2:4" s="38" customFormat="1">
-      <c r="B405" s="41" t="s">
-        <v>100</v>
       </c>
       <c r="C405" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D405" s="40"/>
-    </row>
-    <row r="406" spans="2:4" s="38" customFormat="1">
-      <c r="B406" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C406" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D406" s="40"/>
-    </row>
-    <row r="407" spans="2:4" s="38" customFormat="1">
-      <c r="B407" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C407" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D407" s="40"/>
-    </row>
-    <row r="408" spans="2:4" s="38" customFormat="1">
-      <c r="B408" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C408" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D408" s="40"/>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406" s="44"/>
+      <c r="C406" s="40"/>
+    </row>
+    <row r="407" spans="2:4">
+      <c r="C407" s="40"/>
     </row>
     <row r="409" spans="2:4" s="38" customFormat="1">
-      <c r="B409" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C409" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B409" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C409" s="40"/>
       <c r="D409" s="40"/>
     </row>
     <row r="410" spans="2:4" s="38" customFormat="1">
@@ -6629,7 +6390,7 @@
     </row>
     <row r="411" spans="2:4" s="38" customFormat="1">
       <c r="B411" s="41" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C411" s="40" t="s">
         <v>14</v>
@@ -6637,8 +6398,8 @@
       <c r="D411" s="40"/>
     </row>
     <row r="412" spans="2:4" s="38" customFormat="1">
-      <c r="B412" s="39" t="s">
-        <v>107</v>
+      <c r="B412" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="C412" s="40" t="s">
         <v>14</v>
@@ -6646,8 +6407,8 @@
       <c r="D412" s="40"/>
     </row>
     <row r="413" spans="2:4" s="38" customFormat="1">
-      <c r="B413" s="39" t="s">
-        <v>105</v>
+      <c r="B413" s="41" t="s">
+        <v>137</v>
       </c>
       <c r="C413" s="40" t="s">
         <v>14</v>
@@ -6655,8 +6416,8 @@
       <c r="D413" s="40"/>
     </row>
     <row r="414" spans="2:4" s="38" customFormat="1">
-      <c r="B414" s="39" t="s">
-        <v>106</v>
+      <c r="B414" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C414" s="40" t="s">
         <v>14</v>
@@ -6664,27 +6425,31 @@
       <c r="D414" s="40"/>
     </row>
     <row r="415" spans="2:4" s="38" customFormat="1">
-      <c r="B415" s="39"/>
-      <c r="C415" s="40"/>
+      <c r="B415" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C415" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D415" s="40"/>
     </row>
     <row r="416" spans="2:4" s="38" customFormat="1">
-      <c r="B416" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C416" s="40" t="s">
+      <c r="B416" s="41"/>
+      <c r="C416" s="40"/>
+      <c r="D416" s="40"/>
+    </row>
+    <row r="417" spans="2:4" s="38" customFormat="1">
+      <c r="B417" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C417" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D416" s="40"/>
-    </row>
-    <row r="417" spans="2:4" s="38" customFormat="1">
-      <c r="B417" s="41"/>
-      <c r="C417" s="40"/>
       <c r="D417" s="40"/>
     </row>
     <row r="418" spans="2:4" s="38" customFormat="1">
-      <c r="B418" s="41" t="s">
-        <v>142</v>
+      <c r="B418" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="C418" s="40" t="s">
         <v>14</v>
@@ -6692,25 +6457,35 @@
       <c r="D418" s="40"/>
     </row>
     <row r="419" spans="2:4" s="38" customFormat="1">
-      <c r="B419" s="41"/>
-      <c r="C419" s="40"/>
+      <c r="B419" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C419" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D419" s="40"/>
     </row>
     <row r="420" spans="2:4" s="38" customFormat="1">
-      <c r="B420" s="41"/>
-      <c r="C420" s="40"/>
+      <c r="B420" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C420" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D420" s="40"/>
     </row>
     <row r="421" spans="2:4" s="38" customFormat="1">
-      <c r="B421" s="41"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="40"/>
       <c r="D421" s="40"/>
     </row>
     <row r="422" spans="2:4" s="38" customFormat="1">
-      <c r="B422" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C422" s="40"/>
+      <c r="B422" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C422" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D422" s="40"/>
     </row>
     <row r="423" spans="2:4" s="38" customFormat="1">
@@ -6720,7 +6495,7 @@
     </row>
     <row r="424" spans="2:4" s="38" customFormat="1">
       <c r="B424" s="41" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C424" s="40" t="s">
         <v>14</v>
@@ -6728,53 +6503,35 @@
       <c r="D424" s="40"/>
     </row>
     <row r="425" spans="2:4" s="38" customFormat="1">
-      <c r="B425" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C425" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B425" s="41"/>
+      <c r="C425" s="40"/>
       <c r="D425" s="40"/>
     </row>
     <row r="426" spans="2:4" s="38" customFormat="1">
-      <c r="B426" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C426" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B426" s="41"/>
+      <c r="C426" s="40"/>
       <c r="D426" s="40"/>
     </row>
     <row r="427" spans="2:4" s="38" customFormat="1">
-      <c r="B427" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C427" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B427" s="41"/>
+      <c r="C427" s="40"/>
       <c r="D427" s="40"/>
     </row>
     <row r="428" spans="2:4" s="38" customFormat="1">
-      <c r="B428" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="C428" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B428" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C428" s="40"/>
       <c r="D428" s="40"/>
     </row>
     <row r="429" spans="2:4" s="38" customFormat="1">
-      <c r="B429" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="C429" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B429" s="41"/>
+      <c r="C429" s="40"/>
       <c r="D429" s="40"/>
     </row>
     <row r="430" spans="2:4" s="38" customFormat="1">
       <c r="B430" s="41" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="C430" s="40" t="s">
         <v>14</v>
@@ -6783,7 +6540,7 @@
     </row>
     <row r="431" spans="2:4" s="38" customFormat="1">
       <c r="B431" s="41" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C431" s="40" t="s">
         <v>14</v>
@@ -6792,7 +6549,7 @@
     </row>
     <row r="432" spans="2:4" s="38" customFormat="1">
       <c r="B432" s="41" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C432" s="40" t="s">
         <v>14</v>
@@ -6801,92 +6558,92 @@
     </row>
     <row r="433" spans="2:4" s="38" customFormat="1">
       <c r="B433" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C433" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D433" s="40"/>
+    </row>
+    <row r="434" spans="2:4" s="38" customFormat="1">
+      <c r="B434" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C434" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D434" s="40"/>
+    </row>
+    <row r="435" spans="2:4" s="38" customFormat="1">
+      <c r="B435" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C435" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D435" s="40"/>
+    </row>
+    <row r="436" spans="2:4" s="38" customFormat="1">
+      <c r="B436" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C436" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D433" s="40"/>
-    </row>
-    <row r="434" spans="2:4" s="38" customFormat="1">
-      <c r="B434" s="41"/>
-      <c r="C434" s="40"/>
-      <c r="D434" s="40"/>
-    </row>
-    <row r="435" spans="2:4" s="38" customFormat="1">
-      <c r="B435" s="41"/>
-      <c r="C435" s="40"/>
-      <c r="D435" s="40"/>
-    </row>
-    <row r="436" spans="2:4" s="38" customFormat="1">
-      <c r="B436" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C436" s="40"/>
       <c r="D436" s="40"/>
     </row>
     <row r="437" spans="2:4" s="38" customFormat="1">
-      <c r="B437" s="41"/>
-      <c r="C437" s="40"/>
+      <c r="B437" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C437" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D437" s="40"/>
     </row>
     <row r="438" spans="2:4" s="38" customFormat="1">
       <c r="B438" s="41" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="C438" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D438" s="40"/>
     </row>
     <row r="439" spans="2:4" s="38" customFormat="1">
       <c r="B439" s="41" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C439" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D439" s="40"/>
     </row>
     <row r="440" spans="2:4" s="38" customFormat="1">
-      <c r="B440" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="C440" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B440" s="41"/>
+      <c r="C440" s="40"/>
       <c r="D440" s="40"/>
     </row>
     <row r="441" spans="2:4" s="38" customFormat="1">
-      <c r="B441" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C441" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B441" s="41"/>
+      <c r="C441" s="40"/>
       <c r="D441" s="40"/>
     </row>
     <row r="442" spans="2:4" s="38" customFormat="1">
-      <c r="B442" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C442" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B442" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C442" s="40"/>
       <c r="D442" s="40"/>
     </row>
     <row r="443" spans="2:4" s="38" customFormat="1">
-      <c r="B443" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C443" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B443" s="41"/>
+      <c r="C443" s="40"/>
       <c r="D443" s="40"/>
     </row>
     <row r="444" spans="2:4" s="38" customFormat="1">
       <c r="B444" s="41" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C444" s="40" t="s">
         <v>2</v>
@@ -6895,7 +6652,7 @@
     </row>
     <row r="445" spans="2:4" s="38" customFormat="1">
       <c r="B445" s="41" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="C445" s="40" t="s">
         <v>2</v>
@@ -6904,7 +6661,7 @@
     </row>
     <row r="446" spans="2:4" s="38" customFormat="1">
       <c r="B446" s="41" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C446" s="40" t="s">
         <v>2</v>
@@ -6913,7 +6670,7 @@
     </row>
     <row r="447" spans="2:4" s="38" customFormat="1">
       <c r="B447" s="41" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C447" s="40" t="s">
         <v>2</v>
@@ -6922,7 +6679,7 @@
     </row>
     <row r="448" spans="2:4" s="38" customFormat="1">
       <c r="B448" s="41" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C448" s="40" t="s">
         <v>2</v>
@@ -6931,7 +6688,7 @@
     </row>
     <row r="449" spans="2:4" s="38" customFormat="1">
       <c r="B449" s="41" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C449" s="40" t="s">
         <v>2</v>
@@ -6940,7 +6697,7 @@
     </row>
     <row r="450" spans="2:4" s="38" customFormat="1">
       <c r="B450" s="41" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C450" s="40" t="s">
         <v>2</v>
@@ -6949,7 +6706,7 @@
     </row>
     <row r="451" spans="2:4" s="38" customFormat="1">
       <c r="B451" s="41" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C451" s="40" t="s">
         <v>2</v>
@@ -6958,7 +6715,7 @@
     </row>
     <row r="452" spans="2:4" s="38" customFormat="1">
       <c r="B452" s="41" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C452" s="40" t="s">
         <v>2</v>
@@ -6967,7 +6724,7 @@
     </row>
     <row r="453" spans="2:4" s="38" customFormat="1">
       <c r="B453" s="41" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C453" s="40" t="s">
         <v>2</v>
@@ -6976,7 +6733,7 @@
     </row>
     <row r="454" spans="2:4" s="38" customFormat="1">
       <c r="B454" s="41" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C454" s="40" t="s">
         <v>2</v>
@@ -6985,7 +6742,7 @@
     </row>
     <row r="455" spans="2:4" s="38" customFormat="1">
       <c r="B455" s="41" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C455" s="40" t="s">
         <v>2</v>
@@ -6994,7 +6751,7 @@
     </row>
     <row r="456" spans="2:4" s="38" customFormat="1">
       <c r="B456" s="41" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C456" s="40" t="s">
         <v>2</v>
@@ -7003,7 +6760,7 @@
     </row>
     <row r="457" spans="2:4" s="38" customFormat="1">
       <c r="B457" s="41" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C457" s="40" t="s">
         <v>2</v>
@@ -7012,7 +6769,7 @@
     </row>
     <row r="458" spans="2:4" s="38" customFormat="1">
       <c r="B458" s="41" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C458" s="40" t="s">
         <v>2</v>
@@ -7021,7 +6778,7 @@
     </row>
     <row r="459" spans="2:4" s="38" customFormat="1">
       <c r="B459" s="41" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C459" s="40" t="s">
         <v>2</v>
@@ -7030,7 +6787,7 @@
     </row>
     <row r="460" spans="2:4" s="38" customFormat="1">
       <c r="B460" s="41" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C460" s="40" t="s">
         <v>2</v>
@@ -7039,7 +6796,7 @@
     </row>
     <row r="461" spans="2:4" s="38" customFormat="1">
       <c r="B461" s="41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C461" s="40" t="s">
         <v>2</v>
@@ -7048,7 +6805,7 @@
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
       <c r="B462" s="41" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -7057,7 +6814,7 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C463" s="40" t="s">
         <v>2</v>
@@ -7066,7 +6823,7 @@
     </row>
     <row r="464" spans="2:4" s="38" customFormat="1">
       <c r="B464" s="41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C464" s="40" t="s">
         <v>2</v>
@@ -7075,7 +6832,7 @@
     </row>
     <row r="465" spans="2:4" s="38" customFormat="1">
       <c r="B465" s="41" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C465" s="40" t="s">
         <v>2</v>
@@ -7084,7 +6841,7 @@
     </row>
     <row r="466" spans="2:4" s="38" customFormat="1">
       <c r="B466" s="41" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C466" s="40" t="s">
         <v>2</v>
@@ -7093,7 +6850,7 @@
     </row>
     <row r="467" spans="2:4" s="38" customFormat="1">
       <c r="B467" s="41" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C467" s="40" t="s">
         <v>2</v>
@@ -7102,7 +6859,7 @@
     </row>
     <row r="468" spans="2:4" s="38" customFormat="1">
       <c r="B468" s="41" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="C468" s="40" t="s">
         <v>2</v>
@@ -7111,7 +6868,7 @@
     </row>
     <row r="469" spans="2:4" s="38" customFormat="1">
       <c r="B469" s="41" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="C469" s="40" t="s">
         <v>2</v>
@@ -7120,7 +6877,7 @@
     </row>
     <row r="470" spans="2:4" s="38" customFormat="1">
       <c r="B470" s="41" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C470" s="40" t="s">
         <v>2</v>
@@ -7129,7 +6886,7 @@
     </row>
     <row r="471" spans="2:4" s="38" customFormat="1">
       <c r="B471" s="41" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C471" s="40" t="s">
         <v>2</v>
@@ -7138,7 +6895,7 @@
     </row>
     <row r="472" spans="2:4" s="38" customFormat="1">
       <c r="B472" s="41" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C472" s="40" t="s">
         <v>2</v>
@@ -7147,7 +6904,7 @@
     </row>
     <row r="473" spans="2:4" s="38" customFormat="1">
       <c r="B473" s="41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C473" s="40" t="s">
         <v>2</v>
@@ -7156,7 +6913,7 @@
     </row>
     <row r="474" spans="2:4" s="38" customFormat="1">
       <c r="B474" s="41" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C474" s="40" t="s">
         <v>2</v>
@@ -7165,7 +6922,7 @@
     </row>
     <row r="475" spans="2:4" s="38" customFormat="1">
       <c r="B475" s="41" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C475" s="40" t="s">
         <v>2</v>
@@ -7174,7 +6931,7 @@
     </row>
     <row r="476" spans="2:4" s="38" customFormat="1">
       <c r="B476" s="41" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C476" s="40" t="s">
         <v>2</v>
@@ -7183,7 +6940,7 @@
     </row>
     <row r="477" spans="2:4" s="38" customFormat="1">
       <c r="B477" s="41" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C477" s="40" t="s">
         <v>2</v>
@@ -7192,7 +6949,7 @@
     </row>
     <row r="478" spans="2:4" s="38" customFormat="1">
       <c r="B478" s="41" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C478" s="40" t="s">
         <v>2</v>
@@ -7201,7 +6958,7 @@
     </row>
     <row r="479" spans="2:4" s="38" customFormat="1">
       <c r="B479" s="41" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C479" s="40" t="s">
         <v>2</v>
@@ -7210,7 +6967,7 @@
     </row>
     <row r="480" spans="2:4" s="38" customFormat="1">
       <c r="B480" s="41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C480" s="40" t="s">
         <v>2</v>
@@ -7219,7 +6976,7 @@
     </row>
     <row r="481" spans="1:4" s="38" customFormat="1">
       <c r="B481" s="41" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C481" s="40" t="s">
         <v>2</v>
@@ -7228,7 +6985,7 @@
     </row>
     <row r="482" spans="1:4" s="38" customFormat="1">
       <c r="B482" s="41" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="C482" s="40" t="s">
         <v>2</v>
@@ -7237,7 +6994,7 @@
     </row>
     <row r="483" spans="1:4" s="38" customFormat="1">
       <c r="B483" s="41" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="C483" s="40" t="s">
         <v>2</v>
@@ -7246,7 +7003,7 @@
     </row>
     <row r="484" spans="1:4" s="38" customFormat="1">
       <c r="B484" s="41" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C484" s="40" t="s">
         <v>2</v>
@@ -7254,71 +7011,68 @@
       <c r="D484" s="40"/>
     </row>
     <row r="485" spans="1:4" s="38" customFormat="1">
-      <c r="B485" s="41"/>
-      <c r="C485" s="40"/>
+      <c r="B485" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C485" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D485" s="40"/>
     </row>
     <row r="486" spans="1:4" s="38" customFormat="1">
-      <c r="B486" s="41"/>
-      <c r="C486" s="40"/>
+      <c r="B486" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C486" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D486" s="40"/>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="37"/>
-      <c r="B487" s="45"/>
-      <c r="C487" s="45"/>
-      <c r="D487" s="37"/>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="37"/>
-      <c r="B488" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C488" s="38">
-        <f>COUNTIF(C5:C487,"y")</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="37"/>
-      <c r="B489" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C489" s="38">
-        <f>COUNTIF(C5:C487,"n")</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="37"/>
-      <c r="B490" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C490" s="40">
-        <f>COUNTIF(C5:C487,"TBD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="37"/>
-      <c r="B491" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C491" s="35">
-        <f>SUM(C488:C490)</f>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="37"/>
-      <c r="B492" s="47"/>
-      <c r="C492" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D492" s="48">
-        <f>C488/(C489+C488 + C490)</f>
-        <v>0.63503649635036497</v>
-      </c>
+    <row r="487" spans="1:4" s="38" customFormat="1">
+      <c r="B487" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C487" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D487" s="40"/>
+    </row>
+    <row r="488" spans="1:4" s="38" customFormat="1">
+      <c r="B488" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C488" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488" s="40"/>
+    </row>
+    <row r="489" spans="1:4" s="38" customFormat="1">
+      <c r="B489" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C489" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="40"/>
+    </row>
+    <row r="490" spans="1:4" s="38" customFormat="1">
+      <c r="B490" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C490" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D490" s="40"/>
+    </row>
+    <row r="491" spans="1:4" s="38" customFormat="1">
+      <c r="B491" s="41"/>
+      <c r="C491" s="40"/>
+      <c r="D491" s="40"/>
+    </row>
+    <row r="492" spans="1:4" s="38" customFormat="1">
+      <c r="B492" s="41"/>
+      <c r="C492" s="40"/>
+      <c r="D492" s="40"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="37"/>
@@ -7326,16 +7080,73 @@
       <c r="C493" s="45"/>
       <c r="D493" s="37"/>
     </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="37"/>
+      <c r="B494" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C494" s="38">
+        <f>COUNTIF(C5:C493,"y")</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="37"/>
+      <c r="B495" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C495" s="38">
+        <f>COUNTIF(C5:C493,"n")</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="37"/>
+      <c r="B496" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C496" s="40">
+        <f>COUNTIF(C5:C493,"TBD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="37"/>
+      <c r="B497" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497" s="35">
+        <f>SUM(C494:C496)</f>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="37"/>
+      <c r="B498" s="47"/>
+      <c r="C498" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D498" s="48">
+        <f>C494/(C495+C494 + C496)</f>
+        <v>0.70023980815347719</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="37"/>
+      <c r="B499" s="45"/>
+      <c r="C499" s="45"/>
+      <c r="D499" s="37"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C403:C65241 C397:C401 C1:C3 C6:C395">
-    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C409:C65247 C403:C407 C1:C3 C6:C401">
+    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7355,7 +7166,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7378,7 +7189,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="31" customFormat="1" ht="21">
       <c r="E1" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -7665,13 +7476,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="10">
-        <v>45658</v>
+        <v>45661</v>
       </c>
       <c r="B51" s="5">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C51" s="5">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -7682,7 +7493,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="14">
         <f t="shared" ref="G51" si="1">B51/SUM(B51:E51)</f>
-        <v>0.63503649635036497</v>
+        <v>0.70023980815347719</v>
       </c>
       <c r="H51" s="5"/>
     </row>
@@ -7725,25 +7536,25 @@
       <c r="F54" s="15"/>
       <c r="G54" s="18">
         <f>MIN(G51)</f>
-        <v>0.63503649635036497</v>
+        <v>0.70023980815347719</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="19">
         <f>SUM(B55:D55)</f>
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B55" s="20">
-        <f>Features!C488</f>
-        <v>261</v>
+        <f>Features!C494</f>
+        <v>292</v>
       </c>
       <c r="C55" s="21">
-        <f>Features!C489</f>
-        <v>150</v>
+        <f>Features!C495</f>
+        <v>125</v>
       </c>
       <c r="D55" s="22">
-        <f>Features!C490</f>
+        <f>Features!C496</f>
         <v>0</v>
       </c>
       <c r="E55" s="23">
@@ -7791,7 +7602,7 @@
       </c>
       <c r="B59" s="26">
         <f>(A51-A48)*A55/B55 +A48</f>
-        <v>45686.160919540227</v>
+        <v>45683.260273972606</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="370">
   <si>
     <t>Feature</t>
   </si>
@@ -134,24 +134,12 @@
     <t>left button mouse drag</t>
   </si>
   <si>
-    <t>right button mouse drag</t>
-  </si>
-  <si>
-    <t>ignored</t>
-  </si>
-  <si>
     <t>shift + left button mouse drag</t>
   </si>
   <si>
-    <t>shift + right button mouse drag</t>
-  </si>
-  <si>
     <t>ctrl + left button mouse drag</t>
   </si>
   <si>
-    <t>ctrl + right button mouse drag</t>
-  </si>
-  <si>
     <t>extends single selection from the anchor point</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>ctrl + shift: ctrl ignored</t>
   </si>
   <si>
-    <t>scroll wheel</t>
-  </si>
-  <si>
     <t>replaces selection</t>
   </si>
   <si>
@@ -194,12 +179,6 @@
     <t>scrolls to visible when dragging outside of the component boundaries</t>
   </si>
   <si>
-    <t>block scroll up</t>
-  </si>
-  <si>
-    <t>block scroll down</t>
-  </si>
-  <si>
     <t>reset blinking animation cycle on mouse released to avoid flicker</t>
   </si>
   <si>
@@ -1113,6 +1092,42 @@
   </si>
   <si>
     <t>extends selection one page down</t>
+  </si>
+  <si>
+    <t>caret visible on release</t>
+  </si>
+  <si>
+    <t>Trackpad</t>
+  </si>
+  <si>
+    <t>move horizontal</t>
+  </si>
+  <si>
+    <t>move vertical</t>
+  </si>
+  <si>
+    <t>shift+move</t>
+  </si>
+  <si>
+    <t>shortcut+scroll: scroll vertically viewport height</t>
+  </si>
+  <si>
+    <t>scroll vertically 0.25 viewport height</t>
+  </si>
+  <si>
+    <t>right button mouse drag: ignored</t>
+  </si>
+  <si>
+    <t>shift + right button mouse drag: ignored</t>
+  </si>
+  <si>
+    <t>ctrl + right button mouse drag: ignored</t>
+  </si>
+  <si>
+    <t>mouse scroll wheel</t>
+  </si>
+  <si>
+    <t>shift+scroll wheel: horizontal scroll</t>
   </si>
 </sst>
 </file>
@@ -1336,112 +1351,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1480,7 +1390,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955602"/>
+          <c:w val="0.91978071330955613"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1513,10 +1423,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1527,17 +1437,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$51</c:f>
+              <c:f>Progress!$B$48:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1549,6 +1462,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,10 +1497,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1595,17 +1511,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1617,6 +1536,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,10 +1571,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1663,17 +1585,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1684,6 +1609,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1717,10 +1645,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1731,17 +1659,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$55</c:f>
+              <c:f>Progress!$E$48:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1754,21 +1685,24 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="185527680"/>
-        <c:axId val="185345152"/>
+        <c:axId val="174448000"/>
+        <c:axId val="174265472"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="185527680"/>
+        <c:axId val="174448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185345152"/>
+        <c:crossAx val="174265472"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1811,7 +1745,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="185345152"/>
+        <c:axId val="174265472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185527680"/>
+        <c:crossAx val="174448000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1876,7 +1810,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218653"/>
+          <c:y val="0.33819556996218664"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1980,8 +1914,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37852736438635709"/>
-          <c:y val="0.13936449433182554"/>
+          <c:x val="0.3785273643863572"/>
+          <c:y val="0.13936449433182557"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1997,7 +1931,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248128011E-2"/>
+          <c:x val="4.4510450248128025E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2032,10 +1966,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2046,17 +1980,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$51</c:f>
+              <c:f>Progress!$G$48:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2069,15 +2006,18 @@
                 <c:pt idx="3">
                   <c:v>0.70023980815347719</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72315035799522676</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="185377152"/>
-        <c:axId val="185378688"/>
+        <c:axId val="174297472"/>
+        <c:axId val="174299008"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="185377152"/>
+        <c:axId val="174297472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,13 +2025,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185378688"/>
+        <c:crossAx val="174299008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="185378688"/>
+        <c:axId val="174299008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2134,7 +2074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185377152"/>
+        <c:crossAx val="174297472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2234,10 +2174,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2248,17 +2188,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$51</c:f>
+              <c:f>Progress!$C$48:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2270,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,10 +2248,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$51</c:f>
+              <c:f>Progress!$A$48:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2316,17 +2262,20 @@
                   <c:v>45657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45661</c:v>
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$51</c:f>
+              <c:f>Progress!$D$48:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2339,15 +2288,18 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="185862400"/>
-        <c:axId val="185868288"/>
+        <c:axId val="174987520"/>
+        <c:axId val="174993408"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="185862400"/>
+        <c:axId val="174987520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185868288"/>
+        <c:crossAx val="174993408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2389,7 +2341,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="185868288"/>
+        <c:axId val="174993408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2383,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185862400"/>
+        <c:crossAx val="174987520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2482,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2938,10 +2890,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D514"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2955,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.4">
       <c r="B1" s="49" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D1" s="36"/>
     </row>
@@ -2990,7 +2942,7 @@
     </row>
     <row r="7" spans="1:4" s="38" customFormat="1">
       <c r="B7" s="41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2</v>
@@ -2999,7 +2951,7 @@
     </row>
     <row r="8" spans="1:4" s="38" customFormat="1">
       <c r="B8" s="41" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>2</v>
@@ -3008,7 +2960,7 @@
     </row>
     <row r="9" spans="1:4" s="38" customFormat="1">
       <c r="B9" s="41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>2</v>
@@ -3017,7 +2969,7 @@
     </row>
     <row r="10" spans="1:4" s="38" customFormat="1">
       <c r="B10" s="41" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>14</v>
@@ -3036,7 +2988,7 @@
     </row>
     <row r="13" spans="1:4" s="38" customFormat="1">
       <c r="B13" s="37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -3048,7 +3000,7 @@
     </row>
     <row r="15" spans="1:4" s="38" customFormat="1">
       <c r="B15" s="41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>2</v>
@@ -3057,7 +3009,7 @@
     </row>
     <row r="16" spans="1:4" s="38" customFormat="1">
       <c r="B16" s="41" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>2</v>
@@ -3071,7 +3023,7 @@
     </row>
     <row r="18" spans="2:4" s="38" customFormat="1">
       <c r="B18" s="41" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>2</v>
@@ -3085,7 +3037,7 @@
     </row>
     <row r="20" spans="2:4" s="38" customFormat="1">
       <c r="B20" s="41" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>2</v>
@@ -3099,7 +3051,7 @@
     </row>
     <row r="22" spans="2:4" s="38" customFormat="1">
       <c r="B22" s="41" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2</v>
@@ -3113,7 +3065,7 @@
     </row>
     <row r="24" spans="2:4" s="38" customFormat="1">
       <c r="B24" s="41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>2</v>
@@ -3122,7 +3074,7 @@
     </row>
     <row r="25" spans="2:4" s="38" customFormat="1">
       <c r="B25" s="39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2</v>
@@ -3131,7 +3083,7 @@
     </row>
     <row r="26" spans="2:4" s="38" customFormat="1">
       <c r="B26" s="39" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>2</v>
@@ -3140,7 +3092,7 @@
     </row>
     <row r="27" spans="2:4" s="38" customFormat="1">
       <c r="B27" s="39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2</v>
@@ -3149,7 +3101,7 @@
     </row>
     <row r="28" spans="2:4" s="38" customFormat="1">
       <c r="B28" s="39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>2</v>
@@ -3158,7 +3110,7 @@
     </row>
     <row r="29" spans="2:4" s="38" customFormat="1">
       <c r="B29" s="39" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>2</v>
@@ -3167,7 +3119,7 @@
     </row>
     <row r="30" spans="2:4" s="38" customFormat="1">
       <c r="B30" s="39" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>2</v>
@@ -3176,7 +3128,7 @@
     </row>
     <row r="31" spans="2:4" s="38" customFormat="1">
       <c r="B31" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>14</v>
@@ -3190,7 +3142,7 @@
     </row>
     <row r="33" spans="2:4" s="38" customFormat="1">
       <c r="B33" s="42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2</v>
@@ -3199,7 +3151,7 @@
     </row>
     <row r="34" spans="2:4" s="38" customFormat="1">
       <c r="B34" s="39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2</v>
@@ -3208,7 +3160,7 @@
     </row>
     <row r="35" spans="2:4" s="38" customFormat="1">
       <c r="B35" s="43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2</v>
@@ -3217,7 +3169,7 @@
     </row>
     <row r="36" spans="2:4" s="38" customFormat="1">
       <c r="B36" s="39" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>2</v>
@@ -3226,7 +3178,7 @@
     </row>
     <row r="37" spans="2:4" s="38" customFormat="1">
       <c r="B37" s="43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2</v>
@@ -3235,7 +3187,7 @@
     </row>
     <row r="38" spans="2:4" s="38" customFormat="1">
       <c r="B38" s="43" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>14</v>
@@ -3249,7 +3201,7 @@
     </row>
     <row r="40" spans="2:4" s="38" customFormat="1">
       <c r="B40" s="41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>14</v>
@@ -3258,7 +3210,7 @@
     </row>
     <row r="41" spans="2:4" s="38" customFormat="1">
       <c r="B41" s="39" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>14</v>
@@ -3267,7 +3219,7 @@
     </row>
     <row r="42" spans="2:4" s="38" customFormat="1">
       <c r="B42" s="39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>14</v>
@@ -3276,7 +3228,7 @@
     </row>
     <row r="43" spans="2:4" s="38" customFormat="1">
       <c r="B43" s="39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>14</v>
@@ -3285,7 +3237,7 @@
     </row>
     <row r="44" spans="2:4" s="38" customFormat="1">
       <c r="B44" s="43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>14</v>
@@ -3308,7 +3260,7 @@
     </row>
     <row r="47" spans="2:4" s="38" customFormat="1">
       <c r="B47" s="39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>2</v>
@@ -3317,7 +3269,7 @@
     </row>
     <row r="48" spans="2:4" s="38" customFormat="1">
       <c r="B48" s="39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>2</v>
@@ -3326,7 +3278,7 @@
     </row>
     <row r="49" spans="2:4" s="38" customFormat="1">
       <c r="B49" s="39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>2</v>
@@ -3335,7 +3287,7 @@
     </row>
     <row r="50" spans="2:4" s="38" customFormat="1">
       <c r="B50" s="39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>2</v>
@@ -3344,7 +3296,7 @@
     </row>
     <row r="51" spans="2:4" s="38" customFormat="1">
       <c r="B51" s="39" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>14</v>
@@ -3367,7 +3319,7 @@
     </row>
     <row r="54" spans="2:4" s="38" customFormat="1">
       <c r="B54" s="39" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>2</v>
@@ -3412,7 +3364,7 @@
     </row>
     <row r="59" spans="2:4" s="38" customFormat="1">
       <c r="B59" s="39" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>2</v>
@@ -3421,7 +3373,7 @@
     </row>
     <row r="60" spans="2:4" s="38" customFormat="1">
       <c r="B60" s="39" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>14</v>
@@ -3430,7 +3382,7 @@
     </row>
     <row r="61" spans="2:4" s="38" customFormat="1">
       <c r="B61" s="39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>14</v>
@@ -3527,7 +3479,7 @@
     </row>
     <row r="74" spans="2:4" s="38" customFormat="1">
       <c r="B74" s="37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
@@ -3539,7 +3491,7 @@
     </row>
     <row r="76" spans="2:4" s="38" customFormat="1">
       <c r="B76" s="41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>2</v>
@@ -3548,7 +3500,7 @@
     </row>
     <row r="77" spans="2:4" s="38" customFormat="1">
       <c r="B77" s="39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>2</v>
@@ -3557,7 +3509,7 @@
     </row>
     <row r="78" spans="2:4" s="38" customFormat="1">
       <c r="B78" s="41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>2</v>
@@ -3566,7 +3518,7 @@
     </row>
     <row r="79" spans="2:4" s="38" customFormat="1">
       <c r="B79" s="39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>2</v>
@@ -3575,7 +3527,7 @@
     </row>
     <row r="80" spans="2:4" s="38" customFormat="1">
       <c r="B80" s="39" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>2</v>
@@ -3584,7 +3536,7 @@
     </row>
     <row r="81" spans="2:4" s="38" customFormat="1">
       <c r="B81" s="39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>2</v>
@@ -3593,7 +3545,7 @@
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>2</v>
@@ -3601,7 +3553,7 @@
     </row>
     <row r="83" spans="2:4" s="38" customFormat="1">
       <c r="B83" s="39" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>2</v>
@@ -3610,14 +3562,14 @@
     </row>
     <row r="84" spans="2:4" s="38" customFormat="1">
       <c r="B84" s="41" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="35" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>2</v>
@@ -3625,7 +3577,7 @@
     </row>
     <row r="86" spans="2:4" s="38" customFormat="1">
       <c r="B86" s="39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>2</v>
@@ -3634,7 +3586,7 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="35" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>2</v>
@@ -3642,7 +3594,7 @@
     </row>
     <row r="88" spans="2:4" s="38" customFormat="1">
       <c r="B88" s="39" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>2</v>
@@ -3651,7 +3603,7 @@
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>2</v>
@@ -3659,7 +3611,7 @@
     </row>
     <row r="90" spans="2:4" s="38" customFormat="1">
       <c r="B90" s="39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>2</v>
@@ -3668,7 +3620,7 @@
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="35" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>2</v>
@@ -3676,7 +3628,7 @@
     </row>
     <row r="92" spans="2:4" s="38" customFormat="1">
       <c r="B92" s="39" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>2</v>
@@ -3685,7 +3637,7 @@
     </row>
     <row r="93" spans="2:4">
       <c r="B93" s="35" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>2</v>
@@ -3693,7 +3645,7 @@
     </row>
     <row r="94" spans="2:4" s="38" customFormat="1">
       <c r="B94" s="39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>2</v>
@@ -3702,7 +3654,7 @@
     </row>
     <row r="95" spans="2:4" s="38" customFormat="1">
       <c r="B95" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>2</v>
@@ -3711,7 +3663,7 @@
     </row>
     <row r="96" spans="2:4" s="38" customFormat="1">
       <c r="B96" s="39" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>2</v>
@@ -3720,7 +3672,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C97" s="40" t="s">
         <v>2</v>
@@ -3728,7 +3680,7 @@
     </row>
     <row r="98" spans="2:4" s="38" customFormat="1">
       <c r="B98" s="39" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>2</v>
@@ -3737,7 +3689,7 @@
     </row>
     <row r="99" spans="2:4" s="38" customFormat="1">
       <c r="B99" s="41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>2</v>
@@ -3746,7 +3698,7 @@
     </row>
     <row r="100" spans="2:4" s="38" customFormat="1">
       <c r="B100" s="39" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C100" s="40" t="s">
         <v>2</v>
@@ -3755,7 +3707,7 @@
     </row>
     <row r="101" spans="2:4" s="38" customFormat="1">
       <c r="B101" s="41" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>2</v>
@@ -3764,7 +3716,7 @@
     </row>
     <row r="102" spans="2:4" s="38" customFormat="1">
       <c r="B102" s="41" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>2</v>
@@ -3773,7 +3725,7 @@
     </row>
     <row r="103" spans="2:4" s="38" customFormat="1">
       <c r="B103" s="39" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>2</v>
@@ -3782,7 +3734,7 @@
     </row>
     <row r="104" spans="2:4" s="38" customFormat="1">
       <c r="B104" s="41" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C104" s="40" t="s">
         <v>2</v>
@@ -3791,7 +3743,7 @@
     </row>
     <row r="105" spans="2:4" s="38" customFormat="1">
       <c r="B105" s="39" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>2</v>
@@ -3800,7 +3752,7 @@
     </row>
     <row r="106" spans="2:4" s="38" customFormat="1">
       <c r="B106" s="41" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>2</v>
@@ -3809,7 +3761,7 @@
     </row>
     <row r="107" spans="2:4" s="38" customFormat="1">
       <c r="B107" s="39" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C107" s="40" t="s">
         <v>2</v>
@@ -3818,7 +3770,7 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="35" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>2</v>
@@ -3826,7 +3778,7 @@
     </row>
     <row r="109" spans="2:4" s="38" customFormat="1">
       <c r="B109" s="39" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>2</v>
@@ -3835,7 +3787,7 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>2</v>
@@ -3843,7 +3795,7 @@
     </row>
     <row r="111" spans="2:4" s="38" customFormat="1">
       <c r="B111" s="39" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C111" s="40" t="s">
         <v>2</v>
@@ -3867,7 +3819,7 @@
     </row>
     <row r="115" spans="2:4" s="38" customFormat="1">
       <c r="B115" s="37" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C115" s="40"/>
       <c r="D115" s="40"/>
@@ -3879,7 +3831,7 @@
     </row>
     <row r="117" spans="2:4" s="38" customFormat="1">
       <c r="B117" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C117" s="40" t="s">
         <v>14</v>
@@ -3888,7 +3840,7 @@
     </row>
     <row r="118" spans="2:4" s="38" customFormat="1">
       <c r="B118" s="39" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C118" s="40" t="s">
         <v>14</v>
@@ -3897,7 +3849,7 @@
     </row>
     <row r="119" spans="2:4" s="38" customFormat="1">
       <c r="B119" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>14</v>
@@ -3906,7 +3858,7 @@
     </row>
     <row r="120" spans="2:4" s="38" customFormat="1">
       <c r="B120" s="39" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>2</v>
@@ -3915,7 +3867,7 @@
     </row>
     <row r="121" spans="2:4" s="38" customFormat="1">
       <c r="B121" s="39" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C121" s="40" t="s">
         <v>2</v>
@@ -3924,7 +3876,7 @@
     </row>
     <row r="122" spans="2:4" s="38" customFormat="1">
       <c r="B122" s="42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C122" s="40" t="s">
         <v>14</v>
@@ -3933,7 +3885,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3942,7 +3894,7 @@
     </row>
     <row r="124" spans="2:4" s="38" customFormat="1">
       <c r="B124" s="39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>2</v>
@@ -3951,7 +3903,7 @@
     </row>
     <row r="125" spans="2:4" s="38" customFormat="1">
       <c r="B125" s="39" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>2</v>
@@ -3960,7 +3912,7 @@
     </row>
     <row r="126" spans="2:4" s="38" customFormat="1">
       <c r="B126" s="42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>14</v>
@@ -3969,7 +3921,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -3978,7 +3930,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -3987,7 +3939,7 @@
     </row>
     <row r="129" spans="2:4" s="38" customFormat="1">
       <c r="B129" s="42" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>14</v>
@@ -3996,7 +3948,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -4005,7 +3957,7 @@
     </row>
     <row r="131" spans="2:4" s="38" customFormat="1">
       <c r="B131" s="39" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C131" s="40" t="s">
         <v>2</v>
@@ -4014,7 +3966,7 @@
     </row>
     <row r="132" spans="2:4" s="38" customFormat="1">
       <c r="B132" s="39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>2</v>
@@ -4023,7 +3975,7 @@
     </row>
     <row r="133" spans="2:4" s="38" customFormat="1">
       <c r="B133" s="42" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>14</v>
@@ -4032,7 +3984,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -4041,7 +3993,7 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>14</v>
@@ -4050,7 +4002,7 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4059,7 +4011,7 @@
     </row>
     <row r="137" spans="2:4" s="38" customFormat="1">
       <c r="B137" s="42" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>14</v>
@@ -4068,7 +4020,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -4077,7 +4029,7 @@
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
       <c r="B139" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -4086,7 +4038,7 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>2</v>
@@ -4095,7 +4047,7 @@
     </row>
     <row r="141" spans="2:4" s="38" customFormat="1">
       <c r="B141" s="42" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>14</v>
@@ -4104,7 +4056,7 @@
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
@@ -4113,7 +4065,7 @@
     </row>
     <row r="143" spans="2:4" s="38" customFormat="1">
       <c r="B143" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
@@ -4122,7 +4074,7 @@
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>14</v>
@@ -4131,7 +4083,7 @@
     </row>
     <row r="145" spans="2:4" s="38" customFormat="1">
       <c r="B145" s="42" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>14</v>
@@ -4140,7 +4092,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4149,7 +4101,7 @@
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
       <c r="B147" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>14</v>
@@ -4158,7 +4110,7 @@
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>2</v>
@@ -4167,7 +4119,7 @@
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
       <c r="B149" s="39" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>2</v>
@@ -4176,7 +4128,7 @@
     </row>
     <row r="150" spans="2:4" s="38" customFormat="1">
       <c r="B150" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>14</v>
@@ -4185,7 +4137,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="44" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>14</v>
@@ -4193,7 +4145,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="44" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>14</v>
@@ -4201,7 +4153,7 @@
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>14</v>
@@ -4210,7 +4162,7 @@
     </row>
     <row r="154" spans="2:4" s="38" customFormat="1">
       <c r="B154" s="39" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>2</v>
@@ -4219,7 +4171,7 @@
     </row>
     <row r="155" spans="2:4" s="38" customFormat="1">
       <c r="B155" s="39" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>2</v>
@@ -4228,7 +4180,7 @@
     </row>
     <row r="156" spans="2:4" s="38" customFormat="1">
       <c r="B156" s="42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>2</v>
@@ -4237,7 +4189,7 @@
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C157" s="40" t="s">
         <v>2</v>
@@ -4246,7 +4198,7 @@
     </row>
     <row r="158" spans="2:4" s="38" customFormat="1">
       <c r="B158" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C158" s="40" t="s">
         <v>14</v>
@@ -4255,7 +4207,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4264,7 +4216,7 @@
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
       <c r="B160" s="39" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C160" s="40" t="s">
         <v>14</v>
@@ -4273,7 +4225,7 @@
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
       <c r="B161" s="39" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C161" s="40" t="s">
         <v>14</v>
@@ -4282,7 +4234,7 @@
     </row>
     <row r="162" spans="2:4" s="38" customFormat="1">
       <c r="B162" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>14</v>
@@ -4291,7 +4243,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4300,7 +4252,7 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>14</v>
@@ -4309,7 +4261,7 @@
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
       <c r="B165" s="39" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>14</v>
@@ -4318,7 +4270,7 @@
     </row>
     <row r="166" spans="2:4" s="38" customFormat="1">
       <c r="B166" s="42" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C166" s="40" t="s">
         <v>14</v>
@@ -4327,7 +4279,7 @@
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
@@ -4336,7 +4288,7 @@
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4345,7 +4297,7 @@
     </row>
     <row r="169" spans="2:4" s="38" customFormat="1">
       <c r="B169" s="39" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>2</v>
@@ -4354,7 +4306,7 @@
     </row>
     <row r="170" spans="2:4" s="38" customFormat="1">
       <c r="B170" s="42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>14</v>
@@ -4363,7 +4315,7 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>14</v>
@@ -4372,7 +4324,7 @@
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C172" s="40" t="s">
         <v>14</v>
@@ -4381,7 +4333,7 @@
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
       <c r="B173" s="39" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4390,7 +4342,7 @@
     </row>
     <row r="174" spans="2:4" s="38" customFormat="1">
       <c r="B174" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>2</v>
@@ -4399,7 +4351,7 @@
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>2</v>
@@ -4408,7 +4360,7 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>2</v>
@@ -4417,7 +4369,7 @@
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>2</v>
@@ -4426,7 +4378,7 @@
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
       <c r="B178" s="39" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C178" s="40" t="s">
         <v>2</v>
@@ -4435,7 +4387,7 @@
     </row>
     <row r="179" spans="2:4" s="38" customFormat="1">
       <c r="B179" s="42" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C179" s="40" t="s">
         <v>2</v>
@@ -4444,7 +4396,7 @@
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>2</v>
@@ -4453,7 +4405,7 @@
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -4462,7 +4414,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>2</v>
@@ -4471,7 +4423,7 @@
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
       <c r="B183" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>2</v>
@@ -4480,7 +4432,7 @@
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
       <c r="B184" s="39" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -4489,7 +4441,7 @@
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
       <c r="B185" s="42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>2</v>
@@ -4498,7 +4450,7 @@
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -4507,7 +4459,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -4516,7 +4468,7 @@
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
       <c r="B188" s="39" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>2</v>
@@ -4525,7 +4477,7 @@
     </row>
     <row r="189" spans="2:4" s="38" customFormat="1">
       <c r="B189" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>2</v>
@@ -4534,7 +4486,7 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4543,7 +4495,7 @@
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
       <c r="B191" s="42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>2</v>
@@ -4552,7 +4504,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -4561,7 +4513,7 @@
     </row>
     <row r="193" spans="2:4" s="38" customFormat="1">
       <c r="B193" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>2</v>
@@ -4570,7 +4522,7 @@
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
       <c r="B194" s="39" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -4579,7 +4531,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4588,7 +4540,7 @@
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
       <c r="B196" s="42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4597,7 +4549,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -4606,7 +4558,7 @@
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
       <c r="B198" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>2</v>
@@ -4615,7 +4567,7 @@
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
       <c r="B199" s="39" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -4624,7 +4576,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4633,7 +4585,7 @@
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
       <c r="B201" s="42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4642,7 +4594,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4651,7 +4603,7 @@
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
       <c r="B203" s="39" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -4660,7 +4612,7 @@
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C204" s="40" t="s">
         <v>2</v>
@@ -4669,7 +4621,7 @@
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
       <c r="B205" s="39" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -4678,7 +4630,7 @@
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4687,7 +4639,7 @@
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
       <c r="B207" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C207" s="40" t="s">
         <v>2</v>
@@ -4696,7 +4648,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4705,7 +4657,7 @@
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
       <c r="B209" s="39" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -4714,7 +4666,7 @@
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C210" s="40" t="s">
         <v>2</v>
@@ -4723,7 +4675,7 @@
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
       <c r="B211" s="39" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -4732,7 +4684,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4741,7 +4693,7 @@
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
       <c r="B213" s="42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4750,7 +4702,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -4759,7 +4711,7 @@
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
       <c r="B215" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>2</v>
@@ -4768,7 +4720,7 @@
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -4777,7 +4729,7 @@
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
       <c r="B217" s="42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C217" s="40" t="s">
         <v>2</v>
@@ -4786,7 +4738,7 @@
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C218" s="40" t="s">
         <v>2</v>
@@ -4795,7 +4747,7 @@
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
       <c r="B219" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C219" s="40" t="s">
         <v>2</v>
@@ -4804,7 +4756,7 @@
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>2</v>
@@ -4813,7 +4765,7 @@
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
       <c r="B221" s="42" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>14</v>
@@ -4822,7 +4774,7 @@
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
       <c r="B222" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>14</v>
@@ -4831,7 +4783,7 @@
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
       <c r="B223" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C223" s="40" t="s">
         <v>14</v>
@@ -4840,7 +4792,7 @@
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
       <c r="B224" s="39" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C224" s="40" t="s">
         <v>2</v>
@@ -4849,7 +4801,7 @@
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>2</v>
@@ -4858,7 +4810,7 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="42" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>14</v>
@@ -4867,7 +4819,7 @@
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C227" s="40" t="s">
         <v>14</v>
@@ -4876,7 +4828,7 @@
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
       <c r="B228" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C228" s="40" t="s">
         <v>14</v>
@@ -4885,7 +4837,7 @@
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
       <c r="B229" s="39" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C229" s="40" t="s">
         <v>2</v>
@@ -4894,7 +4846,7 @@
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C230" s="40" t="s">
         <v>2</v>
@@ -4903,7 +4855,7 @@
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
       <c r="B231" s="42" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -4912,7 +4864,7 @@
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
       <c r="B232" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>2</v>
@@ -4921,7 +4873,7 @@
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
       <c r="B233" s="39" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C233" s="40" t="s">
         <v>2</v>
@@ -4930,7 +4882,7 @@
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
       <c r="B234" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>2</v>
@@ -4939,7 +4891,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4948,7 +4900,7 @@
     </row>
     <row r="236" spans="2:4" s="38" customFormat="1">
       <c r="B236" s="42" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C236" s="40" t="s">
         <v>2</v>
@@ -4957,7 +4909,7 @@
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>2</v>
@@ -4966,7 +4918,7 @@
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
       <c r="B238" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -4975,7 +4927,7 @@
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
       <c r="B239" s="39" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>2</v>
@@ -4984,7 +4936,7 @@
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
       <c r="B240" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>2</v>
@@ -4993,7 +4945,7 @@
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
       <c r="B241" s="39" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -5002,7 +4954,7 @@
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
       <c r="B242" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C242" s="40" t="s">
         <v>2</v>
@@ -5011,7 +4963,7 @@
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C243" s="40" t="s">
         <v>2</v>
@@ -5020,7 +4972,7 @@
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
       <c r="B244" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C244" s="40" t="s">
         <v>14</v>
@@ -5029,7 +4981,7 @@
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>14</v>
@@ -5038,7 +4990,7 @@
     </row>
     <row r="246" spans="2:4" s="38" customFormat="1">
       <c r="B246" s="39" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C246" s="40" t="s">
         <v>2</v>
@@ -5047,7 +4999,7 @@
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C247" s="40" t="s">
         <v>2</v>
@@ -5056,7 +5008,7 @@
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
       <c r="B248" s="42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C248" s="40" t="s">
         <v>14</v>
@@ -5065,7 +5017,7 @@
     </row>
     <row r="249" spans="2:4" s="38" customFormat="1">
       <c r="B249" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C249" s="40" t="s">
         <v>14</v>
@@ -5074,7 +5026,7 @@
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
       <c r="B250" s="39" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C250" s="40" t="s">
         <v>2</v>
@@ -5083,7 +5035,7 @@
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
       <c r="B251" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C251" s="40" t="s">
         <v>14</v>
@@ -5092,7 +5044,7 @@
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C252" s="40" t="s">
         <v>14</v>
@@ -5101,7 +5053,7 @@
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
       <c r="B253" s="39" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>2</v>
@@ -5110,7 +5062,7 @@
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
       <c r="B254" s="39" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C254" s="40" t="s">
         <v>2</v>
@@ -5119,7 +5071,7 @@
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5128,7 +5080,7 @@
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
       <c r="B256" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5137,7 +5089,7 @@
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
       <c r="B257" s="39" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C257" s="40" t="s">
         <v>2</v>
@@ -5146,7 +5098,7 @@
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
       <c r="B258" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C258" s="40" t="s">
         <v>2</v>
@@ -5155,7 +5107,7 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -5164,7 +5116,7 @@
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>2</v>
@@ -5173,7 +5125,7 @@
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5182,7 +5134,7 @@
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
       <c r="B262" s="39" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C262" s="40" t="s">
         <v>2</v>
@@ -5191,7 +5143,7 @@
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
       <c r="B263" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C263" s="40" t="s">
         <v>2</v>
@@ -5200,7 +5152,7 @@
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C264" s="40" t="s">
         <v>2</v>
@@ -5209,7 +5161,7 @@
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
       <c r="B265" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>2</v>
@@ -5218,7 +5170,7 @@
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C266" s="40" t="s">
         <v>2</v>
@@ -5227,7 +5179,7 @@
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
       <c r="B267" s="39" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C267" s="40" t="s">
         <v>2</v>
@@ -5236,7 +5188,7 @@
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
       <c r="B268" s="39" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C268" s="40" t="s">
         <v>2</v>
@@ -5245,7 +5197,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>2</v>
@@ -5254,7 +5206,7 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5263,7 +5215,7 @@
     </row>
     <row r="271" spans="2:4" s="38" customFormat="1">
       <c r="B271" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C271" s="40" t="s">
         <v>2</v>
@@ -5272,7 +5224,7 @@
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
       <c r="B272" s="39" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>2</v>
@@ -5281,7 +5233,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5290,7 +5242,7 @@
     </row>
     <row r="274" spans="2:4" s="38" customFormat="1">
       <c r="B274" s="39" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C274" s="40" t="s">
         <v>2</v>
@@ -5299,7 +5251,7 @@
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
       <c r="B275" s="42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5308,7 +5260,7 @@
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
       <c r="B276" s="39" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5317,7 +5269,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5326,7 +5278,7 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C278" s="40" t="s">
         <v>2</v>
@@ -5335,7 +5287,7 @@
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
       <c r="B279" s="42" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5344,7 +5296,7 @@
     </row>
     <row r="280" spans="2:4" s="38" customFormat="1">
       <c r="B280" s="39" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C280" s="40" t="s">
         <v>2</v>
@@ -5353,7 +5305,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5362,7 +5314,7 @@
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
       <c r="B282" s="39" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C282" s="40" t="s">
         <v>2</v>
@@ -5371,7 +5323,7 @@
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
       <c r="B283" s="39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C283" s="40" t="s">
         <v>2</v>
@@ -5380,7 +5332,7 @@
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
       <c r="B284" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C284" s="40" t="s">
         <v>2</v>
@@ -5389,7 +5341,7 @@
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
       <c r="B285" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5398,7 +5350,7 @@
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
       <c r="B286" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5407,7 +5359,7 @@
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
       <c r="B287" s="39" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5416,7 +5368,7 @@
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
       <c r="B288" s="39" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5425,7 +5377,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5434,7 +5386,7 @@
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
       <c r="B290" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5443,7 +5395,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -5452,7 +5404,7 @@
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
       <c r="B292" s="42" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -5461,7 +5413,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5470,7 +5422,7 @@
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
       <c r="B294" s="39" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>2</v>
@@ -5479,7 +5431,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -5488,7 +5440,7 @@
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
       <c r="B296" s="42" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -5497,7 +5449,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5506,7 +5458,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5515,7 +5467,7 @@
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
       <c r="B299" s="39" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C299" s="40" t="s">
         <v>2</v>
@@ -5524,7 +5476,7 @@
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
       <c r="B300" s="42" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -5533,7 +5485,7 @@
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
       <c r="B301" s="39" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -5542,7 +5494,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5551,7 +5503,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5560,7 +5512,7 @@
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="39" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -5569,7 +5521,7 @@
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
       <c r="B305" s="42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -5578,7 +5530,7 @@
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
       <c r="B306" s="39" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>2</v>
@@ -5587,7 +5539,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5596,7 +5548,7 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="39" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C308" s="40" t="s">
         <v>2</v>
@@ -5605,7 +5557,7 @@
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
       <c r="B309" s="39" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -5614,7 +5566,7 @@
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
       <c r="B310" s="42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>2</v>
@@ -5623,7 +5575,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5632,7 +5584,7 @@
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
       <c r="B312" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C312" s="40" t="s">
         <v>14</v>
@@ -5641,7 +5593,7 @@
     </row>
     <row r="313" spans="2:4" s="38" customFormat="1">
       <c r="B313" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C313" s="40" t="s">
         <v>2</v>
@@ -5650,7 +5602,7 @@
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
       <c r="B314" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>2</v>
@@ -5659,7 +5611,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5668,7 +5620,7 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C316" s="40" t="s">
         <v>14</v>
@@ -5677,7 +5629,7 @@
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
       <c r="B317" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>2</v>
@@ -5686,7 +5638,7 @@
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
       <c r="B318" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>2</v>
@@ -5695,7 +5647,7 @@
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
       <c r="B319" s="39" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C319" s="40" t="s">
         <v>2</v>
@@ -5704,7 +5656,7 @@
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="39" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C320" s="40" t="s">
         <v>2</v>
@@ -5713,7 +5665,7 @@
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>2</v>
@@ -5722,7 +5674,7 @@
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
       <c r="B322" s="39" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>2</v>
@@ -5731,7 +5683,7 @@
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
       <c r="B323" s="42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C323" s="40" t="s">
         <v>14</v>
@@ -5740,7 +5692,7 @@
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
       <c r="B324" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C324" s="40" t="s">
         <v>14</v>
@@ -5749,7 +5701,7 @@
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C325" s="40" t="s">
         <v>2</v>
@@ -5758,7 +5710,7 @@
     </row>
     <row r="326" spans="2:4" s="38" customFormat="1">
       <c r="B326" s="42" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C326" s="40" t="s">
         <v>14</v>
@@ -5767,7 +5719,7 @@
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C327" s="40" t="s">
         <v>14</v>
@@ -5776,7 +5728,7 @@
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
       <c r="B328" s="39" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C328" s="40" t="s">
         <v>2</v>
@@ -5785,7 +5737,7 @@
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C329" s="40" t="s">
         <v>2</v>
@@ -5794,7 +5746,7 @@
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
       <c r="B330" s="42" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C330" s="40" t="s">
         <v>14</v>
@@ -5803,7 +5755,7 @@
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
       <c r="B331" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C331" s="40" t="s">
         <v>14</v>
@@ -5812,7 +5764,7 @@
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
       <c r="B332" s="39" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C332" s="40" t="s">
         <v>2</v>
@@ -5821,7 +5773,7 @@
     </row>
     <row r="333" spans="2:4" s="38" customFormat="1">
       <c r="B333" s="39" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C333" s="40" t="s">
         <v>2</v>
@@ -5830,7 +5782,7 @@
     </row>
     <row r="334" spans="2:4" s="38" customFormat="1">
       <c r="B334" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C334" s="40" t="s">
         <v>14</v>
@@ -5839,7 +5791,7 @@
     </row>
     <row r="335" spans="2:4" s="38" customFormat="1">
       <c r="B335" s="39" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C335" s="40" t="s">
         <v>14</v>
@@ -5848,7 +5800,7 @@
     </row>
     <row r="336" spans="2:4" s="38" customFormat="1">
       <c r="B336" s="39" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C336" s="40" t="s">
         <v>2</v>
@@ -5857,7 +5809,7 @@
     </row>
     <row r="337" spans="2:4" s="38" customFormat="1">
       <c r="B337" s="39" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C337" s="40" t="s">
         <v>2</v>
@@ -5888,7 +5840,7 @@
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
       <c r="B342" s="41" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C342" s="40" t="s">
         <v>2</v>
@@ -5920,7 +5872,7 @@
     </row>
     <row r="346" spans="2:4" s="38" customFormat="1">
       <c r="B346" s="43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C346" s="40" t="s">
         <v>2</v>
@@ -5929,7 +5881,7 @@
     </row>
     <row r="347" spans="2:4" s="38" customFormat="1">
       <c r="B347" s="39" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C347" s="40" t="s">
         <v>14</v>
@@ -5938,7 +5890,7 @@
     </row>
     <row r="348" spans="2:4" s="38" customFormat="1">
       <c r="B348" s="39" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C348" s="40" t="s">
         <v>2</v>
@@ -5961,7 +5913,7 @@
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
       <c r="B351" s="43" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C351" s="40" t="s">
         <v>2</v>
@@ -5978,16 +5930,16 @@
         <v>36</v>
       </c>
       <c r="C353" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D353" s="40"/>
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
       <c r="B354" s="43" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D354" s="40"/>
     </row>
@@ -6007,7 +5959,7 @@
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
       <c r="B357" s="43" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C357" s="40" t="s">
         <v>2</v>
@@ -6016,7 +5968,7 @@
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
       <c r="B358" s="43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C358" s="40" t="s">
         <v>14</v>
@@ -6025,7 +5977,7 @@
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
       <c r="B359" s="43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C359" s="40" t="s">
         <v>14</v>
@@ -6039,7 +5991,7 @@
     </row>
     <row r="361" spans="2:4" s="38" customFormat="1">
       <c r="B361" s="39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C361" s="40" t="s">
         <v>14</v>
@@ -6048,7 +6000,7 @@
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
       <c r="B362" s="43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C362" s="40" t="s">
         <v>14</v>
@@ -6057,7 +6009,7 @@
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
       <c r="B363" s="43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C363" s="40" t="s">
         <v>14</v>
@@ -6066,7 +6018,7 @@
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
       <c r="B364" s="43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C364" s="40" t="s">
         <v>14</v>
@@ -6080,7 +6032,7 @@
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
       <c r="B366" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C366" s="40" t="s">
         <v>14</v>
@@ -6089,7 +6041,7 @@
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
       <c r="B367" s="43" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>14</v>
@@ -6103,10 +6055,10 @@
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
       <c r="B369" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C369" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D369" s="40"/>
     </row>
@@ -6135,7 +6087,7 @@
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
       <c r="B373" s="43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C373" s="40" t="s">
         <v>14</v>
@@ -6149,53 +6101,57 @@
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
       <c r="B375" s="39" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="C375" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D375" s="40"/>
     </row>
     <row r="376" spans="2:4" s="38" customFormat="1">
-      <c r="B376" s="43" t="s">
-        <v>39</v>
+      <c r="B376" s="39" t="s">
+        <v>366</v>
       </c>
       <c r="C376" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D376" s="40"/>
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
-      <c r="B377" s="41"/>
-      <c r="C377" s="40"/>
+      <c r="B377" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C377" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D377" s="40"/>
     </row>
     <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C378" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B378" s="39"/>
+      <c r="C378" s="40"/>
       <c r="D378" s="40"/>
     </row>
     <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="43" t="s">
-        <v>39</v>
+      <c r="B379" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="C379" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D379" s="40"/>
     </row>
     <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="41"/>
-      <c r="C380" s="40"/>
+      <c r="B380" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C380" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D380" s="40"/>
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
       <c r="B381" s="39" t="s">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="C381" s="40" t="s">
         <v>14</v>
@@ -6203,8 +6159,8 @@
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
-      <c r="B382" s="43" t="s">
-        <v>39</v>
+      <c r="B382" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="C382" s="40" t="s">
         <v>14</v>
@@ -6212,63 +6168,63 @@
       <c r="D382" s="40"/>
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
-      <c r="B383" s="39"/>
-      <c r="C383" s="40"/>
+      <c r="B383" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C383" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D383" s="40"/>
     </row>
     <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C384" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B384" s="39"/>
+      <c r="C384" s="40"/>
       <c r="D384" s="40"/>
     </row>
     <row r="385" spans="2:4" s="38" customFormat="1">
-      <c r="B385" s="39" t="s">
-        <v>66</v>
+      <c r="B385" s="42" t="s">
+        <v>368</v>
       </c>
       <c r="C385" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
       <c r="B386" s="39" t="s">
-        <v>68</v>
+        <v>364</v>
       </c>
       <c r="C386" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
       <c r="B387" s="39" t="s">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="C387" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D387" s="40"/>
+    </row>
+    <row r="388" spans="2:4" s="38" customFormat="1">
+      <c r="B388" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C388" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D387" s="40"/>
-    </row>
-    <row r="388" spans="2:4" s="38" customFormat="1">
-      <c r="B388" s="39"/>
-      <c r="C388" s="40"/>
       <c r="D388" s="40"/>
     </row>
     <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C389" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B389" s="39"/>
+      <c r="C389" s="40"/>
       <c r="D389" s="40"/>
     </row>
     <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="39" t="s">
-        <v>58</v>
+      <c r="B390" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="C390" s="40" t="s">
         <v>14</v>
@@ -6277,7 +6233,7 @@
     </row>
     <row r="391" spans="2:4" s="38" customFormat="1">
       <c r="B391" s="39" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C391" s="40" t="s">
         <v>14</v>
@@ -6285,39 +6241,33 @@
       <c r="D391" s="40"/>
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="39"/>
-      <c r="C392" s="40"/>
+      <c r="B392" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D392" s="40"/>
     </row>
     <row r="393" spans="2:4" s="38" customFormat="1">
-      <c r="B393" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C393" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B393" s="41"/>
+      <c r="C393" s="40"/>
       <c r="D393" s="40"/>
     </row>
     <row r="394" spans="2:4" s="38" customFormat="1">
-      <c r="B394" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B394" s="41"/>
+      <c r="C394" s="40"/>
       <c r="D394" s="40"/>
     </row>
     <row r="395" spans="2:4" s="38" customFormat="1">
-      <c r="B395" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C395" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B395" s="41"/>
+      <c r="C395" s="40"/>
       <c r="D395" s="40"/>
     </row>
     <row r="396" spans="2:4" s="38" customFormat="1">
-      <c r="B396" s="41"/>
+      <c r="B396" s="37" t="s">
+        <v>359</v>
+      </c>
       <c r="C396" s="40"/>
       <c r="D396" s="40"/>
     </row>
@@ -6327,59 +6277,74 @@
       <c r="D397" s="40"/>
     </row>
     <row r="398" spans="2:4" s="38" customFormat="1">
-      <c r="B398" s="41"/>
-      <c r="C398" s="40"/>
+      <c r="B398" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C398" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D398" s="40"/>
     </row>
     <row r="399" spans="2:4" s="38" customFormat="1">
-      <c r="B399" s="39"/>
-      <c r="C399" s="40"/>
+      <c r="B399" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C399" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D399" s="40"/>
     </row>
-    <row r="400" spans="2:4">
-      <c r="C400" s="40"/>
-    </row>
-    <row r="401" spans="2:4">
-      <c r="B401" s="37" t="s">
-        <v>50</v>
-      </c>
+    <row r="400" spans="2:4" s="38" customFormat="1">
+      <c r="B400" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="40"/>
+    </row>
+    <row r="401" spans="2:4" s="38" customFormat="1">
+      <c r="B401" s="41"/>
       <c r="C401" s="40"/>
-    </row>
-    <row r="403" spans="2:4">
-      <c r="B403" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="404" spans="2:4">
-      <c r="B404" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C404" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4">
-      <c r="B405" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C405" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4">
-      <c r="B406" s="44"/>
+      <c r="D401" s="40"/>
+    </row>
+    <row r="402" spans="2:4" s="38" customFormat="1">
+      <c r="B402" s="41"/>
+      <c r="C402" s="40"/>
+      <c r="D402" s="40"/>
+    </row>
+    <row r="403" spans="2:4" s="38" customFormat="1">
+      <c r="B403" s="41"/>
+      <c r="C403" s="40"/>
+      <c r="D403" s="40"/>
+    </row>
+    <row r="404" spans="2:4" s="38" customFormat="1">
+      <c r="B404" s="41"/>
+      <c r="C404" s="40"/>
+      <c r="D404" s="40"/>
+    </row>
+    <row r="405" spans="2:4" s="38" customFormat="1">
+      <c r="B405" s="41"/>
+      <c r="C405" s="40"/>
+      <c r="D405" s="40"/>
+    </row>
+    <row r="406" spans="2:4" s="38" customFormat="1">
+      <c r="B406" s="41"/>
       <c r="C406" s="40"/>
-    </row>
-    <row r="407" spans="2:4">
+      <c r="D406" s="40"/>
+    </row>
+    <row r="407" spans="2:4" s="38" customFormat="1">
+      <c r="B407" s="41"/>
       <c r="C407" s="40"/>
+      <c r="D407" s="40"/>
+    </row>
+    <row r="408" spans="2:4" s="38" customFormat="1">
+      <c r="B408" s="41"/>
+      <c r="C408" s="40"/>
+      <c r="D408" s="40"/>
     </row>
     <row r="409" spans="2:4" s="38" customFormat="1">
-      <c r="B409" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B409" s="41"/>
       <c r="C409" s="40"/>
       <c r="D409" s="40"/>
     </row>
@@ -6389,117 +6354,70 @@
       <c r="D410" s="40"/>
     </row>
     <row r="411" spans="2:4" s="38" customFormat="1">
-      <c r="B411" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C411" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B411" s="41"/>
+      <c r="C411" s="40"/>
       <c r="D411" s="40"/>
     </row>
     <row r="412" spans="2:4" s="38" customFormat="1">
-      <c r="B412" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="C412" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B412" s="41"/>
+      <c r="C412" s="40"/>
       <c r="D412" s="40"/>
     </row>
     <row r="413" spans="2:4" s="38" customFormat="1">
-      <c r="B413" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C413" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B413" s="41"/>
+      <c r="C413" s="40"/>
       <c r="D413" s="40"/>
     </row>
     <row r="414" spans="2:4" s="38" customFormat="1">
-      <c r="B414" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C414" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B414" s="39"/>
+      <c r="C414" s="40"/>
       <c r="D414" s="40"/>
     </row>
-    <row r="415" spans="2:4" s="38" customFormat="1">
-      <c r="B415" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="C415" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D415" s="40"/>
-    </row>
-    <row r="416" spans="2:4" s="38" customFormat="1">
-      <c r="B416" s="41"/>
+    <row r="415" spans="2:4">
+      <c r="C415" s="40"/>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="C416" s="40"/>
-      <c r="D416" s="40"/>
-    </row>
-    <row r="417" spans="2:4" s="38" customFormat="1">
-      <c r="B417" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C417" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D417" s="40"/>
-    </row>
-    <row r="418" spans="2:4" s="38" customFormat="1">
-      <c r="B418" s="39" t="s">
-        <v>106</v>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="C418" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D418" s="40"/>
-    </row>
-    <row r="419" spans="2:4" s="38" customFormat="1">
-      <c r="B419" s="39" t="s">
-        <v>104</v>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="B419" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="C419" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D419" s="40"/>
-    </row>
-    <row r="420" spans="2:4" s="38" customFormat="1">
-      <c r="B420" s="39" t="s">
-        <v>105</v>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="B420" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C420" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D420" s="40"/>
-    </row>
-    <row r="421" spans="2:4" s="38" customFormat="1">
-      <c r="B421" s="39"/>
+    </row>
+    <row r="421" spans="2:4">
+      <c r="B421" s="44"/>
       <c r="C421" s="40"/>
-      <c r="D421" s="40"/>
-    </row>
-    <row r="422" spans="2:4" s="38" customFormat="1">
-      <c r="B422" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C422" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D422" s="40"/>
-    </row>
-    <row r="423" spans="2:4" s="38" customFormat="1">
-      <c r="B423" s="41"/>
-      <c r="C423" s="40"/>
-      <c r="D423" s="40"/>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="C422" s="40"/>
     </row>
     <row r="424" spans="2:4" s="38" customFormat="1">
-      <c r="B424" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C424" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B424" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C424" s="40"/>
       <c r="D424" s="40"/>
     </row>
     <row r="425" spans="2:4" s="38" customFormat="1">
@@ -6508,30 +6426,44 @@
       <c r="D425" s="40"/>
     </row>
     <row r="426" spans="2:4" s="38" customFormat="1">
-      <c r="B426" s="41"/>
-      <c r="C426" s="40"/>
+      <c r="B426" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D426" s="40"/>
     </row>
     <row r="427" spans="2:4" s="38" customFormat="1">
-      <c r="B427" s="41"/>
-      <c r="C427" s="40"/>
+      <c r="B427" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D427" s="40"/>
     </row>
     <row r="428" spans="2:4" s="38" customFormat="1">
-      <c r="B428" s="37" t="s">
+      <c r="B428" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C428" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D428" s="40"/>
+    </row>
+    <row r="429" spans="2:4" s="38" customFormat="1">
+      <c r="B429" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C428" s="40"/>
-      <c r="D428" s="40"/>
-    </row>
-    <row r="429" spans="2:4" s="38" customFormat="1">
-      <c r="B429" s="41"/>
-      <c r="C429" s="40"/>
+      <c r="C429" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D429" s="40"/>
     </row>
     <row r="430" spans="2:4" s="38" customFormat="1">
       <c r="B430" s="41" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C430" s="40" t="s">
         <v>14</v>
@@ -6539,17 +6471,13 @@
       <c r="D430" s="40"/>
     </row>
     <row r="431" spans="2:4" s="38" customFormat="1">
-      <c r="B431" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C431" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B431" s="41"/>
+      <c r="C431" s="40"/>
       <c r="D431" s="40"/>
     </row>
     <row r="432" spans="2:4" s="38" customFormat="1">
       <c r="B432" s="41" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C432" s="40" t="s">
         <v>14</v>
@@ -6557,44 +6485,40 @@
       <c r="D432" s="40"/>
     </row>
     <row r="433" spans="2:4" s="38" customFormat="1">
-      <c r="B433" s="41" t="s">
-        <v>133</v>
+      <c r="B433" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C433" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D433" s="40"/>
     </row>
     <row r="434" spans="2:4" s="38" customFormat="1">
       <c r="B434" s="39" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="C434" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D434" s="40"/>
     </row>
     <row r="435" spans="2:4" s="38" customFormat="1">
       <c r="B435" s="39" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="C435" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D435" s="40"/>
     </row>
     <row r="436" spans="2:4" s="38" customFormat="1">
-      <c r="B436" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C436" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B436" s="39"/>
+      <c r="C436" s="40"/>
       <c r="D436" s="40"/>
     </row>
     <row r="437" spans="2:4" s="38" customFormat="1">
       <c r="B437" s="41" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C437" s="40" t="s">
         <v>14</v>
@@ -6602,17 +6526,13 @@
       <c r="D437" s="40"/>
     </row>
     <row r="438" spans="2:4" s="38" customFormat="1">
-      <c r="B438" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B438" s="41"/>
+      <c r="C438" s="40"/>
       <c r="D438" s="40"/>
     </row>
     <row r="439" spans="2:4" s="38" customFormat="1">
       <c r="B439" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C439" s="40" t="s">
         <v>14</v>
@@ -6630,56 +6550,52 @@
       <c r="D441" s="40"/>
     </row>
     <row r="442" spans="2:4" s="38" customFormat="1">
-      <c r="B442" s="37" t="s">
-        <v>204</v>
-      </c>
+      <c r="B442" s="41"/>
       <c r="C442" s="40"/>
       <c r="D442" s="40"/>
     </row>
     <row r="443" spans="2:4" s="38" customFormat="1">
-      <c r="B443" s="41"/>
+      <c r="B443" s="37" t="s">
+        <v>125</v>
+      </c>
       <c r="C443" s="40"/>
       <c r="D443" s="40"/>
     </row>
     <row r="444" spans="2:4" s="38" customFormat="1">
-      <c r="B444" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C444" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B444" s="41"/>
+      <c r="C444" s="40"/>
       <c r="D444" s="40"/>
     </row>
     <row r="445" spans="2:4" s="38" customFormat="1">
       <c r="B445" s="41" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C445" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D445" s="40"/>
     </row>
     <row r="446" spans="2:4" s="38" customFormat="1">
       <c r="B446" s="41" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="C446" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D446" s="40"/>
     </row>
     <row r="447" spans="2:4" s="38" customFormat="1">
       <c r="B447" s="41" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C447" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D447" s="40"/>
     </row>
     <row r="448" spans="2:4" s="38" customFormat="1">
       <c r="B448" s="41" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="C448" s="40" t="s">
         <v>2</v>
@@ -6687,8 +6603,8 @@
       <c r="D448" s="40"/>
     </row>
     <row r="449" spans="2:4" s="38" customFormat="1">
-      <c r="B449" s="41" t="s">
-        <v>209</v>
+      <c r="B449" s="39" t="s">
+        <v>320</v>
       </c>
       <c r="C449" s="40" t="s">
         <v>2</v>
@@ -6696,8 +6612,8 @@
       <c r="D449" s="40"/>
     </row>
     <row r="450" spans="2:4" s="38" customFormat="1">
-      <c r="B450" s="41" t="s">
-        <v>210</v>
+      <c r="B450" s="39" t="s">
+        <v>319</v>
       </c>
       <c r="C450" s="40" t="s">
         <v>2</v>
@@ -6706,79 +6622,65 @@
     </row>
     <row r="451" spans="2:4" s="38" customFormat="1">
       <c r="B451" s="41" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C451" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D451" s="40"/>
     </row>
     <row r="452" spans="2:4" s="38" customFormat="1">
       <c r="B452" s="41" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="C452" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D452" s="40"/>
     </row>
     <row r="453" spans="2:4" s="38" customFormat="1">
       <c r="B453" s="41" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C453" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D453" s="40"/>
     </row>
     <row r="454" spans="2:4" s="38" customFormat="1">
       <c r="B454" s="41" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C454" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D454" s="40"/>
     </row>
     <row r="455" spans="2:4" s="38" customFormat="1">
-      <c r="B455" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C455" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B455" s="41"/>
+      <c r="C455" s="40"/>
       <c r="D455" s="40"/>
     </row>
     <row r="456" spans="2:4" s="38" customFormat="1">
-      <c r="B456" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C456" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B456" s="41"/>
+      <c r="C456" s="40"/>
       <c r="D456" s="40"/>
     </row>
     <row r="457" spans="2:4" s="38" customFormat="1">
-      <c r="B457" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C457" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B457" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C457" s="40"/>
       <c r="D457" s="40"/>
     </row>
     <row r="458" spans="2:4" s="38" customFormat="1">
-      <c r="B458" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C458" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B458" s="41"/>
+      <c r="C458" s="40"/>
       <c r="D458" s="40"/>
     </row>
     <row r="459" spans="2:4" s="38" customFormat="1">
       <c r="B459" s="41" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C459" s="40" t="s">
         <v>2</v>
@@ -6787,7 +6689,7 @@
     </row>
     <row r="460" spans="2:4" s="38" customFormat="1">
       <c r="B460" s="41" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="C460" s="40" t="s">
         <v>2</v>
@@ -6796,7 +6698,7 @@
     </row>
     <row r="461" spans="2:4" s="38" customFormat="1">
       <c r="B461" s="41" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C461" s="40" t="s">
         <v>2</v>
@@ -6805,7 +6707,7 @@
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
       <c r="B462" s="41" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -6814,7 +6716,7 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C463" s="40" t="s">
         <v>2</v>
@@ -6823,7 +6725,7 @@
     </row>
     <row r="464" spans="2:4" s="38" customFormat="1">
       <c r="B464" s="41" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C464" s="40" t="s">
         <v>2</v>
@@ -6832,7 +6734,7 @@
     </row>
     <row r="465" spans="2:4" s="38" customFormat="1">
       <c r="B465" s="41" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C465" s="40" t="s">
         <v>2</v>
@@ -6841,7 +6743,7 @@
     </row>
     <row r="466" spans="2:4" s="38" customFormat="1">
       <c r="B466" s="41" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C466" s="40" t="s">
         <v>2</v>
@@ -6850,7 +6752,7 @@
     </row>
     <row r="467" spans="2:4" s="38" customFormat="1">
       <c r="B467" s="41" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C467" s="40" t="s">
         <v>2</v>
@@ -6859,7 +6761,7 @@
     </row>
     <row r="468" spans="2:4" s="38" customFormat="1">
       <c r="B468" s="41" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="C468" s="40" t="s">
         <v>2</v>
@@ -6868,7 +6770,7 @@
     </row>
     <row r="469" spans="2:4" s="38" customFormat="1">
       <c r="B469" s="41" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="C469" s="40" t="s">
         <v>2</v>
@@ -6877,7 +6779,7 @@
     </row>
     <row r="470" spans="2:4" s="38" customFormat="1">
       <c r="B470" s="41" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C470" s="40" t="s">
         <v>2</v>
@@ -6886,7 +6788,7 @@
     </row>
     <row r="471" spans="2:4" s="38" customFormat="1">
       <c r="B471" s="41" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C471" s="40" t="s">
         <v>2</v>
@@ -6895,7 +6797,7 @@
     </row>
     <row r="472" spans="2:4" s="38" customFormat="1">
       <c r="B472" s="41" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C472" s="40" t="s">
         <v>2</v>
@@ -6904,7 +6806,7 @@
     </row>
     <row r="473" spans="2:4" s="38" customFormat="1">
       <c r="B473" s="41" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C473" s="40" t="s">
         <v>2</v>
@@ -6913,7 +6815,7 @@
     </row>
     <row r="474" spans="2:4" s="38" customFormat="1">
       <c r="B474" s="41" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C474" s="40" t="s">
         <v>2</v>
@@ -6922,7 +6824,7 @@
     </row>
     <row r="475" spans="2:4" s="38" customFormat="1">
       <c r="B475" s="41" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C475" s="40" t="s">
         <v>2</v>
@@ -6931,7 +6833,7 @@
     </row>
     <row r="476" spans="2:4" s="38" customFormat="1">
       <c r="B476" s="41" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C476" s="40" t="s">
         <v>2</v>
@@ -6940,7 +6842,7 @@
     </row>
     <row r="477" spans="2:4" s="38" customFormat="1">
       <c r="B477" s="41" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C477" s="40" t="s">
         <v>2</v>
@@ -6949,7 +6851,7 @@
     </row>
     <row r="478" spans="2:4" s="38" customFormat="1">
       <c r="B478" s="41" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C478" s="40" t="s">
         <v>2</v>
@@ -6958,7 +6860,7 @@
     </row>
     <row r="479" spans="2:4" s="38" customFormat="1">
       <c r="B479" s="41" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C479" s="40" t="s">
         <v>2</v>
@@ -6967,186 +6869,321 @@
     </row>
     <row r="480" spans="2:4" s="38" customFormat="1">
       <c r="B480" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C480" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D480" s="40"/>
+    </row>
+    <row r="481" spans="2:4" s="38" customFormat="1">
+      <c r="B481" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="C481" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D481" s="40"/>
+    </row>
+    <row r="482" spans="2:4" s="38" customFormat="1">
+      <c r="B482" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C482" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D482" s="40"/>
+    </row>
+    <row r="483" spans="2:4" s="38" customFormat="1">
+      <c r="B483" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C483" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D483" s="40"/>
+    </row>
+    <row r="484" spans="2:4" s="38" customFormat="1">
+      <c r="B484" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C484" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" s="40"/>
+    </row>
+    <row r="485" spans="2:4" s="38" customFormat="1">
+      <c r="B485" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C485" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485" s="40"/>
+    </row>
+    <row r="486" spans="2:4" s="38" customFormat="1">
+      <c r="B486" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C486" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D486" s="40"/>
+    </row>
+    <row r="487" spans="2:4" s="38" customFormat="1">
+      <c r="B487" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C487" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D487" s="40"/>
+    </row>
+    <row r="488" spans="2:4" s="38" customFormat="1">
+      <c r="B488" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C488" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D488" s="40"/>
+    </row>
+    <row r="489" spans="2:4" s="38" customFormat="1">
+      <c r="B489" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C489" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D489" s="40"/>
+    </row>
+    <row r="490" spans="2:4" s="38" customFormat="1">
+      <c r="B490" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C490" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D490" s="40"/>
+    </row>
+    <row r="491" spans="2:4" s="38" customFormat="1">
+      <c r="B491" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C491" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D491" s="40"/>
+    </row>
+    <row r="492" spans="2:4" s="38" customFormat="1">
+      <c r="B492" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C492" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D492" s="40"/>
+    </row>
+    <row r="493" spans="2:4" s="38" customFormat="1">
+      <c r="B493" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C493" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D493" s="40"/>
+    </row>
+    <row r="494" spans="2:4" s="38" customFormat="1">
+      <c r="B494" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C494" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494" s="40"/>
+    </row>
+    <row r="495" spans="2:4" s="38" customFormat="1">
+      <c r="B495" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C495" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D495" s="40"/>
+    </row>
+    <row r="496" spans="2:4" s="38" customFormat="1">
+      <c r="B496" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C496" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D496" s="40"/>
+    </row>
+    <row r="497" spans="1:4" s="38" customFormat="1">
+      <c r="B497" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C497" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D497" s="40"/>
+    </row>
+    <row r="498" spans="1:4" s="38" customFormat="1">
+      <c r="B498" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="C498" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D498" s="40"/>
+    </row>
+    <row r="499" spans="1:4" s="38" customFormat="1">
+      <c r="B499" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C499" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D499" s="40"/>
+    </row>
+    <row r="500" spans="1:4" s="38" customFormat="1">
+      <c r="B500" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C500" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500" s="40"/>
+    </row>
+    <row r="501" spans="1:4" s="38" customFormat="1">
+      <c r="B501" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C501" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" s="40"/>
+    </row>
+    <row r="502" spans="1:4" s="38" customFormat="1">
+      <c r="B502" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C480" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D480" s="40"/>
-    </row>
-    <row r="481" spans="1:4" s="38" customFormat="1">
-      <c r="B481" s="41" t="s">
+      <c r="C502" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D502" s="40"/>
+    </row>
+    <row r="503" spans="1:4" s="38" customFormat="1">
+      <c r="B503" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C503" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" s="40"/>
+    </row>
+    <row r="504" spans="1:4" s="38" customFormat="1">
+      <c r="B504" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C504" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" s="40"/>
+    </row>
+    <row r="505" spans="1:4" s="38" customFormat="1">
+      <c r="B505" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C481" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D481" s="40"/>
-    </row>
-    <row r="482" spans="1:4" s="38" customFormat="1">
-      <c r="B482" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C482" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D482" s="40"/>
-    </row>
-    <row r="483" spans="1:4" s="38" customFormat="1">
-      <c r="B483" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="C483" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D483" s="40"/>
-    </row>
-    <row r="484" spans="1:4" s="38" customFormat="1">
-      <c r="B484" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="C484" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D484" s="40"/>
-    </row>
-    <row r="485" spans="1:4" s="38" customFormat="1">
-      <c r="B485" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C485" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D485" s="40"/>
-    </row>
-    <row r="486" spans="1:4" s="38" customFormat="1">
-      <c r="B486" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="C486" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D486" s="40"/>
-    </row>
-    <row r="487" spans="1:4" s="38" customFormat="1">
-      <c r="B487" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C487" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D487" s="40"/>
-    </row>
-    <row r="488" spans="1:4" s="38" customFormat="1">
-      <c r="B488" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C488" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D488" s="40"/>
-    </row>
-    <row r="489" spans="1:4" s="38" customFormat="1">
-      <c r="B489" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C489" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D489" s="40"/>
-    </row>
-    <row r="490" spans="1:4" s="38" customFormat="1">
-      <c r="B490" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C490" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D490" s="40"/>
-    </row>
-    <row r="491" spans="1:4" s="38" customFormat="1">
-      <c r="B491" s="41"/>
-      <c r="C491" s="40"/>
-      <c r="D491" s="40"/>
-    </row>
-    <row r="492" spans="1:4" s="38" customFormat="1">
-      <c r="B492" s="41"/>
-      <c r="C492" s="40"/>
-      <c r="D492" s="40"/>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="37"/>
-      <c r="B493" s="45"/>
-      <c r="C493" s="45"/>
-      <c r="D493" s="37"/>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="37"/>
-      <c r="B494" s="46" t="s">
+      <c r="C505" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D505" s="40"/>
+    </row>
+    <row r="506" spans="1:4" s="38" customFormat="1">
+      <c r="B506" s="41"/>
+      <c r="C506" s="40"/>
+      <c r="D506" s="40"/>
+    </row>
+    <row r="507" spans="1:4" s="38" customFormat="1">
+      <c r="B507" s="41"/>
+      <c r="C507" s="40"/>
+      <c r="D507" s="40"/>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="37"/>
+      <c r="B508" s="45"/>
+      <c r="C508" s="45"/>
+      <c r="D508" s="37"/>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="37"/>
+      <c r="B509" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C494" s="38">
-        <f>COUNTIF(C5:C493,"y")</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="37"/>
-      <c r="B495" s="46" t="s">
+      <c r="C509" s="38">
+        <f>COUNTIF(C5:C508,"y")</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="37"/>
+      <c r="B510" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C495" s="38">
-        <f>COUNTIF(C5:C493,"n")</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="37"/>
-      <c r="B496" s="46" t="s">
+      <c r="C510" s="38">
+        <f>COUNTIF(C5:C508,"n")</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="37"/>
+      <c r="B511" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C496" s="40">
-        <f>COUNTIF(C5:C493,"TBD")</f>
+      <c r="C511" s="40">
+        <f>COUNTIF(C5:C508,"TBD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="37"/>
-      <c r="B497" s="46" t="s">
+    <row r="512" spans="1:4">
+      <c r="A512" s="37"/>
+      <c r="B512" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C497" s="35">
-        <f>SUM(C494:C496)</f>
-        <v>417</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="37"/>
-      <c r="B498" s="47"/>
-      <c r="C498" s="47" t="s">
+      <c r="C512" s="35">
+        <f>SUM(C509:C511)</f>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="37"/>
+      <c r="B513" s="47"/>
+      <c r="C513" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D498" s="48">
-        <f>C494/(C495+C494 + C496)</f>
-        <v>0.70023980815347719</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="37"/>
-      <c r="B499" s="45"/>
-      <c r="C499" s="45"/>
-      <c r="D499" s="37"/>
+      <c r="D513" s="48">
+        <f>C509/(C510+C509 + C511)</f>
+        <v>0.72315035799522676</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="37"/>
+      <c r="B514" s="45"/>
+      <c r="C514" s="45"/>
+      <c r="D514" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C409:C65247 C403:C407 C1:C3 C6:C401">
-    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C424:C65262 C418:C422 C1:C3 C6:C416">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" stopIfTrue="1" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7161,12 +7198,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT865"/>
+  <dimension ref="A1:IT866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7189,7 +7226,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="31" customFormat="1" ht="21">
       <c r="E1" s="30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
@@ -7476,7 +7513,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="10">
-        <v>45661</v>
+        <v>45663</v>
       </c>
       <c r="B51" s="5">
         <v>292</v>
@@ -7498,13 +7535,26 @@
       <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="10"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="10">
+        <v>45665</v>
+      </c>
+      <c r="B52" s="5">
+        <v>303</v>
+      </c>
+      <c r="C52" s="5">
+        <v>116</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="14">
+        <f t="shared" ref="G52" si="2">B52/SUM(B52:E52)</f>
+        <v>0.72315035799522676</v>
+      </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10">
@@ -7518,77 +7568,77 @@
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="18">
-        <f>MIN(G51)</f>
-        <v>0.70023980815347719</v>
-      </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="19">
-        <f>SUM(B55:D55)</f>
-        <v>417</v>
-      </c>
-      <c r="B55" s="20">
-        <f>Features!C494</f>
-        <v>292</v>
-      </c>
-      <c r="C55" s="21">
-        <f>Features!C495</f>
-        <v>125</v>
-      </c>
-      <c r="D55" s="22">
-        <f>Features!C496</f>
+      <c r="F55" s="15"/>
+      <c r="G55" s="18">
+        <f>MIN(G52)</f>
+        <v>0.72315035799522676</v>
+      </c>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="19">
+        <f>SUM(B56:D56)</f>
+        <v>419</v>
+      </c>
+      <c r="B56" s="20">
+        <f>Features!C509</f>
+        <v>303</v>
+      </c>
+      <c r="C56" s="21">
+        <f>Features!C510</f>
+        <v>116</v>
+      </c>
+      <c r="D56" s="22">
+        <f>Features!C511</f>
         <v>0</v>
       </c>
-      <c r="E55" s="23">
-        <f>MIN(E51)</f>
+      <c r="E56" s="23">
+        <f>MIN(E52)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="14"/>
       <c r="H56" s="5"/>
-      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="14"/>
       <c r="H57" s="5"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -7597,13 +7647,8 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="26">
-        <f>(A51-A48)*A55/B55 +A48</f>
-        <v>45683.260273972606</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -7612,8 +7657,13 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="26">
+        <f>(A52-A48)*A56/B56 +A48</f>
+        <v>45686.438943894391</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -7623,7 +7673,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="5"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -7643,7 +7693,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -7673,7 +7723,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -7703,7 +7753,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -7843,7 +7893,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -7853,7 +7903,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -8033,7 +8083,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="5"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -8043,7 +8093,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -8073,7 +8123,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -8113,7 +8163,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -8123,7 +8173,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -8133,7 +8183,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5"/>
-      <c r="B112" s="3"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8143,7 +8193,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8153,7 +8203,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -8173,7 +8223,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -8233,7 +8283,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="5"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -8333,7 +8383,7 @@
     </row>
     <row r="132" spans="1:254">
       <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="B132" s="4"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -8383,7 +8433,7 @@
     </row>
     <row r="137" spans="1:254">
       <c r="A137" s="5"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -8403,7 +8453,7 @@
     </row>
     <row r="139" spans="1:254">
       <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="B139" s="4"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -8442,274 +8492,274 @@
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:254">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
-      <c r="U143" s="9"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
-      <c r="Z143" s="9"/>
-      <c r="AA143" s="9"/>
-      <c r="AB143" s="9"/>
-      <c r="AC143" s="9"/>
-      <c r="AD143" s="9"/>
-      <c r="AE143" s="9"/>
-      <c r="AF143" s="9"/>
-      <c r="AG143" s="9"/>
-      <c r="AH143" s="9"/>
-      <c r="AI143" s="9"/>
-      <c r="AJ143" s="9"/>
-      <c r="AK143" s="9"/>
-      <c r="AL143" s="9"/>
-      <c r="AM143" s="9"/>
-      <c r="AN143" s="9"/>
-      <c r="AO143" s="9"/>
-      <c r="AP143" s="9"/>
-      <c r="AQ143" s="9"/>
-      <c r="AR143" s="9"/>
-      <c r="AS143" s="9"/>
-      <c r="AT143" s="9"/>
-      <c r="AU143" s="9"/>
-      <c r="AV143" s="9"/>
-      <c r="AW143" s="9"/>
-      <c r="AX143" s="9"/>
-      <c r="AY143" s="9"/>
-      <c r="AZ143" s="9"/>
-      <c r="BA143" s="9"/>
-      <c r="BB143" s="9"/>
-      <c r="BC143" s="9"/>
-      <c r="BD143" s="9"/>
-      <c r="BE143" s="9"/>
-      <c r="BF143" s="9"/>
-      <c r="BG143" s="9"/>
-      <c r="BH143" s="9"/>
-      <c r="BI143" s="9"/>
-      <c r="BJ143" s="9"/>
-      <c r="BK143" s="9"/>
-      <c r="BL143" s="9"/>
-      <c r="BM143" s="9"/>
-      <c r="BN143" s="9"/>
-      <c r="BO143" s="9"/>
-      <c r="BP143" s="9"/>
-      <c r="BQ143" s="9"/>
-      <c r="BR143" s="9"/>
-      <c r="BS143" s="9"/>
-      <c r="BT143" s="9"/>
-      <c r="BU143" s="9"/>
-      <c r="BV143" s="9"/>
-      <c r="BW143" s="9"/>
-      <c r="BX143" s="9"/>
-      <c r="BY143" s="9"/>
-      <c r="BZ143" s="9"/>
-      <c r="CA143" s="9"/>
-      <c r="CB143" s="9"/>
-      <c r="CC143" s="9"/>
-      <c r="CD143" s="9"/>
-      <c r="CE143" s="9"/>
-      <c r="CF143" s="9"/>
-      <c r="CG143" s="9"/>
-      <c r="CH143" s="9"/>
-      <c r="CI143" s="9"/>
-      <c r="CJ143" s="9"/>
-      <c r="CK143" s="9"/>
-      <c r="CL143" s="9"/>
-      <c r="CM143" s="9"/>
-      <c r="CN143" s="9"/>
-      <c r="CO143" s="9"/>
-      <c r="CP143" s="9"/>
-      <c r="CQ143" s="9"/>
-      <c r="CR143" s="9"/>
-      <c r="CS143" s="9"/>
-      <c r="CT143" s="9"/>
-      <c r="CU143" s="9"/>
-      <c r="CV143" s="9"/>
-      <c r="CW143" s="9"/>
-      <c r="CX143" s="9"/>
-      <c r="CY143" s="9"/>
-      <c r="CZ143" s="9"/>
-      <c r="DA143" s="9"/>
-      <c r="DB143" s="9"/>
-      <c r="DC143" s="9"/>
-      <c r="DD143" s="9"/>
-      <c r="DE143" s="9"/>
-      <c r="DF143" s="9"/>
-      <c r="DG143" s="9"/>
-      <c r="DH143" s="9"/>
-      <c r="DI143" s="9"/>
-      <c r="DJ143" s="9"/>
-      <c r="DK143" s="9"/>
-      <c r="DL143" s="9"/>
-      <c r="DM143" s="9"/>
-      <c r="DN143" s="9"/>
-      <c r="DO143" s="9"/>
-      <c r="DP143" s="9"/>
-      <c r="DQ143" s="9"/>
-      <c r="DR143" s="9"/>
-      <c r="DS143" s="9"/>
-      <c r="DT143" s="9"/>
-      <c r="DU143" s="9"/>
-      <c r="DV143" s="9"/>
-      <c r="DW143" s="9"/>
-      <c r="DX143" s="9"/>
-      <c r="DY143" s="9"/>
-      <c r="DZ143" s="9"/>
-      <c r="EA143" s="9"/>
-      <c r="EB143" s="9"/>
-      <c r="EC143" s="9"/>
-      <c r="ED143" s="9"/>
-      <c r="EE143" s="9"/>
-      <c r="EF143" s="9"/>
-      <c r="EG143" s="9"/>
-      <c r="EH143" s="9"/>
-      <c r="EI143" s="9"/>
-      <c r="EJ143" s="9"/>
-      <c r="EK143" s="9"/>
-      <c r="EL143" s="9"/>
-      <c r="EM143" s="9"/>
-      <c r="EN143" s="9"/>
-      <c r="EO143" s="9"/>
-      <c r="EP143" s="9"/>
-      <c r="EQ143" s="9"/>
-      <c r="ER143" s="9"/>
-      <c r="ES143" s="9"/>
-      <c r="ET143" s="9"/>
-      <c r="EU143" s="9"/>
-      <c r="EV143" s="9"/>
-      <c r="EW143" s="9"/>
-      <c r="EX143" s="9"/>
-      <c r="EY143" s="9"/>
-      <c r="EZ143" s="9"/>
-      <c r="FA143" s="9"/>
-      <c r="FB143" s="9"/>
-      <c r="FC143" s="9"/>
-      <c r="FD143" s="9"/>
-      <c r="FE143" s="9"/>
-      <c r="FF143" s="9"/>
-      <c r="FG143" s="9"/>
-      <c r="FH143" s="9"/>
-      <c r="FI143" s="9"/>
-      <c r="FJ143" s="9"/>
-      <c r="FK143" s="9"/>
-      <c r="FL143" s="9"/>
-      <c r="FM143" s="9"/>
-      <c r="FN143" s="9"/>
-      <c r="FO143" s="9"/>
-      <c r="FP143" s="9"/>
-      <c r="FQ143" s="9"/>
-      <c r="FR143" s="9"/>
-      <c r="FS143" s="9"/>
-      <c r="FT143" s="9"/>
-      <c r="FU143" s="9"/>
-      <c r="FV143" s="9"/>
-      <c r="FW143" s="9"/>
-      <c r="FX143" s="9"/>
-      <c r="FY143" s="9"/>
-      <c r="FZ143" s="9"/>
-      <c r="GA143" s="9"/>
-      <c r="GB143" s="9"/>
-      <c r="GC143" s="9"/>
-      <c r="GD143" s="9"/>
-      <c r="GE143" s="9"/>
-      <c r="GF143" s="9"/>
-      <c r="GG143" s="9"/>
-      <c r="GH143" s="9"/>
-      <c r="GI143" s="9"/>
-      <c r="GJ143" s="9"/>
-      <c r="GK143" s="9"/>
-      <c r="GL143" s="9"/>
-      <c r="GM143" s="9"/>
-      <c r="GN143" s="9"/>
-      <c r="GO143" s="9"/>
-      <c r="GP143" s="9"/>
-      <c r="GQ143" s="9"/>
-      <c r="GR143" s="9"/>
-      <c r="GS143" s="9"/>
-      <c r="GT143" s="9"/>
-      <c r="GU143" s="9"/>
-      <c r="GV143" s="9"/>
-      <c r="GW143" s="9"/>
-      <c r="GX143" s="9"/>
-      <c r="GY143" s="9"/>
-      <c r="GZ143" s="9"/>
-      <c r="HA143" s="9"/>
-      <c r="HB143" s="9"/>
-      <c r="HC143" s="9"/>
-      <c r="HD143" s="9"/>
-      <c r="HE143" s="9"/>
-      <c r="HF143" s="9"/>
-      <c r="HG143" s="9"/>
-      <c r="HH143" s="9"/>
-      <c r="HI143" s="9"/>
-      <c r="HJ143" s="9"/>
-      <c r="HK143" s="9"/>
-      <c r="HL143" s="9"/>
-      <c r="HM143" s="9"/>
-      <c r="HN143" s="9"/>
-      <c r="HO143" s="9"/>
-      <c r="HP143" s="9"/>
-      <c r="HQ143" s="9"/>
-      <c r="HR143" s="9"/>
-      <c r="HS143" s="9"/>
-      <c r="HT143" s="9"/>
-      <c r="HU143" s="9"/>
-      <c r="HV143" s="9"/>
-      <c r="HW143" s="9"/>
-      <c r="HX143" s="9"/>
-      <c r="HY143" s="9"/>
-      <c r="HZ143" s="9"/>
-      <c r="IA143" s="9"/>
-      <c r="IB143" s="9"/>
-      <c r="IC143" s="9"/>
-      <c r="ID143" s="9"/>
-      <c r="IE143" s="9"/>
-      <c r="IF143" s="9"/>
-      <c r="IG143" s="9"/>
-      <c r="IH143" s="9"/>
-      <c r="II143" s="9"/>
-      <c r="IJ143" s="9"/>
-      <c r="IK143" s="9"/>
-      <c r="IL143" s="9"/>
-      <c r="IM143" s="9"/>
-      <c r="IN143" s="9"/>
-      <c r="IO143" s="9"/>
-      <c r="IP143" s="9"/>
-      <c r="IQ143" s="9"/>
-      <c r="IR143" s="9"/>
-      <c r="IS143" s="9"/>
-      <c r="IT143" s="9"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:254">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="5"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+      <c r="AB144" s="9"/>
+      <c r="AC144" s="9"/>
+      <c r="AD144" s="9"/>
+      <c r="AE144" s="9"/>
+      <c r="AF144" s="9"/>
+      <c r="AG144" s="9"/>
+      <c r="AH144" s="9"/>
+      <c r="AI144" s="9"/>
+      <c r="AJ144" s="9"/>
+      <c r="AK144" s="9"/>
+      <c r="AL144" s="9"/>
+      <c r="AM144" s="9"/>
+      <c r="AN144" s="9"/>
+      <c r="AO144" s="9"/>
+      <c r="AP144" s="9"/>
+      <c r="AQ144" s="9"/>
+      <c r="AR144" s="9"/>
+      <c r="AS144" s="9"/>
+      <c r="AT144" s="9"/>
+      <c r="AU144" s="9"/>
+      <c r="AV144" s="9"/>
+      <c r="AW144" s="9"/>
+      <c r="AX144" s="9"/>
+      <c r="AY144" s="9"/>
+      <c r="AZ144" s="9"/>
+      <c r="BA144" s="9"/>
+      <c r="BB144" s="9"/>
+      <c r="BC144" s="9"/>
+      <c r="BD144" s="9"/>
+      <c r="BE144" s="9"/>
+      <c r="BF144" s="9"/>
+      <c r="BG144" s="9"/>
+      <c r="BH144" s="9"/>
+      <c r="BI144" s="9"/>
+      <c r="BJ144" s="9"/>
+      <c r="BK144" s="9"/>
+      <c r="BL144" s="9"/>
+      <c r="BM144" s="9"/>
+      <c r="BN144" s="9"/>
+      <c r="BO144" s="9"/>
+      <c r="BP144" s="9"/>
+      <c r="BQ144" s="9"/>
+      <c r="BR144" s="9"/>
+      <c r="BS144" s="9"/>
+      <c r="BT144" s="9"/>
+      <c r="BU144" s="9"/>
+      <c r="BV144" s="9"/>
+      <c r="BW144" s="9"/>
+      <c r="BX144" s="9"/>
+      <c r="BY144" s="9"/>
+      <c r="BZ144" s="9"/>
+      <c r="CA144" s="9"/>
+      <c r="CB144" s="9"/>
+      <c r="CC144" s="9"/>
+      <c r="CD144" s="9"/>
+      <c r="CE144" s="9"/>
+      <c r="CF144" s="9"/>
+      <c r="CG144" s="9"/>
+      <c r="CH144" s="9"/>
+      <c r="CI144" s="9"/>
+      <c r="CJ144" s="9"/>
+      <c r="CK144" s="9"/>
+      <c r="CL144" s="9"/>
+      <c r="CM144" s="9"/>
+      <c r="CN144" s="9"/>
+      <c r="CO144" s="9"/>
+      <c r="CP144" s="9"/>
+      <c r="CQ144" s="9"/>
+      <c r="CR144" s="9"/>
+      <c r="CS144" s="9"/>
+      <c r="CT144" s="9"/>
+      <c r="CU144" s="9"/>
+      <c r="CV144" s="9"/>
+      <c r="CW144" s="9"/>
+      <c r="CX144" s="9"/>
+      <c r="CY144" s="9"/>
+      <c r="CZ144" s="9"/>
+      <c r="DA144" s="9"/>
+      <c r="DB144" s="9"/>
+      <c r="DC144" s="9"/>
+      <c r="DD144" s="9"/>
+      <c r="DE144" s="9"/>
+      <c r="DF144" s="9"/>
+      <c r="DG144" s="9"/>
+      <c r="DH144" s="9"/>
+      <c r="DI144" s="9"/>
+      <c r="DJ144" s="9"/>
+      <c r="DK144" s="9"/>
+      <c r="DL144" s="9"/>
+      <c r="DM144" s="9"/>
+      <c r="DN144" s="9"/>
+      <c r="DO144" s="9"/>
+      <c r="DP144" s="9"/>
+      <c r="DQ144" s="9"/>
+      <c r="DR144" s="9"/>
+      <c r="DS144" s="9"/>
+      <c r="DT144" s="9"/>
+      <c r="DU144" s="9"/>
+      <c r="DV144" s="9"/>
+      <c r="DW144" s="9"/>
+      <c r="DX144" s="9"/>
+      <c r="DY144" s="9"/>
+      <c r="DZ144" s="9"/>
+      <c r="EA144" s="9"/>
+      <c r="EB144" s="9"/>
+      <c r="EC144" s="9"/>
+      <c r="ED144" s="9"/>
+      <c r="EE144" s="9"/>
+      <c r="EF144" s="9"/>
+      <c r="EG144" s="9"/>
+      <c r="EH144" s="9"/>
+      <c r="EI144" s="9"/>
+      <c r="EJ144" s="9"/>
+      <c r="EK144" s="9"/>
+      <c r="EL144" s="9"/>
+      <c r="EM144" s="9"/>
+      <c r="EN144" s="9"/>
+      <c r="EO144" s="9"/>
+      <c r="EP144" s="9"/>
+      <c r="EQ144" s="9"/>
+      <c r="ER144" s="9"/>
+      <c r="ES144" s="9"/>
+      <c r="ET144" s="9"/>
+      <c r="EU144" s="9"/>
+      <c r="EV144" s="9"/>
+      <c r="EW144" s="9"/>
+      <c r="EX144" s="9"/>
+      <c r="EY144" s="9"/>
+      <c r="EZ144" s="9"/>
+      <c r="FA144" s="9"/>
+      <c r="FB144" s="9"/>
+      <c r="FC144" s="9"/>
+      <c r="FD144" s="9"/>
+      <c r="FE144" s="9"/>
+      <c r="FF144" s="9"/>
+      <c r="FG144" s="9"/>
+      <c r="FH144" s="9"/>
+      <c r="FI144" s="9"/>
+      <c r="FJ144" s="9"/>
+      <c r="FK144" s="9"/>
+      <c r="FL144" s="9"/>
+      <c r="FM144" s="9"/>
+      <c r="FN144" s="9"/>
+      <c r="FO144" s="9"/>
+      <c r="FP144" s="9"/>
+      <c r="FQ144" s="9"/>
+      <c r="FR144" s="9"/>
+      <c r="FS144" s="9"/>
+      <c r="FT144" s="9"/>
+      <c r="FU144" s="9"/>
+      <c r="FV144" s="9"/>
+      <c r="FW144" s="9"/>
+      <c r="FX144" s="9"/>
+      <c r="FY144" s="9"/>
+      <c r="FZ144" s="9"/>
+      <c r="GA144" s="9"/>
+      <c r="GB144" s="9"/>
+      <c r="GC144" s="9"/>
+      <c r="GD144" s="9"/>
+      <c r="GE144" s="9"/>
+      <c r="GF144" s="9"/>
+      <c r="GG144" s="9"/>
+      <c r="GH144" s="9"/>
+      <c r="GI144" s="9"/>
+      <c r="GJ144" s="9"/>
+      <c r="GK144" s="9"/>
+      <c r="GL144" s="9"/>
+      <c r="GM144" s="9"/>
+      <c r="GN144" s="9"/>
+      <c r="GO144" s="9"/>
+      <c r="GP144" s="9"/>
+      <c r="GQ144" s="9"/>
+      <c r="GR144" s="9"/>
+      <c r="GS144" s="9"/>
+      <c r="GT144" s="9"/>
+      <c r="GU144" s="9"/>
+      <c r="GV144" s="9"/>
+      <c r="GW144" s="9"/>
+      <c r="GX144" s="9"/>
+      <c r="GY144" s="9"/>
+      <c r="GZ144" s="9"/>
+      <c r="HA144" s="9"/>
+      <c r="HB144" s="9"/>
+      <c r="HC144" s="9"/>
+      <c r="HD144" s="9"/>
+      <c r="HE144" s="9"/>
+      <c r="HF144" s="9"/>
+      <c r="HG144" s="9"/>
+      <c r="HH144" s="9"/>
+      <c r="HI144" s="9"/>
+      <c r="HJ144" s="9"/>
+      <c r="HK144" s="9"/>
+      <c r="HL144" s="9"/>
+      <c r="HM144" s="9"/>
+      <c r="HN144" s="9"/>
+      <c r="HO144" s="9"/>
+      <c r="HP144" s="9"/>
+      <c r="HQ144" s="9"/>
+      <c r="HR144" s="9"/>
+      <c r="HS144" s="9"/>
+      <c r="HT144" s="9"/>
+      <c r="HU144" s="9"/>
+      <c r="HV144" s="9"/>
+      <c r="HW144" s="9"/>
+      <c r="HX144" s="9"/>
+      <c r="HY144" s="9"/>
+      <c r="HZ144" s="9"/>
+      <c r="IA144" s="9"/>
+      <c r="IB144" s="9"/>
+      <c r="IC144" s="9"/>
+      <c r="ID144" s="9"/>
+      <c r="IE144" s="9"/>
+      <c r="IF144" s="9"/>
+      <c r="IG144" s="9"/>
+      <c r="IH144" s="9"/>
+      <c r="II144" s="9"/>
+      <c r="IJ144" s="9"/>
+      <c r="IK144" s="9"/>
+      <c r="IL144" s="9"/>
+      <c r="IM144" s="9"/>
+      <c r="IN144" s="9"/>
+      <c r="IO144" s="9"/>
+      <c r="IP144" s="9"/>
+      <c r="IQ144" s="9"/>
+      <c r="IR144" s="9"/>
+      <c r="IS144" s="9"/>
+      <c r="IT144" s="9"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="5"/>
-      <c r="B145" s="3"/>
+      <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -8719,7 +8769,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -8729,7 +8779,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="5"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -8739,7 +8789,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
+      <c r="B148" s="4"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -8799,7 +8849,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -8819,7 +8869,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -8829,7 +8879,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="5"/>
-      <c r="B157" s="4"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -8849,7 +8899,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="4"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -8869,7 +8919,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="5"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -8889,7 +8939,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
+      <c r="B163" s="4"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -8909,7 +8959,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="5"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -8929,7 +8979,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
+      <c r="B167" s="4"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -8969,7 +9019,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="5"/>
-      <c r="B171" s="3"/>
+      <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -8979,7 +9029,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -8989,7 +9039,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="5"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -9059,7 +9109,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -9069,7 +9119,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="5"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -9079,7 +9129,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
+      <c r="B182" s="4"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -9099,7 +9149,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="5"/>
-      <c r="B184" s="4"/>
+      <c r="B184" s="6"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -9149,7 +9199,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -9169,7 +9219,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="5"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -9229,7 +9279,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -9269,7 +9319,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -9279,7 +9329,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="5"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -9289,7 +9339,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
+      <c r="B203" s="3"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -9299,7 +9349,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="5"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -9349,7 +9399,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -9359,7 +9409,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="5"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -9409,7 +9459,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
+      <c r="B215" s="4"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -9469,7 +9519,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
+      <c r="B221" s="6"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -9479,7 +9529,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="5"/>
-      <c r="B222" s="3"/>
+      <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -9489,7 +9539,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
+      <c r="B223" s="3"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -9499,7 +9549,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="5"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -9509,7 +9559,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -9519,7 +9569,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="5"/>
-      <c r="B226" s="4"/>
+      <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -9559,7 +9609,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
+      <c r="B230" s="4"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -9569,7 +9619,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="5"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -9579,7 +9629,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="5"/>
-      <c r="B232" s="8"/>
+      <c r="B232" s="4"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -9599,7 +9649,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="5"/>
-      <c r="B234" s="4"/>
+      <c r="B234" s="8"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -9639,7 +9689,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
+      <c r="B238" s="4"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -9649,7 +9699,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="5"/>
-      <c r="B239" s="4"/>
+      <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -9699,7 +9749,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
+      <c r="B244" s="4"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -9709,7 +9759,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="5"/>
-      <c r="B245" s="4"/>
+      <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -9719,7 +9769,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
+      <c r="B246" s="4"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -9729,7 +9779,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="5"/>
-      <c r="B247" s="4"/>
+      <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -9739,7 +9789,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="5"/>
-      <c r="B248" s="8"/>
+      <c r="B248" s="4"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -9789,7 +9839,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="5"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="8"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -9799,7 +9849,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="5"/>
-      <c r="B254" s="8"/>
+      <c r="B254" s="4"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -9809,7 +9859,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="5"/>
-      <c r="B255" s="28"/>
+      <c r="B255" s="8"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -9849,7 +9899,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="5"/>
-      <c r="B259" s="8"/>
+      <c r="B259" s="28"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -9889,7 +9939,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="5"/>
-      <c r="B263" s="28"/>
+      <c r="B263" s="8"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -9919,7 +9969,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="5"/>
-      <c r="B266" s="8"/>
+      <c r="B266" s="28"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -9929,7 +9979,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="5"/>
-      <c r="B267" s="28"/>
+      <c r="B267" s="8"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9969,7 +10019,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="5"/>
-      <c r="B271" s="8"/>
+      <c r="B271" s="28"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -9979,7 +10029,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="5"/>
-      <c r="B272" s="28"/>
+      <c r="B272" s="8"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -10009,7 +10059,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="5"/>
-      <c r="B275" s="6"/>
+      <c r="B275" s="28"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -10019,7 +10069,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
+      <c r="B276" s="6"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -10039,7 +10089,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="5"/>
-      <c r="B278" s="4"/>
+      <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -10059,7 +10109,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
+      <c r="B280" s="4"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -10099,7 +10149,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="5"/>
-      <c r="B284" s="3"/>
+      <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -10109,7 +10159,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
+      <c r="B285" s="3"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -10189,7 +10239,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="5"/>
-      <c r="B293" s="3"/>
+      <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10199,7 +10249,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
+      <c r="B294" s="3"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10209,7 +10259,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="5"/>
-      <c r="B295" s="4"/>
+      <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10239,7 +10289,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -10299,7 +10349,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="5"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -10319,7 +10369,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="5"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="4"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -10329,7 +10379,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
+      <c r="B307" s="6"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10339,7 +10389,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="5"/>
-      <c r="B308" s="3"/>
+      <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10349,7 +10399,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="5"/>
-      <c r="B309" s="5"/>
+      <c r="B309" s="3"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -10379,7 +10429,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="5"/>
-      <c r="B312" s="4"/>
+      <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -10429,7 +10479,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="5"/>
-      <c r="B317" s="8"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10479,7 +10529,7 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="5"/>
-      <c r="B322" s="6"/>
+      <c r="B322" s="8"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -10529,7 +10579,7 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="5"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="6"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -10539,7 +10589,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="5"/>
-      <c r="B328" s="6"/>
+      <c r="B328" s="4"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -10549,7 +10599,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="5"/>
-      <c r="B329" s="5"/>
+      <c r="B329" s="6"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -10559,7 +10609,7 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="5"/>
-      <c r="B330" s="3"/>
+      <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -10569,7 +10619,7 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
+      <c r="B331" s="3"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -10659,7 +10709,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" s="5"/>
-      <c r="B340" s="3"/>
+      <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -10669,7 +10719,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="5"/>
-      <c r="B341" s="5"/>
+      <c r="B341" s="3"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -10679,7 +10729,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="5"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -10689,7 +10739,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="5"/>
-      <c r="B343" s="5"/>
+      <c r="B343" s="6"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -10729,7 +10779,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="5"/>
-      <c r="B347" s="3"/>
+      <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -10739,7 +10789,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="5"/>
-      <c r="B348" s="5"/>
+      <c r="B348" s="3"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -10749,7 +10799,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="5"/>
-      <c r="B349" s="4"/>
+      <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -10779,7 +10829,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="5"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="4"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -10789,7 +10839,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="5"/>
-      <c r="B353" s="4"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -10809,7 +10859,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="5"/>
-      <c r="B355" s="6"/>
+      <c r="B355" s="4"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -10819,7 +10869,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="5"/>
-      <c r="B356" s="4"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -10829,7 +10879,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="5"/>
-      <c r="B357" s="6"/>
+      <c r="B357" s="4"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -10839,7 +10889,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="5"/>
-      <c r="B358" s="4"/>
+      <c r="B358" s="6"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -10869,7 +10919,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="5"/>
-      <c r="B361" s="5"/>
+      <c r="B361" s="4"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -10879,7 +10929,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="5"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -10889,7 +10939,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="5"/>
-      <c r="B363" s="6"/>
+      <c r="B363" s="7"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -10899,7 +10949,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="5"/>
-      <c r="B364" s="5"/>
+      <c r="B364" s="6"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -10909,7 +10959,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="5"/>
-      <c r="B365" s="4"/>
+      <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -10939,7 +10989,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="5"/>
-      <c r="B368" s="5"/>
+      <c r="B368" s="4"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -10969,7 +11019,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="5"/>
-      <c r="B371" s="4"/>
+      <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -10989,7 +11039,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="5"/>
-      <c r="B373" s="5"/>
+      <c r="B373" s="4"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -10999,7 +11049,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="5"/>
-      <c r="B374" s="3"/>
+      <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -11009,7 +11059,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="5"/>
-      <c r="B375" s="5"/>
+      <c r="B375" s="3"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -11069,7 +11119,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="5"/>
-      <c r="B381" s="3"/>
+      <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -11079,7 +11129,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="5"/>
-      <c r="B382" s="5"/>
+      <c r="B382" s="3"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -11109,7 +11159,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="5"/>
-      <c r="B385" s="4"/>
+      <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -11129,7 +11179,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="5"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="4"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -11139,7 +11189,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="5"/>
-      <c r="B388" s="6"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -11189,7 +11239,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="5"/>
-      <c r="B393" s="5"/>
+      <c r="B393" s="6"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -11199,7 +11249,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="5"/>
-      <c r="B394" s="3"/>
+      <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -11209,7 +11259,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="5"/>
-      <c r="B395" s="5"/>
+      <c r="B395" s="3"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -11219,7 +11269,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="5"/>
-      <c r="B396" s="4"/>
+      <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -11229,7 +11279,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="5"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="4"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -11249,7 +11299,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="5"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -11289,7 +11339,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="5"/>
-      <c r="B403" s="5"/>
+      <c r="B403" s="4"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -11299,7 +11349,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="5"/>
-      <c r="B404" s="4"/>
+      <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -11319,7 +11369,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="5"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="4"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -11329,7 +11379,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="5"/>
-      <c r="B407" s="5"/>
+      <c r="B407" s="6"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -11339,7 +11389,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="5"/>
-      <c r="B408" s="3"/>
+      <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -11349,7 +11399,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="5"/>
-      <c r="B409" s="5"/>
+      <c r="B409" s="3"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -11369,7 +11419,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="5"/>
-      <c r="B411" s="3"/>
+      <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -11379,7 +11429,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="5"/>
-      <c r="B412" s="5"/>
+      <c r="B412" s="3"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -11389,7 +11439,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="5"/>
-      <c r="B413" s="4"/>
+      <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -11409,7 +11459,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="5"/>
-      <c r="B415" s="5"/>
+      <c r="B415" s="4"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -11419,7 +11469,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="5"/>
-      <c r="B416" s="3"/>
+      <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -11429,7 +11479,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="5"/>
-      <c r="B417" s="5"/>
+      <c r="B417" s="3"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -11479,7 +11529,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="5"/>
-      <c r="B422" s="3"/>
+      <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -11489,7 +11539,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="5"/>
-      <c r="B423" s="5"/>
+      <c r="B423" s="3"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -11549,7 +11599,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="5"/>
-      <c r="B429" s="3"/>
+      <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -11559,7 +11609,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="5"/>
-      <c r="B430" s="5"/>
+      <c r="B430" s="3"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -11579,7 +11629,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="5"/>
-      <c r="B432" s="3"/>
+      <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -11589,7 +11639,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="5"/>
-      <c r="B433" s="5"/>
+      <c r="B433" s="3"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -11639,7 +11689,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="5"/>
-      <c r="B438" s="3"/>
+      <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -11649,7 +11699,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="5"/>
-      <c r="B439" s="5"/>
+      <c r="B439" s="3"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -11709,7 +11759,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="5"/>
-      <c r="B445" s="3"/>
+      <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -11719,7 +11769,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="5"/>
-      <c r="B446" s="5"/>
+      <c r="B446" s="3"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -11769,7 +11819,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="5"/>
-      <c r="B451" s="3"/>
+      <c r="B451" s="5"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -11779,7 +11829,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="5"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="3"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -11839,7 +11889,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="5"/>
-      <c r="B458" s="5"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -11849,7 +11899,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="5"/>
-      <c r="B459" s="3"/>
+      <c r="B459" s="5"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -11859,7 +11909,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="5"/>
-      <c r="B460" s="6"/>
+      <c r="B460" s="3"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -11888,8 +11938,8 @@
       <c r="H462" s="5"/>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="3"/>
-      <c r="B463" s="5"/>
+      <c r="A463" s="5"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -11898,7 +11948,7 @@
       <c r="H463" s="5"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="5"/>
+      <c r="A464" s="3"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
@@ -11939,7 +11989,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="5"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="5"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -11969,7 +12019,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="5"/>
-      <c r="B471" s="5"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -11979,7 +12029,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="5"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="5"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -11989,7 +12039,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="5"/>
-      <c r="B473" s="5"/>
+      <c r="B473" s="16"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -11999,21 +12049,21 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="5"/>
-      <c r="B474" s="29"/>
-      <c r="C474" s="14"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
-      <c r="F474" s="29"/>
+      <c r="F474" s="5"/>
       <c r="G474" s="14"/>
       <c r="H474" s="5"/>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="5"/>
-      <c r="B475" s="5"/>
-      <c r="C475" s="5"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="14"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
-      <c r="F475" s="5"/>
+      <c r="F475" s="29"/>
       <c r="G475" s="14"/>
       <c r="H475" s="5"/>
     </row>
@@ -15917,6 +15967,16 @@
       <c r="G865" s="14"/>
       <c r="H865" s="5"/>
     </row>
+    <row r="866" spans="1:8">
+      <c r="A866" s="5"/>
+      <c r="B866" s="5"/>
+      <c r="C866" s="5"/>
+      <c r="D866" s="5"/>
+      <c r="E866" s="5"/>
+      <c r="F866" s="5"/>
+      <c r="G866" s="14"/>
+      <c r="H866" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="368">
   <si>
     <t>Feature</t>
   </si>
@@ -947,9 +947,6 @@
     <t>scrolls to visible</t>
   </si>
   <si>
-    <t>wrapped mode: toggles leading at wrap boundary</t>
-  </si>
-  <si>
     <t>caret at the end</t>
   </si>
   <si>
@@ -975,9 +972,6 @@
   </si>
   <si>
     <t>uses phantom position</t>
-  </si>
-  <si>
-    <t>tailing bias at the end of the wrapped row</t>
   </si>
   <si>
     <t>clamp to valid position</t>
@@ -1390,7 +1384,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955613"/>
+          <c:w val="0.91978071330955624"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1464,7 +1458,7 @@
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>303</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,11 +1692,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174448000"/>
-        <c:axId val="174265472"/>
+        <c:axId val="175431040"/>
+        <c:axId val="175182976"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174448000"/>
+        <c:axId val="175431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174265472"/>
+        <c:crossAx val="175182976"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1745,7 +1739,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174265472"/>
+        <c:axId val="175182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174448000"/>
+        <c:crossAx val="175431040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,7 +1804,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218664"/>
+          <c:y val="0.33819556996218675"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1914,8 +1908,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3785273643863572"/>
-          <c:y val="0.13936449433182557"/>
+          <c:x val="0.37852736438635731"/>
+          <c:y val="0.13936449433182563"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1931,7 +1925,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248128025E-2"/>
+          <c:x val="4.4510450248128046E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2007,17 +2001,17 @@
                   <c:v>0.70023980815347719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72315035799522676</c:v>
+                  <c:v>0.71980676328502413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174297472"/>
-        <c:axId val="174299008"/>
+        <c:axId val="175214976"/>
+        <c:axId val="175216512"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174297472"/>
+        <c:axId val="175214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,13 +2019,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="174299008"/>
+        <c:crossAx val="175216512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174299008"/>
+        <c:axId val="175216512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2074,7 +2068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174297472"/>
+        <c:crossAx val="175214976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2295,11 +2289,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174987520"/>
-        <c:axId val="174993408"/>
+        <c:axId val="175839488"/>
+        <c:axId val="175845376"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174987520"/>
+        <c:axId val="175839488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174993408"/>
+        <c:crossAx val="175845376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2341,7 +2335,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174993408"/>
+        <c:axId val="175845376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174987520"/>
+        <c:crossAx val="175839488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,10 +2884,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D514"/>
+  <dimension ref="A1:D509"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="D389" sqref="D389"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3849,7 +3843,7 @@
     </row>
     <row r="119" spans="2:4" s="38" customFormat="1">
       <c r="B119" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>14</v>
@@ -3885,7 +3879,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3921,7 +3915,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -3930,7 +3924,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -3948,7 +3942,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -3984,7 +3978,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -3993,7 +3987,7 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>14</v>
@@ -4002,7 +3996,7 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4020,7 +4014,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -4029,7 +4023,7 @@
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
       <c r="B139" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -4056,7 +4050,7 @@
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
@@ -4065,7 +4059,7 @@
     </row>
     <row r="143" spans="2:4" s="38" customFormat="1">
       <c r="B143" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
@@ -4092,7 +4086,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4101,7 +4095,7 @@
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
       <c r="B147" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>14</v>
@@ -4153,7 +4147,7 @@
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>14</v>
@@ -4207,7 +4201,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4243,7 +4237,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4279,7 +4273,7 @@
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
@@ -4288,7 +4282,7 @@
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4315,7 +4309,7 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>14</v>
@@ -4324,7 +4318,7 @@
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C172" s="40" t="s">
         <v>14</v>
@@ -4351,7 +4345,7 @@
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>2</v>
@@ -4360,7 +4354,7 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>2</v>
@@ -4369,7 +4363,7 @@
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>2</v>
@@ -4405,7 +4399,7 @@
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -4414,7 +4408,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>2</v>
@@ -4423,7 +4417,7 @@
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
       <c r="B183" s="39" t="s">
-        <v>354</v>
+        <v>247</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>2</v>
@@ -4431,8 +4425,8 @@
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
-      <c r="B184" s="39" t="s">
-        <v>247</v>
+      <c r="B184" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -4440,8 +4434,8 @@
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
-      <c r="B185" s="42" t="s">
-        <v>149</v>
+      <c r="B185" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>2</v>
@@ -4450,7 +4444,7 @@
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -4459,7 +4453,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -4468,7 +4462,7 @@
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
       <c r="B188" s="39" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>2</v>
@@ -4476,8 +4470,8 @@
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="2:4" s="38" customFormat="1">
-      <c r="B189" s="39" t="s">
-        <v>354</v>
+      <c r="B189" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>2</v>
@@ -4486,7 +4480,7 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4494,8 +4488,8 @@
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
-      <c r="B191" s="42" t="s">
-        <v>151</v>
+      <c r="B191" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>2</v>
@@ -4504,7 +4498,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -4513,7 +4507,7 @@
     </row>
     <row r="193" spans="2:4" s="38" customFormat="1">
       <c r="B193" s="39" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>2</v>
@@ -4521,8 +4515,8 @@
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
-      <c r="B194" s="39" t="s">
-        <v>264</v>
+      <c r="B194" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -4531,7 +4525,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4539,8 +4533,8 @@
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
-      <c r="B196" s="42" t="s">
-        <v>150</v>
+      <c r="B196" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4549,7 +4543,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>344</v>
+        <v>269</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -4558,7 +4552,7 @@
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
       <c r="B198" s="39" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>2</v>
@@ -4566,8 +4560,8 @@
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
-      <c r="B199" s="39" t="s">
-        <v>269</v>
+      <c r="B199" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -4576,7 +4570,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4584,8 +4578,8 @@
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
-      <c r="B201" s="42" t="s">
-        <v>172</v>
+      <c r="B201" s="39" t="s">
+        <v>328</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4594,7 +4588,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4603,7 +4597,7 @@
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
       <c r="B203" s="39" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -4612,7 +4606,7 @@
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C204" s="40" t="s">
         <v>2</v>
@@ -4620,8 +4614,8 @@
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
-      <c r="B205" s="39" t="s">
-        <v>322</v>
+      <c r="B205" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -4630,7 +4624,7 @@
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4638,8 +4632,8 @@
       <c r="D206" s="40"/>
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
-      <c r="B207" s="42" t="s">
-        <v>171</v>
+      <c r="B207" s="39" t="s">
+        <v>326</v>
       </c>
       <c r="C207" s="40" t="s">
         <v>2</v>
@@ -4648,7 +4642,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4657,7 +4651,7 @@
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
       <c r="B209" s="39" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -4666,7 +4660,7 @@
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C210" s="40" t="s">
         <v>2</v>
@@ -4674,8 +4668,8 @@
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
-      <c r="B211" s="39" t="s">
-        <v>323</v>
+      <c r="B211" s="42" t="s">
+        <v>173</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -4684,7 +4678,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4692,8 +4686,8 @@
       <c r="D212" s="40"/>
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
-      <c r="B213" s="42" t="s">
-        <v>173</v>
+      <c r="B213" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4702,7 +4696,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -4710,8 +4704,8 @@
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
-      <c r="B215" s="39" t="s">
-        <v>354</v>
+      <c r="B215" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>2</v>
@@ -4720,7 +4714,7 @@
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -4728,8 +4722,8 @@
       <c r="D216" s="40"/>
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
-      <c r="B217" s="42" t="s">
-        <v>174</v>
+      <c r="B217" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C217" s="40" t="s">
         <v>2</v>
@@ -4738,7 +4732,7 @@
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="C218" s="40" t="s">
         <v>2</v>
@@ -4746,26 +4740,26 @@
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
-      <c r="B219" s="39" t="s">
-        <v>354</v>
+      <c r="B219" s="42" t="s">
+        <v>283</v>
       </c>
       <c r="C219" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>278</v>
+        <v>340</v>
       </c>
       <c r="C220" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D220" s="40"/>
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
-      <c r="B221" s="42" t="s">
-        <v>283</v>
+      <c r="B221" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>14</v>
@@ -4774,43 +4768,43 @@
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
       <c r="B222" s="39" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="C222" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
       <c r="B223" s="39" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="C223" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D223" s="40"/>
+    </row>
+    <row r="224" spans="2:4" s="38" customFormat="1">
+      <c r="B224" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C224" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D223" s="40"/>
-    </row>
-    <row r="224" spans="2:4" s="38" customFormat="1">
-      <c r="B224" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="C224" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D224" s="40"/>
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D225" s="40"/>
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
-      <c r="B226" s="42" t="s">
-        <v>284</v>
+      <c r="B226" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>14</v>
@@ -4819,25 +4813,25 @@
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C227" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D227" s="40"/>
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
       <c r="B228" s="39" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D228" s="40"/>
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
-      <c r="B229" s="39" t="s">
-        <v>293</v>
+      <c r="B229" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="C229" s="40" t="s">
         <v>2</v>
@@ -4846,7 +4840,7 @@
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="C230" s="40" t="s">
         <v>2</v>
@@ -4854,8 +4848,8 @@
       <c r="D230" s="40"/>
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
-      <c r="B231" s="42" t="s">
-        <v>152</v>
+      <c r="B231" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -4864,7 +4858,7 @@
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
       <c r="B232" s="39" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>2</v>
@@ -4873,7 +4867,7 @@
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
       <c r="B233" s="39" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C233" s="40" t="s">
         <v>2</v>
@@ -4881,8 +4875,8 @@
       <c r="D233" s="40"/>
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
-      <c r="B234" s="39" t="s">
-        <v>318</v>
+      <c r="B234" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>2</v>
@@ -4891,7 +4885,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4899,8 +4893,8 @@
       <c r="D235" s="40"/>
     </row>
     <row r="236" spans="2:4" s="38" customFormat="1">
-      <c r="B236" s="42" t="s">
-        <v>153</v>
+      <c r="B236" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C236" s="40" t="s">
         <v>2</v>
@@ -4909,7 +4903,7 @@
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>2</v>
@@ -4917,8 +4911,8 @@
       <c r="D237" s="40"/>
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
-      <c r="B238" s="39" t="s">
-        <v>318</v>
+      <c r="B238" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -4927,7 +4921,7 @@
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
       <c r="B239" s="39" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>2</v>
@@ -4935,8 +4929,8 @@
       <c r="D239" s="40"/>
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
-      <c r="B240" s="42" t="s">
-        <v>154</v>
+      <c r="B240" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>2</v>
@@ -4945,7 +4939,7 @@
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
       <c r="B241" s="39" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -4953,71 +4947,71 @@
       <c r="D241" s="40"/>
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
-      <c r="B242" s="39" t="s">
-        <v>318</v>
+      <c r="B242" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D242" s="40"/>
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C243" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D243" s="40"/>
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
-      <c r="B244" s="42" t="s">
-        <v>155</v>
+      <c r="B244" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="C244" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D244" s="40"/>
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>342</v>
+        <v>277</v>
       </c>
       <c r="C245" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="40"/>
+    </row>
+    <row r="246" spans="2:4" s="38" customFormat="1">
+      <c r="B246" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C246" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D245" s="40"/>
-    </row>
-    <row r="246" spans="2:4" s="38" customFormat="1">
-      <c r="B246" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="C246" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D246" s="40"/>
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D247" s="40"/>
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
-      <c r="B248" s="42" t="s">
-        <v>175</v>
+      <c r="B248" s="39" t="s">
+        <v>282</v>
       </c>
       <c r="C248" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D248" s="40"/>
     </row>
     <row r="249" spans="2:4" s="38" customFormat="1">
-      <c r="B249" s="39" t="s">
-        <v>342</v>
+      <c r="B249" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="C249" s="40" t="s">
         <v>14</v>
@@ -5026,34 +5020,34 @@
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
       <c r="B250" s="39" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D250" s="40"/>
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
-      <c r="B251" s="42" t="s">
-        <v>156</v>
+      <c r="B251" s="39" t="s">
+        <v>279</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D251" s="40"/>
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="C252" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D252" s="40"/>
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
       <c r="B253" s="39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C253" s="40" t="s">
         <v>2</v>
@@ -5061,8 +5055,8 @@
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
-      <c r="B254" s="39" t="s">
-        <v>280</v>
+      <c r="B254" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="C254" s="40" t="s">
         <v>2</v>
@@ -5071,7 +5065,7 @@
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5079,8 +5073,8 @@
       <c r="D255" s="40"/>
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
-      <c r="B256" s="42" t="s">
-        <v>157</v>
+      <c r="B256" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5089,7 +5083,7 @@
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
       <c r="B257" s="39" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="C257" s="40" t="s">
         <v>2</v>
@@ -5097,8 +5091,8 @@
       <c r="D257" s="40"/>
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
-      <c r="B258" s="39" t="s">
-        <v>354</v>
+      <c r="B258" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="C258" s="40" t="s">
         <v>2</v>
@@ -5107,7 +5101,7 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -5115,8 +5109,8 @@
       <c r="D259" s="40"/>
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
-      <c r="B260" s="42" t="s">
-        <v>158</v>
+      <c r="B260" s="39" t="s">
+        <v>350</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>2</v>
@@ -5125,7 +5119,7 @@
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5134,7 +5128,7 @@
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
       <c r="B262" s="39" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="C262" s="40" t="s">
         <v>2</v>
@@ -5142,8 +5136,8 @@
       <c r="D262" s="40"/>
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
-      <c r="B263" s="39" t="s">
-        <v>318</v>
+      <c r="B263" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="C263" s="40" t="s">
         <v>2</v>
@@ -5152,7 +5146,7 @@
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="C264" s="40" t="s">
         <v>2</v>
@@ -5160,8 +5154,8 @@
       <c r="D264" s="40"/>
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
-      <c r="B265" s="42" t="s">
-        <v>159</v>
+      <c r="B265" s="39" t="s">
+        <v>308</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>2</v>
@@ -5170,7 +5164,7 @@
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="C266" s="40" t="s">
         <v>2</v>
@@ -5179,7 +5173,7 @@
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
       <c r="B267" s="39" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="C267" s="40" t="s">
         <v>2</v>
@@ -5187,8 +5181,8 @@
       <c r="D267" s="40"/>
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
-      <c r="B268" s="39" t="s">
-        <v>308</v>
+      <c r="B268" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="C268" s="40" t="s">
         <v>2</v>
@@ -5197,7 +5191,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>2</v>
@@ -5206,7 +5200,7 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5214,8 +5208,8 @@
       <c r="D270" s="40"/>
     </row>
     <row r="271" spans="2:4" s="38" customFormat="1">
-      <c r="B271" s="42" t="s">
-        <v>160</v>
+      <c r="B271" s="39" t="s">
+        <v>296</v>
       </c>
       <c r="C271" s="40" t="s">
         <v>2</v>
@@ -5223,8 +5217,8 @@
       <c r="D271" s="40"/>
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
-      <c r="B272" s="39" t="s">
-        <v>357</v>
+      <c r="B272" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>2</v>
@@ -5233,7 +5227,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5242,7 +5236,7 @@
     </row>
     <row r="274" spans="2:4" s="38" customFormat="1">
       <c r="B274" s="39" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C274" s="40" t="s">
         <v>2</v>
@@ -5250,8 +5244,8 @@
       <c r="D274" s="40"/>
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
-      <c r="B275" s="42" t="s">
-        <v>161</v>
+      <c r="B275" s="39" t="s">
+        <v>295</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5259,8 +5253,8 @@
       <c r="D275" s="40"/>
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
-      <c r="B276" s="39" t="s">
-        <v>355</v>
+      <c r="B276" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5269,7 +5263,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5278,7 +5272,7 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C278" s="40" t="s">
         <v>2</v>
@@ -5286,8 +5280,8 @@
       <c r="D278" s="40"/>
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
-      <c r="B279" s="42" t="s">
-        <v>195</v>
+      <c r="B279" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5296,7 +5290,7 @@
     </row>
     <row r="280" spans="2:4" s="38" customFormat="1">
       <c r="B280" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C280" s="40" t="s">
         <v>2</v>
@@ -5305,7 +5299,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5314,7 +5308,7 @@
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
       <c r="B282" s="39" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C282" s="40" t="s">
         <v>2</v>
@@ -5322,8 +5316,8 @@
       <c r="D282" s="40"/>
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
-      <c r="B283" s="39" t="s">
-        <v>311</v>
+      <c r="B283" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="C283" s="40" t="s">
         <v>2</v>
@@ -5332,7 +5326,7 @@
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
       <c r="B284" s="39" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="C284" s="40" t="s">
         <v>2</v>
@@ -5341,7 +5335,7 @@
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
       <c r="B285" s="39" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5349,8 +5343,8 @@
       <c r="D285" s="40"/>
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
-      <c r="B286" s="42" t="s">
-        <v>162</v>
+      <c r="B286" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5359,7 +5353,7 @@
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
       <c r="B287" s="39" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5367,8 +5361,8 @@
       <c r="D287" s="40"/>
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
-      <c r="B288" s="39" t="s">
-        <v>309</v>
+      <c r="B288" s="42" t="s">
+        <v>176</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5377,7 +5371,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5386,7 +5380,7 @@
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
       <c r="B290" s="39" t="s">
-        <v>354</v>
+        <v>271</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5395,7 +5389,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -5404,7 +5398,7 @@
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
       <c r="B292" s="42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -5413,7 +5407,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5422,7 +5416,7 @@
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
       <c r="B294" s="39" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>2</v>
@@ -5431,7 +5425,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -5440,7 +5434,7 @@
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
       <c r="B296" s="42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -5449,7 +5443,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5458,7 +5452,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5467,7 +5461,7 @@
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
       <c r="B299" s="39" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C299" s="40" t="s">
         <v>2</v>
@@ -5475,8 +5469,8 @@
       <c r="D299" s="40"/>
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
-      <c r="B300" s="42" t="s">
-        <v>178</v>
+      <c r="B300" s="39" t="s">
+        <v>324</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -5484,8 +5478,8 @@
       <c r="D300" s="40"/>
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
-      <c r="B301" s="39" t="s">
-        <v>331</v>
+      <c r="B301" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -5494,7 +5488,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5503,7 +5497,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5512,7 +5506,7 @@
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="39" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -5520,8 +5514,8 @@
       <c r="D304" s="40"/>
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
-      <c r="B305" s="42" t="s">
-        <v>179</v>
+      <c r="B305" s="39" t="s">
+        <v>274</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -5529,8 +5523,8 @@
       <c r="D305" s="40"/>
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
-      <c r="B306" s="39" t="s">
-        <v>333</v>
+      <c r="B306" s="42" t="s">
+        <v>336</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>2</v>
@@ -5539,7 +5533,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5548,16 +5542,16 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="39" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="C308" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D308" s="40"/>
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
       <c r="B309" s="39" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -5566,7 +5560,7 @@
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
       <c r="B310" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>2</v>
@@ -5575,7 +5569,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5584,7 +5578,7 @@
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
       <c r="B312" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C312" s="40" t="s">
         <v>14</v>
@@ -5602,7 +5596,7 @@
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
       <c r="B314" s="42" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>2</v>
@@ -5611,7 +5605,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5620,16 +5614,16 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D316" s="40"/>
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
       <c r="B317" s="39" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>2</v>
@@ -5637,8 +5631,8 @@
       <c r="D317" s="40"/>
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
-      <c r="B318" s="42" t="s">
-        <v>163</v>
+      <c r="B318" s="39" t="s">
+        <v>258</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>2</v>
@@ -5646,26 +5640,26 @@
       <c r="D318" s="40"/>
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
-      <c r="B319" s="39" t="s">
-        <v>349</v>
+      <c r="B319" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="C319" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D319" s="40"/>
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="39" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C320" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D320" s="40"/>
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>2</v>
@@ -5673,17 +5667,17 @@
       <c r="D321" s="40"/>
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
-      <c r="B322" s="39" t="s">
-        <v>258</v>
+      <c r="B322" s="42" t="s">
+        <v>287</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D322" s="40"/>
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
-      <c r="B323" s="42" t="s">
-        <v>196</v>
+      <c r="B323" s="39" t="s">
+        <v>340</v>
       </c>
       <c r="C323" s="40" t="s">
         <v>14</v>
@@ -5692,16 +5686,16 @@
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
       <c r="B324" s="39" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="C324" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D324" s="40"/>
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C325" s="40" t="s">
         <v>2</v>
@@ -5710,7 +5704,7 @@
     </row>
     <row r="326" spans="2:4" s="38" customFormat="1">
       <c r="B326" s="42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C326" s="40" t="s">
         <v>14</v>
@@ -5719,7 +5713,7 @@
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C327" s="40" t="s">
         <v>14</v>
@@ -5728,7 +5722,7 @@
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
       <c r="B328" s="39" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C328" s="40" t="s">
         <v>2</v>
@@ -5737,7 +5731,7 @@
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C329" s="40" t="s">
         <v>2</v>
@@ -5746,7 +5740,7 @@
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
       <c r="B330" s="42" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="C330" s="40" t="s">
         <v>14</v>
@@ -5755,7 +5749,7 @@
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
       <c r="B331" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C331" s="40" t="s">
         <v>14</v>
@@ -5764,7 +5758,7 @@
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
       <c r="B332" s="39" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="C332" s="40" t="s">
         <v>2</v>
@@ -5773,7 +5767,7 @@
     </row>
     <row r="333" spans="2:4" s="38" customFormat="1">
       <c r="B333" s="39" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C333" s="40" t="s">
         <v>2</v>
@@ -5781,44 +5775,34 @@
       <c r="D333" s="40"/>
     </row>
     <row r="334" spans="2:4" s="38" customFormat="1">
-      <c r="B334" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C334" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B334" s="41"/>
+      <c r="C334" s="40"/>
       <c r="D334" s="40"/>
     </row>
     <row r="335" spans="2:4" s="38" customFormat="1">
-      <c r="B335" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="C335" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B335" s="41"/>
+      <c r="C335" s="40"/>
       <c r="D335" s="40"/>
     </row>
     <row r="336" spans="2:4" s="38" customFormat="1">
-      <c r="B336" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C336" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B336" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C336" s="40"/>
       <c r="D336" s="40"/>
     </row>
     <row r="337" spans="2:4" s="38" customFormat="1">
-      <c r="B337" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C337" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B337" s="41"/>
+      <c r="C337" s="40"/>
       <c r="D337" s="40"/>
     </row>
     <row r="338" spans="2:4" s="38" customFormat="1">
-      <c r="B338" s="41"/>
-      <c r="C338" s="40"/>
+      <c r="B338" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C338" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D338" s="40"/>
     </row>
     <row r="339" spans="2:4" s="38" customFormat="1">
@@ -5827,20 +5811,26 @@
       <c r="D339" s="40"/>
     </row>
     <row r="340" spans="2:4" s="38" customFormat="1">
-      <c r="B340" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C340" s="40"/>
+      <c r="B340" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C340" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D340" s="40"/>
     </row>
     <row r="341" spans="2:4" s="38" customFormat="1">
-      <c r="B341" s="41"/>
-      <c r="C341" s="40"/>
+      <c r="B341" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C341" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D341" s="40"/>
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
-      <c r="B342" s="41" t="s">
-        <v>82</v>
+      <c r="B342" s="43" t="s">
+        <v>313</v>
       </c>
       <c r="C342" s="40" t="s">
         <v>2</v>
@@ -5848,13 +5838,17 @@
       <c r="D342" s="40"/>
     </row>
     <row r="343" spans="2:4" s="38" customFormat="1">
-      <c r="B343" s="41"/>
-      <c r="C343" s="40"/>
+      <c r="B343" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C343" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D343" s="40"/>
     </row>
     <row r="344" spans="2:4" s="38" customFormat="1">
-      <c r="B344" s="42" t="s">
-        <v>27</v>
+      <c r="B344" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="C344" s="40" t="s">
         <v>2</v>
@@ -5862,17 +5856,13 @@
       <c r="D344" s="40"/>
     </row>
     <row r="345" spans="2:4" s="38" customFormat="1">
-      <c r="B345" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C345" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B345" s="39"/>
+      <c r="C345" s="40"/>
       <c r="D345" s="40"/>
     </row>
     <row r="346" spans="2:4" s="38" customFormat="1">
-      <c r="B346" s="43" t="s">
-        <v>314</v>
+      <c r="B346" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C346" s="40" t="s">
         <v>2</v>
@@ -5880,31 +5870,31 @@
       <c r="D346" s="40"/>
     </row>
     <row r="347" spans="2:4" s="38" customFormat="1">
-      <c r="B347" s="39" t="s">
-        <v>54</v>
+      <c r="B347" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="C347" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D347" s="40"/>
     </row>
     <row r="348" spans="2:4" s="38" customFormat="1">
-      <c r="B348" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="C348" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B348" s="41"/>
+      <c r="C348" s="40"/>
       <c r="D348" s="40"/>
     </row>
     <row r="349" spans="2:4" s="38" customFormat="1">
-      <c r="B349" s="39"/>
-      <c r="C349" s="40"/>
+      <c r="B349" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C349" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D349" s="40"/>
     </row>
     <row r="350" spans="2:4" s="38" customFormat="1">
-      <c r="B350" s="39" t="s">
-        <v>29</v>
+      <c r="B350" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C350" s="40" t="s">
         <v>2</v>
@@ -5912,22 +5902,22 @@
       <c r="D350" s="40"/>
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
-      <c r="B351" s="43" t="s">
+      <c r="B351" s="39"/>
+      <c r="C351" s="40"/>
+      <c r="D351" s="40"/>
+    </row>
+    <row r="352" spans="2:4" s="38" customFormat="1">
+      <c r="B352" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C352" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D352" s="40"/>
+    </row>
+    <row r="353" spans="2:4" s="38" customFormat="1">
+      <c r="B353" s="43" t="s">
         <v>316</v>
-      </c>
-      <c r="C351" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D351" s="40"/>
-    </row>
-    <row r="352" spans="2:4" s="38" customFormat="1">
-      <c r="B352" s="41"/>
-      <c r="C352" s="40"/>
-      <c r="D352" s="40"/>
-    </row>
-    <row r="353" spans="2:4" s="38" customFormat="1">
-      <c r="B353" s="39" t="s">
-        <v>36</v>
       </c>
       <c r="C353" s="40" t="s">
         <v>2</v>
@@ -5936,39 +5926,39 @@
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
       <c r="B354" s="43" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D354" s="40"/>
     </row>
     <row r="355" spans="2:4" s="38" customFormat="1">
-      <c r="B355" s="39"/>
-      <c r="C355" s="40"/>
+      <c r="B355" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C355" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D355" s="40"/>
     </row>
     <row r="356" spans="2:4" s="38" customFormat="1">
-      <c r="B356" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C356" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B356" s="41"/>
+      <c r="C356" s="40"/>
       <c r="D356" s="40"/>
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
-      <c r="B357" s="43" t="s">
-        <v>317</v>
+      <c r="B357" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="C357" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D357" s="40"/>
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
       <c r="B358" s="43" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C358" s="40" t="s">
         <v>14</v>
@@ -5977,7 +5967,7 @@
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
       <c r="B359" s="43" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C359" s="40" t="s">
         <v>14</v>
@@ -5985,22 +5975,22 @@
       <c r="D359" s="40"/>
     </row>
     <row r="360" spans="2:4" s="38" customFormat="1">
-      <c r="B360" s="41"/>
-      <c r="C360" s="40"/>
+      <c r="B360" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C360" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D360" s="40"/>
     </row>
     <row r="361" spans="2:4" s="38" customFormat="1">
-      <c r="B361" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C361" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B361" s="41"/>
+      <c r="C361" s="40"/>
       <c r="D361" s="40"/>
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
-      <c r="B362" s="43" t="s">
-        <v>40</v>
+      <c r="B362" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C362" s="40" t="s">
         <v>14</v>
@@ -6009,7 +5999,7 @@
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
       <c r="B363" s="43" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C363" s="40" t="s">
         <v>14</v>
@@ -6017,31 +6007,27 @@
       <c r="D363" s="40"/>
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
-      <c r="B364" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C364" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B364" s="41"/>
+      <c r="C364" s="40"/>
       <c r="D364" s="40"/>
     </row>
     <row r="365" spans="2:4" s="38" customFormat="1">
-      <c r="B365" s="41"/>
-      <c r="C365" s="40"/>
+      <c r="B365" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C365" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D365" s="40"/>
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
-      <c r="B366" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C366" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B366" s="39"/>
+      <c r="C366" s="40"/>
       <c r="D366" s="40"/>
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
-      <c r="B367" s="43" t="s">
-        <v>79</v>
+      <c r="B367" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>14</v>
@@ -6049,59 +6035,63 @@
       <c r="D367" s="40"/>
     </row>
     <row r="368" spans="2:4" s="38" customFormat="1">
-      <c r="B368" s="41"/>
-      <c r="C368" s="40"/>
+      <c r="B368" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C368" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D368" s="40"/>
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
-      <c r="B369" s="39" t="s">
-        <v>42</v>
+      <c r="B369" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C369" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D369" s="40"/>
     </row>
     <row r="370" spans="2:4" s="38" customFormat="1">
-      <c r="B370" s="39"/>
+      <c r="B370" s="41"/>
       <c r="C370" s="40"/>
       <c r="D370" s="40"/>
     </row>
     <row r="371" spans="2:4" s="38" customFormat="1">
-      <c r="B371" s="42" t="s">
-        <v>28</v>
+      <c r="B371" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="C371" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D371" s="40"/>
     </row>
     <row r="372" spans="2:4" s="38" customFormat="1">
       <c r="B372" s="39" t="s">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="C372" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D372" s="40"/>
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
-      <c r="B373" s="43" t="s">
-        <v>80</v>
+      <c r="B373" s="39" t="s">
+        <v>365</v>
       </c>
       <c r="C373" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D373" s="40"/>
     </row>
     <row r="374" spans="2:4" s="38" customFormat="1">
-      <c r="B374" s="41"/>
+      <c r="B374" s="39"/>
       <c r="C374" s="40"/>
       <c r="D374" s="40"/>
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
-      <c r="B375" s="39" t="s">
-        <v>365</v>
+      <c r="B375" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="C375" s="40" t="s">
         <v>2</v>
@@ -6110,7 +6100,7 @@
     </row>
     <row r="376" spans="2:4" s="38" customFormat="1">
       <c r="B376" s="39" t="s">
-        <v>366</v>
+        <v>59</v>
       </c>
       <c r="C376" s="40" t="s">
         <v>2</v>
@@ -6119,98 +6109,98 @@
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
       <c r="B377" s="39" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C377" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D377" s="40"/>
     </row>
     <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="39"/>
-      <c r="C378" s="40"/>
+      <c r="B378" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C378" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D378" s="40"/>
     </row>
     <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="42" t="s">
-        <v>58</v>
+      <c r="B379" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="C379" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D379" s="40"/>
     </row>
     <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C380" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B380" s="39"/>
+      <c r="C380" s="40"/>
       <c r="D380" s="40"/>
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
-      <c r="B381" s="39" t="s">
-        <v>358</v>
+      <c r="B381" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="C381" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
       <c r="B382" s="39" t="s">
-        <v>61</v>
+        <v>362</v>
       </c>
       <c r="C382" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D382" s="40"/>
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
       <c r="B383" s="39" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="C383" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D383" s="40"/>
+    </row>
+    <row r="384" spans="2:4" s="38" customFormat="1">
+      <c r="B384" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="C384" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D383" s="40"/>
-    </row>
-    <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="39"/>
-      <c r="C384" s="40"/>
       <c r="D384" s="40"/>
     </row>
     <row r="385" spans="2:4" s="38" customFormat="1">
-      <c r="B385" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="C385" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B385" s="39"/>
+      <c r="C385" s="40"/>
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
-      <c r="B386" s="39" t="s">
-        <v>364</v>
+      <c r="B386" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="C386" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
       <c r="B387" s="39" t="s">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="C387" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D387" s="40"/>
     </row>
     <row r="388" spans="2:4" s="38" customFormat="1">
       <c r="B388" s="39" t="s">
-        <v>369</v>
+        <v>138</v>
       </c>
       <c r="C388" s="40" t="s">
         <v>14</v>
@@ -6218,35 +6208,25 @@
       <c r="D388" s="40"/>
     </row>
     <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="39"/>
+      <c r="B389" s="41"/>
       <c r="C389" s="40"/>
       <c r="D389" s="40"/>
     </row>
     <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C390" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B390" s="41"/>
+      <c r="C390" s="40"/>
       <c r="D390" s="40"/>
     </row>
     <row r="391" spans="2:4" s="38" customFormat="1">
-      <c r="B391" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C391" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B391" s="41"/>
+      <c r="C391" s="40"/>
       <c r="D391" s="40"/>
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C392" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B392" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="C392" s="40"/>
       <c r="D392" s="40"/>
     </row>
     <row r="393" spans="2:4" s="38" customFormat="1">
@@ -6255,20 +6235,30 @@
       <c r="D393" s="40"/>
     </row>
     <row r="394" spans="2:4" s="38" customFormat="1">
-      <c r="B394" s="41"/>
-      <c r="C394" s="40"/>
+      <c r="B394" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C394" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D394" s="40"/>
     </row>
     <row r="395" spans="2:4" s="38" customFormat="1">
-      <c r="B395" s="41"/>
-      <c r="C395" s="40"/>
+      <c r="B395" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C395" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D395" s="40"/>
     </row>
     <row r="396" spans="2:4" s="38" customFormat="1">
-      <c r="B396" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C396" s="40"/>
+      <c r="B396" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C396" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D396" s="40"/>
     </row>
     <row r="397" spans="2:4" s="38" customFormat="1">
@@ -6277,30 +6267,18 @@
       <c r="D397" s="40"/>
     </row>
     <row r="398" spans="2:4" s="38" customFormat="1">
-      <c r="B398" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="C398" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B398" s="41"/>
+      <c r="C398" s="40"/>
       <c r="D398" s="40"/>
     </row>
     <row r="399" spans="2:4" s="38" customFormat="1">
-      <c r="B399" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="C399" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B399" s="41"/>
+      <c r="C399" s="40"/>
       <c r="D399" s="40"/>
     </row>
     <row r="400" spans="2:4" s="38" customFormat="1">
-      <c r="B400" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="C400" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B400" s="41"/>
+      <c r="C400" s="40"/>
       <c r="D400" s="40"/>
     </row>
     <row r="401" spans="2:4" s="38" customFormat="1">
@@ -6349,85 +6327,101 @@
       <c r="D409" s="40"/>
     </row>
     <row r="410" spans="2:4" s="38" customFormat="1">
-      <c r="B410" s="41"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="40"/>
       <c r="D410" s="40"/>
     </row>
-    <row r="411" spans="2:4" s="38" customFormat="1">
-      <c r="B411" s="41"/>
+    <row r="411" spans="2:4">
       <c r="C411" s="40"/>
-      <c r="D411" s="40"/>
-    </row>
-    <row r="412" spans="2:4" s="38" customFormat="1">
-      <c r="B412" s="41"/>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="B412" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="C412" s="40"/>
-      <c r="D412" s="40"/>
-    </row>
-    <row r="413" spans="2:4" s="38" customFormat="1">
-      <c r="B413" s="41"/>
-      <c r="C413" s="40"/>
-      <c r="D413" s="40"/>
-    </row>
-    <row r="414" spans="2:4" s="38" customFormat="1">
-      <c r="B414" s="39"/>
-      <c r="C414" s="40"/>
-      <c r="D414" s="40"/>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="B414" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C414" s="40" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="415" spans="2:4">
-      <c r="C415" s="40"/>
+      <c r="B415" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C415" s="40" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="416" spans="2:4">
-      <c r="B416" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C416" s="40"/>
+      <c r="B416" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C416" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4">
+      <c r="B417" s="44"/>
+      <c r="C417" s="40"/>
     </row>
     <row r="418" spans="2:4">
-      <c r="B418" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C418" s="40" t="s">
+      <c r="C418" s="40"/>
+    </row>
+    <row r="420" spans="2:4" s="38" customFormat="1">
+      <c r="B420" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C420" s="40"/>
+      <c r="D420" s="40"/>
+    </row>
+    <row r="421" spans="2:4" s="38" customFormat="1">
+      <c r="B421" s="41"/>
+      <c r="C421" s="40"/>
+      <c r="D421" s="40"/>
+    </row>
+    <row r="422" spans="2:4" s="38" customFormat="1">
+      <c r="B422" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C422" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="419" spans="2:4">
-      <c r="B419" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C419" s="40" t="s">
+      <c r="D422" s="40"/>
+    </row>
+    <row r="423" spans="2:4" s="38" customFormat="1">
+      <c r="B423" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C423" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="420" spans="2:4">
-      <c r="B420" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C420" s="40" t="s">
+      <c r="D423" s="40"/>
+    </row>
+    <row r="424" spans="2:4" s="38" customFormat="1">
+      <c r="B424" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C424" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="421" spans="2:4">
-      <c r="B421" s="44"/>
-      <c r="C421" s="40"/>
-    </row>
-    <row r="422" spans="2:4">
-      <c r="C422" s="40"/>
-    </row>
-    <row r="424" spans="2:4" s="38" customFormat="1">
-      <c r="B424" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C424" s="40"/>
       <c r="D424" s="40"/>
     </row>
     <row r="425" spans="2:4" s="38" customFormat="1">
-      <c r="B425" s="41"/>
-      <c r="C425" s="40"/>
+      <c r="B425" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D425" s="40"/>
     </row>
     <row r="426" spans="2:4" s="38" customFormat="1">
       <c r="B426" s="41" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C426" s="40" t="s">
         <v>14</v>
@@ -6435,17 +6429,13 @@
       <c r="D426" s="40"/>
     </row>
     <row r="427" spans="2:4" s="38" customFormat="1">
-      <c r="B427" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C427" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B427" s="41"/>
+      <c r="C427" s="40"/>
       <c r="D427" s="40"/>
     </row>
     <row r="428" spans="2:4" s="38" customFormat="1">
       <c r="B428" s="41" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C428" s="40" t="s">
         <v>14</v>
@@ -6453,8 +6443,8 @@
       <c r="D428" s="40"/>
     </row>
     <row r="429" spans="2:4" s="38" customFormat="1">
-      <c r="B429" s="41" t="s">
-        <v>132</v>
+      <c r="B429" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C429" s="40" t="s">
         <v>14</v>
@@ -6462,8 +6452,8 @@
       <c r="D429" s="40"/>
     </row>
     <row r="430" spans="2:4" s="38" customFormat="1">
-      <c r="B430" s="41" t="s">
-        <v>133</v>
+      <c r="B430" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="C430" s="40" t="s">
         <v>14</v>
@@ -6471,22 +6461,22 @@
       <c r="D430" s="40"/>
     </row>
     <row r="431" spans="2:4" s="38" customFormat="1">
-      <c r="B431" s="41"/>
-      <c r="C431" s="40"/>
+      <c r="B431" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C431" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D431" s="40"/>
     </row>
     <row r="432" spans="2:4" s="38" customFormat="1">
-      <c r="B432" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C432" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B432" s="39"/>
+      <c r="C432" s="40"/>
       <c r="D432" s="40"/>
     </row>
     <row r="433" spans="2:4" s="38" customFormat="1">
-      <c r="B433" s="39" t="s">
-        <v>99</v>
+      <c r="B433" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="C433" s="40" t="s">
         <v>14</v>
@@ -6494,17 +6484,13 @@
       <c r="D433" s="40"/>
     </row>
     <row r="434" spans="2:4" s="38" customFormat="1">
-      <c r="B434" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C434" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B434" s="41"/>
+      <c r="C434" s="40"/>
       <c r="D434" s="40"/>
     </row>
     <row r="435" spans="2:4" s="38" customFormat="1">
-      <c r="B435" s="39" t="s">
-        <v>98</v>
+      <c r="B435" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="C435" s="40" t="s">
         <v>14</v>
@@ -6512,17 +6498,13 @@
       <c r="D435" s="40"/>
     </row>
     <row r="436" spans="2:4" s="38" customFormat="1">
-      <c r="B436" s="39"/>
+      <c r="B436" s="41"/>
       <c r="C436" s="40"/>
       <c r="D436" s="40"/>
     </row>
     <row r="437" spans="2:4" s="38" customFormat="1">
-      <c r="B437" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C437" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B437" s="41"/>
+      <c r="C437" s="40"/>
       <c r="D437" s="40"/>
     </row>
     <row r="438" spans="2:4" s="38" customFormat="1">
@@ -6531,12 +6513,10 @@
       <c r="D438" s="40"/>
     </row>
     <row r="439" spans="2:4" s="38" customFormat="1">
-      <c r="B439" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C439" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B439" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C439" s="40"/>
       <c r="D439" s="40"/>
     </row>
     <row r="440" spans="2:4" s="38" customFormat="1">
@@ -6545,39 +6525,53 @@
       <c r="D440" s="40"/>
     </row>
     <row r="441" spans="2:4" s="38" customFormat="1">
-      <c r="B441" s="41"/>
-      <c r="C441" s="40"/>
+      <c r="B441" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D441" s="40"/>
     </row>
     <row r="442" spans="2:4" s="38" customFormat="1">
-      <c r="B442" s="41"/>
-      <c r="C442" s="40"/>
+      <c r="B442" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D442" s="40"/>
     </row>
     <row r="443" spans="2:4" s="38" customFormat="1">
-      <c r="B443" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C443" s="40"/>
+      <c r="B443" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C443" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D443" s="40"/>
     </row>
     <row r="444" spans="2:4" s="38" customFormat="1">
-      <c r="B444" s="41"/>
-      <c r="C444" s="40"/>
+      <c r="B444" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C444" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D444" s="40"/>
     </row>
     <row r="445" spans="2:4" s="38" customFormat="1">
-      <c r="B445" s="41" t="s">
-        <v>96</v>
+      <c r="B445" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="C445" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D445" s="40"/>
     </row>
     <row r="446" spans="2:4" s="38" customFormat="1">
       <c r="B446" s="41" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C446" s="40" t="s">
         <v>14</v>
@@ -6586,7 +6580,7 @@
     </row>
     <row r="447" spans="2:4" s="38" customFormat="1">
       <c r="B447" s="41" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C447" s="40" t="s">
         <v>14</v>
@@ -6595,92 +6589,92 @@
     </row>
     <row r="448" spans="2:4" s="38" customFormat="1">
       <c r="B448" s="41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C448" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D448" s="40"/>
     </row>
     <row r="449" spans="2:4" s="38" customFormat="1">
-      <c r="B449" s="39" t="s">
-        <v>320</v>
+      <c r="B449" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="C449" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D449" s="40"/>
     </row>
     <row r="450" spans="2:4" s="38" customFormat="1">
-      <c r="B450" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="C450" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B450" s="41"/>
+      <c r="C450" s="40"/>
       <c r="D450" s="40"/>
     </row>
     <row r="451" spans="2:4" s="38" customFormat="1">
-      <c r="B451" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C451" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B451" s="41"/>
+      <c r="C451" s="40"/>
       <c r="D451" s="40"/>
     </row>
     <row r="452" spans="2:4" s="38" customFormat="1">
-      <c r="B452" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C452" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B452" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C452" s="40"/>
       <c r="D452" s="40"/>
     </row>
     <row r="453" spans="2:4" s="38" customFormat="1">
-      <c r="B453" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C453" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B453" s="41"/>
+      <c r="C453" s="40"/>
       <c r="D453" s="40"/>
     </row>
     <row r="454" spans="2:4" s="38" customFormat="1">
       <c r="B454" s="41" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C454" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D454" s="40"/>
     </row>
     <row r="455" spans="2:4" s="38" customFormat="1">
-      <c r="B455" s="41"/>
-      <c r="C455" s="40"/>
+      <c r="B455" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C455" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D455" s="40"/>
     </row>
     <row r="456" spans="2:4" s="38" customFormat="1">
-      <c r="B456" s="41"/>
-      <c r="C456" s="40"/>
+      <c r="B456" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C456" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D456" s="40"/>
     </row>
     <row r="457" spans="2:4" s="38" customFormat="1">
-      <c r="B457" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C457" s="40"/>
+      <c r="B457" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C457" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D457" s="40"/>
     </row>
     <row r="458" spans="2:4" s="38" customFormat="1">
-      <c r="B458" s="41"/>
-      <c r="C458" s="40"/>
+      <c r="B458" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C458" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D458" s="40"/>
     </row>
     <row r="459" spans="2:4" s="38" customFormat="1">
       <c r="B459" s="41" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C459" s="40" t="s">
         <v>2</v>
@@ -6689,7 +6683,7 @@
     </row>
     <row r="460" spans="2:4" s="38" customFormat="1">
       <c r="B460" s="41" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="C460" s="40" t="s">
         <v>2</v>
@@ -6698,7 +6692,7 @@
     </row>
     <row r="461" spans="2:4" s="38" customFormat="1">
       <c r="B461" s="41" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C461" s="40" t="s">
         <v>2</v>
@@ -6707,7 +6701,7 @@
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
       <c r="B462" s="41" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -6716,7 +6710,7 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C463" s="40" t="s">
         <v>2</v>
@@ -6725,7 +6719,7 @@
     </row>
     <row r="464" spans="2:4" s="38" customFormat="1">
       <c r="B464" s="41" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C464" s="40" t="s">
         <v>2</v>
@@ -6734,7 +6728,7 @@
     </row>
     <row r="465" spans="2:4" s="38" customFormat="1">
       <c r="B465" s="41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C465" s="40" t="s">
         <v>2</v>
@@ -6743,7 +6737,7 @@
     </row>
     <row r="466" spans="2:4" s="38" customFormat="1">
       <c r="B466" s="41" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C466" s="40" t="s">
         <v>2</v>
@@ -6752,7 +6746,7 @@
     </row>
     <row r="467" spans="2:4" s="38" customFormat="1">
       <c r="B467" s="41" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C467" s="40" t="s">
         <v>2</v>
@@ -6761,7 +6755,7 @@
     </row>
     <row r="468" spans="2:4" s="38" customFormat="1">
       <c r="B468" s="41" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C468" s="40" t="s">
         <v>2</v>
@@ -6770,7 +6764,7 @@
     </row>
     <row r="469" spans="2:4" s="38" customFormat="1">
       <c r="B469" s="41" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C469" s="40" t="s">
         <v>2</v>
@@ -6779,7 +6773,7 @@
     </row>
     <row r="470" spans="2:4" s="38" customFormat="1">
       <c r="B470" s="41" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C470" s="40" t="s">
         <v>2</v>
@@ -6788,7 +6782,7 @@
     </row>
     <row r="471" spans="2:4" s="38" customFormat="1">
       <c r="B471" s="41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C471" s="40" t="s">
         <v>2</v>
@@ -6797,7 +6791,7 @@
     </row>
     <row r="472" spans="2:4" s="38" customFormat="1">
       <c r="B472" s="41" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C472" s="40" t="s">
         <v>2</v>
@@ -6806,7 +6800,7 @@
     </row>
     <row r="473" spans="2:4" s="38" customFormat="1">
       <c r="B473" s="41" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C473" s="40" t="s">
         <v>2</v>
@@ -6815,7 +6809,7 @@
     </row>
     <row r="474" spans="2:4" s="38" customFormat="1">
       <c r="B474" s="41" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C474" s="40" t="s">
         <v>2</v>
@@ -6824,7 +6818,7 @@
     </row>
     <row r="475" spans="2:4" s="38" customFormat="1">
       <c r="B475" s="41" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C475" s="40" t="s">
         <v>2</v>
@@ -6833,7 +6827,7 @@
     </row>
     <row r="476" spans="2:4" s="38" customFormat="1">
       <c r="B476" s="41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C476" s="40" t="s">
         <v>2</v>
@@ -6842,7 +6836,7 @@
     </row>
     <row r="477" spans="2:4" s="38" customFormat="1">
       <c r="B477" s="41" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C477" s="40" t="s">
         <v>2</v>
@@ -6851,7 +6845,7 @@
     </row>
     <row r="478" spans="2:4" s="38" customFormat="1">
       <c r="B478" s="41" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="C478" s="40" t="s">
         <v>2</v>
@@ -6860,7 +6854,7 @@
     </row>
     <row r="479" spans="2:4" s="38" customFormat="1">
       <c r="B479" s="41" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="C479" s="40" t="s">
         <v>2</v>
@@ -6869,7 +6863,7 @@
     </row>
     <row r="480" spans="2:4" s="38" customFormat="1">
       <c r="B480" s="41" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C480" s="40" t="s">
         <v>2</v>
@@ -6878,7 +6872,7 @@
     </row>
     <row r="481" spans="2:4" s="38" customFormat="1">
       <c r="B481" s="41" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C481" s="40" t="s">
         <v>2</v>
@@ -6887,7 +6881,7 @@
     </row>
     <row r="482" spans="2:4" s="38" customFormat="1">
       <c r="B482" s="41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C482" s="40" t="s">
         <v>2</v>
@@ -6896,7 +6890,7 @@
     </row>
     <row r="483" spans="2:4" s="38" customFormat="1">
       <c r="B483" s="41" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="C483" s="40" t="s">
         <v>2</v>
@@ -6905,7 +6899,7 @@
     </row>
     <row r="484" spans="2:4" s="38" customFormat="1">
       <c r="B484" s="41" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="C484" s="40" t="s">
         <v>2</v>
@@ -6914,7 +6908,7 @@
     </row>
     <row r="485" spans="2:4" s="38" customFormat="1">
       <c r="B485" s="41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C485" s="40" t="s">
         <v>2</v>
@@ -6923,7 +6917,7 @@
     </row>
     <row r="486" spans="2:4" s="38" customFormat="1">
       <c r="B486" s="41" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C486" s="40" t="s">
         <v>2</v>
@@ -6932,7 +6926,7 @@
     </row>
     <row r="487" spans="2:4" s="38" customFormat="1">
       <c r="B487" s="41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C487" s="40" t="s">
         <v>2</v>
@@ -6941,7 +6935,7 @@
     </row>
     <row r="488" spans="2:4" s="38" customFormat="1">
       <c r="B488" s="41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C488" s="40" t="s">
         <v>2</v>
@@ -6950,7 +6944,7 @@
     </row>
     <row r="489" spans="2:4" s="38" customFormat="1">
       <c r="B489" s="41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C489" s="40" t="s">
         <v>2</v>
@@ -6959,7 +6953,7 @@
     </row>
     <row r="490" spans="2:4" s="38" customFormat="1">
       <c r="B490" s="41" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C490" s="40" t="s">
         <v>2</v>
@@ -6968,7 +6962,7 @@
     </row>
     <row r="491" spans="2:4" s="38" customFormat="1">
       <c r="B491" s="41" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C491" s="40" t="s">
         <v>2</v>
@@ -6977,7 +6971,7 @@
     </row>
     <row r="492" spans="2:4" s="38" customFormat="1">
       <c r="B492" s="41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C492" s="40" t="s">
         <v>2</v>
@@ -6986,7 +6980,7 @@
     </row>
     <row r="493" spans="2:4" s="38" customFormat="1">
       <c r="B493" s="41" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C493" s="40" t="s">
         <v>2</v>
@@ -6995,7 +6989,7 @@
     </row>
     <row r="494" spans="2:4" s="38" customFormat="1">
       <c r="B494" s="41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C494" s="40" t="s">
         <v>2</v>
@@ -7004,7 +6998,7 @@
     </row>
     <row r="495" spans="2:4" s="38" customFormat="1">
       <c r="B495" s="41" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C495" s="40" t="s">
         <v>2</v>
@@ -7013,7 +7007,7 @@
     </row>
     <row r="496" spans="2:4" s="38" customFormat="1">
       <c r="B496" s="41" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C496" s="40" t="s">
         <v>2</v>
@@ -7022,7 +7016,7 @@
     </row>
     <row r="497" spans="1:4" s="38" customFormat="1">
       <c r="B497" s="41" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C497" s="40" t="s">
         <v>2</v>
@@ -7031,7 +7025,7 @@
     </row>
     <row r="498" spans="1:4" s="38" customFormat="1">
       <c r="B498" s="41" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="C498" s="40" t="s">
         <v>2</v>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="499" spans="1:4" s="38" customFormat="1">
       <c r="B499" s="41" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="C499" s="40" t="s">
         <v>2</v>
@@ -7049,7 +7043,7 @@
     </row>
     <row r="500" spans="1:4" s="38" customFormat="1">
       <c r="B500" s="41" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C500" s="40" t="s">
         <v>2</v>
@@ -7057,126 +7051,81 @@
       <c r="D500" s="40"/>
     </row>
     <row r="501" spans="1:4" s="38" customFormat="1">
-      <c r="B501" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="C501" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B501" s="41"/>
+      <c r="C501" s="40"/>
       <c r="D501" s="40"/>
     </row>
     <row r="502" spans="1:4" s="38" customFormat="1">
-      <c r="B502" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C502" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B502" s="41"/>
+      <c r="C502" s="40"/>
       <c r="D502" s="40"/>
     </row>
-    <row r="503" spans="1:4" s="38" customFormat="1">
-      <c r="B503" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="C503" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D503" s="40"/>
-    </row>
-    <row r="504" spans="1:4" s="38" customFormat="1">
-      <c r="B504" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C504" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D504" s="40"/>
-    </row>
-    <row r="505" spans="1:4" s="38" customFormat="1">
-      <c r="B505" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="C505" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D505" s="40"/>
-    </row>
-    <row r="506" spans="1:4" s="38" customFormat="1">
-      <c r="B506" s="41"/>
-      <c r="C506" s="40"/>
-      <c r="D506" s="40"/>
-    </row>
-    <row r="507" spans="1:4" s="38" customFormat="1">
-      <c r="B507" s="41"/>
-      <c r="C507" s="40"/>
-      <c r="D507" s="40"/>
+    <row r="503" spans="1:4">
+      <c r="A503" s="37"/>
+      <c r="B503" s="45"/>
+      <c r="C503" s="45"/>
+      <c r="D503" s="37"/>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="37"/>
+      <c r="B504" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C504" s="38">
+        <f>COUNTIF(C5:C503,"y")</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="37"/>
+      <c r="B505" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C505" s="38">
+        <f>COUNTIF(C5:C503,"n")</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="37"/>
+      <c r="B506" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C506" s="40">
+        <f>COUNTIF(C5:C503,"TBD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="37"/>
+      <c r="B507" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" s="35">
+        <f>SUM(C504:C506)</f>
+        <v>414</v>
+      </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="37"/>
-      <c r="B508" s="45"/>
-      <c r="C508" s="45"/>
-      <c r="D508" s="37"/>
+      <c r="B508" s="47"/>
+      <c r="C508" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D508" s="48">
+        <f>C504/(C505+C504 + C506)</f>
+        <v>0.71980676328502413</v>
+      </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="37"/>
-      <c r="B509" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C509" s="38">
-        <f>COUNTIF(C5:C508,"y")</f>
-        <v>303</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="37"/>
-      <c r="B510" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C510" s="38">
-        <f>COUNTIF(C5:C508,"n")</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="37"/>
-      <c r="B511" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C511" s="40">
-        <f>COUNTIF(C5:C508,"TBD")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="37"/>
-      <c r="B512" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C512" s="35">
-        <f>SUM(C509:C511)</f>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="A513" s="37"/>
-      <c r="B513" s="47"/>
-      <c r="C513" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D513" s="48">
-        <f>C509/(C510+C509 + C511)</f>
-        <v>0.72315035799522676</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
-      <c r="A514" s="37"/>
-      <c r="B514" s="45"/>
-      <c r="C514" s="45"/>
-      <c r="D514" s="37"/>
+      <c r="B509" s="45"/>
+      <c r="C509" s="45"/>
+      <c r="D509" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C424:C65262 C418:C422 C1:C3 C6:C416">
+  <conditionalFormatting sqref="C420:C65257 C414:C418 C1:C3 C6:C412">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -7203,7 +7152,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7539,7 +7488,7 @@
         <v>45665</v>
       </c>
       <c r="B52" s="5">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C52" s="5">
         <v>116</v>
@@ -7553,7 +7502,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="14">
         <f t="shared" ref="G52" si="2">B52/SUM(B52:E52)</f>
-        <v>0.72315035799522676</v>
+        <v>0.71980676328502413</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -7596,25 +7545,25 @@
       <c r="F55" s="15"/>
       <c r="G55" s="18">
         <f>MIN(G52)</f>
-        <v>0.72315035799522676</v>
+        <v>0.71980676328502413</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="19">
         <f>SUM(B56:D56)</f>
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B56" s="20">
-        <f>Features!C509</f>
-        <v>303</v>
+        <f>Features!C504</f>
+        <v>298</v>
       </c>
       <c r="C56" s="21">
-        <f>Features!C510</f>
+        <f>Features!C505</f>
         <v>116</v>
       </c>
       <c r="D56" s="22">
-        <f>Features!C511</f>
+        <f>Features!C506</f>
         <v>0</v>
       </c>
       <c r="E56" s="23">
@@ -7662,7 +7611,7 @@
       </c>
       <c r="B60" s="26">
         <f>(A52-A48)*A56/B56 +A48</f>
-        <v>45686.438943894391</v>
+        <v>45686.798657718122</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -1001,15 +1001,6 @@
     <t>unwrapped mode: move to paragraph start</t>
   </si>
   <si>
-    <t>wrapped mode: move to line end (same line, trailing)</t>
-  </si>
-  <si>
-    <t>unwrapped mode: move to paragraph end (same line, trailing)</t>
-  </si>
-  <si>
-    <t>wrapped mode: select to line end (same line, trailing)</t>
-  </si>
-  <si>
     <t>unwrapped mode: select to paragraph end (same line, trailing)</t>
   </si>
   <si>
@@ -1122,6 +1113,15 @@
   </si>
   <si>
     <t>shift+scroll wheel: horizontal scroll</t>
+  </si>
+  <si>
+    <t>unwrapped mode: move to paragraph end</t>
+  </si>
+  <si>
+    <t>wrapped mode: move to char before line end</t>
+  </si>
+  <si>
+    <t>wrapped mode: select to char before line end</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1384,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955624"/>
+          <c:w val="0.91978071330955635"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1692,11 +1692,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175431040"/>
-        <c:axId val="175182976"/>
+        <c:axId val="183758208"/>
+        <c:axId val="183575680"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="175431040"/>
+        <c:axId val="183758208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175182976"/>
+        <c:crossAx val="183575680"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1739,7 +1739,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175182976"/>
+        <c:axId val="183575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175431040"/>
+        <c:crossAx val="183758208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,7 +1804,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218675"/>
+          <c:y val="0.33819556996218686"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1908,8 +1908,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37852736438635731"/>
-          <c:y val="0.13936449433182563"/>
+          <c:x val="0.37852736438635737"/>
+          <c:y val="0.13936449433182568"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1925,7 +1925,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248128046E-2"/>
+          <c:x val="4.4510450248128074E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -2007,11 +2007,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175214976"/>
-        <c:axId val="175216512"/>
+        <c:axId val="183607680"/>
+        <c:axId val="183609216"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="175214976"/>
+        <c:axId val="183607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,13 +2019,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175216512"/>
+        <c:crossAx val="183609216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175216512"/>
+        <c:axId val="183609216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2068,7 +2068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175214976"/>
+        <c:crossAx val="183607680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2289,11 +2289,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175839488"/>
-        <c:axId val="175845376"/>
+        <c:axId val="183765248"/>
+        <c:axId val="183775232"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="175839488"/>
+        <c:axId val="183765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175845376"/>
+        <c:crossAx val="183775232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2335,7 +2335,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175845376"/>
+        <c:axId val="183775232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175839488"/>
+        <c:crossAx val="183765248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2886,14 +2886,14 @@
   </sheetPr>
   <dimension ref="A1:D509"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="119.140625" style="35" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="35" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" style="35" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="35"/>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="119" spans="2:4" s="38" customFormat="1">
       <c r="B119" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>14</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="127" spans="2:4" s="38" customFormat="1">
       <c r="B127" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>14</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
       <c r="B130" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
       <c r="B134" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>14</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>14</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
       <c r="B139" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>14</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="143" spans="2:4" s="38" customFormat="1">
       <c r="B143" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
       <c r="B146" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
       <c r="B147" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>14</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>14</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>14</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="163" spans="2:4" s="38" customFormat="1">
       <c r="B163" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C163" s="40" t="s">
         <v>14</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
       <c r="B167" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C171" s="40" t="s">
         <v>14</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C172" s="40" t="s">
         <v>14</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>2</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>2</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>2</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
       <c r="B191" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>2</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
       <c r="B196" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
       <c r="B201" s="39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
       <c r="B213" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
       <c r="B217" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C217" s="40" t="s">
         <v>2</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>14</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
       <c r="B221" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>14</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>14</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>14</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C230" s="40" t="s">
         <v>2</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
       <c r="B231" s="39" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
       <c r="B239" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>2</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C243" s="40" t="s">
         <v>14</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C247" s="40" t="s">
         <v>14</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
       <c r="B250" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C250" s="40" t="s">
         <v>14</v>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
       <c r="B256" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>2</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C266" s="40" t="s">
         <v>2</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>2</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
       <c r="B286" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
       <c r="B306" s="42" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>2</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C308" s="40" t="s">
         <v>14</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
       <c r="B310" s="42" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>2</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
       <c r="B312" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C312" s="40" t="s">
         <v>14</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C316" s="40" t="s">
         <v>2</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C320" s="40" t="s">
         <v>14</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
       <c r="B323" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C323" s="40" t="s">
         <v>14</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
       <c r="B327" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C327" s="40" t="s">
         <v>14</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
       <c r="B331" s="39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C331" s="40" t="s">
         <v>14</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="371" spans="2:4" s="38" customFormat="1">
       <c r="B371" s="39" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C371" s="40" t="s">
         <v>2</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="372" spans="2:4" s="38" customFormat="1">
       <c r="B372" s="39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C372" s="40" t="s">
         <v>2</v>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
       <c r="B373" s="39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C373" s="40" t="s">
         <v>2</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
       <c r="B377" s="39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C377" s="40" t="s">
         <v>14</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
       <c r="B381" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C381" s="40" t="s">
         <v>2</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
       <c r="B382" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C382" s="40" t="s">
         <v>2</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
       <c r="B383" s="39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C383" s="40" t="s">
         <v>2</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="384" spans="2:4" s="38" customFormat="1">
       <c r="B384" s="39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C384" s="40" t="s">
         <v>14</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
       <c r="B392" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C392" s="40"/>
       <c r="D392" s="40"/>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="394" spans="2:4" s="38" customFormat="1">
       <c r="B394" s="41" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C394" s="40" t="s">
         <v>14</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="395" spans="2:4" s="38" customFormat="1">
       <c r="B395" s="41" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C395" s="40" t="s">
         <v>14</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="396" spans="2:4" s="38" customFormat="1">
       <c r="B396" s="41" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C396" s="40" t="s">
         <v>14</v>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="372">
   <si>
     <t>Feature</t>
   </si>
@@ -1122,6 +1122,18 @@
   </si>
   <si>
     <t>wrapped mode: select to char before line end</t>
+  </si>
+  <si>
+    <t>use content height</t>
+  </si>
+  <si>
+    <t>styleable: -fx-use-content-height</t>
+  </si>
+  <si>
+    <t>use content width</t>
+  </si>
+  <si>
+    <t>styleable: -fx-use content-width</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1396,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955635"/>
+          <c:w val="0.91978071330955646"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1434,7 +1446,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1470,7 @@
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,7 +1520,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,7 +1544,7 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,7 +1594,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,7 +1668,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1692,11 +1704,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183758208"/>
-        <c:axId val="183575680"/>
+        <c:axId val="183491968"/>
+        <c:axId val="183243904"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183758208"/>
+        <c:axId val="183491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183575680"/>
+        <c:crossAx val="183243904"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1739,7 +1751,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183575680"/>
+        <c:axId val="183243904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183758208"/>
+        <c:crossAx val="183491968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,7 +1816,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218686"/>
+          <c:y val="0.33819556996218691"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1908,8 +1920,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37852736438635737"/>
-          <c:y val="0.13936449433182568"/>
+          <c:x val="0.37852736438635742"/>
+          <c:y val="0.13936449433182574"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1925,7 +1937,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248128074E-2"/>
+          <c:x val="4.4510450248128088E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1977,7 +1989,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,17 +2013,17 @@
                   <c:v>0.70023980815347719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71980676328502413</c:v>
+                  <c:v>0.71531100478468901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183607680"/>
-        <c:axId val="183609216"/>
+        <c:axId val="183271808"/>
+        <c:axId val="183273344"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183607680"/>
+        <c:axId val="183271808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,13 +2031,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183609216"/>
+        <c:crossAx val="183273344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183609216"/>
+        <c:axId val="183273344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2068,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183607680"/>
+        <c:crossAx val="183271808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,7 +2197,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,7 +2221,7 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,7 +2271,7 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45665</c:v>
+                  <c:v>45667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,11 +2301,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183765248"/>
-        <c:axId val="183775232"/>
+        <c:axId val="183965952"/>
+        <c:axId val="183971840"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183765248"/>
+        <c:axId val="183965952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +2338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183775232"/>
+        <c:crossAx val="183971840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2335,7 +2347,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183775232"/>
+        <c:axId val="183971840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183765248"/>
+        <c:crossAx val="183965952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2884,10 +2896,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D509"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3370,7 +3382,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D60" s="40"/>
     </row>
@@ -3779,43 +3791,57 @@
       </c>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" s="38" customFormat="1">
       <c r="B110" s="35" t="s">
-        <v>123</v>
+        <v>368</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D110" s="40"/>
     </row>
     <row r="111" spans="2:4" s="38" customFormat="1">
       <c r="B111" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="40"/>
+    </row>
+    <row r="112" spans="2:4" s="38" customFormat="1">
+      <c r="B112" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="40"/>
+    </row>
+    <row r="113" spans="2:4" s="38" customFormat="1">
+      <c r="B113" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="40"/>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" s="38" customFormat="1">
+      <c r="B115" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C111" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="40"/>
-    </row>
-    <row r="112" spans="2:4" s="38" customFormat="1">
-      <c r="B112" s="41"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-    </row>
-    <row r="113" spans="2:4" s="38" customFormat="1">
-      <c r="B113" s="41"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-    </row>
-    <row r="114" spans="2:4" s="38" customFormat="1">
-      <c r="B114" s="41"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="40"/>
-    </row>
-    <row r="115" spans="2:4" s="38" customFormat="1">
-      <c r="B115" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="40"/>
+      <c r="C115" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="40"/>
     </row>
     <row r="116" spans="2:4" s="38" customFormat="1">
@@ -3824,53 +3850,39 @@
       <c r="D116" s="40"/>
     </row>
     <row r="117" spans="2:4" s="38" customFormat="1">
-      <c r="B117" s="42" t="s">
+      <c r="B117" s="41"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+    </row>
+    <row r="118" spans="2:4" s="38" customFormat="1">
+      <c r="B118" s="41"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+    </row>
+    <row r="119" spans="2:4" s="38" customFormat="1">
+      <c r="B119" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+    </row>
+    <row r="120" spans="2:4" s="38" customFormat="1">
+      <c r="B120" s="41"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+    </row>
+    <row r="121" spans="2:4" s="38" customFormat="1">
+      <c r="B121" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="40" t="s">
+      <c r="C121" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="40"/>
-    </row>
-    <row r="118" spans="2:4" s="38" customFormat="1">
-      <c r="B118" s="39" t="s">
+      <c r="D121" s="40"/>
+    </row>
+    <row r="122" spans="2:4" s="38" customFormat="1">
+      <c r="B122" s="39" t="s">
         <v>240</v>
-      </c>
-      <c r="C118" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="40"/>
-    </row>
-    <row r="119" spans="2:4" s="38" customFormat="1">
-      <c r="B119" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="C119" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="40"/>
-    </row>
-    <row r="120" spans="2:4" s="38" customFormat="1">
-      <c r="B120" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="40"/>
-    </row>
-    <row r="121" spans="2:4" s="38" customFormat="1">
-      <c r="B121" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="40"/>
-    </row>
-    <row r="122" spans="2:4" s="38" customFormat="1">
-      <c r="B122" s="42" t="s">
-        <v>141</v>
       </c>
       <c r="C122" s="40" t="s">
         <v>14</v>
@@ -3879,7 +3891,7 @@
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
       <c r="B123" s="39" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3888,7 +3900,7 @@
     </row>
     <row r="124" spans="2:4" s="38" customFormat="1">
       <c r="B124" s="39" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>2</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="125" spans="2:4" s="38" customFormat="1">
       <c r="B125" s="39" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>2</v>
@@ -3906,7 +3918,7 @@
     </row>
     <row r="126" spans="2:4" s="38" customFormat="1">
       <c r="B126" s="42" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>14</v>
@@ -3924,7 +3936,7 @@
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -3932,17 +3944,17 @@
       <c r="D128" s="40"/>
     </row>
     <row r="129" spans="2:4" s="38" customFormat="1">
-      <c r="B129" s="42" t="s">
-        <v>142</v>
+      <c r="B129" s="39" t="s">
+        <v>241</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D129" s="40"/>
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
-      <c r="B130" s="39" t="s">
-        <v>337</v>
+      <c r="B130" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>14</v>
@@ -3951,16 +3963,16 @@
     </row>
     <row r="131" spans="2:4" s="38" customFormat="1">
       <c r="B131" s="39" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D131" s="40"/>
     </row>
     <row r="132" spans="2:4" s="38" customFormat="1">
       <c r="B132" s="39" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>2</v>
@@ -3969,7 +3981,7 @@
     </row>
     <row r="133" spans="2:4" s="38" customFormat="1">
       <c r="B133" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>14</v>
@@ -3987,16 +3999,16 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D135" s="40"/>
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>343</v>
+        <v>242</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>2</v>
@@ -4005,7 +4017,7 @@
     </row>
     <row r="137" spans="2:4" s="38" customFormat="1">
       <c r="B137" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>14</v>
@@ -4032,7 +4044,7 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>2</v>
@@ -4041,7 +4053,7 @@
     </row>
     <row r="141" spans="2:4" s="38" customFormat="1">
       <c r="B141" s="42" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>14</v>
@@ -4068,16 +4080,16 @@
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D144" s="40"/>
     </row>
     <row r="145" spans="2:4" s="38" customFormat="1">
       <c r="B145" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>14</v>
@@ -4104,131 +4116,131 @@
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D148" s="40"/>
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
-      <c r="B149" s="39" t="s">
-        <v>253</v>
+      <c r="B149" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D149" s="40"/>
     </row>
     <row r="150" spans="2:4" s="38" customFormat="1">
-      <c r="B150" s="42" t="s">
-        <v>167</v>
+      <c r="B150" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="40"/>
     </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="44" t="s">
-        <v>100</v>
+    <row r="151" spans="2:4" s="38" customFormat="1">
+      <c r="B151" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="44" t="s">
-        <v>101</v>
+      <c r="D151" s="40"/>
+    </row>
+    <row r="152" spans="2:4" s="38" customFormat="1">
+      <c r="B152" s="39" t="s">
+        <v>252</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>14</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D152" s="40"/>
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="C153" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="40"/>
+    </row>
+    <row r="154" spans="2:4" s="38" customFormat="1">
+      <c r="B154" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="40"/>
-    </row>
-    <row r="154" spans="2:4" s="38" customFormat="1">
-      <c r="B154" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C154" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="2:4" s="38" customFormat="1">
-      <c r="B155" s="39" t="s">
-        <v>261</v>
+    <row r="155" spans="2:4">
+      <c r="B155" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="40"/>
-    </row>
-    <row r="156" spans="2:4" s="38" customFormat="1">
-      <c r="B156" s="42" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="40"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
       <c r="C157" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D157" s="40"/>
     </row>
     <row r="158" spans="2:4" s="38" customFormat="1">
-      <c r="B158" s="42" t="s">
-        <v>169</v>
+      <c r="B158" s="39" t="s">
+        <v>260</v>
       </c>
       <c r="C158" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D158" s="40"/>
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D159" s="40"/>
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
-      <c r="B160" s="39" t="s">
-        <v>300</v>
+      <c r="B160" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D160" s="40"/>
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
       <c r="B161" s="39" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D161" s="40"/>
     </row>
     <row r="162" spans="2:4" s="38" customFormat="1">
       <c r="B162" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>14</v>
@@ -4246,7 +4258,7 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>14</v>
@@ -4255,7 +4267,7 @@
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
       <c r="B165" s="39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C165" s="40" t="s">
         <v>14</v>
@@ -4264,7 +4276,7 @@
     </row>
     <row r="166" spans="2:4" s="38" customFormat="1">
       <c r="B166" s="42" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C166" s="40" t="s">
         <v>14</v>
@@ -4282,7 +4294,7 @@
     </row>
     <row r="168" spans="2:4" s="38" customFormat="1">
       <c r="B168" s="39" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
@@ -4291,16 +4303,16 @@
     </row>
     <row r="169" spans="2:4" s="38" customFormat="1">
       <c r="B169" s="39" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C169" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D169" s="40"/>
     </row>
     <row r="170" spans="2:4" s="38" customFormat="1">
       <c r="B170" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>14</v>
@@ -4327,7 +4339,7 @@
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
       <c r="B173" s="39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4336,34 +4348,34 @@
     </row>
     <row r="174" spans="2:4" s="38" customFormat="1">
       <c r="B174" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D174" s="40"/>
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
       <c r="B175" s="39" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D175" s="40"/>
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D176" s="40"/>
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="C177" s="40" t="s">
         <v>2</v>
@@ -4371,8 +4383,8 @@
       <c r="D177" s="40"/>
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
-      <c r="B178" s="39" t="s">
-        <v>246</v>
+      <c r="B178" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="C178" s="40" t="s">
         <v>2</v>
@@ -4380,8 +4392,8 @@
       <c r="D178" s="40"/>
     </row>
     <row r="179" spans="2:4" s="38" customFormat="1">
-      <c r="B179" s="42" t="s">
-        <v>148</v>
+      <c r="B179" s="39" t="s">
+        <v>346</v>
       </c>
       <c r="C179" s="40" t="s">
         <v>2</v>
@@ -4390,7 +4402,7 @@
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C180" s="40" t="s">
         <v>2</v>
@@ -4399,7 +4411,7 @@
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C181" s="40" t="s">
         <v>2</v>
@@ -4408,7 +4420,7 @@
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="C182" s="40" t="s">
         <v>2</v>
@@ -4416,8 +4428,8 @@
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
-      <c r="B183" s="39" t="s">
-        <v>247</v>
+      <c r="B183" s="42" t="s">
+        <v>148</v>
       </c>
       <c r="C183" s="40" t="s">
         <v>2</v>
@@ -4425,8 +4437,8 @@
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
-      <c r="B184" s="42" t="s">
-        <v>149</v>
+      <c r="B184" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="C184" s="40" t="s">
         <v>2</v>
@@ -4435,7 +4447,7 @@
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
       <c r="B185" s="39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C185" s="40" t="s">
         <v>2</v>
@@ -4444,7 +4456,7 @@
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -4453,7 +4465,7 @@
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
       <c r="B187" s="39" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="C187" s="40" t="s">
         <v>2</v>
@@ -4461,8 +4473,8 @@
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
-      <c r="B188" s="39" t="s">
-        <v>248</v>
+      <c r="B188" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="C188" s="40" t="s">
         <v>2</v>
@@ -4470,8 +4482,8 @@
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="2:4" s="38" customFormat="1">
-      <c r="B189" s="42" t="s">
-        <v>151</v>
+      <c r="B189" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="C189" s="40" t="s">
         <v>2</v>
@@ -4480,7 +4492,7 @@
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4498,7 +4510,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -4506,8 +4518,8 @@
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="2:4" s="38" customFormat="1">
-      <c r="B193" s="39" t="s">
-        <v>265</v>
+      <c r="B193" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>2</v>
@@ -4515,8 +4527,8 @@
       <c r="D193" s="40"/>
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
-      <c r="B194" s="42" t="s">
-        <v>150</v>
+      <c r="B194" s="39" t="s">
+        <v>338</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -4525,7 +4537,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4534,7 +4546,7 @@
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
       <c r="B196" s="39" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4543,7 +4555,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -4551,8 +4563,8 @@
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
-      <c r="B198" s="39" t="s">
-        <v>270</v>
+      <c r="B198" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>2</v>
@@ -4560,8 +4572,8 @@
       <c r="D198" s="40"/>
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
-      <c r="B199" s="42" t="s">
-        <v>172</v>
+      <c r="B199" s="39" t="s">
+        <v>339</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -4570,7 +4582,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4579,7 +4591,7 @@
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
       <c r="B201" s="39" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4588,7 +4600,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4596,8 +4608,8 @@
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
-      <c r="B203" s="39" t="s">
-        <v>320</v>
+      <c r="B203" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -4606,7 +4618,7 @@
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C204" s="40" t="s">
         <v>2</v>
@@ -4614,8 +4626,8 @@
       <c r="D204" s="40"/>
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
-      <c r="B205" s="42" t="s">
-        <v>171</v>
+      <c r="B205" s="39" t="s">
+        <v>365</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -4624,7 +4636,7 @@
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
       <c r="B206" s="39" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4633,7 +4645,7 @@
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
       <c r="B207" s="39" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C207" s="40" t="s">
         <v>2</v>
@@ -4642,7 +4654,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4650,8 +4662,8 @@
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
-      <c r="B209" s="39" t="s">
-        <v>321</v>
+      <c r="B209" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -4660,7 +4672,7 @@
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C210" s="40" t="s">
         <v>2</v>
@@ -4668,8 +4680,8 @@
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
-      <c r="B211" s="42" t="s">
-        <v>173</v>
+      <c r="B211" s="39" t="s">
+        <v>326</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -4678,7 +4690,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4687,7 +4699,7 @@
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
       <c r="B213" s="39" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4696,7 +4708,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -4705,7 +4717,7 @@
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
       <c r="B215" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>2</v>
@@ -4714,7 +4726,7 @@
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
       <c r="B216" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -4741,19 +4753,19 @@
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
       <c r="B219" s="42" t="s">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="C219" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D219" s="40"/>
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C220" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D220" s="40"/>
     </row>
@@ -4762,13 +4774,13 @@
         <v>349</v>
       </c>
       <c r="C221" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
       <c r="B222" s="39" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>2</v>
@@ -4776,17 +4788,17 @@
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
-      <c r="B223" s="39" t="s">
-        <v>286</v>
+      <c r="B223" s="42" t="s">
+        <v>283</v>
       </c>
       <c r="C223" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D223" s="40"/>
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
-      <c r="B224" s="42" t="s">
-        <v>284</v>
+      <c r="B224" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C224" s="40" t="s">
         <v>14</v>
@@ -4795,7 +4807,7 @@
     </row>
     <row r="225" spans="2:4" s="38" customFormat="1">
       <c r="B225" s="39" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C225" s="40" t="s">
         <v>14</v>
@@ -4804,16 +4816,16 @@
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="39" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D226" s="40"/>
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C227" s="40" t="s">
         <v>2</v>
@@ -4821,35 +4833,35 @@
       <c r="D227" s="40"/>
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
-      <c r="B228" s="39" t="s">
-        <v>294</v>
+      <c r="B228" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D228" s="40"/>
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
-      <c r="B229" s="42" t="s">
-        <v>152</v>
+      <c r="B229" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C229" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D229" s="40"/>
     </row>
     <row r="230" spans="2:4" s="38" customFormat="1">
       <c r="B230" s="39" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C230" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D230" s="40"/>
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
       <c r="B231" s="39" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -4858,7 +4870,7 @@
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
       <c r="B232" s="39" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>2</v>
@@ -4866,8 +4878,8 @@
       <c r="D232" s="40"/>
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
-      <c r="B233" s="39" t="s">
-        <v>249</v>
+      <c r="B233" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="C233" s="40" t="s">
         <v>2</v>
@@ -4875,8 +4887,8 @@
       <c r="D233" s="40"/>
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
-      <c r="B234" s="42" t="s">
-        <v>153</v>
+      <c r="B234" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>2</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4903,7 +4915,7 @@
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="C237" s="40" t="s">
         <v>2</v>
@@ -4912,7 +4924,7 @@
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
       <c r="B238" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C238" s="40" t="s">
         <v>2</v>
@@ -4921,7 +4933,7 @@
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
       <c r="B239" s="39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>2</v>
@@ -4939,7 +4951,7 @@
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
       <c r="B241" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C241" s="40" t="s">
         <v>2</v>
@@ -4948,25 +4960,25 @@
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
       <c r="B242" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D242" s="40"/>
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C243" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D243" s="40"/>
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
       <c r="B244" s="39" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="C244" s="40" t="s">
         <v>2</v>
@@ -4975,7 +4987,7 @@
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>2</v>
@@ -4984,7 +4996,7 @@
     </row>
     <row r="246" spans="2:4" s="38" customFormat="1">
       <c r="B246" s="42" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C246" s="40" t="s">
         <v>14</v>
@@ -5002,7 +5014,7 @@
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
       <c r="B248" s="39" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C248" s="40" t="s">
         <v>2</v>
@@ -5010,17 +5022,17 @@
       <c r="D248" s="40"/>
     </row>
     <row r="249" spans="2:4" s="38" customFormat="1">
-      <c r="B249" s="42" t="s">
-        <v>156</v>
+      <c r="B249" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="C249" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D249" s="40"/>
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
-      <c r="B250" s="39" t="s">
-        <v>337</v>
+      <c r="B250" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="C250" s="40" t="s">
         <v>14</v>
@@ -5029,16 +5041,16 @@
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
       <c r="B251" s="39" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D251" s="40"/>
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C252" s="40" t="s">
         <v>2</v>
@@ -5046,26 +5058,26 @@
       <c r="D252" s="40"/>
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
-      <c r="B253" s="39" t="s">
-        <v>281</v>
+      <c r="B253" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
-      <c r="B254" s="42" t="s">
-        <v>157</v>
+      <c r="B254" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D254" s="40"/>
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
       <c r="B255" s="39" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5074,7 +5086,7 @@
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
       <c r="B256" s="39" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5083,7 +5095,7 @@
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
       <c r="B257" s="39" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C257" s="40" t="s">
         <v>2</v>
@@ -5092,7 +5104,7 @@
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
       <c r="B258" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C258" s="40" t="s">
         <v>2</v>
@@ -5101,7 +5113,7 @@
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
       <c r="B259" s="39" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C259" s="40" t="s">
         <v>2</v>
@@ -5110,7 +5122,7 @@
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>2</v>
@@ -5119,7 +5131,7 @@
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5127,8 +5139,8 @@
       <c r="D261" s="40"/>
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
-      <c r="B262" s="39" t="s">
-        <v>255</v>
+      <c r="B262" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="C262" s="40" t="s">
         <v>2</v>
@@ -5136,8 +5148,8 @@
       <c r="D262" s="40"/>
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
-      <c r="B263" s="42" t="s">
-        <v>159</v>
+      <c r="B263" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C263" s="40" t="s">
         <v>2</v>
@@ -5146,7 +5158,7 @@
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C264" s="40" t="s">
         <v>2</v>
@@ -5155,7 +5167,7 @@
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
       <c r="B265" s="39" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>2</v>
@@ -5164,7 +5176,7 @@
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
       <c r="B266" s="39" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="C266" s="40" t="s">
         <v>2</v>
@@ -5172,8 +5184,8 @@
       <c r="D266" s="40"/>
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
-      <c r="B267" s="39" t="s">
-        <v>256</v>
+      <c r="B267" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="C267" s="40" t="s">
         <v>2</v>
@@ -5181,8 +5193,8 @@
       <c r="D267" s="40"/>
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
-      <c r="B268" s="42" t="s">
-        <v>160</v>
+      <c r="B268" s="39" t="s">
+        <v>306</v>
       </c>
       <c r="C268" s="40" t="s">
         <v>2</v>
@@ -5191,7 +5203,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>2</v>
@@ -5200,7 +5212,7 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5209,7 +5221,7 @@
     </row>
     <row r="271" spans="2:4" s="38" customFormat="1">
       <c r="B271" s="39" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="C271" s="40" t="s">
         <v>2</v>
@@ -5218,7 +5230,7 @@
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
       <c r="B272" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>2</v>
@@ -5227,7 +5239,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5245,7 +5257,7 @@
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
       <c r="B275" s="39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5254,7 +5266,7 @@
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
       <c r="B276" s="42" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5263,7 +5275,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5272,7 +5284,7 @@
     </row>
     <row r="278" spans="2:4" s="38" customFormat="1">
       <c r="B278" s="39" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C278" s="40" t="s">
         <v>2</v>
@@ -5281,7 +5293,7 @@
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
       <c r="B279" s="39" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5289,8 +5301,8 @@
       <c r="D279" s="40"/>
     </row>
     <row r="280" spans="2:4" s="38" customFormat="1">
-      <c r="B280" s="39" t="s">
-        <v>310</v>
+      <c r="B280" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="C280" s="40" t="s">
         <v>2</v>
@@ -5299,7 +5311,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5308,7 +5320,7 @@
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
       <c r="B282" s="39" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C282" s="40" t="s">
         <v>2</v>
@@ -5316,8 +5328,8 @@
       <c r="D282" s="40"/>
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
-      <c r="B283" s="42" t="s">
-        <v>162</v>
+      <c r="B283" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="C283" s="40" t="s">
         <v>2</v>
@@ -5326,7 +5338,7 @@
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
       <c r="B284" s="39" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C284" s="40" t="s">
         <v>2</v>
@@ -5335,7 +5347,7 @@
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
       <c r="B285" s="39" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5344,7 +5356,7 @@
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
       <c r="B286" s="39" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5352,8 +5364,8 @@
       <c r="D286" s="40"/>
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
-      <c r="B287" s="39" t="s">
-        <v>257</v>
+      <c r="B287" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5361,8 +5373,8 @@
       <c r="D287" s="40"/>
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
-      <c r="B288" s="42" t="s">
-        <v>176</v>
+      <c r="B288" s="39" t="s">
+        <v>307</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5371,7 +5383,7 @@
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
       <c r="B289" s="39" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5380,7 +5392,7 @@
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
       <c r="B290" s="39" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5389,7 +5401,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -5398,7 +5410,7 @@
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
       <c r="B292" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -5407,7 +5419,7 @@
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
       <c r="B293" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5416,7 +5428,7 @@
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
       <c r="B294" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>2</v>
@@ -5425,7 +5437,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -5434,7 +5446,7 @@
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
       <c r="B296" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -5443,7 +5455,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5452,7 +5464,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5461,7 +5473,7 @@
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
       <c r="B299" s="39" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C299" s="40" t="s">
         <v>2</v>
@@ -5469,8 +5481,8 @@
       <c r="D299" s="40"/>
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
-      <c r="B300" s="39" t="s">
-        <v>324</v>
+      <c r="B300" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -5478,8 +5490,8 @@
       <c r="D300" s="40"/>
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
-      <c r="B301" s="42" t="s">
-        <v>179</v>
+      <c r="B301" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -5488,7 +5500,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5497,7 +5509,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5506,7 +5518,7 @@
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="39" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -5514,8 +5526,8 @@
       <c r="D304" s="40"/>
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
-      <c r="B305" s="39" t="s">
-        <v>274</v>
+      <c r="B305" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -5523,8 +5535,8 @@
       <c r="D305" s="40"/>
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
-      <c r="B306" s="42" t="s">
-        <v>333</v>
+      <c r="B306" s="39" t="s">
+        <v>328</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>2</v>
@@ -5533,7 +5545,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5542,16 +5554,16 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="39" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C308" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D308" s="40"/>
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
       <c r="B309" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -5560,7 +5572,7 @@
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
       <c r="B310" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>2</v>
@@ -5569,7 +5581,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5596,7 +5608,7 @@
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
       <c r="B314" s="42" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>2</v>
@@ -5605,7 +5617,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5614,16 +5626,16 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D316" s="40"/>
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
       <c r="B317" s="39" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>2</v>
@@ -5631,8 +5643,8 @@
       <c r="D317" s="40"/>
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
-      <c r="B318" s="39" t="s">
-        <v>258</v>
+      <c r="B318" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>2</v>
@@ -5640,26 +5652,26 @@
       <c r="D318" s="40"/>
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
-      <c r="B319" s="42" t="s">
-        <v>196</v>
+      <c r="B319" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="C319" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D319" s="40"/>
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="39" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C320" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D320" s="40"/>
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>2</v>
@@ -5667,17 +5679,17 @@
       <c r="D321" s="40"/>
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
-      <c r="B322" s="42" t="s">
-        <v>287</v>
+      <c r="B322" s="39" t="s">
+        <v>258</v>
       </c>
       <c r="C322" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D322" s="40"/>
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
-      <c r="B323" s="39" t="s">
-        <v>337</v>
+      <c r="B323" s="42" t="s">
+        <v>196</v>
       </c>
       <c r="C323" s="40" t="s">
         <v>14</v>
@@ -5686,16 +5698,16 @@
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
       <c r="B324" s="39" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="C324" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D324" s="40"/>
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C325" s="40" t="s">
         <v>2</v>
@@ -5704,7 +5716,7 @@
     </row>
     <row r="326" spans="2:4" s="38" customFormat="1">
       <c r="B326" s="42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C326" s="40" t="s">
         <v>14</v>
@@ -5722,7 +5734,7 @@
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
       <c r="B328" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C328" s="40" t="s">
         <v>2</v>
@@ -5731,7 +5743,7 @@
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C329" s="40" t="s">
         <v>2</v>
@@ -5740,7 +5752,7 @@
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
       <c r="B330" s="42" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="C330" s="40" t="s">
         <v>14</v>
@@ -5758,7 +5770,7 @@
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
       <c r="B332" s="39" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="C332" s="40" t="s">
         <v>2</v>
@@ -5767,42 +5779,52 @@
     </row>
     <row r="333" spans="2:4" s="38" customFormat="1">
       <c r="B333" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C333" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="40"/>
+    </row>
+    <row r="334" spans="2:4" s="38" customFormat="1">
+      <c r="B334" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C334" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D334" s="40"/>
+    </row>
+    <row r="335" spans="2:4" s="38" customFormat="1">
+      <c r="B335" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C335" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D335" s="40"/>
+    </row>
+    <row r="336" spans="2:4" s="38" customFormat="1">
+      <c r="B336" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C336" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D336" s="40"/>
+    </row>
+    <row r="337" spans="2:4" s="38" customFormat="1">
+      <c r="B337" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="C333" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D333" s="40"/>
-    </row>
-    <row r="334" spans="2:4" s="38" customFormat="1">
-      <c r="B334" s="41"/>
-      <c r="C334" s="40"/>
-      <c r="D334" s="40"/>
-    </row>
-    <row r="335" spans="2:4" s="38" customFormat="1">
-      <c r="B335" s="41"/>
-      <c r="C335" s="40"/>
-      <c r="D335" s="40"/>
-    </row>
-    <row r="336" spans="2:4" s="38" customFormat="1">
-      <c r="B336" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C336" s="40"/>
-      <c r="D336" s="40"/>
-    </row>
-    <row r="337" spans="2:4" s="38" customFormat="1">
-      <c r="B337" s="41"/>
-      <c r="C337" s="40"/>
+      <c r="C337" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D337" s="40"/>
     </row>
     <row r="338" spans="2:4" s="38" customFormat="1">
-      <c r="B338" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C338" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B338" s="41"/>
+      <c r="C338" s="40"/>
       <c r="D338" s="40"/>
     </row>
     <row r="339" spans="2:4" s="38" customFormat="1">
@@ -5811,113 +5833,107 @@
       <c r="D339" s="40"/>
     </row>
     <row r="340" spans="2:4" s="38" customFormat="1">
-      <c r="B340" s="42" t="s">
+      <c r="B340" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C340" s="40"/>
+      <c r="D340" s="40"/>
+    </row>
+    <row r="341" spans="2:4" s="38" customFormat="1">
+      <c r="B341" s="41"/>
+      <c r="C341" s="40"/>
+      <c r="D341" s="40"/>
+    </row>
+    <row r="342" spans="2:4" s="38" customFormat="1">
+      <c r="B342" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C342" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" s="40"/>
+    </row>
+    <row r="343" spans="2:4" s="38" customFormat="1">
+      <c r="B343" s="41"/>
+      <c r="C343" s="40"/>
+      <c r="D343" s="40"/>
+    </row>
+    <row r="344" spans="2:4" s="38" customFormat="1">
+      <c r="B344" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C340" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D340" s="40"/>
-    </row>
-    <row r="341" spans="2:4" s="38" customFormat="1">
-      <c r="B341" s="39" t="s">
+      <c r="C344" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D344" s="40"/>
+    </row>
+    <row r="345" spans="2:4" s="38" customFormat="1">
+      <c r="B345" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C341" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D341" s="40"/>
-    </row>
-    <row r="342" spans="2:4" s="38" customFormat="1">
-      <c r="B342" s="43" t="s">
+      <c r="C345" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D345" s="40"/>
+    </row>
+    <row r="346" spans="2:4" s="38" customFormat="1">
+      <c r="B346" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="C342" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D342" s="40"/>
-    </row>
-    <row r="343" spans="2:4" s="38" customFormat="1">
-      <c r="B343" s="39" t="s">
+      <c r="C346" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D346" s="40"/>
+    </row>
+    <row r="347" spans="2:4" s="38" customFormat="1">
+      <c r="B347" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C343" s="40" t="s">
+      <c r="C347" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D343" s="40"/>
-    </row>
-    <row r="344" spans="2:4" s="38" customFormat="1">
-      <c r="B344" s="39" t="s">
+      <c r="D347" s="40"/>
+    </row>
+    <row r="348" spans="2:4" s="38" customFormat="1">
+      <c r="B348" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C344" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D344" s="40"/>
-    </row>
-    <row r="345" spans="2:4" s="38" customFormat="1">
-      <c r="B345" s="39"/>
-      <c r="C345" s="40"/>
-      <c r="D345" s="40"/>
-    </row>
-    <row r="346" spans="2:4" s="38" customFormat="1">
-      <c r="B346" s="39" t="s">
+      <c r="C348" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D348" s="40"/>
+    </row>
+    <row r="349" spans="2:4" s="38" customFormat="1">
+      <c r="B349" s="39"/>
+      <c r="C349" s="40"/>
+      <c r="D349" s="40"/>
+    </row>
+    <row r="350" spans="2:4" s="38" customFormat="1">
+      <c r="B350" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C346" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="40"/>
-    </row>
-    <row r="347" spans="2:4" s="38" customFormat="1">
-      <c r="B347" s="43" t="s">
+      <c r="C350" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" s="40"/>
+    </row>
+    <row r="351" spans="2:4" s="38" customFormat="1">
+      <c r="B351" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="C347" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D347" s="40"/>
-    </row>
-    <row r="348" spans="2:4" s="38" customFormat="1">
-      <c r="B348" s="41"/>
-      <c r="C348" s="40"/>
-      <c r="D348" s="40"/>
-    </row>
-    <row r="349" spans="2:4" s="38" customFormat="1">
-      <c r="B349" s="39" t="s">
+      <c r="C351" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D351" s="40"/>
+    </row>
+    <row r="352" spans="2:4" s="38" customFormat="1">
+      <c r="B352" s="41"/>
+      <c r="C352" s="40"/>
+      <c r="D352" s="40"/>
+    </row>
+    <row r="353" spans="2:4" s="38" customFormat="1">
+      <c r="B353" s="39" t="s">
         <v>36</v>
-      </c>
-      <c r="C349" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D349" s="40"/>
-    </row>
-    <row r="350" spans="2:4" s="38" customFormat="1">
-      <c r="B350" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C350" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D350" s="40"/>
-    </row>
-    <row r="351" spans="2:4" s="38" customFormat="1">
-      <c r="B351" s="39"/>
-      <c r="C351" s="40"/>
-      <c r="D351" s="40"/>
-    </row>
-    <row r="352" spans="2:4" s="38" customFormat="1">
-      <c r="B352" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C352" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D352" s="40"/>
-    </row>
-    <row r="353" spans="2:4" s="38" customFormat="1">
-      <c r="B353" s="43" t="s">
-        <v>316</v>
       </c>
       <c r="C353" s="40" t="s">
         <v>2</v>
@@ -5926,39 +5942,39 @@
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
       <c r="B354" s="43" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C354" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D354" s="40"/>
     </row>
     <row r="355" spans="2:4" s="38" customFormat="1">
-      <c r="B355" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C355" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B355" s="39"/>
+      <c r="C355" s="40"/>
       <c r="D355" s="40"/>
     </row>
     <row r="356" spans="2:4" s="38" customFormat="1">
-      <c r="B356" s="41"/>
-      <c r="C356" s="40"/>
+      <c r="B356" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C356" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D356" s="40"/>
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
-      <c r="B357" s="39" t="s">
-        <v>38</v>
+      <c r="B357" s="43" t="s">
+        <v>316</v>
       </c>
       <c r="C357" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D357" s="40"/>
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
       <c r="B358" s="43" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C358" s="40" t="s">
         <v>14</v>
@@ -5967,7 +5983,7 @@
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
       <c r="B359" s="43" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C359" s="40" t="s">
         <v>14</v>
@@ -5975,22 +5991,22 @@
       <c r="D359" s="40"/>
     </row>
     <row r="360" spans="2:4" s="38" customFormat="1">
-      <c r="B360" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C360" s="40" t="s">
+      <c r="B360" s="41"/>
+      <c r="C360" s="40"/>
+      <c r="D360" s="40"/>
+    </row>
+    <row r="361" spans="2:4" s="38" customFormat="1">
+      <c r="B361" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C361" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D360" s="40"/>
-    </row>
-    <row r="361" spans="2:4" s="38" customFormat="1">
-      <c r="B361" s="41"/>
-      <c r="C361" s="40"/>
       <c r="D361" s="40"/>
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
-      <c r="B362" s="39" t="s">
-        <v>39</v>
+      <c r="B362" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C362" s="40" t="s">
         <v>14</v>
@@ -5999,7 +6015,7 @@
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
       <c r="B363" s="43" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C363" s="40" t="s">
         <v>14</v>
@@ -6007,27 +6023,31 @@
       <c r="D363" s="40"/>
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
-      <c r="B364" s="41"/>
-      <c r="C364" s="40"/>
+      <c r="B364" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C364" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D364" s="40"/>
     </row>
     <row r="365" spans="2:4" s="38" customFormat="1">
-      <c r="B365" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C365" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B365" s="41"/>
+      <c r="C365" s="40"/>
       <c r="D365" s="40"/>
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
-      <c r="B366" s="39"/>
-      <c r="C366" s="40"/>
+      <c r="B366" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C366" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D366" s="40"/>
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
-      <c r="B367" s="42" t="s">
-        <v>28</v>
+      <c r="B367" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C367" s="40" t="s">
         <v>14</v>
@@ -6035,63 +6055,59 @@
       <c r="D367" s="40"/>
     </row>
     <row r="368" spans="2:4" s="38" customFormat="1">
-      <c r="B368" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C368" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B368" s="41"/>
+      <c r="C368" s="40"/>
       <c r="D368" s="40"/>
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
-      <c r="B369" s="43" t="s">
-        <v>80</v>
+      <c r="B369" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="C369" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D369" s="40"/>
     </row>
     <row r="370" spans="2:4" s="38" customFormat="1">
-      <c r="B370" s="41"/>
+      <c r="B370" s="39"/>
       <c r="C370" s="40"/>
       <c r="D370" s="40"/>
     </row>
     <row r="371" spans="2:4" s="38" customFormat="1">
-      <c r="B371" s="39" t="s">
-        <v>360</v>
+      <c r="B371" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="C371" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D371" s="40"/>
     </row>
     <row r="372" spans="2:4" s="38" customFormat="1">
       <c r="B372" s="39" t="s">
-        <v>361</v>
+        <v>28</v>
       </c>
       <c r="C372" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D372" s="40"/>
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
-      <c r="B373" s="39" t="s">
-        <v>362</v>
+      <c r="B373" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C373" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D373" s="40"/>
     </row>
     <row r="374" spans="2:4" s="38" customFormat="1">
-      <c r="B374" s="39"/>
+      <c r="B374" s="41"/>
       <c r="C374" s="40"/>
       <c r="D374" s="40"/>
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
-      <c r="B375" s="42" t="s">
-        <v>58</v>
+      <c r="B375" s="39" t="s">
+        <v>360</v>
       </c>
       <c r="C375" s="40" t="s">
         <v>2</v>
@@ -6100,7 +6116,7 @@
     </row>
     <row r="376" spans="2:4" s="38" customFormat="1">
       <c r="B376" s="39" t="s">
-        <v>59</v>
+        <v>361</v>
       </c>
       <c r="C376" s="40" t="s">
         <v>2</v>
@@ -6109,98 +6125,98 @@
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
       <c r="B377" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C377" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" s="40"/>
+    </row>
+    <row r="378" spans="2:4" s="38" customFormat="1">
+      <c r="B378" s="39"/>
+      <c r="C378" s="40"/>
+      <c r="D378" s="40"/>
+    </row>
+    <row r="379" spans="2:4" s="38" customFormat="1">
+      <c r="B379" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C379" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D379" s="40"/>
+    </row>
+    <row r="380" spans="2:4" s="38" customFormat="1">
+      <c r="B380" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C380" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D380" s="40"/>
+    </row>
+    <row r="381" spans="2:4" s="38" customFormat="1">
+      <c r="B381" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="C377" s="40" t="s">
+      <c r="C381" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D377" s="40"/>
-    </row>
-    <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C378" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D378" s="40"/>
-    </row>
-    <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C379" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D379" s="40"/>
-    </row>
-    <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="39"/>
-      <c r="C380" s="40"/>
-      <c r="D380" s="40"/>
-    </row>
-    <row r="381" spans="2:4" s="38" customFormat="1">
-      <c r="B381" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
       <c r="B382" s="39" t="s">
-        <v>359</v>
+        <v>61</v>
       </c>
       <c r="C382" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D382" s="40"/>
     </row>
     <row r="383" spans="2:4" s="38" customFormat="1">
       <c r="B383" s="39" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="C383" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D383" s="40"/>
     </row>
     <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="C384" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B384" s="39"/>
+      <c r="C384" s="40"/>
       <c r="D384" s="40"/>
     </row>
     <row r="385" spans="2:4" s="38" customFormat="1">
-      <c r="B385" s="39"/>
-      <c r="C385" s="40"/>
+      <c r="B385" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C385" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
-      <c r="B386" s="42" t="s">
-        <v>136</v>
+      <c r="B386" s="39" t="s">
+        <v>359</v>
       </c>
       <c r="C386" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
       <c r="B387" s="39" t="s">
-        <v>137</v>
+        <v>358</v>
       </c>
       <c r="C387" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D387" s="40"/>
     </row>
     <row r="388" spans="2:4" s="38" customFormat="1">
       <c r="B388" s="39" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="C388" s="40" t="s">
         <v>14</v>
@@ -6208,25 +6224,35 @@
       <c r="D388" s="40"/>
     </row>
     <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="41"/>
+      <c r="B389" s="39"/>
       <c r="C389" s="40"/>
       <c r="D389" s="40"/>
     </row>
     <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="41"/>
-      <c r="C390" s="40"/>
+      <c r="B390" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D390" s="40"/>
     </row>
     <row r="391" spans="2:4" s="38" customFormat="1">
-      <c r="B391" s="41"/>
-      <c r="C391" s="40"/>
+      <c r="B391" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C391" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D391" s="40"/>
     </row>
     <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C392" s="40"/>
+      <c r="B392" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D392" s="40"/>
     </row>
     <row r="393" spans="2:4" s="38" customFormat="1">
@@ -6235,30 +6261,20 @@
       <c r="D393" s="40"/>
     </row>
     <row r="394" spans="2:4" s="38" customFormat="1">
-      <c r="B394" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="C394" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B394" s="41"/>
+      <c r="C394" s="40"/>
       <c r="D394" s="40"/>
     </row>
     <row r="395" spans="2:4" s="38" customFormat="1">
-      <c r="B395" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="C395" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B395" s="41"/>
+      <c r="C395" s="40"/>
       <c r="D395" s="40"/>
     </row>
     <row r="396" spans="2:4" s="38" customFormat="1">
-      <c r="B396" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="C396" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B396" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C396" s="40"/>
       <c r="D396" s="40"/>
     </row>
     <row r="397" spans="2:4" s="38" customFormat="1">
@@ -6267,18 +6283,30 @@
       <c r="D397" s="40"/>
     </row>
     <row r="398" spans="2:4" s="38" customFormat="1">
-      <c r="B398" s="41"/>
-      <c r="C398" s="40"/>
+      <c r="B398" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C398" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D398" s="40"/>
     </row>
     <row r="399" spans="2:4" s="38" customFormat="1">
-      <c r="B399" s="41"/>
-      <c r="C399" s="40"/>
+      <c r="B399" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C399" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D399" s="40"/>
     </row>
     <row r="400" spans="2:4" s="38" customFormat="1">
-      <c r="B400" s="41"/>
-      <c r="C400" s="40"/>
+      <c r="B400" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D400" s="40"/>
     </row>
     <row r="401" spans="2:4" s="38" customFormat="1">
@@ -6327,101 +6355,85 @@
       <c r="D409" s="40"/>
     </row>
     <row r="410" spans="2:4" s="38" customFormat="1">
-      <c r="B410" s="39"/>
+      <c r="B410" s="41"/>
       <c r="C410" s="40"/>
       <c r="D410" s="40"/>
     </row>
-    <row r="411" spans="2:4">
+    <row r="411" spans="2:4" s="38" customFormat="1">
+      <c r="B411" s="41"/>
       <c r="C411" s="40"/>
-    </row>
-    <row r="412" spans="2:4">
-      <c r="B412" s="37" t="s">
+      <c r="D411" s="40"/>
+    </row>
+    <row r="412" spans="2:4" s="38" customFormat="1">
+      <c r="B412" s="41"/>
+      <c r="C412" s="40"/>
+      <c r="D412" s="40"/>
+    </row>
+    <row r="413" spans="2:4" s="38" customFormat="1">
+      <c r="B413" s="41"/>
+      <c r="C413" s="40"/>
+      <c r="D413" s="40"/>
+    </row>
+    <row r="414" spans="2:4" s="38" customFormat="1">
+      <c r="B414" s="39"/>
+      <c r="C414" s="40"/>
+      <c r="D414" s="40"/>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="C415" s="40"/>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C412" s="40"/>
-    </row>
-    <row r="414" spans="2:4">
-      <c r="B414" s="35" t="s">
+      <c r="C416" s="40"/>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C414" s="40" t="s">
+      <c r="C418" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="2:4">
-      <c r="B415" s="44" t="s">
+    <row r="419" spans="2:4">
+      <c r="B419" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C415" s="40" t="s">
+      <c r="C419" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="2:4">
-      <c r="B416" s="44" t="s">
+    <row r="420" spans="2:4">
+      <c r="B420" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C416" s="40" t="s">
+      <c r="C420" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="2:4">
-      <c r="B417" s="44"/>
-      <c r="C417" s="40"/>
-    </row>
-    <row r="418" spans="2:4">
-      <c r="C418" s="40"/>
-    </row>
-    <row r="420" spans="2:4" s="38" customFormat="1">
-      <c r="B420" s="37" t="s">
+    <row r="421" spans="2:4">
+      <c r="B421" s="44"/>
+      <c r="C421" s="40"/>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="C422" s="40"/>
+    </row>
+    <row r="424" spans="2:4" s="38" customFormat="1">
+      <c r="B424" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C420" s="40"/>
-      <c r="D420" s="40"/>
-    </row>
-    <row r="421" spans="2:4" s="38" customFormat="1">
-      <c r="B421" s="41"/>
-      <c r="C421" s="40"/>
-      <c r="D421" s="40"/>
-    </row>
-    <row r="422" spans="2:4" s="38" customFormat="1">
-      <c r="B422" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C422" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D422" s="40"/>
-    </row>
-    <row r="423" spans="2:4" s="38" customFormat="1">
-      <c r="B423" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C423" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D423" s="40"/>
-    </row>
-    <row r="424" spans="2:4" s="38" customFormat="1">
-      <c r="B424" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C424" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="C424" s="40"/>
       <c r="D424" s="40"/>
     </row>
     <row r="425" spans="2:4" s="38" customFormat="1">
-      <c r="B425" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C425" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B425" s="41"/>
+      <c r="C425" s="40"/>
       <c r="D425" s="40"/>
     </row>
     <row r="426" spans="2:4" s="38" customFormat="1">
       <c r="B426" s="41" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C426" s="40" t="s">
         <v>14</v>
@@ -6429,13 +6441,17 @@
       <c r="D426" s="40"/>
     </row>
     <row r="427" spans="2:4" s="38" customFormat="1">
-      <c r="B427" s="41"/>
-      <c r="C427" s="40"/>
+      <c r="B427" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D427" s="40"/>
     </row>
     <row r="428" spans="2:4" s="38" customFormat="1">
       <c r="B428" s="41" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C428" s="40" t="s">
         <v>14</v>
@@ -6443,8 +6459,8 @@
       <c r="D428" s="40"/>
     </row>
     <row r="429" spans="2:4" s="38" customFormat="1">
-      <c r="B429" s="39" t="s">
-        <v>99</v>
+      <c r="B429" s="41" t="s">
+        <v>132</v>
       </c>
       <c r="C429" s="40" t="s">
         <v>14</v>
@@ -6452,8 +6468,8 @@
       <c r="D429" s="40"/>
     </row>
     <row r="430" spans="2:4" s="38" customFormat="1">
-      <c r="B430" s="39" t="s">
-        <v>97</v>
+      <c r="B430" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="C430" s="40" t="s">
         <v>14</v>
@@ -6461,22 +6477,22 @@
       <c r="D430" s="40"/>
     </row>
     <row r="431" spans="2:4" s="38" customFormat="1">
-      <c r="B431" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C431" s="40" t="s">
+      <c r="B431" s="41"/>
+      <c r="C431" s="40"/>
+      <c r="D431" s="40"/>
+    </row>
+    <row r="432" spans="2:4" s="38" customFormat="1">
+      <c r="B432" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C432" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D431" s="40"/>
-    </row>
-    <row r="432" spans="2:4" s="38" customFormat="1">
-      <c r="B432" s="39"/>
-      <c r="C432" s="40"/>
       <c r="D432" s="40"/>
     </row>
     <row r="433" spans="2:4" s="38" customFormat="1">
-      <c r="B433" s="41" t="s">
-        <v>46</v>
+      <c r="B433" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C433" s="40" t="s">
         <v>14</v>
@@ -6484,13 +6500,17 @@
       <c r="D433" s="40"/>
     </row>
     <row r="434" spans="2:4" s="38" customFormat="1">
-      <c r="B434" s="41"/>
-      <c r="C434" s="40"/>
+      <c r="B434" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C434" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D434" s="40"/>
     </row>
     <row r="435" spans="2:4" s="38" customFormat="1">
-      <c r="B435" s="41" t="s">
-        <v>134</v>
+      <c r="B435" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="C435" s="40" t="s">
         <v>14</v>
@@ -6498,13 +6518,17 @@
       <c r="D435" s="40"/>
     </row>
     <row r="436" spans="2:4" s="38" customFormat="1">
-      <c r="B436" s="41"/>
+      <c r="B436" s="39"/>
       <c r="C436" s="40"/>
       <c r="D436" s="40"/>
     </row>
     <row r="437" spans="2:4" s="38" customFormat="1">
-      <c r="B437" s="41"/>
-      <c r="C437" s="40"/>
+      <c r="B437" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C437" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D437" s="40"/>
     </row>
     <row r="438" spans="2:4" s="38" customFormat="1">
@@ -6513,10 +6537,12 @@
       <c r="D438" s="40"/>
     </row>
     <row r="439" spans="2:4" s="38" customFormat="1">
-      <c r="B439" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C439" s="40"/>
+      <c r="B439" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C439" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D439" s="40"/>
     </row>
     <row r="440" spans="2:4" s="38" customFormat="1">
@@ -6525,53 +6551,39 @@
       <c r="D440" s="40"/>
     </row>
     <row r="441" spans="2:4" s="38" customFormat="1">
-      <c r="B441" s="41" t="s">
+      <c r="B441" s="41"/>
+      <c r="C441" s="40"/>
+      <c r="D441" s="40"/>
+    </row>
+    <row r="442" spans="2:4" s="38" customFormat="1">
+      <c r="B442" s="41"/>
+      <c r="C442" s="40"/>
+      <c r="D442" s="40"/>
+    </row>
+    <row r="443" spans="2:4" s="38" customFormat="1">
+      <c r="B443" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C443" s="40"/>
+      <c r="D443" s="40"/>
+    </row>
+    <row r="444" spans="2:4" s="38" customFormat="1">
+      <c r="B444" s="41"/>
+      <c r="C444" s="40"/>
+      <c r="D444" s="40"/>
+    </row>
+    <row r="445" spans="2:4" s="38" customFormat="1">
+      <c r="B445" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C441" s="40" t="s">
+      <c r="C445" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D441" s="40"/>
-    </row>
-    <row r="442" spans="2:4" s="38" customFormat="1">
-      <c r="B442" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C442" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D442" s="40"/>
-    </row>
-    <row r="443" spans="2:4" s="38" customFormat="1">
-      <c r="B443" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C443" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D443" s="40"/>
-    </row>
-    <row r="444" spans="2:4" s="38" customFormat="1">
-      <c r="B444" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C444" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D444" s="40"/>
-    </row>
-    <row r="445" spans="2:4" s="38" customFormat="1">
-      <c r="B445" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C445" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D445" s="40"/>
     </row>
     <row r="446" spans="2:4" s="38" customFormat="1">
       <c r="B446" s="41" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C446" s="40" t="s">
         <v>14</v>
@@ -6580,7 +6592,7 @@
     </row>
     <row r="447" spans="2:4" s="38" customFormat="1">
       <c r="B447" s="41" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C447" s="40" t="s">
         <v>14</v>
@@ -6589,83 +6601,83 @@
     </row>
     <row r="448" spans="2:4" s="38" customFormat="1">
       <c r="B448" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C448" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D448" s="40"/>
+    </row>
+    <row r="449" spans="2:4" s="38" customFormat="1">
+      <c r="B449" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C449" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" s="40"/>
+    </row>
+    <row r="450" spans="2:4" s="38" customFormat="1">
+      <c r="B450" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C450" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="40"/>
+    </row>
+    <row r="451" spans="2:4" s="38" customFormat="1">
+      <c r="B451" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C451" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="40"/>
+    </row>
+    <row r="452" spans="2:4" s="38" customFormat="1">
+      <c r="B452" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="C448" s="40" t="s">
+      <c r="C452" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D448" s="40"/>
-    </row>
-    <row r="449" spans="2:4" s="38" customFormat="1">
-      <c r="B449" s="41" t="s">
+      <c r="D452" s="40"/>
+    </row>
+    <row r="453" spans="2:4" s="38" customFormat="1">
+      <c r="B453" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C449" s="40" t="s">
+      <c r="C453" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D449" s="40"/>
-    </row>
-    <row r="450" spans="2:4" s="38" customFormat="1">
-      <c r="B450" s="41"/>
-      <c r="C450" s="40"/>
-      <c r="D450" s="40"/>
-    </row>
-    <row r="451" spans="2:4" s="38" customFormat="1">
-      <c r="B451" s="41"/>
-      <c r="C451" s="40"/>
-      <c r="D451" s="40"/>
-    </row>
-    <row r="452" spans="2:4" s="38" customFormat="1">
-      <c r="B452" s="37" t="s">
+      <c r="D453" s="40"/>
+    </row>
+    <row r="454" spans="2:4" s="38" customFormat="1">
+      <c r="B454" s="41"/>
+      <c r="C454" s="40"/>
+      <c r="D454" s="40"/>
+    </row>
+    <row r="455" spans="2:4" s="38" customFormat="1">
+      <c r="B455" s="41"/>
+      <c r="C455" s="40"/>
+      <c r="D455" s="40"/>
+    </row>
+    <row r="456" spans="2:4" s="38" customFormat="1">
+      <c r="B456" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C452" s="40"/>
-      <c r="D452" s="40"/>
-    </row>
-    <row r="453" spans="2:4" s="38" customFormat="1">
-      <c r="B453" s="41"/>
-      <c r="C453" s="40"/>
-      <c r="D453" s="40"/>
-    </row>
-    <row r="454" spans="2:4" s="38" customFormat="1">
-      <c r="B454" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C454" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D454" s="40"/>
-    </row>
-    <row r="455" spans="2:4" s="38" customFormat="1">
-      <c r="B455" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C455" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D455" s="40"/>
-    </row>
-    <row r="456" spans="2:4" s="38" customFormat="1">
-      <c r="B456" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C456" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="C456" s="40"/>
       <c r="D456" s="40"/>
     </row>
     <row r="457" spans="2:4" s="38" customFormat="1">
-      <c r="B457" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C457" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B457" s="41"/>
+      <c r="C457" s="40"/>
       <c r="D457" s="40"/>
     </row>
     <row r="458" spans="2:4" s="38" customFormat="1">
       <c r="B458" s="41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C458" s="40" t="s">
         <v>2</v>
@@ -6674,7 +6686,7 @@
     </row>
     <row r="459" spans="2:4" s="38" customFormat="1">
       <c r="B459" s="41" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="C459" s="40" t="s">
         <v>2</v>
@@ -6683,7 +6695,7 @@
     </row>
     <row r="460" spans="2:4" s="38" customFormat="1">
       <c r="B460" s="41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C460" s="40" t="s">
         <v>2</v>
@@ -6692,7 +6704,7 @@
     </row>
     <row r="461" spans="2:4" s="38" customFormat="1">
       <c r="B461" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C461" s="40" t="s">
         <v>2</v>
@@ -6701,7 +6713,7 @@
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
       <c r="B462" s="41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -6710,7 +6722,7 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C463" s="40" t="s">
         <v>2</v>
@@ -6719,7 +6731,7 @@
     </row>
     <row r="464" spans="2:4" s="38" customFormat="1">
       <c r="B464" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C464" s="40" t="s">
         <v>2</v>
@@ -6728,7 +6740,7 @@
     </row>
     <row r="465" spans="2:4" s="38" customFormat="1">
       <c r="B465" s="41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C465" s="40" t="s">
         <v>2</v>
@@ -6737,7 +6749,7 @@
     </row>
     <row r="466" spans="2:4" s="38" customFormat="1">
       <c r="B466" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C466" s="40" t="s">
         <v>2</v>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="467" spans="2:4" s="38" customFormat="1">
       <c r="B467" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C467" s="40" t="s">
         <v>2</v>
@@ -6755,7 +6767,7 @@
     </row>
     <row r="468" spans="2:4" s="38" customFormat="1">
       <c r="B468" s="41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C468" s="40" t="s">
         <v>2</v>
@@ -6764,7 +6776,7 @@
     </row>
     <row r="469" spans="2:4" s="38" customFormat="1">
       <c r="B469" s="41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C469" s="40" t="s">
         <v>2</v>
@@ -6773,7 +6785,7 @@
     </row>
     <row r="470" spans="2:4" s="38" customFormat="1">
       <c r="B470" s="41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C470" s="40" t="s">
         <v>2</v>
@@ -6782,7 +6794,7 @@
     </row>
     <row r="471" spans="2:4" s="38" customFormat="1">
       <c r="B471" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C471" s="40" t="s">
         <v>2</v>
@@ -6791,7 +6803,7 @@
     </row>
     <row r="472" spans="2:4" s="38" customFormat="1">
       <c r="B472" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C472" s="40" t="s">
         <v>2</v>
@@ -6800,7 +6812,7 @@
     </row>
     <row r="473" spans="2:4" s="38" customFormat="1">
       <c r="B473" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C473" s="40" t="s">
         <v>2</v>
@@ -6809,7 +6821,7 @@
     </row>
     <row r="474" spans="2:4" s="38" customFormat="1">
       <c r="B474" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C474" s="40" t="s">
         <v>2</v>
@@ -6818,7 +6830,7 @@
     </row>
     <row r="475" spans="2:4" s="38" customFormat="1">
       <c r="B475" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C475" s="40" t="s">
         <v>2</v>
@@ -6827,7 +6839,7 @@
     </row>
     <row r="476" spans="2:4" s="38" customFormat="1">
       <c r="B476" s="41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C476" s="40" t="s">
         <v>2</v>
@@ -6836,7 +6848,7 @@
     </row>
     <row r="477" spans="2:4" s="38" customFormat="1">
       <c r="B477" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C477" s="40" t="s">
         <v>2</v>
@@ -6845,7 +6857,7 @@
     </row>
     <row r="478" spans="2:4" s="38" customFormat="1">
       <c r="B478" s="41" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C478" s="40" t="s">
         <v>2</v>
@@ -6854,7 +6866,7 @@
     </row>
     <row r="479" spans="2:4" s="38" customFormat="1">
       <c r="B479" s="41" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C479" s="40" t="s">
         <v>2</v>
@@ -6863,7 +6875,7 @@
     </row>
     <row r="480" spans="2:4" s="38" customFormat="1">
       <c r="B480" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C480" s="40" t="s">
         <v>2</v>
@@ -6872,7 +6884,7 @@
     </row>
     <row r="481" spans="2:4" s="38" customFormat="1">
       <c r="B481" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C481" s="40" t="s">
         <v>2</v>
@@ -6881,7 +6893,7 @@
     </row>
     <row r="482" spans="2:4" s="38" customFormat="1">
       <c r="B482" s="41" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C482" s="40" t="s">
         <v>2</v>
@@ -6890,7 +6902,7 @@
     </row>
     <row r="483" spans="2:4" s="38" customFormat="1">
       <c r="B483" s="41" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="C483" s="40" t="s">
         <v>2</v>
@@ -6899,7 +6911,7 @@
     </row>
     <row r="484" spans="2:4" s="38" customFormat="1">
       <c r="B484" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C484" s="40" t="s">
         <v>2</v>
@@ -6908,7 +6920,7 @@
     </row>
     <row r="485" spans="2:4" s="38" customFormat="1">
       <c r="B485" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C485" s="40" t="s">
         <v>2</v>
@@ -6917,7 +6929,7 @@
     </row>
     <row r="486" spans="2:4" s="38" customFormat="1">
       <c r="B486" s="41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C486" s="40" t="s">
         <v>2</v>
@@ -6926,7 +6938,7 @@
     </row>
     <row r="487" spans="2:4" s="38" customFormat="1">
       <c r="B487" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C487" s="40" t="s">
         <v>2</v>
@@ -6935,7 +6947,7 @@
     </row>
     <row r="488" spans="2:4" s="38" customFormat="1">
       <c r="B488" s="41" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C488" s="40" t="s">
         <v>2</v>
@@ -6944,7 +6956,7 @@
     </row>
     <row r="489" spans="2:4" s="38" customFormat="1">
       <c r="B489" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C489" s="40" t="s">
         <v>2</v>
@@ -6953,7 +6965,7 @@
     </row>
     <row r="490" spans="2:4" s="38" customFormat="1">
       <c r="B490" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C490" s="40" t="s">
         <v>2</v>
@@ -6962,7 +6974,7 @@
     </row>
     <row r="491" spans="2:4" s="38" customFormat="1">
       <c r="B491" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C491" s="40" t="s">
         <v>2</v>
@@ -6971,7 +6983,7 @@
     </row>
     <row r="492" spans="2:4" s="38" customFormat="1">
       <c r="B492" s="41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C492" s="40" t="s">
         <v>2</v>
@@ -6980,7 +6992,7 @@
     </row>
     <row r="493" spans="2:4" s="38" customFormat="1">
       <c r="B493" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C493" s="40" t="s">
         <v>2</v>
@@ -6989,7 +7001,7 @@
     </row>
     <row r="494" spans="2:4" s="38" customFormat="1">
       <c r="B494" s="41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C494" s="40" t="s">
         <v>2</v>
@@ -6998,7 +7010,7 @@
     </row>
     <row r="495" spans="2:4" s="38" customFormat="1">
       <c r="B495" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C495" s="40" t="s">
         <v>2</v>
@@ -7007,7 +7019,7 @@
     </row>
     <row r="496" spans="2:4" s="38" customFormat="1">
       <c r="B496" s="41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C496" s="40" t="s">
         <v>2</v>
@@ -7016,7 +7028,7 @@
     </row>
     <row r="497" spans="1:4" s="38" customFormat="1">
       <c r="B497" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C497" s="40" t="s">
         <v>2</v>
@@ -7025,7 +7037,7 @@
     </row>
     <row r="498" spans="1:4" s="38" customFormat="1">
       <c r="B498" s="41" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="C498" s="40" t="s">
         <v>2</v>
@@ -7034,7 +7046,7 @@
     </row>
     <row r="499" spans="1:4" s="38" customFormat="1">
       <c r="B499" s="41" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="C499" s="40" t="s">
         <v>2</v>
@@ -7043,89 +7055,125 @@
     </row>
     <row r="500" spans="1:4" s="38" customFormat="1">
       <c r="B500" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C500" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500" s="40"/>
+    </row>
+    <row r="501" spans="1:4" s="38" customFormat="1">
+      <c r="B501" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C501" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" s="40"/>
+    </row>
+    <row r="502" spans="1:4" s="38" customFormat="1">
+      <c r="B502" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="C502" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D502" s="40"/>
+    </row>
+    <row r="503" spans="1:4" s="38" customFormat="1">
+      <c r="B503" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C503" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" s="40"/>
+    </row>
+    <row r="504" spans="1:4" s="38" customFormat="1">
+      <c r="B504" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C500" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D500" s="40"/>
-    </row>
-    <row r="501" spans="1:4" s="38" customFormat="1">
-      <c r="B501" s="41"/>
-      <c r="C501" s="40"/>
-      <c r="D501" s="40"/>
-    </row>
-    <row r="502" spans="1:4" s="38" customFormat="1">
-      <c r="B502" s="41"/>
-      <c r="C502" s="40"/>
-      <c r="D502" s="40"/>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="37"/>
-      <c r="B503" s="45"/>
-      <c r="C503" s="45"/>
-      <c r="D503" s="37"/>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="37"/>
-      <c r="B504" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C504" s="38">
-        <f>COUNTIF(C5:C503,"y")</f>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="37"/>
-      <c r="B505" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C505" s="38">
-        <f>COUNTIF(C5:C503,"n")</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="37"/>
-      <c r="B506" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C506" s="40">
-        <f>COUNTIF(C5:C503,"TBD")</f>
-        <v>0</v>
-      </c>
+      <c r="C504" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" s="40"/>
+    </row>
+    <row r="505" spans="1:4" s="38" customFormat="1">
+      <c r="B505" s="41"/>
+      <c r="C505" s="40"/>
+      <c r="D505" s="40"/>
+    </row>
+    <row r="506" spans="1:4" s="38" customFormat="1">
+      <c r="B506" s="41"/>
+      <c r="C506" s="40"/>
+      <c r="D506" s="40"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="37"/>
-      <c r="B507" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C507" s="35">
-        <f>SUM(C504:C506)</f>
-        <v>414</v>
-      </c>
+      <c r="B507" s="45"/>
+      <c r="C507" s="45"/>
+      <c r="D507" s="37"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="37"/>
-      <c r="B508" s="47"/>
-      <c r="C508" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D508" s="48">
-        <f>C504/(C505+C504 + C506)</f>
-        <v>0.71980676328502413</v>
+      <c r="B508" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" s="38">
+        <f>COUNTIF(C5:C507,"y")</f>
+        <v>299</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="37"/>
-      <c r="B509" s="45"/>
-      <c r="C509" s="45"/>
-      <c r="D509" s="37"/>
+      <c r="B509" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" s="38">
+        <f>COUNTIF(C5:C507,"n")</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="37"/>
+      <c r="B510" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C510" s="40">
+        <f>COUNTIF(C5:C507,"TBD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="37"/>
+      <c r="B511" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C511" s="35">
+        <f>SUM(C508:C510)</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="37"/>
+      <c r="B512" s="47"/>
+      <c r="C512" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D512" s="48">
+        <f>C508/(C509+C508 + C510)</f>
+        <v>0.71531100478468901</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="37"/>
+      <c r="B513" s="45"/>
+      <c r="C513" s="45"/>
+      <c r="D513" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C420:C65257 C414:C418 C1:C3 C6:C412">
+  <conditionalFormatting sqref="C424:C65261 C418:C422 C1:C3 C6:C416">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -7152,7 +7200,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7485,13 +7533,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="10">
-        <v>45665</v>
+        <v>45667</v>
       </c>
       <c r="B52" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C52" s="5">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -7502,7 +7550,7 @@
       <c r="F52" s="17"/>
       <c r="G52" s="14">
         <f t="shared" ref="G52" si="2">B52/SUM(B52:E52)</f>
-        <v>0.71980676328502413</v>
+        <v>0.71531100478468901</v>
       </c>
       <c r="H52" s="5"/>
     </row>
@@ -7545,25 +7593,25 @@
       <c r="F55" s="15"/>
       <c r="G55" s="18">
         <f>MIN(G52)</f>
-        <v>0.71980676328502413</v>
+        <v>0.71531100478468901</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="19">
         <f>SUM(B56:D56)</f>
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B56" s="20">
-        <f>Features!C504</f>
-        <v>298</v>
+        <f>Features!C508</f>
+        <v>299</v>
       </c>
       <c r="C56" s="21">
-        <f>Features!C505</f>
-        <v>116</v>
+        <f>Features!C509</f>
+        <v>119</v>
       </c>
       <c r="D56" s="22">
-        <f>Features!C506</f>
+        <f>Features!C510</f>
         <v>0</v>
       </c>
       <c r="E56" s="23">
@@ -7611,7 +7659,7 @@
       </c>
       <c r="B60" s="26">
         <f>(A52-A48)*A56/B56 +A48</f>
-        <v>45686.798657718122</v>
+        <v>45690.083612040136</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>

--- a/CodePad Features.xlsx
+++ b/CodePad Features.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="376">
   <si>
     <t>Feature</t>
   </si>
@@ -1134,6 +1134,18 @@
   </si>
   <si>
     <t>styleable: -fx-use content-width</t>
+  </si>
+  <si>
+    <t>horizontal scroll when increasing width to avoid excess empty space</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>vertical scroll when increasing height to avoid empty space (wrapped)</t>
+  </si>
+  <si>
+    <t>vertical scroll when increasing height to avoid empty space (non wrapped)</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1408,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955646"/>
+          <c:w val="0.91978071330955669"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1429,10 +1441,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1446,17 +1458,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$52</c:f>
+              <c:f>Progress!$B$48:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1470,7 +1485,10 @@
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299</c:v>
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,10 +1521,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1520,17 +1538,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1544,6 +1565,9 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
@@ -1577,10 +1601,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1594,17 +1618,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1618,6 +1645,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1651,10 +1681,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1668,17 +1698,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$56</c:f>
+              <c:f>Progress!$E$48:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1694,21 +1727,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183491968"/>
-        <c:axId val="183243904"/>
+        <c:axId val="171306368"/>
+        <c:axId val="171123840"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183491968"/>
+        <c:axId val="171306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183243904"/>
+        <c:crossAx val="171123840"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1751,7 +1787,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183243904"/>
+        <c:axId val="171123840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183491968"/>
+        <c:crossAx val="171306368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,7 +1852,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218691"/>
+          <c:y val="0.33819556996218697"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1920,8 +1956,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37852736438635742"/>
-          <c:y val="0.13936449433182574"/>
+          <c:x val="0.37852736438635748"/>
+          <c:y val="0.13936449433182577"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1937,7 +1973,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248128088E-2"/>
+          <c:x val="4.4510450248128108E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1972,10 +2008,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -1989,17 +2025,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$52</c:f>
+              <c:f>Progress!$G$48:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2013,17 +2052,20 @@
                   <c:v>0.70023980815347719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71531100478468901</c:v>
+                  <c:v>0.71496437054631834</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71733966745843225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183271808"/>
-        <c:axId val="183273344"/>
+        <c:axId val="171155840"/>
+        <c:axId val="171157376"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183271808"/>
+        <c:axId val="171155840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,13 +2073,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183273344"/>
+        <c:crossAx val="171157376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183273344"/>
+        <c:axId val="171157376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2080,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183271808"/>
+        <c:crossAx val="171155840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,10 +2222,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2197,17 +2239,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$52</c:f>
+              <c:f>Progress!$C$48:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2221,6 +2266,9 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
@@ -2254,10 +2302,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$52</c:f>
+              <c:f>Progress!$A$48:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>yyyy-mm-dd</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>45609</c:v>
                 </c:pt>
@@ -2271,17 +2319,20 @@
                   <c:v>45663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45667</c:v>
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$52</c:f>
+              <c:f>Progress!$D$48:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2297,15 +2348,18 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="183965952"/>
-        <c:axId val="183971840"/>
+        <c:axId val="171313408"/>
+        <c:axId val="171319296"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="183965952"/>
+        <c:axId val="171313408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183971840"/>
+        <c:crossAx val="171319296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2347,7 +2401,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183971840"/>
+        <c:axId val="171319296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183965952"/>
+        <c:crossAx val="171313408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,7 +2542,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2896,10 +2950,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D526"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3070,7 +3124,7 @@
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="2:4" s="38" customFormat="1">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="40" t="s">
@@ -3196,7 +3250,7 @@
         <v>72</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D38" s="40"/>
     </row>
@@ -3206,7 +3260,7 @@
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="2:4" s="38" customFormat="1">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="40" t="s">
@@ -3479,34 +3533,38 @@
       <c r="D72" s="40"/>
     </row>
     <row r="73" spans="2:4" s="38" customFormat="1">
-      <c r="B73" s="41"/>
+      <c r="B73" s="37" t="s">
+        <v>373</v>
+      </c>
       <c r="C73" s="40"/>
       <c r="D73" s="40"/>
     </row>
     <row r="74" spans="2:4" s="38" customFormat="1">
-      <c r="B74" s="37" t="s">
-        <v>106</v>
-      </c>
+      <c r="B74" s="41"/>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
     </row>
     <row r="75" spans="2:4" s="38" customFormat="1">
-      <c r="B75" s="41"/>
-      <c r="C75" s="40"/>
+      <c r="B75" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D75" s="40"/>
     </row>
     <row r="76" spans="2:4" s="38" customFormat="1">
       <c r="B76" s="41" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D76" s="40"/>
     </row>
     <row r="77" spans="2:4" s="38" customFormat="1">
-      <c r="B77" s="39" t="s">
-        <v>112</v>
+      <c r="B77" s="41" t="s">
+        <v>375</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>2</v>
@@ -3514,106 +3572,70 @@
       <c r="D77" s="40"/>
     </row>
     <row r="78" spans="2:4" s="38" customFormat="1">
-      <c r="B78" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="40"/>
       <c r="D78" s="40"/>
     </row>
     <row r="79" spans="2:4" s="38" customFormat="1">
-      <c r="B79" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B79" s="41"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="40"/>
     </row>
     <row r="80" spans="2:4" s="38" customFormat="1">
-      <c r="B80" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B80" s="41"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="40"/>
     </row>
     <row r="81" spans="2:4" s="38" customFormat="1">
-      <c r="B81" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B81" s="41"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="40"/>
     </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="82" spans="2:4" s="38" customFormat="1">
+      <c r="B82" s="41"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="2:4" s="38" customFormat="1">
-      <c r="B83" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B83" s="41"/>
+      <c r="C83" s="40"/>
       <c r="D83" s="40"/>
     </row>
     <row r="84" spans="2:4" s="38" customFormat="1">
-      <c r="B84" s="41" t="s">
-        <v>122</v>
-      </c>
+      <c r="B84" s="41"/>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
     </row>
-    <row r="85" spans="2:4">
-      <c r="B85" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="85" spans="2:4" s="38" customFormat="1">
+      <c r="B85" s="41"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
     </row>
     <row r="86" spans="2:4" s="38" customFormat="1">
-      <c r="B86" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B86" s="41"/>
+      <c r="C86" s="40"/>
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>2</v>
-      </c>
+    <row r="87" spans="2:4" s="38" customFormat="1">
+      <c r="B87" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="2:4" s="38" customFormat="1">
-      <c r="B88" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="35" t="s">
-        <v>118</v>
+    <row r="89" spans="2:4" s="38" customFormat="1">
+      <c r="B89" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="2:4" s="38" customFormat="1">
       <c r="B90" s="39" t="s">
@@ -3624,110 +3646,107 @@
       </c>
       <c r="D90" s="40"/>
     </row>
-    <row r="91" spans="2:4">
-      <c r="B91" s="35" t="s">
-        <v>117</v>
+    <row r="91" spans="2:4" s="38" customFormat="1">
+      <c r="B91" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="2:4" s="38" customFormat="1">
       <c r="B92" s="39" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="2:4">
-      <c r="B93" s="35" t="s">
-        <v>64</v>
+    <row r="93" spans="2:4" s="38" customFormat="1">
+      <c r="B93" s="39" t="s">
+        <v>115</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D93" s="40"/>
     </row>
     <row r="94" spans="2:4" s="38" customFormat="1">
       <c r="B94" s="39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D94" s="40"/>
     </row>
-    <row r="95" spans="2:4" s="38" customFormat="1">
-      <c r="B95" s="41" t="s">
-        <v>44</v>
+    <row r="95" spans="2:4">
+      <c r="B95" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="40"/>
     </row>
     <row r="96" spans="2:4" s="38" customFormat="1">
       <c r="B96" s="39" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" s="38" customFormat="1">
-      <c r="B98" s="39" t="s">
-        <v>186</v>
+    <row r="97" spans="2:4" s="38" customFormat="1">
+      <c r="B97" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="40"/>
     </row>
     <row r="99" spans="2:4" s="38" customFormat="1">
-      <c r="B99" s="41" t="s">
-        <v>119</v>
+      <c r="B99" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="40"/>
     </row>
-    <row r="100" spans="2:4" s="38" customFormat="1">
-      <c r="B100" s="39" t="s">
-        <v>187</v>
+    <row r="100" spans="2:4">
+      <c r="B100" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="C100" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="2:4" s="38" customFormat="1">
-      <c r="B101" s="41" t="s">
-        <v>67</v>
+      <c r="B101" s="39" t="s">
+        <v>182</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="40"/>
     </row>
-    <row r="102" spans="2:4" s="38" customFormat="1">
-      <c r="B102" s="41" t="s">
-        <v>93</v>
+    <row r="102" spans="2:4">
+      <c r="B102" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="40"/>
     </row>
     <row r="103" spans="2:4" s="38" customFormat="1">
       <c r="B103" s="39" t="s">
@@ -3738,106 +3757,105 @@
       </c>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="2:4" s="38" customFormat="1">
-      <c r="B104" s="41" t="s">
-        <v>120</v>
+    <row r="104" spans="2:4">
+      <c r="B104" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="C104" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="40"/>
     </row>
     <row r="105" spans="2:4" s="38" customFormat="1">
       <c r="B105" s="39" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D105" s="40"/>
     </row>
-    <row r="106" spans="2:4" s="38" customFormat="1">
-      <c r="B106" s="41" t="s">
-        <v>121</v>
+    <row r="106" spans="2:4">
+      <c r="B106" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="40"/>
     </row>
     <row r="107" spans="2:4" s="38" customFormat="1">
       <c r="B107" s="39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C107" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="40"/>
     </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="35" t="s">
-        <v>85</v>
+    <row r="108" spans="2:4" s="38" customFormat="1">
+      <c r="B108" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D108" s="40"/>
     </row>
     <row r="109" spans="2:4" s="38" customFormat="1">
       <c r="B109" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>2</v>
       </c>
       <c r="D109" s="40"/>
     </row>
-    <row r="110" spans="2:4" s="38" customFormat="1">
+    <row r="110" spans="2:4">
       <c r="B110" s="35" t="s">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="40"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="2:4" s="38" customFormat="1">
       <c r="B111" s="39" t="s">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D111" s="40"/>
     </row>
     <row r="112" spans="2:4" s="38" customFormat="1">
-      <c r="B112" s="35" t="s">
-        <v>370</v>
+      <c r="B112" s="41" t="s">
+        <v>119</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D112" s="40"/>
     </row>
     <row r="113" spans="2:4" s="38" customFormat="1">
       <c r="B113" s="39" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D113" s="40"/>
     </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="35" t="s">
-        <v>123</v>
+    <row r="114" spans="2:4" s="38" customFormat="1">
+      <c r="B114" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="C114" s="40" t="s">
         <v>2</v>
       </c>
+      <c r="D114" s="40"/>
     </row>
     <row r="115" spans="2:4" s="38" customFormat="1">
-      <c r="B115" s="39" t="s">
-        <v>191</v>
+      <c r="B115" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="C115" s="40" t="s">
         <v>2</v>
@@ -3845,53 +3863,70 @@
       <c r="D115" s="40"/>
     </row>
     <row r="116" spans="2:4" s="38" customFormat="1">
-      <c r="B116" s="41"/>
-      <c r="C116" s="40"/>
+      <c r="B116" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D116" s="40"/>
     </row>
     <row r="117" spans="2:4" s="38" customFormat="1">
-      <c r="B117" s="41"/>
-      <c r="C117" s="40"/>
+      <c r="B117" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D117" s="40"/>
     </row>
     <row r="118" spans="2:4" s="38" customFormat="1">
-      <c r="B118" s="41"/>
-      <c r="C118" s="40"/>
+      <c r="B118" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D118" s="40"/>
     </row>
     <row r="119" spans="2:4" s="38" customFormat="1">
-      <c r="B119" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C119" s="40"/>
+      <c r="B119" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D119" s="40"/>
     </row>
     <row r="120" spans="2:4" s="38" customFormat="1">
-      <c r="B120" s="41"/>
-      <c r="C120" s="40"/>
+      <c r="B120" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D120" s="40"/>
     </row>
-    <row r="121" spans="2:4" s="38" customFormat="1">
-      <c r="B121" s="42" t="s">
-        <v>140</v>
+    <row r="121" spans="2:4">
+      <c r="B121" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="40"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="2:4" s="38" customFormat="1">
       <c r="B122" s="39" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D122" s="40"/>
     </row>
     <row r="123" spans="2:4" s="38" customFormat="1">
-      <c r="B123" s="39" t="s">
-        <v>349</v>
+      <c r="B123" s="35" t="s">
+        <v>368</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>14</v>
@@ -3900,43 +3935,42 @@
     </row>
     <row r="124" spans="2:4" s="38" customFormat="1">
       <c r="B124" s="39" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D124" s="40"/>
     </row>
     <row r="125" spans="2:4" s="38" customFormat="1">
-      <c r="B125" s="39" t="s">
-        <v>263</v>
+      <c r="B125" s="35" t="s">
+        <v>370</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D125" s="40"/>
     </row>
     <row r="126" spans="2:4" s="38" customFormat="1">
-      <c r="B126" s="42" t="s">
-        <v>141</v>
+      <c r="B126" s="39" t="s">
+        <v>371</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="40"/>
     </row>
-    <row r="127" spans="2:4" s="38" customFormat="1">
-      <c r="B127" s="39" t="s">
-        <v>337</v>
+    <row r="127" spans="2:4">
+      <c r="B127" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="40"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="2:4" s="38" customFormat="1">
       <c r="B128" s="39" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>2</v>
@@ -3944,53 +3978,35 @@
       <c r="D128" s="40"/>
     </row>
     <row r="129" spans="2:4" s="38" customFormat="1">
-      <c r="B129" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C129" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B129" s="41"/>
+      <c r="C129" s="40"/>
       <c r="D129" s="40"/>
     </row>
     <row r="130" spans="2:4" s="38" customFormat="1">
-      <c r="B130" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B130" s="41"/>
+      <c r="C130" s="40"/>
       <c r="D130" s="40"/>
     </row>
     <row r="131" spans="2:4" s="38" customFormat="1">
-      <c r="B131" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B131" s="41"/>
+      <c r="C131" s="40"/>
       <c r="D131" s="40"/>
     </row>
     <row r="132" spans="2:4" s="38" customFormat="1">
-      <c r="B132" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B132" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" s="40"/>
       <c r="D132" s="40"/>
     </row>
     <row r="133" spans="2:4" s="38" customFormat="1">
-      <c r="B133" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B133" s="41"/>
+      <c r="C133" s="40"/>
       <c r="D133" s="40"/>
     </row>
     <row r="134" spans="2:4" s="38" customFormat="1">
-      <c r="B134" s="39" t="s">
-        <v>337</v>
+      <c r="B134" s="42" t="s">
+        <v>140</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>14</v>
@@ -3999,43 +4015,43 @@
     </row>
     <row r="135" spans="2:4" s="38" customFormat="1">
       <c r="B135" s="39" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D135" s="40"/>
     </row>
     <row r="136" spans="2:4" s="38" customFormat="1">
       <c r="B136" s="39" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D136" s="40"/>
     </row>
     <row r="137" spans="2:4" s="38" customFormat="1">
-      <c r="B137" s="42" t="s">
-        <v>143</v>
+      <c r="B137" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D137" s="40"/>
     </row>
     <row r="138" spans="2:4" s="38" customFormat="1">
       <c r="B138" s="39" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D138" s="40"/>
     </row>
     <row r="139" spans="2:4" s="38" customFormat="1">
-      <c r="B139" s="39" t="s">
-        <v>349</v>
+      <c r="B139" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>14</v>
@@ -4044,34 +4060,34 @@
     </row>
     <row r="140" spans="2:4" s="38" customFormat="1">
       <c r="B140" s="39" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C140" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D140" s="40"/>
     </row>
     <row r="141" spans="2:4" s="38" customFormat="1">
-      <c r="B141" s="42" t="s">
-        <v>144</v>
+      <c r="B141" s="39" t="s">
+        <v>244</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D141" s="40"/>
     </row>
     <row r="142" spans="2:4" s="38" customFormat="1">
       <c r="B142" s="39" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D142" s="40"/>
     </row>
     <row r="143" spans="2:4" s="38" customFormat="1">
-      <c r="B143" s="39" t="s">
-        <v>349</v>
+      <c r="B143" s="42" t="s">
+        <v>194</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>14</v>
@@ -4080,25 +4096,25 @@
     </row>
     <row r="144" spans="2:4" s="38" customFormat="1">
       <c r="B144" s="39" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D144" s="40"/>
     </row>
     <row r="145" spans="2:4" s="38" customFormat="1">
-      <c r="B145" s="42" t="s">
-        <v>165</v>
+      <c r="B145" s="39" t="s">
+        <v>330</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D145" s="40"/>
     </row>
     <row r="146" spans="2:4" s="38" customFormat="1">
-      <c r="B146" s="39" t="s">
-        <v>337</v>
+      <c r="B146" s="42" t="s">
+        <v>142</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>14</v>
@@ -4107,7 +4123,7 @@
     </row>
     <row r="147" spans="2:4" s="38" customFormat="1">
       <c r="B147" s="39" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>14</v>
@@ -4116,25 +4132,25 @@
     </row>
     <row r="148" spans="2:4" s="38" customFormat="1">
       <c r="B148" s="39" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" s="40"/>
     </row>
     <row r="149" spans="2:4" s="38" customFormat="1">
-      <c r="B149" s="42" t="s">
-        <v>166</v>
+      <c r="B149" s="39" t="s">
+        <v>242</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D149" s="40"/>
     </row>
     <row r="150" spans="2:4" s="38" customFormat="1">
-      <c r="B150" s="39" t="s">
-        <v>337</v>
+      <c r="B150" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>14</v>
@@ -4143,7 +4159,7 @@
     </row>
     <row r="151" spans="2:4" s="38" customFormat="1">
       <c r="B151" s="39" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>14</v>
@@ -4152,16 +4168,16 @@
     </row>
     <row r="152" spans="2:4" s="38" customFormat="1">
       <c r="B152" s="39" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D152" s="40"/>
     </row>
     <row r="153" spans="2:4" s="38" customFormat="1">
       <c r="B153" s="39" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>2</v>
@@ -4170,77 +4186,79 @@
     </row>
     <row r="154" spans="2:4" s="38" customFormat="1">
       <c r="B154" s="42" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="40"/>
     </row>
-    <row r="155" spans="2:4">
-      <c r="B155" s="44" t="s">
-        <v>100</v>
+    <row r="155" spans="2:4" s="38" customFormat="1">
+      <c r="B155" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" s="44" t="s">
-        <v>101</v>
+      <c r="D155" s="40"/>
+    </row>
+    <row r="156" spans="2:4" s="38" customFormat="1">
+      <c r="B156" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>14</v>
       </c>
+      <c r="D156" s="40"/>
     </row>
     <row r="157" spans="2:4" s="38" customFormat="1">
       <c r="B157" s="39" t="s">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="C157" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="40"/>
+    </row>
+    <row r="158" spans="2:4" s="38" customFormat="1">
+      <c r="B158" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D157" s="40"/>
-    </row>
-    <row r="158" spans="2:4" s="38" customFormat="1">
-      <c r="B158" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C158" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D158" s="40"/>
     </row>
     <row r="159" spans="2:4" s="38" customFormat="1">
       <c r="B159" s="39" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="C159" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D159" s="40"/>
     </row>
     <row r="160" spans="2:4" s="38" customFormat="1">
-      <c r="B160" s="42" t="s">
-        <v>168</v>
+      <c r="B160" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C160" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D160" s="40"/>
     </row>
     <row r="161" spans="2:4" s="38" customFormat="1">
       <c r="B161" s="39" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C161" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D161" s="40"/>
     </row>
     <row r="162" spans="2:4" s="38" customFormat="1">
       <c r="B162" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C162" s="40" t="s">
         <v>14</v>
@@ -4258,7 +4276,7 @@
     </row>
     <row r="164" spans="2:4" s="38" customFormat="1">
       <c r="B164" s="39" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>14</v>
@@ -4267,52 +4285,50 @@
     </row>
     <row r="165" spans="2:4" s="38" customFormat="1">
       <c r="B165" s="39" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D165" s="40"/>
     </row>
     <row r="166" spans="2:4" s="38" customFormat="1">
-      <c r="B166" s="42" t="s">
-        <v>170</v>
+      <c r="B166" s="39" t="s">
+        <v>253</v>
       </c>
       <c r="C166" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D166" s="40"/>
     </row>
     <row r="167" spans="2:4" s="38" customFormat="1">
-      <c r="B167" s="39" t="s">
-        <v>337</v>
+      <c r="B167" s="42" t="s">
+        <v>167</v>
       </c>
       <c r="C167" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="40"/>
     </row>
-    <row r="168" spans="2:4" s="38" customFormat="1">
-      <c r="B168" s="39" t="s">
-        <v>299</v>
+    <row r="168" spans="2:4">
+      <c r="B168" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="C168" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="40"/>
-    </row>
-    <row r="169" spans="2:4" s="38" customFormat="1">
-      <c r="B169" s="39" t="s">
-        <v>300</v>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="C169" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="40"/>
     </row>
     <row r="170" spans="2:4" s="38" customFormat="1">
-      <c r="B170" s="42" t="s">
-        <v>145</v>
+      <c r="B170" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C170" s="40" t="s">
         <v>14</v>
@@ -4321,25 +4337,25 @@
     </row>
     <row r="171" spans="2:4" s="38" customFormat="1">
       <c r="B171" s="39" t="s">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="C171" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D171" s="40"/>
     </row>
     <row r="172" spans="2:4" s="38" customFormat="1">
       <c r="B172" s="39" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="C172" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D172" s="40"/>
     </row>
     <row r="173" spans="2:4" s="38" customFormat="1">
-      <c r="B173" s="39" t="s">
-        <v>268</v>
+      <c r="B173" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="C173" s="40" t="s">
         <v>2</v>
@@ -4347,17 +4363,17 @@
       <c r="D173" s="40"/>
     </row>
     <row r="174" spans="2:4" s="38" customFormat="1">
-      <c r="B174" s="42" t="s">
-        <v>146</v>
+      <c r="B174" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D174" s="40"/>
     </row>
     <row r="175" spans="2:4" s="38" customFormat="1">
-      <c r="B175" s="39" t="s">
-        <v>337</v>
+      <c r="B175" s="42" t="s">
+        <v>169</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>14</v>
@@ -4366,7 +4382,7 @@
     </row>
     <row r="176" spans="2:4" s="38" customFormat="1">
       <c r="B176" s="39" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>14</v>
@@ -4375,88 +4391,88 @@
     </row>
     <row r="177" spans="2:4" s="38" customFormat="1">
       <c r="B177" s="39" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C177" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D177" s="40"/>
     </row>
     <row r="178" spans="2:4" s="38" customFormat="1">
-      <c r="B178" s="42" t="s">
-        <v>147</v>
+      <c r="B178" s="39" t="s">
+        <v>301</v>
       </c>
       <c r="C178" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D178" s="40"/>
     </row>
     <row r="179" spans="2:4" s="38" customFormat="1">
-      <c r="B179" s="39" t="s">
-        <v>346</v>
+      <c r="B179" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="C179" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D179" s="40"/>
     </row>
     <row r="180" spans="2:4" s="38" customFormat="1">
       <c r="B180" s="39" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C180" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D180" s="40"/>
     </row>
     <row r="181" spans="2:4" s="38" customFormat="1">
       <c r="B181" s="39" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C181" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D181" s="40"/>
     </row>
     <row r="182" spans="2:4" s="38" customFormat="1">
       <c r="B182" s="39" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C182" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D182" s="40"/>
     </row>
     <row r="183" spans="2:4" s="38" customFormat="1">
       <c r="B183" s="42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C183" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D183" s="40"/>
     </row>
     <row r="184" spans="2:4" s="38" customFormat="1">
       <c r="B184" s="39" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C184" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D184" s="40"/>
     </row>
     <row r="185" spans="2:4" s="38" customFormat="1">
       <c r="B185" s="39" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C185" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D185" s="40"/>
     </row>
     <row r="186" spans="2:4" s="38" customFormat="1">
       <c r="B186" s="39" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>2</v>
@@ -4464,35 +4480,35 @@
       <c r="D186" s="40"/>
     </row>
     <row r="187" spans="2:4" s="38" customFormat="1">
-      <c r="B187" s="39" t="s">
-        <v>247</v>
+      <c r="B187" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="C187" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D187" s="40"/>
     </row>
     <row r="188" spans="2:4" s="38" customFormat="1">
-      <c r="B188" s="42" t="s">
-        <v>149</v>
+      <c r="B188" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C188" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D188" s="40"/>
     </row>
     <row r="189" spans="2:4" s="38" customFormat="1">
       <c r="B189" s="39" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C189" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D189" s="40"/>
     </row>
     <row r="190" spans="2:4" s="38" customFormat="1">
       <c r="B190" s="39" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="C190" s="40" t="s">
         <v>2</v>
@@ -4500,8 +4516,8 @@
       <c r="D190" s="40"/>
     </row>
     <row r="191" spans="2:4" s="38" customFormat="1">
-      <c r="B191" s="39" t="s">
-        <v>349</v>
+      <c r="B191" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="C191" s="40" t="s">
         <v>2</v>
@@ -4510,7 +4526,7 @@
     </row>
     <row r="192" spans="2:4" s="38" customFormat="1">
       <c r="B192" s="39" t="s">
-        <v>248</v>
+        <v>346</v>
       </c>
       <c r="C192" s="40" t="s">
         <v>2</v>
@@ -4518,8 +4534,8 @@
       <c r="D192" s="40"/>
     </row>
     <row r="193" spans="2:4" s="38" customFormat="1">
-      <c r="B193" s="42" t="s">
-        <v>151</v>
+      <c r="B193" s="39" t="s">
+        <v>347</v>
       </c>
       <c r="C193" s="40" t="s">
         <v>2</v>
@@ -4528,7 +4544,7 @@
     </row>
     <row r="194" spans="2:4" s="38" customFormat="1">
       <c r="B194" s="39" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C194" s="40" t="s">
         <v>2</v>
@@ -4537,7 +4553,7 @@
     </row>
     <row r="195" spans="2:4" s="38" customFormat="1">
       <c r="B195" s="39" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="C195" s="40" t="s">
         <v>2</v>
@@ -4545,8 +4561,8 @@
       <c r="D195" s="40"/>
     </row>
     <row r="196" spans="2:4" s="38" customFormat="1">
-      <c r="B196" s="39" t="s">
-        <v>264</v>
+      <c r="B196" s="42" t="s">
+        <v>148</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>2</v>
@@ -4555,7 +4571,7 @@
     </row>
     <row r="197" spans="2:4" s="38" customFormat="1">
       <c r="B197" s="39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C197" s="40" t="s">
         <v>2</v>
@@ -4563,8 +4579,8 @@
       <c r="D197" s="40"/>
     </row>
     <row r="198" spans="2:4" s="38" customFormat="1">
-      <c r="B198" s="42" t="s">
-        <v>150</v>
+      <c r="B198" s="39" t="s">
+        <v>308</v>
       </c>
       <c r="C198" s="40" t="s">
         <v>2</v>
@@ -4573,7 +4589,7 @@
     </row>
     <row r="199" spans="2:4" s="38" customFormat="1">
       <c r="B199" s="39" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C199" s="40" t="s">
         <v>2</v>
@@ -4582,7 +4598,7 @@
     </row>
     <row r="200" spans="2:4" s="38" customFormat="1">
       <c r="B200" s="39" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="C200" s="40" t="s">
         <v>2</v>
@@ -4590,8 +4606,8 @@
       <c r="D200" s="40"/>
     </row>
     <row r="201" spans="2:4" s="38" customFormat="1">
-      <c r="B201" s="39" t="s">
-        <v>269</v>
+      <c r="B201" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="C201" s="40" t="s">
         <v>2</v>
@@ -4600,7 +4616,7 @@
     </row>
     <row r="202" spans="2:4" s="38" customFormat="1">
       <c r="B202" s="39" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C202" s="40" t="s">
         <v>2</v>
@@ -4608,8 +4624,8 @@
       <c r="D202" s="40"/>
     </row>
     <row r="203" spans="2:4" s="38" customFormat="1">
-      <c r="B203" s="42" t="s">
-        <v>172</v>
+      <c r="B203" s="39" t="s">
+        <v>308</v>
       </c>
       <c r="C203" s="40" t="s">
         <v>2</v>
@@ -4618,7 +4634,7 @@
     </row>
     <row r="204" spans="2:4" s="38" customFormat="1">
       <c r="B204" s="39" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C204" s="40" t="s">
         <v>2</v>
@@ -4627,7 +4643,7 @@
     </row>
     <row r="205" spans="2:4" s="38" customFormat="1">
       <c r="B205" s="39" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="C205" s="40" t="s">
         <v>2</v>
@@ -4635,8 +4651,8 @@
       <c r="D205" s="40"/>
     </row>
     <row r="206" spans="2:4" s="38" customFormat="1">
-      <c r="B206" s="39" t="s">
-        <v>349</v>
+      <c r="B206" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C206" s="40" t="s">
         <v>2</v>
@@ -4645,7 +4661,7 @@
     </row>
     <row r="207" spans="2:4" s="38" customFormat="1">
       <c r="B207" s="39" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C207" s="40" t="s">
         <v>2</v>
@@ -4654,7 +4670,7 @@
     </row>
     <row r="208" spans="2:4" s="38" customFormat="1">
       <c r="B208" s="39" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C208" s="40" t="s">
         <v>2</v>
@@ -4662,8 +4678,8 @@
       <c r="D208" s="40"/>
     </row>
     <row r="209" spans="2:4" s="38" customFormat="1">
-      <c r="B209" s="42" t="s">
-        <v>171</v>
+      <c r="B209" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="C209" s="40" t="s">
         <v>2</v>
@@ -4672,7 +4688,7 @@
     </row>
     <row r="210" spans="2:4" s="38" customFormat="1">
       <c r="B210" s="39" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="C210" s="40" t="s">
         <v>2</v>
@@ -4680,8 +4696,8 @@
       <c r="D210" s="40"/>
     </row>
     <row r="211" spans="2:4" s="38" customFormat="1">
-      <c r="B211" s="39" t="s">
-        <v>326</v>
+      <c r="B211" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="C211" s="40" t="s">
         <v>2</v>
@@ -4690,7 +4706,7 @@
     </row>
     <row r="212" spans="2:4" s="38" customFormat="1">
       <c r="B212" s="39" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C212" s="40" t="s">
         <v>2</v>
@@ -4699,7 +4715,7 @@
     </row>
     <row r="213" spans="2:4" s="38" customFormat="1">
       <c r="B213" s="39" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C213" s="40" t="s">
         <v>2</v>
@@ -4708,7 +4724,7 @@
     </row>
     <row r="214" spans="2:4" s="38" customFormat="1">
       <c r="B214" s="39" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="C214" s="40" t="s">
         <v>2</v>
@@ -4716,8 +4732,8 @@
       <c r="D214" s="40"/>
     </row>
     <row r="215" spans="2:4" s="38" customFormat="1">
-      <c r="B215" s="42" t="s">
-        <v>173</v>
+      <c r="B215" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="C215" s="40" t="s">
         <v>2</v>
@@ -4725,8 +4741,8 @@
       <c r="D215" s="40"/>
     </row>
     <row r="216" spans="2:4" s="38" customFormat="1">
-      <c r="B216" s="39" t="s">
-        <v>331</v>
+      <c r="B216" s="42" t="s">
+        <v>172</v>
       </c>
       <c r="C216" s="40" t="s">
         <v>2</v>
@@ -4735,7 +4751,7 @@
     </row>
     <row r="217" spans="2:4" s="38" customFormat="1">
       <c r="B217" s="39" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C217" s="40" t="s">
         <v>2</v>
@@ -4744,7 +4760,7 @@
     </row>
     <row r="218" spans="2:4" s="38" customFormat="1">
       <c r="B218" s="39" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="C218" s="40" t="s">
         <v>2</v>
@@ -4752,8 +4768,8 @@
       <c r="D218" s="40"/>
     </row>
     <row r="219" spans="2:4" s="38" customFormat="1">
-      <c r="B219" s="42" t="s">
-        <v>174</v>
+      <c r="B219" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C219" s="40" t="s">
         <v>2</v>
@@ -4762,7 +4778,7 @@
     </row>
     <row r="220" spans="2:4" s="38" customFormat="1">
       <c r="B220" s="39" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C220" s="40" t="s">
         <v>2</v>
@@ -4771,7 +4787,7 @@
     </row>
     <row r="221" spans="2:4" s="38" customFormat="1">
       <c r="B221" s="39" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="C221" s="40" t="s">
         <v>2</v>
@@ -4779,8 +4795,8 @@
       <c r="D221" s="40"/>
     </row>
     <row r="222" spans="2:4" s="38" customFormat="1">
-      <c r="B222" s="39" t="s">
-        <v>278</v>
+      <c r="B222" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="C222" s="40" t="s">
         <v>2</v>
@@ -4788,20 +4804,20 @@
       <c r="D222" s="40"/>
     </row>
     <row r="223" spans="2:4" s="38" customFormat="1">
-      <c r="B223" s="42" t="s">
-        <v>283</v>
+      <c r="B223" s="39" t="s">
+        <v>325</v>
       </c>
       <c r="C223" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D223" s="40"/>
     </row>
     <row r="224" spans="2:4" s="38" customFormat="1">
       <c r="B224" s="39" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C224" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D224" s="40"/>
     </row>
@@ -4810,13 +4826,13 @@
         <v>349</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D225" s="40"/>
     </row>
     <row r="226" spans="2:4" s="38" customFormat="1">
       <c r="B226" s="39" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="C226" s="40" t="s">
         <v>2</v>
@@ -4825,7 +4841,7 @@
     </row>
     <row r="227" spans="2:4" s="38" customFormat="1">
       <c r="B227" s="39" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="C227" s="40" t="s">
         <v>2</v>
@@ -4834,19 +4850,19 @@
     </row>
     <row r="228" spans="2:4" s="38" customFormat="1">
       <c r="B228" s="42" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="C228" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D228" s="40"/>
     </row>
     <row r="229" spans="2:4" s="38" customFormat="1">
       <c r="B229" s="39" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C229" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D229" s="40"/>
     </row>
@@ -4855,13 +4871,13 @@
         <v>349</v>
       </c>
       <c r="C230" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D230" s="40"/>
     </row>
     <row r="231" spans="2:4" s="38" customFormat="1">
       <c r="B231" s="39" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C231" s="40" t="s">
         <v>2</v>
@@ -4869,8 +4885,8 @@
       <c r="D231" s="40"/>
     </row>
     <row r="232" spans="2:4" s="38" customFormat="1">
-      <c r="B232" s="39" t="s">
-        <v>294</v>
+      <c r="B232" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="C232" s="40" t="s">
         <v>2</v>
@@ -4878,8 +4894,8 @@
       <c r="D232" s="40"/>
     </row>
     <row r="233" spans="2:4" s="38" customFormat="1">
-      <c r="B233" s="42" t="s">
-        <v>152</v>
+      <c r="B233" s="39" t="s">
+        <v>332</v>
       </c>
       <c r="C233" s="40" t="s">
         <v>2</v>
@@ -4888,7 +4904,7 @@
     </row>
     <row r="234" spans="2:4" s="38" customFormat="1">
       <c r="B234" s="39" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C234" s="40" t="s">
         <v>2</v>
@@ -4897,7 +4913,7 @@
     </row>
     <row r="235" spans="2:4" s="38" customFormat="1">
       <c r="B235" s="39" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="C235" s="40" t="s">
         <v>2</v>
@@ -4905,35 +4921,35 @@
       <c r="D235" s="40"/>
     </row>
     <row r="236" spans="2:4" s="38" customFormat="1">
-      <c r="B236" s="39" t="s">
-        <v>317</v>
+      <c r="B236" s="42" t="s">
+        <v>283</v>
       </c>
       <c r="C236" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D236" s="40"/>
     </row>
     <row r="237" spans="2:4" s="38" customFormat="1">
       <c r="B237" s="39" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="C237" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D237" s="40"/>
     </row>
     <row r="238" spans="2:4" s="38" customFormat="1">
-      <c r="B238" s="42" t="s">
-        <v>153</v>
+      <c r="B238" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="C238" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D238" s="40"/>
     </row>
     <row r="239" spans="2:4" s="38" customFormat="1">
       <c r="B239" s="39" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="C239" s="40" t="s">
         <v>2</v>
@@ -4942,7 +4958,7 @@
     </row>
     <row r="240" spans="2:4" s="38" customFormat="1">
       <c r="B240" s="39" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C240" s="40" t="s">
         <v>2</v>
@@ -4950,35 +4966,35 @@
       <c r="D240" s="40"/>
     </row>
     <row r="241" spans="2:4" s="38" customFormat="1">
-      <c r="B241" s="39" t="s">
-        <v>297</v>
+      <c r="B241" s="42" t="s">
+        <v>284</v>
       </c>
       <c r="C241" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D241" s="40"/>
     </row>
     <row r="242" spans="2:4" s="38" customFormat="1">
-      <c r="B242" s="42" t="s">
-        <v>154</v>
+      <c r="B242" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C242" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D242" s="40"/>
     </row>
     <row r="243" spans="2:4" s="38" customFormat="1">
       <c r="B243" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C243" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D243" s="40"/>
     </row>
     <row r="244" spans="2:4" s="38" customFormat="1">
       <c r="B244" s="39" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C244" s="40" t="s">
         <v>2</v>
@@ -4987,7 +5003,7 @@
     </row>
     <row r="245" spans="2:4" s="38" customFormat="1">
       <c r="B245" s="39" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C245" s="40" t="s">
         <v>2</v>
@@ -4996,25 +5012,25 @@
     </row>
     <row r="246" spans="2:4" s="38" customFormat="1">
       <c r="B246" s="42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C246" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D246" s="40"/>
     </row>
     <row r="247" spans="2:4" s="38" customFormat="1">
       <c r="B247" s="39" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C247" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D247" s="40"/>
     </row>
     <row r="248" spans="2:4" s="38" customFormat="1">
       <c r="B248" s="39" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="C248" s="40" t="s">
         <v>2</v>
@@ -5023,7 +5039,7 @@
     </row>
     <row r="249" spans="2:4" s="38" customFormat="1">
       <c r="B249" s="39" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="C249" s="40" t="s">
         <v>2</v>
@@ -5031,26 +5047,26 @@
       <c r="D249" s="40"/>
     </row>
     <row r="250" spans="2:4" s="38" customFormat="1">
-      <c r="B250" s="42" t="s">
-        <v>175</v>
+      <c r="B250" s="39" t="s">
+        <v>249</v>
       </c>
       <c r="C250" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D250" s="40"/>
     </row>
     <row r="251" spans="2:4" s="38" customFormat="1">
-      <c r="B251" s="39" t="s">
-        <v>337</v>
+      <c r="B251" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="C251" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D251" s="40"/>
     </row>
     <row r="252" spans="2:4" s="38" customFormat="1">
       <c r="B252" s="39" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="C252" s="40" t="s">
         <v>2</v>
@@ -5058,26 +5074,26 @@
       <c r="D252" s="40"/>
     </row>
     <row r="253" spans="2:4" s="38" customFormat="1">
-      <c r="B253" s="42" t="s">
-        <v>156</v>
+      <c r="B253" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C253" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D253" s="40"/>
     </row>
     <row r="254" spans="2:4" s="38" customFormat="1">
       <c r="B254" s="39" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="C254" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D254" s="40"/>
     </row>
     <row r="255" spans="2:4" s="38" customFormat="1">
-      <c r="B255" s="39" t="s">
-        <v>279</v>
+      <c r="B255" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="C255" s="40" t="s">
         <v>2</v>
@@ -5086,7 +5102,7 @@
     </row>
     <row r="256" spans="2:4" s="38" customFormat="1">
       <c r="B256" s="39" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>2</v>
@@ -5095,7 +5111,7 @@
     </row>
     <row r="257" spans="2:4" s="38" customFormat="1">
       <c r="B257" s="39" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="C257" s="40" t="s">
         <v>2</v>
@@ -5103,8 +5119,8 @@
       <c r="D257" s="40"/>
     </row>
     <row r="258" spans="2:4" s="38" customFormat="1">
-      <c r="B258" s="42" t="s">
-        <v>157</v>
+      <c r="B258" s="39" t="s">
+        <v>298</v>
       </c>
       <c r="C258" s="40" t="s">
         <v>2</v>
@@ -5112,26 +5128,26 @@
       <c r="D258" s="40"/>
     </row>
     <row r="259" spans="2:4" s="38" customFormat="1">
-      <c r="B259" s="39" t="s">
-        <v>340</v>
+      <c r="B259" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="C259" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D259" s="40"/>
     </row>
     <row r="260" spans="2:4" s="38" customFormat="1">
       <c r="B260" s="39" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C260" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D260" s="40"/>
     </row>
     <row r="261" spans="2:4" s="38" customFormat="1">
       <c r="B261" s="39" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C261" s="40" t="s">
         <v>2</v>
@@ -5139,8 +5155,8 @@
       <c r="D261" s="40"/>
     </row>
     <row r="262" spans="2:4" s="38" customFormat="1">
-      <c r="B262" s="42" t="s">
-        <v>158</v>
+      <c r="B262" s="39" t="s">
+        <v>277</v>
       </c>
       <c r="C262" s="40" t="s">
         <v>2</v>
@@ -5148,26 +5164,26 @@
       <c r="D262" s="40"/>
     </row>
     <row r="263" spans="2:4" s="38" customFormat="1">
-      <c r="B263" s="39" t="s">
-        <v>348</v>
+      <c r="B263" s="42" t="s">
+        <v>175</v>
       </c>
       <c r="C263" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D263" s="40"/>
     </row>
     <row r="264" spans="2:4" s="38" customFormat="1">
       <c r="B264" s="39" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C264" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D264" s="40"/>
     </row>
     <row r="265" spans="2:4" s="38" customFormat="1">
       <c r="B265" s="39" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="C265" s="40" t="s">
         <v>2</v>
@@ -5175,26 +5191,26 @@
       <c r="D265" s="40"/>
     </row>
     <row r="266" spans="2:4" s="38" customFormat="1">
-      <c r="B266" s="39" t="s">
-        <v>255</v>
+      <c r="B266" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="C266" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D266" s="40"/>
     </row>
     <row r="267" spans="2:4" s="38" customFormat="1">
-      <c r="B267" s="42" t="s">
-        <v>159</v>
+      <c r="B267" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C267" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D267" s="40"/>
     </row>
     <row r="268" spans="2:4" s="38" customFormat="1">
       <c r="B268" s="39" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C268" s="40" t="s">
         <v>2</v>
@@ -5203,7 +5219,7 @@
     </row>
     <row r="269" spans="2:4" s="38" customFormat="1">
       <c r="B269" s="39" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C269" s="40" t="s">
         <v>2</v>
@@ -5212,7 +5228,7 @@
     </row>
     <row r="270" spans="2:4" s="38" customFormat="1">
       <c r="B270" s="39" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="C270" s="40" t="s">
         <v>2</v>
@@ -5220,8 +5236,8 @@
       <c r="D270" s="40"/>
     </row>
     <row r="271" spans="2:4" s="38" customFormat="1">
-      <c r="B271" s="39" t="s">
-        <v>256</v>
+      <c r="B271" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="C271" s="40" t="s">
         <v>2</v>
@@ -5229,8 +5245,8 @@
       <c r="D271" s="40"/>
     </row>
     <row r="272" spans="2:4" s="38" customFormat="1">
-      <c r="B272" s="42" t="s">
-        <v>160</v>
+      <c r="B272" s="39" t="s">
+        <v>340</v>
       </c>
       <c r="C272" s="40" t="s">
         <v>2</v>
@@ -5239,7 +5255,7 @@
     </row>
     <row r="273" spans="2:4" s="38" customFormat="1">
       <c r="B273" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C273" s="40" t="s">
         <v>2</v>
@@ -5248,7 +5264,7 @@
     </row>
     <row r="274" spans="2:4" s="38" customFormat="1">
       <c r="B274" s="39" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="C274" s="40" t="s">
         <v>2</v>
@@ -5256,8 +5272,8 @@
       <c r="D274" s="40"/>
     </row>
     <row r="275" spans="2:4" s="38" customFormat="1">
-      <c r="B275" s="39" t="s">
-        <v>296</v>
+      <c r="B275" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>2</v>
@@ -5265,8 +5281,8 @@
       <c r="D275" s="40"/>
     </row>
     <row r="276" spans="2:4" s="38" customFormat="1">
-      <c r="B276" s="42" t="s">
-        <v>161</v>
+      <c r="B276" s="39" t="s">
+        <v>348</v>
       </c>
       <c r="C276" s="40" t="s">
         <v>2</v>
@@ -5275,7 +5291,7 @@
     </row>
     <row r="277" spans="2:4" s="38" customFormat="1">
       <c r="B277" s="39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C277" s="40" t="s">
         <v>2</v>
@@ -5293,7 +5309,7 @@
     </row>
     <row r="279" spans="2:4" s="38" customFormat="1">
       <c r="B279" s="39" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C279" s="40" t="s">
         <v>2</v>
@@ -5302,7 +5318,7 @@
     </row>
     <row r="280" spans="2:4" s="38" customFormat="1">
       <c r="B280" s="42" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C280" s="40" t="s">
         <v>2</v>
@@ -5311,7 +5327,7 @@
     </row>
     <row r="281" spans="2:4" s="38" customFormat="1">
       <c r="B281" s="39" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C281" s="40" t="s">
         <v>2</v>
@@ -5320,7 +5336,7 @@
     </row>
     <row r="282" spans="2:4" s="38" customFormat="1">
       <c r="B282" s="39" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C282" s="40" t="s">
         <v>2</v>
@@ -5329,7 +5345,7 @@
     </row>
     <row r="283" spans="2:4" s="38" customFormat="1">
       <c r="B283" s="39" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C283" s="40" t="s">
         <v>2</v>
@@ -5338,7 +5354,7 @@
     </row>
     <row r="284" spans="2:4" s="38" customFormat="1">
       <c r="B284" s="39" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="C284" s="40" t="s">
         <v>2</v>
@@ -5346,8 +5362,8 @@
       <c r="D284" s="40"/>
     </row>
     <row r="285" spans="2:4" s="38" customFormat="1">
-      <c r="B285" s="39" t="s">
-        <v>349</v>
+      <c r="B285" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="C285" s="40" t="s">
         <v>2</v>
@@ -5356,7 +5372,7 @@
     </row>
     <row r="286" spans="2:4" s="38" customFormat="1">
       <c r="B286" s="39" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="C286" s="40" t="s">
         <v>2</v>
@@ -5364,8 +5380,8 @@
       <c r="D286" s="40"/>
     </row>
     <row r="287" spans="2:4" s="38" customFormat="1">
-      <c r="B287" s="42" t="s">
-        <v>162</v>
+      <c r="B287" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C287" s="40" t="s">
         <v>2</v>
@@ -5374,7 +5390,7 @@
     </row>
     <row r="288" spans="2:4" s="38" customFormat="1">
       <c r="B288" s="39" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C288" s="40" t="s">
         <v>2</v>
@@ -5382,8 +5398,8 @@
       <c r="D288" s="40"/>
     </row>
     <row r="289" spans="2:4" s="38" customFormat="1">
-      <c r="B289" s="39" t="s">
-        <v>308</v>
+      <c r="B289" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="C289" s="40" t="s">
         <v>2</v>
@@ -5392,7 +5408,7 @@
     </row>
     <row r="290" spans="2:4" s="38" customFormat="1">
       <c r="B290" s="39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C290" s="40" t="s">
         <v>2</v>
@@ -5401,7 +5417,7 @@
     </row>
     <row r="291" spans="2:4" s="38" customFormat="1">
       <c r="B291" s="39" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="C291" s="40" t="s">
         <v>2</v>
@@ -5409,8 +5425,8 @@
       <c r="D291" s="40"/>
     </row>
     <row r="292" spans="2:4" s="38" customFormat="1">
-      <c r="B292" s="42" t="s">
-        <v>176</v>
+      <c r="B292" s="39" t="s">
+        <v>295</v>
       </c>
       <c r="C292" s="40" t="s">
         <v>2</v>
@@ -5418,8 +5434,8 @@
       <c r="D292" s="40"/>
     </row>
     <row r="293" spans="2:4" s="38" customFormat="1">
-      <c r="B293" s="39" t="s">
-        <v>341</v>
+      <c r="B293" s="42" t="s">
+        <v>195</v>
       </c>
       <c r="C293" s="40" t="s">
         <v>2</v>
@@ -5428,7 +5444,7 @@
     </row>
     <row r="294" spans="2:4" s="38" customFormat="1">
       <c r="B294" s="39" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>2</v>
@@ -5437,7 +5453,7 @@
     </row>
     <row r="295" spans="2:4" s="38" customFormat="1">
       <c r="B295" s="39" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="C295" s="40" t="s">
         <v>2</v>
@@ -5445,8 +5461,8 @@
       <c r="D295" s="40"/>
     </row>
     <row r="296" spans="2:4" s="38" customFormat="1">
-      <c r="B296" s="42" t="s">
-        <v>177</v>
+      <c r="B296" s="39" t="s">
+        <v>309</v>
       </c>
       <c r="C296" s="40" t="s">
         <v>2</v>
@@ -5455,7 +5471,7 @@
     </row>
     <row r="297" spans="2:4" s="38" customFormat="1">
       <c r="B297" s="39" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="C297" s="40" t="s">
         <v>2</v>
@@ -5464,7 +5480,7 @@
     </row>
     <row r="298" spans="2:4" s="38" customFormat="1">
       <c r="B298" s="39" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="C298" s="40" t="s">
         <v>2</v>
@@ -5473,7 +5489,7 @@
     </row>
     <row r="299" spans="2:4" s="38" customFormat="1">
       <c r="B299" s="39" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C299" s="40" t="s">
         <v>2</v>
@@ -5482,7 +5498,7 @@
     </row>
     <row r="300" spans="2:4" s="38" customFormat="1">
       <c r="B300" s="42" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C300" s="40" t="s">
         <v>2</v>
@@ -5491,7 +5507,7 @@
     </row>
     <row r="301" spans="2:4" s="38" customFormat="1">
       <c r="B301" s="39" t="s">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="C301" s="40" t="s">
         <v>2</v>
@@ -5500,7 +5516,7 @@
     </row>
     <row r="302" spans="2:4" s="38" customFormat="1">
       <c r="B302" s="39" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C302" s="40" t="s">
         <v>2</v>
@@ -5509,7 +5525,7 @@
     </row>
     <row r="303" spans="2:4" s="38" customFormat="1">
       <c r="B303" s="39" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="C303" s="40" t="s">
         <v>2</v>
@@ -5518,7 +5534,7 @@
     </row>
     <row r="304" spans="2:4" s="38" customFormat="1">
       <c r="B304" s="39" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="C304" s="40" t="s">
         <v>2</v>
@@ -5527,7 +5543,7 @@
     </row>
     <row r="305" spans="2:4" s="38" customFormat="1">
       <c r="B305" s="42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C305" s="40" t="s">
         <v>2</v>
@@ -5536,7 +5552,7 @@
     </row>
     <row r="306" spans="2:4" s="38" customFormat="1">
       <c r="B306" s="39" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C306" s="40" t="s">
         <v>2</v>
@@ -5545,7 +5561,7 @@
     </row>
     <row r="307" spans="2:4" s="38" customFormat="1">
       <c r="B307" s="39" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="C307" s="40" t="s">
         <v>2</v>
@@ -5554,7 +5570,7 @@
     </row>
     <row r="308" spans="2:4" s="38" customFormat="1">
       <c r="B308" s="39" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C308" s="40" t="s">
         <v>2</v>
@@ -5562,8 +5578,8 @@
       <c r="D308" s="40"/>
     </row>
     <row r="309" spans="2:4" s="38" customFormat="1">
-      <c r="B309" s="39" t="s">
-        <v>274</v>
+      <c r="B309" s="42" t="s">
+        <v>177</v>
       </c>
       <c r="C309" s="40" t="s">
         <v>2</v>
@@ -5571,8 +5587,8 @@
       <c r="D309" s="40"/>
     </row>
     <row r="310" spans="2:4" s="38" customFormat="1">
-      <c r="B310" s="42" t="s">
-        <v>333</v>
+      <c r="B310" s="39" t="s">
+        <v>342</v>
       </c>
       <c r="C310" s="40" t="s">
         <v>2</v>
@@ -5581,7 +5597,7 @@
     </row>
     <row r="311" spans="2:4" s="38" customFormat="1">
       <c r="B311" s="39" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="C311" s="40" t="s">
         <v>2</v>
@@ -5590,16 +5606,16 @@
     </row>
     <row r="312" spans="2:4" s="38" customFormat="1">
       <c r="B312" s="39" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="C312" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D312" s="40"/>
     </row>
     <row r="313" spans="2:4" s="38" customFormat="1">
-      <c r="B313" s="39" t="s">
-        <v>278</v>
+      <c r="B313" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="C313" s="40" t="s">
         <v>2</v>
@@ -5607,8 +5623,8 @@
       <c r="D313" s="40"/>
     </row>
     <row r="314" spans="2:4" s="38" customFormat="1">
-      <c r="B314" s="42" t="s">
-        <v>334</v>
+      <c r="B314" s="39" t="s">
+        <v>367</v>
       </c>
       <c r="C314" s="40" t="s">
         <v>2</v>
@@ -5617,7 +5633,7 @@
     </row>
     <row r="315" spans="2:4" s="38" customFormat="1">
       <c r="B315" s="39" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C315" s="40" t="s">
         <v>2</v>
@@ -5626,16 +5642,16 @@
     </row>
     <row r="316" spans="2:4" s="38" customFormat="1">
       <c r="B316" s="39" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="C316" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D316" s="40"/>
     </row>
     <row r="317" spans="2:4" s="38" customFormat="1">
       <c r="B317" s="39" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="C317" s="40" t="s">
         <v>2</v>
@@ -5644,7 +5660,7 @@
     </row>
     <row r="318" spans="2:4" s="38" customFormat="1">
       <c r="B318" s="42" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C318" s="40" t="s">
         <v>2</v>
@@ -5653,7 +5669,7 @@
     </row>
     <row r="319" spans="2:4" s="38" customFormat="1">
       <c r="B319" s="39" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C319" s="40" t="s">
         <v>2</v>
@@ -5662,7 +5678,7 @@
     </row>
     <row r="320" spans="2:4" s="38" customFormat="1">
       <c r="B320" s="39" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C320" s="40" t="s">
         <v>2</v>
@@ -5671,7 +5687,7 @@
     </row>
     <row r="321" spans="2:4" s="38" customFormat="1">
       <c r="B321" s="39" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C321" s="40" t="s">
         <v>2</v>
@@ -5680,7 +5696,7 @@
     </row>
     <row r="322" spans="2:4" s="38" customFormat="1">
       <c r="B322" s="39" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>2</v>
@@ -5689,52 +5705,52 @@
     </row>
     <row r="323" spans="2:4" s="38" customFormat="1">
       <c r="B323" s="42" t="s">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="C323" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D323" s="40"/>
     </row>
     <row r="324" spans="2:4" s="38" customFormat="1">
       <c r="B324" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C324" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D324" s="40"/>
     </row>
     <row r="325" spans="2:4" s="38" customFormat="1">
       <c r="B325" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="C325" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D325" s="40"/>
+    </row>
+    <row r="326" spans="2:4" s="38" customFormat="1">
+      <c r="B326" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="C325" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D325" s="40"/>
-    </row>
-    <row r="326" spans="2:4" s="38" customFormat="1">
-      <c r="B326" s="42" t="s">
-        <v>287</v>
-      </c>
       <c r="C326" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D326" s="40"/>
     </row>
     <row r="327" spans="2:4" s="38" customFormat="1">
-      <c r="B327" s="39" t="s">
-        <v>337</v>
+      <c r="B327" s="42" t="s">
+        <v>334</v>
       </c>
       <c r="C327" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D327" s="40"/>
     </row>
     <row r="328" spans="2:4" s="38" customFormat="1">
       <c r="B328" s="39" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="C328" s="40" t="s">
         <v>2</v>
@@ -5743,34 +5759,34 @@
     </row>
     <row r="329" spans="2:4" s="38" customFormat="1">
       <c r="B329" s="39" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="C329" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D329" s="40"/>
     </row>
     <row r="330" spans="2:4" s="38" customFormat="1">
-      <c r="B330" s="42" t="s">
-        <v>290</v>
+      <c r="B330" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="C330" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D330" s="40"/>
     </row>
     <row r="331" spans="2:4" s="38" customFormat="1">
-      <c r="B331" s="39" t="s">
-        <v>337</v>
+      <c r="B331" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C331" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D331" s="40"/>
     </row>
     <row r="332" spans="2:4" s="38" customFormat="1">
       <c r="B332" s="39" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="C332" s="40" t="s">
         <v>2</v>
@@ -5779,7 +5795,7 @@
     </row>
     <row r="333" spans="2:4" s="38" customFormat="1">
       <c r="B333" s="39" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="C333" s="40" t="s">
         <v>2</v>
@@ -5787,66 +5803,80 @@
       <c r="D333" s="40"/>
     </row>
     <row r="334" spans="2:4" s="38" customFormat="1">
-      <c r="B334" s="42" t="s">
-        <v>164</v>
+      <c r="B334" s="39" t="s">
+        <v>317</v>
       </c>
       <c r="C334" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D334" s="40"/>
     </row>
     <row r="335" spans="2:4" s="38" customFormat="1">
       <c r="B335" s="39" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="C335" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D335" s="40"/>
+    </row>
+    <row r="336" spans="2:4" s="38" customFormat="1">
+      <c r="B336" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C336" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="D335" s="40"/>
-    </row>
-    <row r="336" spans="2:4" s="38" customFormat="1">
-      <c r="B336" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C336" s="40" t="s">
-        <v>2</v>
       </c>
       <c r="D336" s="40"/>
     </row>
     <row r="337" spans="2:4" s="38" customFormat="1">
       <c r="B337" s="39" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="C337" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D337" s="40"/>
     </row>
     <row r="338" spans="2:4" s="38" customFormat="1">
-      <c r="B338" s="41"/>
-      <c r="C338" s="40"/>
+      <c r="B338" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C338" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D338" s="40"/>
     </row>
     <row r="339" spans="2:4" s="38" customFormat="1">
-      <c r="B339" s="41"/>
-      <c r="C339" s="40"/>
+      <c r="B339" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C339" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D339" s="40"/>
     </row>
     <row r="340" spans="2:4" s="38" customFormat="1">
-      <c r="B340" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C340" s="40"/>
+      <c r="B340" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C340" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D340" s="40"/>
     </row>
     <row r="341" spans="2:4" s="38" customFormat="1">
-      <c r="B341" s="41"/>
-      <c r="C341" s="40"/>
+      <c r="B341" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C341" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D341" s="40"/>
     </row>
     <row r="342" spans="2:4" s="38" customFormat="1">
-      <c r="B342" s="41" t="s">
-        <v>82</v>
+      <c r="B342" s="39" t="s">
+        <v>288</v>
       </c>
       <c r="C342" s="40" t="s">
         <v>2</v>
@@ -5854,22 +5884,26 @@
       <c r="D342" s="40"/>
     </row>
     <row r="343" spans="2:4" s="38" customFormat="1">
-      <c r="B343" s="41"/>
-      <c r="C343" s="40"/>
+      <c r="B343" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C343" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D343" s="40"/>
     </row>
     <row r="344" spans="2:4" s="38" customFormat="1">
-      <c r="B344" s="42" t="s">
-        <v>27</v>
+      <c r="B344" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C344" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D344" s="40"/>
     </row>
     <row r="345" spans="2:4" s="38" customFormat="1">
       <c r="B345" s="39" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="C345" s="40" t="s">
         <v>2</v>
@@ -5877,8 +5911,8 @@
       <c r="D345" s="40"/>
     </row>
     <row r="346" spans="2:4" s="38" customFormat="1">
-      <c r="B346" s="43" t="s">
-        <v>313</v>
+      <c r="B346" s="39" t="s">
+        <v>292</v>
       </c>
       <c r="C346" s="40" t="s">
         <v>2</v>
@@ -5886,8 +5920,8 @@
       <c r="D346" s="40"/>
     </row>
     <row r="347" spans="2:4" s="38" customFormat="1">
-      <c r="B347" s="39" t="s">
-        <v>54</v>
+      <c r="B347" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="C347" s="40" t="s">
         <v>14</v>
@@ -5896,21 +5930,25 @@
     </row>
     <row r="348" spans="2:4" s="38" customFormat="1">
       <c r="B348" s="39" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="C348" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D348" s="40"/>
     </row>
     <row r="349" spans="2:4" s="38" customFormat="1">
-      <c r="B349" s="39"/>
-      <c r="C349" s="40"/>
+      <c r="B349" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C349" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D349" s="40"/>
     </row>
     <row r="350" spans="2:4" s="38" customFormat="1">
       <c r="B350" s="39" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="C350" s="40" t="s">
         <v>2</v>
@@ -5918,12 +5956,8 @@
       <c r="D350" s="40"/>
     </row>
     <row r="351" spans="2:4" s="38" customFormat="1">
-      <c r="B351" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C351" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B351" s="41"/>
+      <c r="C351" s="40"/>
       <c r="D351" s="40"/>
     </row>
     <row r="352" spans="2:4" s="38" customFormat="1">
@@ -5932,40 +5966,34 @@
       <c r="D352" s="40"/>
     </row>
     <row r="353" spans="2:4" s="38" customFormat="1">
-      <c r="B353" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C353" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B353" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C353" s="40"/>
       <c r="D353" s="40"/>
     </row>
     <row r="354" spans="2:4" s="38" customFormat="1">
-      <c r="B354" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C354" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B354" s="41"/>
+      <c r="C354" s="40"/>
       <c r="D354" s="40"/>
     </row>
     <row r="355" spans="2:4" s="38" customFormat="1">
-      <c r="B355" s="39"/>
-      <c r="C355" s="40"/>
+      <c r="B355" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C355" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D355" s="40"/>
     </row>
     <row r="356" spans="2:4" s="38" customFormat="1">
-      <c r="B356" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C356" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B356" s="41"/>
+      <c r="C356" s="40"/>
       <c r="D356" s="40"/>
     </row>
     <row r="357" spans="2:4" s="38" customFormat="1">
-      <c r="B357" s="43" t="s">
-        <v>316</v>
+      <c r="B357" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="C357" s="40" t="s">
         <v>2</v>
@@ -5973,61 +6001,61 @@
       <c r="D357" s="40"/>
     </row>
     <row r="358" spans="2:4" s="38" customFormat="1">
-      <c r="B358" s="43" t="s">
-        <v>52</v>
+      <c r="B358" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="C358" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D358" s="40"/>
     </row>
     <row r="359" spans="2:4" s="38" customFormat="1">
       <c r="B359" s="43" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="C359" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D359" s="40"/>
+    </row>
+    <row r="360" spans="2:4" s="38" customFormat="1">
+      <c r="B360" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C360" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D359" s="40"/>
-    </row>
-    <row r="360" spans="2:4" s="38" customFormat="1">
-      <c r="B360" s="41"/>
-      <c r="C360" s="40"/>
       <c r="D360" s="40"/>
     </row>
     <row r="361" spans="2:4" s="38" customFormat="1">
       <c r="B361" s="39" t="s">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="C361" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D361" s="40"/>
     </row>
     <row r="362" spans="2:4" s="38" customFormat="1">
-      <c r="B362" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C362" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B362" s="39"/>
+      <c r="C362" s="40"/>
       <c r="D362" s="40"/>
     </row>
     <row r="363" spans="2:4" s="38" customFormat="1">
-      <c r="B363" s="43" t="s">
-        <v>52</v>
+      <c r="B363" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="C363" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D363" s="40"/>
     </row>
     <row r="364" spans="2:4" s="38" customFormat="1">
       <c r="B364" s="43" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="C364" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D364" s="40"/>
     </row>
@@ -6038,30 +6066,30 @@
     </row>
     <row r="366" spans="2:4" s="38" customFormat="1">
       <c r="B366" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C366" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D366" s="40"/>
     </row>
     <row r="367" spans="2:4" s="38" customFormat="1">
       <c r="B367" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C367" s="40" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D367" s="40"/>
     </row>
     <row r="368" spans="2:4" s="38" customFormat="1">
-      <c r="B368" s="41"/>
+      <c r="B368" s="39"/>
       <c r="C368" s="40"/>
       <c r="D368" s="40"/>
     </row>
     <row r="369" spans="2:4" s="38" customFormat="1">
       <c r="B369" s="39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C369" s="40" t="s">
         <v>2</v>
@@ -6069,13 +6097,17 @@
       <c r="D369" s="40"/>
     </row>
     <row r="370" spans="2:4" s="38" customFormat="1">
-      <c r="B370" s="39"/>
-      <c r="C370" s="40"/>
+      <c r="B370" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C370" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="D370" s="40"/>
     </row>
     <row r="371" spans="2:4" s="38" customFormat="1">
-      <c r="B371" s="42" t="s">
-        <v>28</v>
+      <c r="B371" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="C371" s="40" t="s">
         <v>14</v>
@@ -6083,8 +6115,8 @@
       <c r="D371" s="40"/>
     </row>
     <row r="372" spans="2:4" s="38" customFormat="1">
-      <c r="B372" s="39" t="s">
-        <v>28</v>
+      <c r="B372" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="C372" s="40" t="s">
         <v>14</v>
@@ -6092,246 +6124,268 @@
       <c r="D372" s="40"/>
     </row>
     <row r="373" spans="2:4" s="38" customFormat="1">
-      <c r="B373" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C373" s="40" t="s">
+      <c r="B373" s="41"/>
+      <c r="C373" s="40"/>
+      <c r="D373" s="40"/>
+    </row>
+    <row r="374" spans="2:4" s="38" customFormat="1">
+      <c r="B374" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D373" s="40"/>
-    </row>
-    <row r="374" spans="2:4" s="38" customFormat="1">
-      <c r="B374" s="41"/>
-      <c r="C374" s="40"/>
       <c r="D374" s="40"/>
     </row>
     <row r="375" spans="2:4" s="38" customFormat="1">
-      <c r="B375" s="39" t="s">
-        <v>360</v>
+      <c r="B375" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="C375" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D375" s="40"/>
     </row>
     <row r="376" spans="2:4" s="38" customFormat="1">
-      <c r="B376" s="39" t="s">
-        <v>361</v>
+      <c r="B376" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="C376" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D376" s="40"/>
     </row>
     <row r="377" spans="2:4" s="38" customFormat="1">
-      <c r="B377" s="39" t="s">
-        <v>362</v>
+      <c r="B377" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="C377" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D377" s="40"/>
     </row>
     <row r="378" spans="2:4" s="38" customFormat="1">
-      <c r="B378" s="39"/>
+      <c r="B378" s="41"/>
       <c r="C378" s="40"/>
       <c r="D378" s="40"/>
     </row>
     <row r="379" spans="2:4" s="38" customFormat="1">
-      <c r="B379" s="42" t="s">
-        <v>58</v>
+      <c r="B379" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="C379" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D379" s="40"/>
     </row>
     <row r="380" spans="2:4" s="38" customFormat="1">
-      <c r="B380" s="39" t="s">
-        <v>59</v>
+      <c r="B380" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C380" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D380" s="40"/>
     </row>
     <row r="381" spans="2:4" s="38" customFormat="1">
-      <c r="B381" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B381" s="41"/>
+      <c r="C381" s="40"/>
       <c r="D381" s="40"/>
     </row>
     <row r="382" spans="2:4" s="38" customFormat="1">
       <c r="B382" s="39" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C382" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D382" s="40"/>
+    </row>
+    <row r="383" spans="2:4" s="38" customFormat="1">
+      <c r="B383" s="39"/>
+      <c r="C383" s="40"/>
+      <c r="D383" s="40"/>
+    </row>
+    <row r="384" spans="2:4" s="38" customFormat="1">
+      <c r="B384" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C384" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D382" s="40"/>
-    </row>
-    <row r="383" spans="2:4" s="38" customFormat="1">
-      <c r="B383" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C383" s="40" t="s">
+      <c r="D384" s="40"/>
+    </row>
+    <row r="385" spans="2:4" s="38" customFormat="1">
+      <c r="B385" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C385" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D383" s="40"/>
-    </row>
-    <row r="384" spans="2:4" s="38" customFormat="1">
-      <c r="B384" s="39"/>
-      <c r="C384" s="40"/>
-      <c r="D384" s="40"/>
-    </row>
-    <row r="385" spans="2:4" s="38" customFormat="1">
-      <c r="B385" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C385" s="40" t="s">
-        <v>2</v>
-      </c>
       <c r="D385" s="40"/>
     </row>
     <row r="386" spans="2:4" s="38" customFormat="1">
-      <c r="B386" s="39" t="s">
-        <v>359</v>
+      <c r="B386" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C386" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D386" s="40"/>
     </row>
     <row r="387" spans="2:4" s="38" customFormat="1">
-      <c r="B387" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="C387" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B387" s="41"/>
+      <c r="C387" s="40"/>
       <c r="D387" s="40"/>
     </row>
     <row r="388" spans="2:4" s="38" customFormat="1">
       <c r="B388" s="39" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C388" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D388" s="40"/>
+    </row>
+    <row r="389" spans="2:4" s="38" customFormat="1">
+      <c r="B389" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="C389" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D389" s="40"/>
+    </row>
+    <row r="390" spans="2:4" s="38" customFormat="1">
+      <c r="B390" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="C390" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D390" s="40"/>
+    </row>
+    <row r="391" spans="2:4" s="38" customFormat="1">
+      <c r="B391" s="39"/>
+      <c r="C391" s="40"/>
+      <c r="D391" s="40"/>
+    </row>
+    <row r="392" spans="2:4" s="38" customFormat="1">
+      <c r="B392" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D392" s="40"/>
+    </row>
+    <row r="393" spans="2:4" s="38" customFormat="1">
+      <c r="B393" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C393" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D393" s="40"/>
+    </row>
+    <row r="394" spans="2:4" s="38" customFormat="1">
+      <c r="B394" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C394" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D388" s="40"/>
-    </row>
-    <row r="389" spans="2:4" s="38" customFormat="1">
-      <c r="B389" s="39"/>
-      <c r="C389" s="40"/>
-      <c r="D389" s="40"/>
-    </row>
-    <row r="390" spans="2:4" s="38" customFormat="1">
-      <c r="B390" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C390" s="40" t="s">
+      <c r="D394" s="40"/>
+    </row>
+    <row r="395" spans="2:4" s="38" customFormat="1">
+      <c r="B395" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C395" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D390" s="40"/>
-    </row>
-    <row r="391" spans="2:4" s="38" customFormat="1">
-      <c r="B391" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C391" s="40" t="s">
+      <c r="D395" s="40"/>
+    </row>
+    <row r="396" spans="2:4" s="38" customFormat="1">
+      <c r="B396" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C396" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D391" s="40"/>
-    </row>
-    <row r="392" spans="2:4" s="38" customFormat="1">
-      <c r="B392" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C392" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D392" s="40"/>
-    </row>
-    <row r="393" spans="2:4" s="38" customFormat="1">
-      <c r="B393" s="41"/>
-      <c r="C393" s="40"/>
-      <c r="D393" s="40"/>
-    </row>
-    <row r="394" spans="2:4" s="38" customFormat="1">
-      <c r="B394" s="41"/>
-      <c r="C394" s="40"/>
-      <c r="D394" s="40"/>
-    </row>
-    <row r="395" spans="2:4" s="38" customFormat="1">
-      <c r="B395" s="41"/>
-      <c r="C395" s="40"/>
-      <c r="D395" s="40"/>
-    </row>
-    <row r="396" spans="2:4" s="38" customFormat="1">
-      <c r="B396" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C396" s="40"/>
       <c r="D396" s="40"/>
     </row>
     <row r="397" spans="2:4" s="38" customFormat="1">
-      <c r="B397" s="41"/>
+      <c r="B397" s="39"/>
       <c r="C397" s="40"/>
       <c r="D397" s="40"/>
     </row>
     <row r="398" spans="2:4" s="38" customFormat="1">
-      <c r="B398" s="41" t="s">
-        <v>355</v>
+      <c r="B398" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C398" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" s="40"/>
+    </row>
+    <row r="399" spans="2:4" s="38" customFormat="1">
+      <c r="B399" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="C399" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399" s="40"/>
+    </row>
+    <row r="400" spans="2:4" s="38" customFormat="1">
+      <c r="B400" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C400" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D400" s="40"/>
+    </row>
+    <row r="401" spans="2:4" s="38" customFormat="1">
+      <c r="B401" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C401" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D398" s="40"/>
-    </row>
-    <row r="399" spans="2:4" s="38" customFormat="1">
-      <c r="B399" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="C399" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D399" s="40"/>
-    </row>
-    <row r="400" spans="2:4" s="38" customFormat="1">
-      <c r="B400" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="C400" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D400" s="40"/>
-    </row>
-    <row r="401" spans="2:4" s="38" customFormat="1">
-      <c r="B401" s="41"/>
-      <c r="C401" s="40"/>
       <c r="D401" s="40"/>
     </row>
     <row r="402" spans="2:4" s="38" customFormat="1">
-      <c r="B402" s="41"/>
+      <c r="B402" s="39"/>
       <c r="C402" s="40"/>
       <c r="D402" s="40"/>
     </row>
     <row r="403" spans="2:4" s="38" customFormat="1">
-      <c r="B403" s="41"/>
-      <c r="C403" s="40"/>
+      <c r="B403" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C403" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D403" s="40"/>
     </row>
     <row r="404" spans="2:4" s="38" customFormat="1">
-      <c r="B404" s="41"/>
-      <c r="C404" s="40"/>
+      <c r="B404" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C404" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D404" s="40"/>
     </row>
     <row r="405" spans="2:4" s="38" customFormat="1">
-      <c r="B405" s="41"/>
-      <c r="C405" s="40"/>
+      <c r="B405" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C405" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D405" s="40"/>
     </row>
     <row r="406" spans="2:4" s="38" customFormat="1">
@@ -6350,7 +6404,9 @@
       <c r="D408" s="40"/>
     </row>
     <row r="409" spans="2:4" s="38" customFormat="1">
-      <c r="B409" s="41"/>
+      <c r="B409" s="37" t="s">
+        <v>354</v>
+      </c>
       <c r="C409" s="40"/>
       <c r="D409" s="40"/>
     </row>
@@ -6360,69 +6416,84 @@
       <c r="D410" s="40"/>
     </row>
     <row r="411" spans="2:4" s="38" customFormat="1">
-      <c r="B411" s="41"/>
-      <c r="C411" s="40"/>
+      <c r="B411" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C411" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D411" s="40"/>
     </row>
     <row r="412" spans="2:4" s="38" customFormat="1">
-      <c r="B412" s="41"/>
-      <c r="C412" s="40"/>
+      <c r="B412" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C412" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D412" s="40"/>
     </row>
     <row r="413" spans="2:4" s="38" customFormat="1">
-      <c r="B413" s="41"/>
-      <c r="C413" s="40"/>
+      <c r="B413" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C413" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D413" s="40"/>
     </row>
     <row r="414" spans="2:4" s="38" customFormat="1">
-      <c r="B414" s="39"/>
+      <c r="B414" s="41"/>
       <c r="C414" s="40"/>
       <c r="D414" s="40"/>
     </row>
-    <row r="415" spans="2:4">
+    <row r="415" spans="2:4" s="38" customFormat="1">
+      <c r="B415" s="41"/>
       <c r="C415" s="40"/>
-    </row>
-    <row r="416" spans="2:4">
-      <c r="B416" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="D415" s="40"/>
+    </row>
+    <row r="416" spans="2:4" s="38" customFormat="1">
+      <c r="B416" s="41"/>
       <c r="C416" s="40"/>
-    </row>
-    <row r="418" spans="2:4">
-      <c r="B418" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C418" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4">
-      <c r="B419" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C419" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="420" spans="2:4">
-      <c r="B420" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C420" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="421" spans="2:4">
-      <c r="B421" s="44"/>
+      <c r="D416" s="40"/>
+    </row>
+    <row r="417" spans="2:4" s="38" customFormat="1">
+      <c r="B417" s="41"/>
+      <c r="C417" s="40"/>
+      <c r="D417" s="40"/>
+    </row>
+    <row r="418" spans="2:4" s="38" customFormat="1">
+      <c r="B418" s="41"/>
+      <c r="C418" s="40"/>
+      <c r="D418" s="40"/>
+    </row>
+    <row r="419" spans="2:4" s="38" customFormat="1">
+      <c r="B419" s="41"/>
+      <c r="C419" s="40"/>
+      <c r="D419" s="40"/>
+    </row>
+    <row r="420" spans="2:4" s="38" customFormat="1">
+      <c r="B420" s="41"/>
+      <c r="C420" s="40"/>
+      <c r="D420" s="40"/>
+    </row>
+    <row r="421" spans="2:4" s="38" customFormat="1">
+      <c r="B421" s="41"/>
       <c r="C421" s="40"/>
-    </row>
-    <row r="422" spans="2:4">
+      <c r="D421" s="40"/>
+    </row>
+    <row r="422" spans="2:4" s="38" customFormat="1">
+      <c r="B422" s="41"/>
       <c r="C422" s="40"/>
+      <c r="D422" s="40"/>
+    </row>
+    <row r="423" spans="2:4" s="38" customFormat="1">
+      <c r="B423" s="41"/>
+      <c r="C423" s="40"/>
+      <c r="D423" s="40"/>
     </row>
     <row r="424" spans="2:4" s="38" customFormat="1">
-      <c r="B424" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="B424" s="41"/>
       <c r="C424" s="40"/>
       <c r="D424" s="40"/>
     </row>
@@ -6432,103 +6503,60 @@
       <c r="D425" s="40"/>
     </row>
     <row r="426" spans="2:4" s="38" customFormat="1">
-      <c r="B426" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="C426" s="40" t="s">
+      <c r="B426" s="41"/>
+      <c r="C426" s="40"/>
+      <c r="D426" s="40"/>
+    </row>
+    <row r="427" spans="2:4" s="38" customFormat="1">
+      <c r="B427" s="39"/>
+      <c r="C427" s="40"/>
+      <c r="D427" s="40"/>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="C428" s="40"/>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="B429" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C429" s="40"/>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="B431" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C431" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D426" s="40"/>
-    </row>
-    <row r="427" spans="2:4" s="38" customFormat="1">
-      <c r="B427" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C427" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D427" s="40"/>
-    </row>
-    <row r="428" spans="2:4" s="38" customFormat="1">
-      <c r="B428" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C428" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D428" s="40"/>
-    </row>
-    <row r="429" spans="2:4" s="38" customFormat="1">
-      <c r="B429" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C429" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D429" s="40"/>
-    </row>
-    <row r="430" spans="2:4" s="38" customFormat="1">
-      <c r="B430" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C430" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D430" s="40"/>
-    </row>
-    <row r="431" spans="2:4" s="38" customFormat="1">
-      <c r="B431" s="41"/>
-      <c r="C431" s="40"/>
-      <c r="D431" s="40"/>
-    </row>
-    <row r="432" spans="2:4" s="38" customFormat="1">
-      <c r="B432" s="41" t="s">
-        <v>26</v>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="B432" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="C432" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D432" s="40"/>
-    </row>
-    <row r="433" spans="2:4" s="38" customFormat="1">
-      <c r="B433" s="39" t="s">
-        <v>99</v>
+    </row>
+    <row r="433" spans="2:4">
+      <c r="B433" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="C433" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D433" s="40"/>
-    </row>
-    <row r="434" spans="2:4" s="38" customFormat="1">
-      <c r="B434" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C434" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D434" s="40"/>
-    </row>
-    <row r="435" spans="2:4" s="38" customFormat="1">
-      <c r="B435" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C435" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D435" s="40"/>
-    </row>
-    <row r="436" spans="2:4" s="38" customFormat="1">
-      <c r="B436" s="39"/>
-      <c r="C436" s="40"/>
-      <c r="D436" s="40"/>
+    </row>
+    <row r="434" spans="2:4">
+      <c r="B434" s="44"/>
+      <c r="C434" s="40"/>
+    </row>
+    <row r="435" spans="2:4">
+      <c r="C435" s="40"/>
     </row>
     <row r="437" spans="2:4" s="38" customFormat="1">
-      <c r="B437" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C437" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B437" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C437" s="40"/>
       <c r="D437" s="40"/>
     </row>
     <row r="438" spans="2:4" s="38" customFormat="1">
@@ -6538,7 +6566,7 @@
     </row>
     <row r="439" spans="2:4" s="38" customFormat="1">
       <c r="B439" s="41" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C439" s="40" t="s">
         <v>14</v>
@@ -6546,25 +6574,39 @@
       <c r="D439" s="40"/>
     </row>
     <row r="440" spans="2:4" s="38" customFormat="1">
-      <c r="B440" s="41"/>
-      <c r="C440" s="40"/>
+      <c r="B440" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C440" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D440" s="40"/>
     </row>
     <row r="441" spans="2:4" s="38" customFormat="1">
-      <c r="B441" s="41"/>
-      <c r="C441" s="40"/>
+      <c r="B441" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D441" s="40"/>
     </row>
     <row r="442" spans="2:4" s="38" customFormat="1">
-      <c r="B442" s="41"/>
-      <c r="C442" s="40"/>
+      <c r="B442" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D442" s="40"/>
     </row>
     <row r="443" spans="2:4" s="38" customFormat="1">
-      <c r="B443" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C443" s="40"/>
+      <c r="B443" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C443" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="D443" s="40"/>
     </row>
     <row r="444" spans="2:4" s="38" customFormat="1">
@@ -6574,7 +6616,7 @@
     </row>
     <row r="445" spans="2:4" s="38" customFormat="1">
       <c r="B445" s="41" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="C445" s="40" t="s">
         <v>14</v>
@@ -6582,8 +6624,8 @@
       <c r="D445" s="40"/>
     </row>
     <row r="446" spans="2:4" s="38" customFormat="1">
-      <c r="B446" s="41" t="s">
-        <v>94</v>
+      <c r="B446" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="C446" s="40" t="s">
         <v>14</v>
@@ -6591,8 +6633,8 @@
       <c r="D446" s="40"/>
     </row>
     <row r="447" spans="2:4" s="38" customFormat="1">
-      <c r="B447" s="41" t="s">
-        <v>95</v>
+      <c r="B447" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="C447" s="40" t="s">
         <v>14</v>
@@ -6600,26 +6642,22 @@
       <c r="D447" s="40"/>
     </row>
     <row r="448" spans="2:4" s="38" customFormat="1">
-      <c r="B448" s="41" t="s">
-        <v>126</v>
+      <c r="B448" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="C448" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D448" s="40"/>
     </row>
     <row r="449" spans="2:4" s="38" customFormat="1">
-      <c r="B449" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="C449" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B449" s="39"/>
+      <c r="C449" s="40"/>
       <c r="D449" s="40"/>
     </row>
     <row r="450" spans="2:4" s="38" customFormat="1">
       <c r="B450" s="41" t="s">
-        <v>193</v>
+        <v>46</v>
       </c>
       <c r="C450" s="40" t="s">
         <v>14</v>
@@ -6627,17 +6665,13 @@
       <c r="D450" s="40"/>
     </row>
     <row r="451" spans="2:4" s="38" customFormat="1">
-      <c r="B451" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C451" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B451" s="41"/>
+      <c r="C451" s="40"/>
       <c r="D451" s="40"/>
     </row>
     <row r="452" spans="2:4" s="38" customFormat="1">
       <c r="B452" s="41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C452" s="40" t="s">
         <v>14</v>
@@ -6645,12 +6679,8 @@
       <c r="D452" s="40"/>
     </row>
     <row r="453" spans="2:4" s="38" customFormat="1">
-      <c r="B453" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="C453" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B453" s="41"/>
+      <c r="C453" s="40"/>
       <c r="D453" s="40"/>
     </row>
     <row r="454" spans="2:4" s="38" customFormat="1">
@@ -6665,7 +6695,7 @@
     </row>
     <row r="456" spans="2:4" s="38" customFormat="1">
       <c r="B456" s="37" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="C456" s="40"/>
       <c r="D456" s="40"/>
@@ -6677,34 +6707,34 @@
     </row>
     <row r="458" spans="2:4" s="38" customFormat="1">
       <c r="B458" s="41" t="s">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="C458" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D458" s="40"/>
     </row>
     <row r="459" spans="2:4" s="38" customFormat="1">
       <c r="B459" s="41" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C459" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D459" s="40"/>
     </row>
     <row r="460" spans="2:4" s="38" customFormat="1">
       <c r="B460" s="41" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="C460" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D460" s="40"/>
     </row>
     <row r="461" spans="2:4" s="38" customFormat="1">
       <c r="B461" s="41" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C461" s="40" t="s">
         <v>2</v>
@@ -6712,8 +6742,8 @@
       <c r="D461" s="40"/>
     </row>
     <row r="462" spans="2:4" s="38" customFormat="1">
-      <c r="B462" s="41" t="s">
-        <v>201</v>
+      <c r="B462" s="39" t="s">
+        <v>318</v>
       </c>
       <c r="C462" s="40" t="s">
         <v>2</v>
@@ -6722,79 +6752,65 @@
     </row>
     <row r="463" spans="2:4" s="38" customFormat="1">
       <c r="B463" s="41" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C463" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D463" s="40"/>
     </row>
     <row r="464" spans="2:4" s="38" customFormat="1">
       <c r="B464" s="41" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C464" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D464" s="40"/>
     </row>
     <row r="465" spans="2:4" s="38" customFormat="1">
       <c r="B465" s="41" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="C465" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D465" s="40"/>
     </row>
     <row r="466" spans="2:4" s="38" customFormat="1">
       <c r="B466" s="41" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="C466" s="40" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D466" s="40"/>
     </row>
     <row r="467" spans="2:4" s="38" customFormat="1">
-      <c r="B467" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="C467" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B467" s="41"/>
+      <c r="C467" s="40"/>
       <c r="D467" s="40"/>
     </row>
     <row r="468" spans="2:4" s="38" customFormat="1">
-      <c r="B468" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="C468" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B468" s="41"/>
+      <c r="C468" s="40"/>
       <c r="D468" s="40"/>
     </row>
     <row r="469" spans="2:4" s="38" customFormat="1">
-      <c r="B469" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C469" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B469" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C469" s="40"/>
       <c r="D469" s="40"/>
     </row>
     <row r="470" spans="2:4" s="38" customFormat="1">
-      <c r="B470" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C470" s="40" t="s">
-        <v>2</v>
-      </c>
+      <c r="B470" s="41"/>
+      <c r="C470" s="40"/>
       <c r="D470" s="40"/>
     </row>
     <row r="471" spans="2:4" s="38" customFormat="1">
       <c r="B471" s="41" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C471" s="40" t="s">
         <v>2</v>
@@ -6803,7 +6819,7 @@
     </row>
     <row r="472" spans="2:4" s="38" customFormat="1">
       <c r="B472" s="41" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="C472" s="40" t="s">
         <v>2</v>
@@ -6812,7 +6828,7 @@
     </row>
     <row r="473" spans="2:4" s="38" customFormat="1">
       <c r="B473" s="41" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C473" s="40" t="s">
         <v>2</v>
@@ -6821,7 +6837,7 @@
     </row>
     <row r="474" spans="2:4" s="38" customFormat="1">
       <c r="B474" s="41" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C474" s="40" t="s">
         <v>2</v>
@@ -6830,7 +6846,7 @@
     </row>
     <row r="475" spans="2:4" s="38" customFormat="1">
       <c r="B475" s="41" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C475" s="40" t="s">
         <v>2</v>
@@ -6839,7 +6855,7 @@
     </row>
     <row r="476" spans="2:4" s="38" customFormat="1">
       <c r="B476" s="41" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C476" s="40" t="s">
         <v>2</v>
@@ -6848,7 +6864,7 @@
     </row>
     <row r="477" spans="2:4" s="38" customFormat="1">
       <c r="B477" s="41" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C477" s="40" t="s">
         <v>2</v>
@@ -6857,7 +6873,7 @@
     </row>
     <row r="478" spans="2:4" s="38" customFormat="1">
       <c r="B478" s="41" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C478" s="40" t="s">
         <v>2</v>
@@ -6866,7 +6882,7 @@
     </row>
     <row r="479" spans="2:4" s="38" customFormat="1">
       <c r="B479" s="41" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C479" s="40" t="s">
         <v>2</v>
@@ -6875,7 +6891,7 @@
     </row>
     <row r="480" spans="2:4" s="38" customFormat="1">
       <c r="B480" s="41" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C480" s="40" t="s">
         <v>2</v>
@@ -6884,7 +6900,7 @@
     </row>
     <row r="481" spans="2:4" s="38" customFormat="1">
       <c r="B481" s="41" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C481" s="40" t="s">
         <v>2</v>
@@ -6893,7 +6909,7 @@
     </row>
     <row r="482" spans="2:4" s="38" customFormat="1">
       <c r="B482" s="41" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="C482" s="40" t="s">
         <v>2</v>
@@ -6902,7 +6918,7 @@
     </row>
     <row r="483" spans="2:4" s="38" customFormat="1">
       <c r="B483" s="41" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="C483" s="40" t="s">
         <v>2</v>
@@ -6911,7 +6927,7 @@
     </row>
     <row r="484" spans="2:4" s="38" customFormat="1">
       <c r="B484" s="41" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C484" s="40" t="s">
         <v>2</v>
@@ -6920,7 +6936,7 @@
     </row>
     <row r="485" spans="2:4" s="38" customFormat="1">
       <c r="B485" s="41" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C485" s="40" t="s">
         <v>2</v>
@@ -6929,7 +6945,7 @@
     </row>
     <row r="486" spans="2:4" s="38" customFormat="1">
       <c r="B486" s="41" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C486" s="40" t="s">
         <v>2</v>
@@ -6938,7 +6954,7 @@
     </row>
     <row r="487" spans="2:4" s="38" customFormat="1">
       <c r="B487" s="41" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C487" s="40" t="s">
         <v>2</v>
@@ -6947,7 +6963,7 @@
     </row>
     <row r="488" spans="2:4" s="38" customFormat="1">
       <c r="B488" s="41" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C488" s="40" t="s">
         <v>2</v>
@@ -6956,7 +6972,7 @@
     </row>
     <row r="489" spans="2:4" s="38" customFormat="1">
       <c r="B489" s="41" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C489" s="40" t="s">
         <v>2</v>
@@ -6965,7 +6981,7 @@
     </row>
     <row r="490" spans="2:4" s="38" customFormat="1">
       <c r="B490" s="41" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C490" s="40" t="s">
         <v>2</v>
@@ -6974,7 +6990,7 @@
     </row>
     <row r="491" spans="2:4" s="38" customFormat="1">
       <c r="B491" s="41" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C491" s="40" t="s">
         <v>2</v>
@@ -6983,7 +6999,7 @@
     </row>
     <row r="492" spans="2:4" s="38" customFormat="1">
       <c r="B492" s="41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C492" s="40" t="s">
         <v>2</v>
@@ -6992,7 +7008,7 @@
     </row>
     <row r="493" spans="2:4" s="38" customFormat="1">
       <c r="B493" s="41" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C493" s="40" t="s">
         <v>2</v>
@@ -7001,7 +7017,7 @@
     </row>
     <row r="494" spans="2:4" s="38" customFormat="1">
       <c r="B494" s="41" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C494" s="40" t="s">
         <v>2</v>
@@ -7010,7 +7026,7 @@
     </row>
     <row r="495" spans="2:4" s="38" customFormat="1">
       <c r="B495" s="41" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C495" s="40" t="s">
         <v>2</v>
@@ -7019,161 +7035,278 @@
     </row>
     <row r="496" spans="2:4" s="38" customFormat="1">
       <c r="B496" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C496" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D496" s="40"/>
+    </row>
+    <row r="497" spans="2:4" s="38" customFormat="1">
+      <c r="B497" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C497" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D497" s="40"/>
+    </row>
+    <row r="498" spans="2:4" s="38" customFormat="1">
+      <c r="B498" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C498" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D498" s="40"/>
+    </row>
+    <row r="499" spans="2:4" s="38" customFormat="1">
+      <c r="B499" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C499" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D499" s="40"/>
+    </row>
+    <row r="500" spans="2:4" s="38" customFormat="1">
+      <c r="B500" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C500" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500" s="40"/>
+    </row>
+    <row r="501" spans="2:4" s="38" customFormat="1">
+      <c r="B501" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C501" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" s="40"/>
+    </row>
+    <row r="502" spans="2:4" s="38" customFormat="1">
+      <c r="B502" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C502" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D502" s="40"/>
+    </row>
+    <row r="503" spans="2:4" s="38" customFormat="1">
+      <c r="B503" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C503" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" s="40"/>
+    </row>
+    <row r="504" spans="2:4" s="38" customFormat="1">
+      <c r="B504" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C504" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" s="40"/>
+    </row>
+    <row r="505" spans="2:4" s="38" customFormat="1">
+      <c r="B505" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C505" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D505" s="40"/>
+    </row>
+    <row r="506" spans="2:4" s="38" customFormat="1">
+      <c r="B506" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C506" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D506" s="40"/>
+    </row>
+    <row r="507" spans="2:4" s="38" customFormat="1">
+      <c r="B507" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C507" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D507" s="40"/>
+    </row>
+    <row r="508" spans="2:4" s="38" customFormat="1">
+      <c r="B508" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C508" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D508" s="40"/>
+    </row>
+    <row r="509" spans="2:4" s="38" customFormat="1">
+      <c r="B509" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="C496" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D496" s="40"/>
-    </row>
-    <row r="497" spans="1:4" s="38" customFormat="1">
-      <c r="B497" s="41" t="s">
+      <c r="C509" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D509" s="40"/>
+    </row>
+    <row r="510" spans="2:4" s="38" customFormat="1">
+      <c r="B510" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C497" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D497" s="40"/>
-    </row>
-    <row r="498" spans="1:4" s="38" customFormat="1">
-      <c r="B498" s="41" t="s">
+      <c r="C510" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D510" s="40"/>
+    </row>
+    <row r="511" spans="2:4" s="38" customFormat="1">
+      <c r="B511" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C498" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D498" s="40"/>
-    </row>
-    <row r="499" spans="1:4" s="38" customFormat="1">
-      <c r="B499" s="41" t="s">
+      <c r="C511" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D511" s="40"/>
+    </row>
+    <row r="512" spans="2:4" s="38" customFormat="1">
+      <c r="B512" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="C499" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D499" s="40"/>
-    </row>
-    <row r="500" spans="1:4" s="38" customFormat="1">
-      <c r="B500" s="41" t="s">
+      <c r="C512" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D512" s="40"/>
+    </row>
+    <row r="513" spans="1:4" s="38" customFormat="1">
+      <c r="B513" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="C500" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D500" s="40"/>
-    </row>
-    <row r="501" spans="1:4" s="38" customFormat="1">
-      <c r="B501" s="41" t="s">
+      <c r="C513" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D513" s="40"/>
+    </row>
+    <row r="514" spans="1:4" s="38" customFormat="1">
+      <c r="B514" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="C501" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D501" s="40"/>
-    </row>
-    <row r="502" spans="1:4" s="38" customFormat="1">
-      <c r="B502" s="41" t="s">
+      <c r="C514" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D514" s="40"/>
+    </row>
+    <row r="515" spans="1:4" s="38" customFormat="1">
+      <c r="B515" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="C502" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D502" s="40"/>
-    </row>
-    <row r="503" spans="1:4" s="38" customFormat="1">
-      <c r="B503" s="41" t="s">
+      <c r="C515" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D515" s="40"/>
+    </row>
+    <row r="516" spans="1:4" s="38" customFormat="1">
+      <c r="B516" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="C503" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D503" s="40"/>
-    </row>
-    <row r="504" spans="1:4" s="38" customFormat="1">
-      <c r="B504" s="41" t="s">
+      <c r="C516" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D516" s="40"/>
+    </row>
+    <row r="517" spans="1:4" s="38" customFormat="1">
+      <c r="B517" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C504" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D504" s="40"/>
-    </row>
-    <row r="505" spans="1:4" s="38" customFormat="1">
-      <c r="B505" s="41"/>
-      <c r="C505" s="40"/>
-      <c r="D505" s="40"/>
-    </row>
-    <row r="506" spans="1:4" s="38" customFormat="1">
-      <c r="B506" s="41"/>
-      <c r="C506" s="40"/>
-      <c r="D506" s="40"/>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="37"/>
-      <c r="B507" s="45"/>
-      <c r="C507" s="45"/>
-      <c r="D507" s="37"/>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="37"/>
-      <c r="B508" s="46" t="s">
+      <c r="C517" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D517" s="40"/>
+    </row>
+    <row r="518" spans="1:4" s="38" customFormat="1">
+      <c r="B518" s="41"/>
+      <c r="C518" s="40"/>
+      <c r="D518" s="40"/>
+    </row>
+    <row r="519" spans="1:4" s="38" customFormat="1">
+      <c r="B519" s="41"/>
+      <c r="C519" s="40"/>
+      <c r="D519" s="40"/>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="37"/>
+      <c r="B520" s="45"/>
+      <c r="C520" s="45"/>
+      <c r="D520" s="37"/>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="37"/>
+      <c r="B521" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C508" s="38">
-        <f>COUNTIF(C5:C507,"y")</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="37"/>
-      <c r="B509" s="46" t="s">
+      <c r="C521" s="38">
+        <f>COUNTIF(C5:C520,"y")</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="37"/>
+      <c r="B522" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C509" s="38">
-        <f>COUNTIF(C5:C507,"n")</f>
+      <c r="C522" s="38">
+        <f>COUNTIF(C5:C520,"n")</f>
         <v>119</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="37"/>
-      <c r="B510" s="46" t="s">
+    <row r="523" spans="1:4">
+      <c r="A523" s="37"/>
+      <c r="B523" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C510" s="40">
-        <f>COUNTIF(C5:C507,"TBD")</f>
+      <c r="C523" s="40">
+        <f>COUNTIF(C5:C520,"TBD")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="37"/>
-      <c r="B511" s="46" t="s">
+    <row r="524" spans="1:4">
+      <c r="A524" s="37"/>
+      <c r="B524" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C511" s="35">
-        <f>SUM(C508:C510)</f>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="37"/>
-      <c r="B512" s="47"/>
-      <c r="C512" s="47" t="s">
+      <c r="C524" s="35">
+        <f>SUM(C521:C523)</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="37"/>
+      <c r="B525" s="47"/>
+      <c r="C525" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D512" s="48">
-        <f>C508/(C509+C508 + C510)</f>
-        <v>0.71531100478468901</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="A513" s="37"/>
-      <c r="B513" s="45"/>
-      <c r="C513" s="45"/>
-      <c r="D513" s="37"/>
+      <c r="D525" s="48">
+        <f>C521/(C522+C521 + C523)</f>
+        <v>0.71733966745843225</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="37"/>
+      <c r="B526" s="45"/>
+      <c r="C526" s="45"/>
+      <c r="D526" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C424:C65261 C418:C422 C1:C3 C6:C416">
+  <conditionalFormatting sqref="C437:C65274 C431:C435 C1:C3 C6:C429">
     <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -7195,12 +7328,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT866"/>
+  <dimension ref="A1:IT867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9660" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="9660" topLeftCell="A43" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7533,13 +7666,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="10">
-        <v>45667</v>
+        <v>45669</v>
       </c>
       <c r="B52" s="5">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C52" s="5">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
@@ -7550,18 +7683,31 @@
       <c r="F52" s="17"/>
       <c r="G52" s="14">
         <f t="shared" ref="G52" si="2">B52/SUM(B52:E52)</f>
-        <v>0.71531100478468901</v>
+        <v>0.71496437054631834</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="10">
+        <v>45670</v>
+      </c>
+      <c r="B53" s="5">
+        <v>302</v>
+      </c>
+      <c r="C53" s="5">
+        <v>119</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="14">
+        <f t="shared" ref="G53" si="3">B53/SUM(B53:E53)</f>
+        <v>0.71733966745843225</v>
+      </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:10">
@@ -7575,77 +7721,77 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="10"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E56" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="18">
-        <f>MIN(G52)</f>
-        <v>0.71531100478468901</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="19">
-        <f>SUM(B56:D56)</f>
-        <v>418</v>
-      </c>
-      <c r="B56" s="20">
-        <f>Features!C508</f>
-        <v>299</v>
-      </c>
-      <c r="C56" s="21">
-        <f>Features!C509</f>
+      <c r="F56" s="15"/>
+      <c r="G56" s="18">
+        <f>MIN(G53)</f>
+        <v>0.71733966745843225</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="19">
+        <f>SUM(B57:D57)</f>
+        <v>421</v>
+      </c>
+      <c r="B57" s="20">
+        <f>Features!C521</f>
+        <v>302</v>
+      </c>
+      <c r="C57" s="21">
+        <f>Features!C522</f>
         <v>119</v>
       </c>
-      <c r="D56" s="22">
-        <f>Features!C510</f>
+      <c r="D57" s="22">
+        <f>Features!C523</f>
         <v>0</v>
       </c>
-      <c r="E56" s="23">
-        <f>MIN(E52)</f>
+      <c r="E57" s="23">
+        <f>MIN(E53)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="14"/>
       <c r="H57" s="5"/>
-      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="14"/>
       <c r="H58" s="5"/>
+      <c r="J58" s="24"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -7654,13 +7800,8 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="26">
-        <f>(A52-A48)*A56/B56 +A48</f>
-        <v>45690.083612040136</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -7669,8 +7810,13 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="26">
+        <f>(A53-A48)*A57/B57 +A48</f>
+        <v>45694.036423841062</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -7680,7 +7826,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -7700,7 +7846,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -7730,7 +7876,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -7760,7 +7906,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -7900,7 +8046,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -7910,7 +8056,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -8090,7 +8236,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5"/>
-      <c r="B103" s="3"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -8100,7 +8246,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -8130,7 +8276,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -8170,7 +8316,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -8180,7 +8326,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -8190,7 +8336,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -8200,7 +8346,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -8210,7 +8356,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="5"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -8230,7 +8376,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -8290,7 +8436,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="5"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -8348,7 +8494,7 @@
       <c r="G128" s="14"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:254">
+    <row r="129" spans="1:8">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -8358,7 +8504,7 @@
       <c r="G129" s="14"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:254">
+    <row r="130" spans="1:8">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -8368,7 +8514,7 @@
       <c r="G130" s="14"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:254">
+    <row r="131" spans="1:8">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -8378,7 +8524,7 @@
       <c r="G131" s="14"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:254">
+    <row r="132" spans="1:8">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -8388,9 +8534,9 @@
       <c r="G132" s="14"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:254">
+    <row r="133" spans="1:8">
       <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="B133" s="4"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -8398,7 +8544,7 @@
       <c r="G133" s="14"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:254">
+    <row r="134" spans="1:8">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -8408,7 +8554,7 @@
       <c r="G134" s="14"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:254">
+    <row r="135" spans="1:8">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -8418,7 +8564,7 @@
       <c r="G135" s="14"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:254">
+    <row r="136" spans="1:8">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -8428,7 +8574,7 @@
       <c r="G136" s="14"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:254">
+    <row r="137" spans="1:8">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -8438,9 +8584,9 @@
       <c r="G137" s="14"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:254">
+    <row r="138" spans="1:8">
       <c r="A138" s="5"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -8448,7 +8594,7 @@
       <c r="G138" s="14"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:254">
+    <row r="139" spans="1:8">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -8458,9 +8604,9 @@
       <c r="G139" s="14"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:254">
+    <row r="140" spans="1:8">
       <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -8468,7 +8614,7 @@
       <c r="G140" s="14"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:254">
+    <row r="141" spans="1:8">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -8478,7 +8624,7 @@
       <c r="G141" s="14"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:254">
+    <row r="142" spans="1:8">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -8488,7 +8634,7 @@
       <c r="G142" s="14"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:254">
+    <row r="143" spans="1:8">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -8498,275 +8644,275 @@
       <c r="G143" s="14"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:254">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="27"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9"/>
-      <c r="U144" s="9"/>
-      <c r="V144" s="9"/>
-      <c r="W144" s="9"/>
-      <c r="X144" s="9"/>
-      <c r="Y144" s="9"/>
-      <c r="Z144" s="9"/>
-      <c r="AA144" s="9"/>
-      <c r="AB144" s="9"/>
-      <c r="AC144" s="9"/>
-      <c r="AD144" s="9"/>
-      <c r="AE144" s="9"/>
-      <c r="AF144" s="9"/>
-      <c r="AG144" s="9"/>
-      <c r="AH144" s="9"/>
-      <c r="AI144" s="9"/>
-      <c r="AJ144" s="9"/>
-      <c r="AK144" s="9"/>
-      <c r="AL144" s="9"/>
-      <c r="AM144" s="9"/>
-      <c r="AN144" s="9"/>
-      <c r="AO144" s="9"/>
-      <c r="AP144" s="9"/>
-      <c r="AQ144" s="9"/>
-      <c r="AR144" s="9"/>
-      <c r="AS144" s="9"/>
-      <c r="AT144" s="9"/>
-      <c r="AU144" s="9"/>
-      <c r="AV144" s="9"/>
-      <c r="AW144" s="9"/>
-      <c r="AX144" s="9"/>
-      <c r="AY144" s="9"/>
-      <c r="AZ144" s="9"/>
-      <c r="BA144" s="9"/>
-      <c r="BB144" s="9"/>
-      <c r="BC144" s="9"/>
-      <c r="BD144" s="9"/>
-      <c r="BE144" s="9"/>
-      <c r="BF144" s="9"/>
-      <c r="BG144" s="9"/>
-      <c r="BH144" s="9"/>
-      <c r="BI144" s="9"/>
-      <c r="BJ144" s="9"/>
-      <c r="BK144" s="9"/>
-      <c r="BL144" s="9"/>
-      <c r="BM144" s="9"/>
-      <c r="BN144" s="9"/>
-      <c r="BO144" s="9"/>
-      <c r="BP144" s="9"/>
-      <c r="BQ144" s="9"/>
-      <c r="BR144" s="9"/>
-      <c r="BS144" s="9"/>
-      <c r="BT144" s="9"/>
-      <c r="BU144" s="9"/>
-      <c r="BV144" s="9"/>
-      <c r="BW144" s="9"/>
-      <c r="BX144" s="9"/>
-      <c r="BY144" s="9"/>
-      <c r="BZ144" s="9"/>
-      <c r="CA144" s="9"/>
-      <c r="CB144" s="9"/>
-      <c r="CC144" s="9"/>
-      <c r="CD144" s="9"/>
-      <c r="CE144" s="9"/>
-      <c r="CF144" s="9"/>
-      <c r="CG144" s="9"/>
-      <c r="CH144" s="9"/>
-      <c r="CI144" s="9"/>
-      <c r="CJ144" s="9"/>
-      <c r="CK144" s="9"/>
-      <c r="CL144" s="9"/>
-      <c r="CM144" s="9"/>
-      <c r="CN144" s="9"/>
-      <c r="CO144" s="9"/>
-      <c r="CP144" s="9"/>
-      <c r="CQ144" s="9"/>
-      <c r="CR144" s="9"/>
-      <c r="CS144" s="9"/>
-      <c r="CT144" s="9"/>
-      <c r="CU144" s="9"/>
-      <c r="CV144" s="9"/>
-      <c r="CW144" s="9"/>
-      <c r="CX144" s="9"/>
-      <c r="CY144" s="9"/>
-      <c r="CZ144" s="9"/>
-      <c r="DA144" s="9"/>
-      <c r="DB144" s="9"/>
-      <c r="DC144" s="9"/>
-      <c r="DD144" s="9"/>
-      <c r="DE144" s="9"/>
-      <c r="DF144" s="9"/>
-      <c r="DG144" s="9"/>
-      <c r="DH144" s="9"/>
-      <c r="DI144" s="9"/>
-      <c r="DJ144" s="9"/>
-      <c r="DK144" s="9"/>
-      <c r="DL144" s="9"/>
-      <c r="DM144" s="9"/>
-      <c r="DN144" s="9"/>
-      <c r="DO144" s="9"/>
-      <c r="DP144" s="9"/>
-      <c r="DQ144" s="9"/>
-      <c r="DR144" s="9"/>
-      <c r="DS144" s="9"/>
-      <c r="DT144" s="9"/>
-      <c r="DU144" s="9"/>
-      <c r="DV144" s="9"/>
-      <c r="DW144" s="9"/>
-      <c r="DX144" s="9"/>
-      <c r="DY144" s="9"/>
-      <c r="DZ144" s="9"/>
-      <c r="EA144" s="9"/>
-      <c r="EB144" s="9"/>
-      <c r="EC144" s="9"/>
-      <c r="ED144" s="9"/>
-      <c r="EE144" s="9"/>
-      <c r="EF144" s="9"/>
-      <c r="EG144" s="9"/>
-      <c r="EH144" s="9"/>
-      <c r="EI144" s="9"/>
-      <c r="EJ144" s="9"/>
-      <c r="EK144" s="9"/>
-      <c r="EL144" s="9"/>
-      <c r="EM144" s="9"/>
-      <c r="EN144" s="9"/>
-      <c r="EO144" s="9"/>
-      <c r="EP144" s="9"/>
-      <c r="EQ144" s="9"/>
-      <c r="ER144" s="9"/>
-      <c r="ES144" s="9"/>
-      <c r="ET144" s="9"/>
-      <c r="EU144" s="9"/>
-      <c r="EV144" s="9"/>
-      <c r="EW144" s="9"/>
-      <c r="EX144" s="9"/>
-      <c r="EY144" s="9"/>
-      <c r="EZ144" s="9"/>
-      <c r="FA144" s="9"/>
-      <c r="FB144" s="9"/>
-      <c r="FC144" s="9"/>
-      <c r="FD144" s="9"/>
-      <c r="FE144" s="9"/>
-      <c r="FF144" s="9"/>
-      <c r="FG144" s="9"/>
-      <c r="FH144" s="9"/>
-      <c r="FI144" s="9"/>
-      <c r="FJ144" s="9"/>
-      <c r="FK144" s="9"/>
-      <c r="FL144" s="9"/>
-      <c r="FM144" s="9"/>
-      <c r="FN144" s="9"/>
-      <c r="FO144" s="9"/>
-      <c r="FP144" s="9"/>
-      <c r="FQ144" s="9"/>
-      <c r="FR144" s="9"/>
-      <c r="FS144" s="9"/>
-      <c r="FT144" s="9"/>
-      <c r="FU144" s="9"/>
-      <c r="FV144" s="9"/>
-      <c r="FW144" s="9"/>
-      <c r="FX144" s="9"/>
-      <c r="FY144" s="9"/>
-      <c r="FZ144" s="9"/>
-      <c r="GA144" s="9"/>
-      <c r="GB144" s="9"/>
-      <c r="GC144" s="9"/>
-      <c r="GD144" s="9"/>
-      <c r="GE144" s="9"/>
-      <c r="GF144" s="9"/>
-      <c r="GG144" s="9"/>
-      <c r="GH144" s="9"/>
-      <c r="GI144" s="9"/>
-      <c r="GJ144" s="9"/>
-      <c r="GK144" s="9"/>
-      <c r="GL144" s="9"/>
-      <c r="GM144" s="9"/>
-      <c r="GN144" s="9"/>
-      <c r="GO144" s="9"/>
-      <c r="GP144" s="9"/>
-      <c r="GQ144" s="9"/>
-      <c r="GR144" s="9"/>
-      <c r="GS144" s="9"/>
-      <c r="GT144" s="9"/>
-      <c r="GU144" s="9"/>
-      <c r="GV144" s="9"/>
-      <c r="GW144" s="9"/>
-      <c r="GX144" s="9"/>
-      <c r="GY144" s="9"/>
-      <c r="GZ144" s="9"/>
-      <c r="HA144" s="9"/>
-      <c r="HB144" s="9"/>
-      <c r="HC144" s="9"/>
-      <c r="HD144" s="9"/>
-      <c r="HE144" s="9"/>
-      <c r="HF144" s="9"/>
-      <c r="HG144" s="9"/>
-      <c r="HH144" s="9"/>
-      <c r="HI144" s="9"/>
-      <c r="HJ144" s="9"/>
-      <c r="HK144" s="9"/>
-      <c r="HL144" s="9"/>
-      <c r="HM144" s="9"/>
-      <c r="HN144" s="9"/>
-      <c r="HO144" s="9"/>
-      <c r="HP144" s="9"/>
-      <c r="HQ144" s="9"/>
-      <c r="HR144" s="9"/>
-      <c r="HS144" s="9"/>
-      <c r="HT144" s="9"/>
-      <c r="HU144" s="9"/>
-      <c r="HV144" s="9"/>
-      <c r="HW144" s="9"/>
-      <c r="HX144" s="9"/>
-      <c r="HY144" s="9"/>
-      <c r="HZ144" s="9"/>
-      <c r="IA144" s="9"/>
-      <c r="IB144" s="9"/>
-      <c r="IC144" s="9"/>
-      <c r="ID144" s="9"/>
-      <c r="IE144" s="9"/>
-      <c r="IF144" s="9"/>
-      <c r="IG144" s="9"/>
-      <c r="IH144" s="9"/>
-      <c r="II144" s="9"/>
-      <c r="IJ144" s="9"/>
-      <c r="IK144" s="9"/>
-      <c r="IL144" s="9"/>
-      <c r="IM144" s="9"/>
-      <c r="IN144" s="9"/>
-      <c r="IO144" s="9"/>
-      <c r="IP144" s="9"/>
-      <c r="IQ144" s="9"/>
-      <c r="IR144" s="9"/>
-      <c r="IS144" s="9"/>
-      <c r="IT144" s="9"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="5"/>
-    </row>
-    <row r="146" spans="1:8">
+    <row r="144" spans="1:8">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="1:254">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+      <c r="AB145" s="9"/>
+      <c r="AC145" s="9"/>
+      <c r="AD145" s="9"/>
+      <c r="AE145" s="9"/>
+      <c r="AF145" s="9"/>
+      <c r="AG145" s="9"/>
+      <c r="AH145" s="9"/>
+      <c r="AI145" s="9"/>
+      <c r="AJ145" s="9"/>
+      <c r="AK145" s="9"/>
+      <c r="AL145" s="9"/>
+      <c r="AM145" s="9"/>
+      <c r="AN145" s="9"/>
+      <c r="AO145" s="9"/>
+      <c r="AP145" s="9"/>
+      <c r="AQ145" s="9"/>
+      <c r="AR145" s="9"/>
+      <c r="AS145" s="9"/>
+      <c r="AT145" s="9"/>
+      <c r="AU145" s="9"/>
+      <c r="AV145" s="9"/>
+      <c r="AW145" s="9"/>
+      <c r="AX145" s="9"/>
+      <c r="AY145" s="9"/>
+      <c r="AZ145" s="9"/>
+      <c r="BA145" s="9"/>
+      <c r="BB145" s="9"/>
+      <c r="BC145" s="9"/>
+      <c r="BD145" s="9"/>
+      <c r="BE145" s="9"/>
+      <c r="BF145" s="9"/>
+      <c r="BG145" s="9"/>
+      <c r="BH145" s="9"/>
+      <c r="BI145" s="9"/>
+      <c r="BJ145" s="9"/>
+      <c r="BK145" s="9"/>
+      <c r="BL145" s="9"/>
+      <c r="BM145" s="9"/>
+      <c r="BN145" s="9"/>
+      <c r="BO145" s="9"/>
+      <c r="BP145" s="9"/>
+      <c r="BQ145" s="9"/>
+      <c r="BR145" s="9"/>
+      <c r="BS145" s="9"/>
+      <c r="BT145" s="9"/>
+      <c r="BU145" s="9"/>
+      <c r="BV145" s="9"/>
+      <c r="BW145" s="9"/>
+      <c r="BX145" s="9"/>
+      <c r="BY145" s="9"/>
+      <c r="BZ145" s="9"/>
+      <c r="CA145" s="9"/>
+      <c r="CB145" s="9"/>
+      <c r="CC145" s="9"/>
+      <c r="CD145" s="9"/>
+      <c r="CE145" s="9"/>
+      <c r="CF145" s="9"/>
+      <c r="CG145" s="9"/>
+      <c r="CH145" s="9"/>
+      <c r="CI145" s="9"/>
+      <c r="CJ145" s="9"/>
+      <c r="CK145" s="9"/>
+      <c r="CL145" s="9"/>
+      <c r="CM145" s="9"/>
+      <c r="CN145" s="9"/>
+      <c r="CO145" s="9"/>
+      <c r="CP145" s="9"/>
+      <c r="CQ145" s="9"/>
+      <c r="CR145" s="9"/>
+      <c r="CS145" s="9"/>
+      <c r="CT145" s="9"/>
+      <c r="CU145" s="9"/>
+      <c r="CV145" s="9"/>
+      <c r="CW145" s="9"/>
+      <c r="CX145" s="9"/>
+      <c r="CY145" s="9"/>
+      <c r="CZ145" s="9"/>
+      <c r="DA145" s="9"/>
+      <c r="DB145" s="9"/>
+      <c r="DC145" s="9"/>
+      <c r="DD145" s="9"/>
+      <c r="DE145" s="9"/>
+      <c r="DF145" s="9"/>
+      <c r="DG145" s="9"/>
+      <c r="DH145" s="9"/>
+      <c r="DI145" s="9"/>
+      <c r="DJ145" s="9"/>
+      <c r="DK145" s="9"/>
+      <c r="DL145" s="9"/>
+      <c r="DM145" s="9"/>
+      <c r="DN145" s="9"/>
+      <c r="DO145" s="9"/>
+      <c r="DP145" s="9"/>
+      <c r="DQ145" s="9"/>
+      <c r="DR145" s="9"/>
+      <c r="DS145" s="9"/>
+      <c r="DT145" s="9"/>
+      <c r="DU145" s="9"/>
+      <c r="DV145" s="9"/>
+      <c r="DW145" s="9"/>
+      <c r="DX145" s="9"/>
+      <c r="DY145" s="9"/>
+      <c r="DZ145" s="9"/>
+      <c r="EA145" s="9"/>
+      <c r="EB145" s="9"/>
+      <c r="EC145" s="9"/>
+      <c r="ED145" s="9"/>
+      <c r="EE145" s="9"/>
+      <c r="EF145" s="9"/>
+      <c r="EG145" s="9"/>
+      <c r="EH145" s="9"/>
+      <c r="EI145" s="9"/>
+      <c r="EJ145" s="9"/>
+      <c r="EK145" s="9"/>
+      <c r="EL145" s="9"/>
+      <c r="EM145" s="9"/>
+      <c r="EN145" s="9"/>
+      <c r="EO145" s="9"/>
+      <c r="EP145" s="9"/>
+      <c r="EQ145" s="9"/>
+      <c r="ER145" s="9"/>
+      <c r="ES145" s="9"/>
+      <c r="ET145" s="9"/>
+      <c r="EU145" s="9"/>
+      <c r="EV145" s="9"/>
+      <c r="EW145" s="9"/>
+      <c r="EX145" s="9"/>
+      <c r="EY145" s="9"/>
+      <c r="EZ145" s="9"/>
+      <c r="FA145" s="9"/>
+      <c r="FB145" s="9"/>
+      <c r="FC145" s="9"/>
+      <c r="FD145" s="9"/>
+      <c r="FE145" s="9"/>
+      <c r="FF145" s="9"/>
+      <c r="FG145" s="9"/>
+      <c r="FH145" s="9"/>
+      <c r="FI145" s="9"/>
+      <c r="FJ145" s="9"/>
+      <c r="FK145" s="9"/>
+      <c r="FL145" s="9"/>
+      <c r="FM145" s="9"/>
+      <c r="FN145" s="9"/>
+      <c r="FO145" s="9"/>
+      <c r="FP145" s="9"/>
+      <c r="FQ145" s="9"/>
+      <c r="FR145" s="9"/>
+      <c r="FS145" s="9"/>
+      <c r="FT145" s="9"/>
+      <c r="FU145" s="9"/>
+      <c r="FV145" s="9"/>
+      <c r="FW145" s="9"/>
+      <c r="FX145" s="9"/>
+      <c r="FY145" s="9"/>
+      <c r="FZ145" s="9"/>
+      <c r="GA145" s="9"/>
+      <c r="GB145" s="9"/>
+      <c r="GC145" s="9"/>
+      <c r="GD145" s="9"/>
+      <c r="GE145" s="9"/>
+      <c r="GF145" s="9"/>
+      <c r="GG145" s="9"/>
+      <c r="GH145" s="9"/>
+      <c r="GI145" s="9"/>
+      <c r="GJ145" s="9"/>
+      <c r="GK145" s="9"/>
+      <c r="GL145" s="9"/>
+      <c r="GM145" s="9"/>
+      <c r="GN145" s="9"/>
+      <c r="GO145" s="9"/>
+      <c r="GP145" s="9"/>
+      <c r="GQ145" s="9"/>
+      <c r="GR145" s="9"/>
+      <c r="GS145" s="9"/>
+      <c r="GT145" s="9"/>
+      <c r="GU145" s="9"/>
+      <c r="GV145" s="9"/>
+      <c r="GW145" s="9"/>
+      <c r="GX145" s="9"/>
+      <c r="GY145" s="9"/>
+      <c r="GZ145" s="9"/>
+      <c r="HA145" s="9"/>
+      <c r="HB145" s="9"/>
+      <c r="HC145" s="9"/>
+      <c r="HD145" s="9"/>
+      <c r="HE145" s="9"/>
+      <c r="HF145" s="9"/>
+      <c r="HG145" s="9"/>
+      <c r="HH145" s="9"/>
+      <c r="HI145" s="9"/>
+      <c r="HJ145" s="9"/>
+      <c r="HK145" s="9"/>
+      <c r="HL145" s="9"/>
+      <c r="HM145" s="9"/>
+      <c r="HN145" s="9"/>
+      <c r="HO145" s="9"/>
+      <c r="HP145" s="9"/>
+      <c r="HQ145" s="9"/>
+      <c r="HR145" s="9"/>
+      <c r="HS145" s="9"/>
+      <c r="HT145" s="9"/>
+      <c r="HU145" s="9"/>
+      <c r="HV145" s="9"/>
+      <c r="HW145" s="9"/>
+      <c r="HX145" s="9"/>
+      <c r="HY145" s="9"/>
+      <c r="HZ145" s="9"/>
+      <c r="IA145" s="9"/>
+      <c r="IB145" s="9"/>
+      <c r="IC145" s="9"/>
+      <c r="ID145" s="9"/>
+      <c r="IE145" s="9"/>
+      <c r="IF145" s="9"/>
+      <c r="IG145" s="9"/>
+      <c r="IH145" s="9"/>
+      <c r="II145" s="9"/>
+      <c r="IJ145" s="9"/>
+      <c r="IK145" s="9"/>
+      <c r="IL145" s="9"/>
+      <c r="IM145" s="9"/>
+      <c r="IN145" s="9"/>
+      <c r="IO145" s="9"/>
+      <c r="IP145" s="9"/>
+      <c r="IQ145" s="9"/>
+      <c r="IR145" s="9"/>
+      <c r="IS145" s="9"/>
+      <c r="IT145" s="9"/>
+    </row>
+    <row r="146" spans="1:254">
       <c r="A146" s="5"/>
-      <c r="B146" s="3"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -8774,9 +8920,9 @@
       <c r="G146" s="14"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:254">
       <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -8784,9 +8930,9 @@
       <c r="G147" s="14"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:254">
       <c r="A148" s="5"/>
-      <c r="B148" s="4"/>
+      <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -8794,9 +8940,9 @@
       <c r="G148" s="14"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:254">
       <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -8804,7 +8950,7 @@
       <c r="G149" s="14"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:254">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -8814,7 +8960,7 @@
       <c r="G150" s="14"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:254">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -8824,7 +8970,7 @@
       <c r="G151" s="14"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:254">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -8834,7 +8980,7 @@
       <c r="G152" s="14"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:254">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -8844,7 +8990,7 @@
       <c r="G153" s="14"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:254">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -8854,9 +9000,9 @@
       <c r="G154" s="14"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:254">
       <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -8864,7 +9010,7 @@
       <c r="G155" s="14"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:254">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="5"/>
@@ -8874,9 +9020,9 @@
       <c r="G156" s="14"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:254">
       <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -8884,9 +9030,9 @@
       <c r="G157" s="14"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:254">
       <c r="A158" s="5"/>
-      <c r="B158" s="4"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -8894,7 +9040,7 @@
       <c r="G158" s="14"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:254">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -8904,9 +9050,9 @@
       <c r="G159" s="14"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:254">
       <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="4"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -8926,7 +9072,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="5"/>
-      <c r="B162" s="4"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -8946,7 +9092,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
+      <c r="B164" s="4"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -8966,7 +9112,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="5"/>
-      <c r="B166" s="4"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -8986,7 +9132,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
+      <c r="B168" s="4"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -9026,7 +9172,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="5"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -9036,7 +9182,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
+      <c r="B173" s="3"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -9046,7 +9192,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="5"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -9116,7 +9262,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -9126,7 +9272,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="5"/>
-      <c r="B182" s="4"/>
+      <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -9136,7 +9282,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="4"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -9156,7 +9302,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="5"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="6"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -9206,7 +9352,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
+      <c r="B190" s="4"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -9226,7 +9372,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="5"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -9286,7 +9432,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -9326,7 +9472,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
+      <c r="B202" s="6"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -9336,7 +9482,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="5"/>
-      <c r="B203" s="3"/>
+      <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -9346,7 +9492,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -9356,7 +9502,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="5"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -9406,7 +9552,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -9416,7 +9562,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="5"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -9466,7 +9612,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
+      <c r="B216" s="4"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -9526,7 +9672,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
+      <c r="B222" s="6"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -9536,7 +9682,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="5"/>
-      <c r="B223" s="3"/>
+      <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -9546,7 +9692,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
+      <c r="B224" s="3"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -9556,7 +9702,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="5"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -9566,7 +9712,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -9576,7 +9722,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="5"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -9616,7 +9762,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -9626,7 +9772,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="5"/>
-      <c r="B232" s="4"/>
+      <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -9636,7 +9782,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="5"/>
-      <c r="B233" s="8"/>
+      <c r="B233" s="4"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -9656,7 +9802,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="5"/>
-      <c r="B235" s="4"/>
+      <c r="B235" s="8"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -9696,7 +9842,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
+      <c r="B239" s="4"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -9706,7 +9852,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="5"/>
-      <c r="B240" s="4"/>
+      <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -9756,7 +9902,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
+      <c r="B245" s="4"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -9766,7 +9912,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="5"/>
-      <c r="B246" s="4"/>
+      <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -9776,7 +9922,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
+      <c r="B247" s="4"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -9786,7 +9932,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="5"/>
-      <c r="B248" s="4"/>
+      <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -9796,7 +9942,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="5"/>
-      <c r="B249" s="8"/>
+      <c r="B249" s="4"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -9846,7 +9992,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="5"/>
-      <c r="B254" s="4"/>
+      <c r="B254" s="8"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -9856,7 +10002,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="5"/>
-      <c r="B255" s="8"/>
+      <c r="B255" s="4"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -9866,7 +10012,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="5"/>
-      <c r="B256" s="28"/>
+      <c r="B256" s="8"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -9906,7 +10052,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="5"/>
-      <c r="B260" s="8"/>
+      <c r="B260" s="28"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -9946,7 +10092,7 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="5"/>
-      <c r="B264" s="28"/>
+      <c r="B264" s="8"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -9976,7 +10122,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="5"/>
-      <c r="B267" s="8"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9986,7 +10132,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="5"/>
-      <c r="B268" s="28"/>
+      <c r="B268" s="8"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -10026,7 +10172,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="5"/>
-      <c r="B272" s="8"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -10036,7 +10182,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="5"/>
-      <c r="B273" s="28"/>
+      <c r="B273" s="8"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -10066,7 +10212,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="5"/>
-      <c r="B276" s="6"/>
+      <c r="B276" s="28"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -10076,7 +10222,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
+      <c r="B277" s="6"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -10096,7 +10242,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="5"/>
-      <c r="B279" s="4"/>
+      <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -10116,7 +10262,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
+      <c r="B281" s="4"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -10156,7 +10302,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="5"/>
-      <c r="B285" s="3"/>
+      <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -10166,7 +10312,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
+      <c r="B286" s="3"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -10246,7 +10392,7 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="5"/>
-      <c r="B294" s="3"/>
+      <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10256,7 +10402,7 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
+      <c r="B295" s="3"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10266,7 +10412,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="5"/>
-      <c r="B296" s="4"/>
+      <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -10296,7 +10442,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -10356,7 +10502,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="5"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -10376,7 +10522,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="5"/>
-      <c r="B307" s="6"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10386,7 +10532,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
+      <c r="B308" s="6"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10396,7 +10542,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="5"/>
-      <c r="B309" s="3"/>
+      <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -10406,7 +10552,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="5"/>
-      <c r="B310" s="5"/>
+      <c r="B310" s="3"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -10436,7 +10582,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="5"/>
-      <c r="B313" s="4"/>
+      <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10486,7 +10632,7 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="5"/>
-      <c r="B318" s="8"/>
+      <c r="B318" s="4"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10536,7 +10682,7 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="5"/>
-      <c r="B323" s="6"/>
+      <c r="B323" s="8"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -10586,7 +10732,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="5"/>
-      <c r="B328" s="4"/>
+      <c r="B328" s="6"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -10596,7 +10742,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="5"/>
-      <c r="B329" s="6"/>
+      <c r="B329" s="4"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -10606,7 +10752,7 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -10616,7 +10762,7 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="5"/>
-      <c r="B331" s="3"/>
+      <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -10626,7 +10772,7 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="5"/>
-      <c r="B332" s="5"/>
+      <c r="B332" s="3"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -10716,7 +10862,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="5"/>
-      <c r="B341" s="3"/>
+      <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -10726,7 +10872,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="5"/>
-      <c r="B342" s="5"/>
+      <c r="B342" s="3"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -10736,7 +10882,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="5"/>
-      <c r="B343" s="6"/>
+      <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -10746,7 +10892,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="5"/>
-      <c r="B344" s="5"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -10786,7 +10932,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="5"/>
-      <c r="B348" s="3"/>
+      <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -10796,7 +10942,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="5"/>
-      <c r="B349" s="5"/>
+      <c r="B349" s="3"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -10806,7 +10952,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="5"/>
-      <c r="B350" s="4"/>
+      <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -10836,7 +10982,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="5"/>
-      <c r="B353" s="6"/>
+      <c r="B353" s="4"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -10846,7 +10992,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="5"/>
-      <c r="B354" s="4"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -10866,7 +11012,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="5"/>
-      <c r="B356" s="6"/>
+      <c r="B356" s="4"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -10876,7 +11022,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="5"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="6"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -10886,7 +11032,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="5"/>
-      <c r="B358" s="6"/>
+      <c r="B358" s="4"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -10896,7 +11042,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="5"/>
-      <c r="B359" s="4"/>
+      <c r="B359" s="6"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -10926,7 +11072,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="5"/>
-      <c r="B362" s="5"/>
+      <c r="B362" s="4"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -10936,7 +11082,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="5"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -10946,7 +11092,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="5"/>
-      <c r="B364" s="6"/>
+      <c r="B364" s="7"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -10956,7 +11102,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="5"/>
-      <c r="B365" s="5"/>
+      <c r="B365" s="6"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -10966,7 +11112,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="5"/>
-      <c r="B366" s="4"/>
+      <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -10996,7 +11142,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="5"/>
-      <c r="B369" s="5"/>
+      <c r="B369" s="4"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -11026,7 +11172,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="5"/>
-      <c r="B372" s="4"/>
+      <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -11046,7 +11192,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="5"/>
-      <c r="B374" s="5"/>
+      <c r="B374" s="4"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -11056,7 +11202,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="5"/>
-      <c r="B375" s="3"/>
+      <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -11066,7 +11212,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="5"/>
-      <c r="B376" s="5"/>
+      <c r="B376" s="3"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -11126,7 +11272,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="5"/>
-      <c r="B382" s="3"/>
+      <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -11136,7 +11282,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="5"/>
-      <c r="B383" s="5"/>
+      <c r="B383" s="3"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -11166,7 +11312,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="5"/>
-      <c r="B386" s="4"/>
+      <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -11186,7 +11332,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="5"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="4"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -11196,7 +11342,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="5"/>
-      <c r="B389" s="6"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -11246,7 +11392,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="5"/>
-      <c r="B394" s="5"/>
+      <c r="B394" s="6"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -11256,7 +11402,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="5"/>
-      <c r="B395" s="3"/>
+      <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -11266,7 +11412,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="5"/>
-      <c r="B396" s="5"/>
+      <c r="B396" s="3"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -11276,7 +11422,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="5"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -11286,7 +11432,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="5"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="4"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -11306,7 +11452,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="5"/>
-      <c r="B400" s="4"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -11346,7 +11492,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
+      <c r="B404" s="4"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -11356,7 +11502,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="5"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -11376,7 +11522,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="5"/>
-      <c r="B407" s="6"/>
+      <c r="B407" s="4"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -11386,7 +11532,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="5"/>
-      <c r="B408" s="5"/>
+      <c r="B408" s="6"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -11396,7 +11542,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="5"/>
-      <c r="B409" s="3"/>
+      <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -11406,7 +11552,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="5"/>
-      <c r="B410" s="5"/>
+      <c r="B410" s="3"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -11426,7 +11572,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="5"/>
-      <c r="B412" s="3"/>
+      <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -11436,7 +11582,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="5"/>
-      <c r="B413" s="5"/>
+      <c r="B413" s="3"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -11446,7 +11592,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="5"/>
-      <c r="B414" s="4"/>
+      <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -11466,7 +11612,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="5"/>
-      <c r="B416" s="5"/>
+      <c r="B416" s="4"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -11476,7 +11622,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="5"/>
-      <c r="B417" s="3"/>
+      <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -11486,7 +11632,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="5"/>
-      <c r="B418" s="5"/>
+      <c r="B418" s="3"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -11536,7 +11682,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="5"/>
-      <c r="B423" s="3"/>
+      <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -11546,7 +11692,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="5"/>
-      <c r="B424" s="5"/>
+      <c r="B424" s="3"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -11606,7 +11752,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="5"/>
-      <c r="B430" s="3"/>
+      <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -11616,7 +11762,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="5"/>
-      <c r="B431" s="5"/>
+      <c r="B431" s="3"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -11636,7 +11782,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="5"/>
-      <c r="B433" s="3"/>
+      <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -11646,7 +11792,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="5"/>
-      <c r="B434" s="5"/>
+      <c r="B434" s="3"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -11696,7 +11842,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="5"/>
-      <c r="B439" s="3"/>
+      <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -11706,7 +11852,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="5"/>
-      <c r="B440" s="5"/>
+      <c r="B440" s="3"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -11766,7 +11912,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="5"/>
-      <c r="B446" s="3"/>
+      <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -11776,7 +11922,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="5"/>
-      <c r="B447" s="5"/>
+      <c r="B447" s="3"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -11826,7 +11972,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="5"/>
-      <c r="B452" s="3"/>
+      <c r="B452" s="5"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -11836,7 +11982,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="5"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="3"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -11896,7 +12042,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="5"/>
-      <c r="B459" s="5"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -11906,7 +12052,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="5"/>
-      <c r="B460" s="3"/>
+      <c r="B460" s="5"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -11916,7 +12062,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="5"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="3"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -11945,8 +12091,8 @@
       <c r="H463" s="5"/>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="3"/>
-      <c r="B464" s="5"/>
+      <c r="A464" s="5"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -11955,7 +12101,7 @@
       <c r="H464" s="5"/>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="5"/>
+      <c r="A465" s="3"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
@@ -11996,7 +12142,7 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" s="5"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="5"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -12026,7 +12172,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="5"/>
-      <c r="B472" s="5"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -12036,7 +12182,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="5"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="5"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -12046,7 +12192,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="5"/>
-      <c r="B474" s="5"/>
+      <c r="B474" s="16"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -12056,21 +12202,21 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="5"/>
-      <c r="B475" s="29"/>
-      <c r="C475" s="14"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
-      <c r="F475" s="29"/>
+      <c r="F475" s="5"/>
       <c r="G475" s="14"/>
       <c r="H475" s="5"/>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="5"/>
-      <c r="B476" s="5"/>
-      <c r="C476" s="5"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="14"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
-      <c r="F476" s="5"/>
+      <c r="F476" s="29"/>
       <c r="G476" s="14"/>
       <c r="H476" s="5"/>
     </row>
@@ -15974,6 +16120,16 @@
       <c r="G866" s="14"/>
       <c r="H866" s="5"/>
     </row>
+    <row r="867" spans="1:8">
+      <c r="A867" s="5"/>
+      <c r="B867" s="5"/>
+      <c r="C867" s="5"/>
+      <c r="D867" s="5"/>
+      <c r="E867" s="5"/>
+      <c r="F867" s="5"/>
+      <c r="G867" s="14"/>
+      <c r="H867" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
